--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD3AB8-6EB9-B44A-BC30-73226499990B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824FF85-444A-BA45-8574-E8E811CFEEB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1878,7 +1878,7 @@
   <dimension ref="A1:S402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J301" sqref="J301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1978,6 +1978,13 @@
       <c r="K2" t="s">
         <v>332</v>
       </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <f>(F2)*(L2-G2)</f>
+        <v>35.840000000000003</v>
+      </c>
       <c r="N2" t="s">
         <v>398</v>
       </c>
@@ -2019,6 +2026,13 @@
       <c r="K3" t="s">
         <v>332</v>
       </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3" t="e">
+        <f>(F3)*(L3-G3)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="N3" t="s">
         <v>398</v>
       </c>
@@ -2060,6 +2074,13 @@
       <c r="K4" t="s">
         <v>332</v>
       </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <f>(F4)*(L4-G4)</f>
+        <v>76.95</v>
+      </c>
       <c r="N4" t="s">
         <v>398</v>
       </c>
@@ -2101,6 +2122,13 @@
       <c r="K5" t="s">
         <v>332</v>
       </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="0">(F5)*(L5-G5)</f>
+        <v>0</v>
+      </c>
       <c r="N5" t="s">
         <v>398</v>
       </c>
@@ -2142,6 +2170,13 @@
       <c r="K6" t="s">
         <v>332</v>
       </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="N6" t="s">
         <v>398</v>
       </c>
@@ -2183,6 +2218,13 @@
       <c r="K7" t="s">
         <v>332</v>
       </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N7" t="s">
         <v>398</v>
       </c>
@@ -2224,6 +2266,13 @@
       <c r="K8" t="s">
         <v>332</v>
       </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <f>(F8)*(L8-G8)</f>
+        <v>0</v>
+      </c>
       <c r="N8" t="s">
         <v>398</v>
       </c>
@@ -2265,6 +2314,13 @@
       <c r="K9" t="s">
         <v>332</v>
       </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M11" si="1">(F9)*(L9-G9)</f>
+        <v>81</v>
+      </c>
       <c r="N9" t="s">
         <v>398</v>
       </c>
@@ -2306,6 +2362,13 @@
       <c r="K10" t="s">
         <v>332</v>
       </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>52.199999999999996</v>
+      </c>
       <c r="N10" t="s">
         <v>398</v>
       </c>
@@ -2347,6 +2410,13 @@
       <c r="K11" t="s">
         <v>332</v>
       </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>232.20000000000002</v>
+      </c>
       <c r="N11" t="s">
         <v>398</v>
       </c>
@@ -8482,6 +8552,13 @@
       <c r="K170" t="s">
         <v>332</v>
       </c>
+      <c r="L170">
+        <v>14</v>
+      </c>
+      <c r="M170" t="e">
+        <f>(F170)*(L170-G170)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="N170" t="s">
         <v>398</v>
       </c>
@@ -8523,6 +8600,13 @@
       <c r="K171" t="s">
         <v>332</v>
       </c>
+      <c r="L171">
+        <v>14</v>
+      </c>
+      <c r="M171">
+        <f t="shared" ref="M171:M209" si="2">(F171)*(L171-G171)</f>
+        <v>234</v>
+      </c>
       <c r="N171" t="s">
         <v>398</v>
       </c>
@@ -8564,6 +8648,13 @@
       <c r="K172" t="s">
         <v>332</v>
       </c>
+      <c r="L172">
+        <v>14</v>
+      </c>
+      <c r="M172" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N172" t="s">
         <v>398</v>
       </c>
@@ -8605,6 +8696,13 @@
       <c r="K173" t="s">
         <v>332</v>
       </c>
+      <c r="L173">
+        <v>14</v>
+      </c>
+      <c r="M173" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N173" t="s">
         <v>398</v>
       </c>
@@ -8646,6 +8744,13 @@
       <c r="K174" t="s">
         <v>332</v>
       </c>
+      <c r="L174">
+        <v>14</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>224.9</v>
+      </c>
       <c r="N174" t="s">
         <v>398</v>
       </c>
@@ -8687,6 +8792,13 @@
       <c r="K175" t="s">
         <v>332</v>
       </c>
+      <c r="L175">
+        <v>14</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>387.40000000000003</v>
+      </c>
       <c r="N175" t="s">
         <v>398</v>
       </c>
@@ -8728,6 +8840,13 @@
       <c r="K176" t="s">
         <v>332</v>
       </c>
+      <c r="L176">
+        <v>14</v>
+      </c>
+      <c r="M176" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N176" t="s">
         <v>398</v>
       </c>
@@ -8769,6 +8888,13 @@
       <c r="K177" t="s">
         <v>332</v>
       </c>
+      <c r="L177">
+        <v>14</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>68.64</v>
+      </c>
       <c r="N177" t="s">
         <v>398</v>
       </c>
@@ -8810,6 +8936,13 @@
       <c r="K178" t="s">
         <v>332</v>
       </c>
+      <c r="L178">
+        <v>14</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>108.94000000000001</v>
+      </c>
       <c r="N178" t="s">
         <v>398</v>
       </c>
@@ -8851,6 +8984,13 @@
       <c r="K179" t="s">
         <v>332</v>
       </c>
+      <c r="L179">
+        <v>14</v>
+      </c>
+      <c r="M179" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N179" t="s">
         <v>398</v>
       </c>
@@ -8892,6 +9032,13 @@
       <c r="K180" t="s">
         <v>332</v>
       </c>
+      <c r="L180">
+        <v>14</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>90.22</v>
+      </c>
       <c r="N180" t="s">
         <v>398</v>
       </c>
@@ -8933,6 +9080,13 @@
       <c r="K181" t="s">
         <v>332</v>
       </c>
+      <c r="L181">
+        <v>14</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
       <c r="N181" t="s">
         <v>398</v>
       </c>
@@ -8974,6 +9128,13 @@
       <c r="K182" t="s">
         <v>332</v>
       </c>
+      <c r="L182">
+        <v>14</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>94.64</v>
+      </c>
       <c r="N182" t="s">
         <v>398</v>
       </c>
@@ -9015,6 +9176,13 @@
       <c r="K183" t="s">
         <v>332</v>
       </c>
+      <c r="L183">
+        <v>14</v>
+      </c>
+      <c r="M183" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N183" t="s">
         <v>398</v>
       </c>
@@ -9056,6 +9224,13 @@
       <c r="K184" t="s">
         <v>332</v>
       </c>
+      <c r="L184">
+        <v>14</v>
+      </c>
+      <c r="M184" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N184" t="s">
         <v>398</v>
       </c>
@@ -9097,6 +9272,13 @@
       <c r="K185" t="s">
         <v>332</v>
       </c>
+      <c r="L185">
+        <v>14</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>93.600000000000009</v>
+      </c>
       <c r="N185" t="s">
         <v>398</v>
       </c>
@@ -9138,6 +9320,13 @@
       <c r="K186" t="s">
         <v>332</v>
       </c>
+      <c r="L186">
+        <v>14</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>206.70000000000002</v>
+      </c>
       <c r="N186" t="s">
         <v>398</v>
       </c>
@@ -9179,6 +9368,13 @@
       <c r="K187" t="s">
         <v>332</v>
       </c>
+      <c r="L187">
+        <v>14</v>
+      </c>
+      <c r="M187" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N187" t="s">
         <v>398</v>
       </c>
@@ -9220,6 +9416,13 @@
       <c r="K188" t="s">
         <v>332</v>
       </c>
+      <c r="L188">
+        <v>14</v>
+      </c>
+      <c r="M188" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N188" t="s">
         <v>398</v>
       </c>
@@ -9261,6 +9464,13 @@
       <c r="K189" t="s">
         <v>332</v>
       </c>
+      <c r="L189">
+        <v>14</v>
+      </c>
+      <c r="M189" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N189" t="s">
         <v>398</v>
       </c>
@@ -9302,6 +9512,13 @@
       <c r="K190" t="s">
         <v>332</v>
       </c>
+      <c r="L190">
+        <v>14</v>
+      </c>
+      <c r="M190" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N190" t="s">
         <v>398</v>
       </c>
@@ -9343,6 +9560,13 @@
       <c r="K191" t="s">
         <v>332</v>
       </c>
+      <c r="L191">
+        <v>14</v>
+      </c>
+      <c r="M191" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N191" t="s">
         <v>398</v>
       </c>
@@ -9384,6 +9608,13 @@
       <c r="K192" t="s">
         <v>332</v>
       </c>
+      <c r="L192">
+        <v>14</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>62.4</v>
+      </c>
       <c r="N192" t="s">
         <v>398</v>
       </c>
@@ -9425,6 +9656,13 @@
       <c r="K193" t="s">
         <v>332</v>
       </c>
+      <c r="L193">
+        <v>14</v>
+      </c>
+      <c r="M193" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N193" t="s">
         <v>398</v>
       </c>
@@ -9466,6 +9704,13 @@
       <c r="K194" t="s">
         <v>332</v>
       </c>
+      <c r="L194">
+        <v>14</v>
+      </c>
+      <c r="M194" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N194" t="s">
         <v>398</v>
       </c>
@@ -9507,6 +9752,13 @@
       <c r="K195" t="s">
         <v>332</v>
       </c>
+      <c r="L195">
+        <v>14</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="2"/>
+        <v>89.18</v>
+      </c>
       <c r="N195" t="s">
         <v>398</v>
       </c>
@@ -9548,6 +9800,13 @@
       <c r="K196" t="s">
         <v>332</v>
       </c>
+      <c r="L196">
+        <v>14</v>
+      </c>
+      <c r="M196" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N196" t="s">
         <v>398</v>
       </c>
@@ -9589,6 +9848,13 @@
       <c r="K197" t="s">
         <v>332</v>
       </c>
+      <c r="L197">
+        <v>14</v>
+      </c>
+      <c r="M197" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N197" t="s">
         <v>398</v>
       </c>
@@ -9630,6 +9896,13 @@
       <c r="K198" t="s">
         <v>332</v>
       </c>
+      <c r="L198">
+        <v>14</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="2"/>
+        <v>118.55999999999999</v>
+      </c>
       <c r="N198" t="s">
         <v>398</v>
       </c>
@@ -9671,6 +9944,13 @@
       <c r="K199" t="s">
         <v>332</v>
       </c>
+      <c r="L199">
+        <v>14</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="2"/>
+        <v>71.759999999999991</v>
+      </c>
       <c r="N199" t="s">
         <v>398</v>
       </c>
@@ -9712,6 +9992,13 @@
       <c r="K200" t="s">
         <v>332</v>
       </c>
+      <c r="L200">
+        <v>14</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="2"/>
+        <v>126.62</v>
+      </c>
       <c r="N200" t="s">
         <v>398</v>
       </c>
@@ -9753,6 +10040,13 @@
       <c r="K201" t="s">
         <v>332</v>
       </c>
+      <c r="L201">
+        <v>14</v>
+      </c>
+      <c r="M201" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N201" t="s">
         <v>398</v>
       </c>
@@ -9794,6 +10088,13 @@
       <c r="K202" t="s">
         <v>332</v>
       </c>
+      <c r="L202">
+        <v>14</v>
+      </c>
+      <c r="M202" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N202" t="s">
         <v>398</v>
       </c>
@@ -9835,6 +10136,13 @@
       <c r="K203" t="s">
         <v>332</v>
       </c>
+      <c r="L203">
+        <v>14</v>
+      </c>
+      <c r="M203" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N203" t="s">
         <v>398</v>
       </c>
@@ -9876,6 +10184,13 @@
       <c r="K204" t="s">
         <v>332</v>
       </c>
+      <c r="L204">
+        <v>14</v>
+      </c>
+      <c r="M204" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N204" t="s">
         <v>398</v>
       </c>
@@ -9917,6 +10232,13 @@
       <c r="K205" t="s">
         <v>332</v>
       </c>
+      <c r="L205">
+        <v>14</v>
+      </c>
+      <c r="M205" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N205" t="s">
         <v>398</v>
       </c>
@@ -9958,6 +10280,13 @@
       <c r="K206" t="s">
         <v>332</v>
       </c>
+      <c r="L206">
+        <v>14</v>
+      </c>
+      <c r="M206" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N206" t="s">
         <v>398</v>
       </c>
@@ -9999,6 +10328,13 @@
       <c r="K207" t="s">
         <v>332</v>
       </c>
+      <c r="L207">
+        <v>14</v>
+      </c>
+      <c r="M207" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N207" t="s">
         <v>398</v>
       </c>
@@ -10040,6 +10376,13 @@
       <c r="K208" t="s">
         <v>332</v>
       </c>
+      <c r="L208">
+        <v>14</v>
+      </c>
+      <c r="M208" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N208" t="s">
         <v>398</v>
       </c>
@@ -10081,6 +10424,13 @@
       <c r="K209" t="s">
         <v>332</v>
       </c>
+      <c r="L209">
+        <v>14</v>
+      </c>
+      <c r="M209" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N209" t="s">
         <v>398</v>
       </c>
@@ -11106,6 +11456,13 @@
       <c r="K234" t="s">
         <v>332</v>
       </c>
+      <c r="L234">
+        <v>14</v>
+      </c>
+      <c r="M234">
+        <f>(F234)*(L234-G234)</f>
+        <v>371.8</v>
+      </c>
       <c r="N234" t="s">
         <v>398</v>
       </c>
@@ -11147,6 +11504,13 @@
       <c r="K235" t="s">
         <v>332</v>
       </c>
+      <c r="L235">
+        <v>14</v>
+      </c>
+      <c r="M235">
+        <f t="shared" ref="M235:M245" si="3">(F235)*(L235-G235)</f>
+        <v>325</v>
+      </c>
       <c r="N235" t="s">
         <v>398</v>
       </c>
@@ -11234,6 +11598,13 @@
       <c r="K238" t="s">
         <v>332</v>
       </c>
+      <c r="L238">
+        <v>14</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="3"/>
+        <v>522.6</v>
+      </c>
       <c r="N238" t="s">
         <v>398</v>
       </c>
@@ -11275,6 +11646,13 @@
       <c r="K239" t="s">
         <v>332</v>
       </c>
+      <c r="L239">
+        <v>14</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="3"/>
+        <v>852.8</v>
+      </c>
       <c r="N239" t="s">
         <v>398</v>
       </c>
@@ -11316,6 +11694,13 @@
       <c r="K240" t="s">
         <v>332</v>
       </c>
+      <c r="L240">
+        <v>14</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="3"/>
+        <v>270.40000000000003</v>
+      </c>
       <c r="N240" t="s">
         <v>398</v>
       </c>
@@ -11357,6 +11742,13 @@
       <c r="K241" t="s">
         <v>332</v>
       </c>
+      <c r="L241">
+        <v>14</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="3"/>
+        <v>483.6</v>
+      </c>
       <c r="N241" t="s">
         <v>398</v>
       </c>
@@ -11398,6 +11790,13 @@
       <c r="K242" t="s">
         <v>332</v>
       </c>
+      <c r="L242">
+        <v>14</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="3"/>
+        <v>772.19999999999993</v>
+      </c>
       <c r="N242" t="s">
         <v>398</v>
       </c>
@@ -11439,6 +11838,13 @@
       <c r="K243" t="s">
         <v>332</v>
       </c>
+      <c r="L243">
+        <v>14</v>
+      </c>
+      <c r="M243">
+        <f t="shared" si="3"/>
+        <v>231.4</v>
+      </c>
       <c r="N243" t="s">
         <v>398</v>
       </c>
@@ -11480,6 +11886,13 @@
       <c r="K244" t="s">
         <v>332</v>
       </c>
+      <c r="L244">
+        <v>14</v>
+      </c>
+      <c r="M244" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N244" t="s">
         <v>398</v>
       </c>
@@ -11521,6 +11934,13 @@
       <c r="K245" t="s">
         <v>332</v>
       </c>
+      <c r="L245">
+        <v>14</v>
+      </c>
+      <c r="M245" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N245" t="s">
         <v>398</v>
       </c>
@@ -11784,6 +12204,9 @@
       <c r="F255" t="s">
         <v>4</v>
       </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
       <c r="I255" t="s">
         <v>400</v>
       </c>
@@ -11793,6 +12216,13 @@
       <c r="K255" t="s">
         <v>332</v>
       </c>
+      <c r="L255">
+        <v>14</v>
+      </c>
+      <c r="M255" t="e">
+        <f>(F255)*(L255-G255)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="N255" t="s">
         <v>399</v>
       </c>
@@ -11813,6 +12243,9 @@
       <c r="F256" t="s">
         <v>4</v>
       </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
       <c r="I256" t="s">
         <v>401</v>
       </c>
@@ -11822,6 +12255,13 @@
       <c r="K256" t="s">
         <v>332</v>
       </c>
+      <c r="L256">
+        <v>14</v>
+      </c>
+      <c r="M256" t="e">
+        <f t="shared" ref="M256:M300" si="4">(F256)*(L256-G256)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="N256" t="s">
         <v>399</v>
       </c>
@@ -11842,6 +12282,9 @@
       <c r="F257" t="s">
         <v>4</v>
       </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
       <c r="I257" t="s">
         <v>402</v>
       </c>
@@ -11851,6 +12294,13 @@
       <c r="K257" t="s">
         <v>332</v>
       </c>
+      <c r="L257">
+        <v>14</v>
+      </c>
+      <c r="M257" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N257" t="s">
         <v>399</v>
       </c>
@@ -11871,6 +12321,9 @@
       <c r="F258" t="s">
         <v>4</v>
       </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
       <c r="I258" t="s">
         <v>403</v>
       </c>
@@ -11880,6 +12333,13 @@
       <c r="K258" t="s">
         <v>332</v>
       </c>
+      <c r="L258">
+        <v>14</v>
+      </c>
+      <c r="M258" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N258" t="s">
         <v>399</v>
       </c>
@@ -11900,6 +12360,9 @@
       <c r="F259" t="s">
         <v>4</v>
       </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
       <c r="I259" t="s">
         <v>405</v>
       </c>
@@ -11909,6 +12372,13 @@
       <c r="K259">
         <v>50</v>
       </c>
+      <c r="L259">
+        <v>14</v>
+      </c>
+      <c r="M259" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N259" t="s">
         <v>398</v>
       </c>
@@ -11929,6 +12399,9 @@
       <c r="F260" t="s">
         <v>4</v>
       </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
       <c r="I260" t="s">
         <v>406</v>
       </c>
@@ -11938,6 +12411,13 @@
       <c r="K260">
         <v>50</v>
       </c>
+      <c r="L260">
+        <v>14</v>
+      </c>
+      <c r="M260" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N260" t="s">
         <v>398</v>
       </c>
@@ -11958,6 +12438,9 @@
       <c r="F261" t="s">
         <v>4</v>
       </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
       <c r="I261" t="s">
         <v>407</v>
       </c>
@@ -11967,6 +12450,13 @@
       <c r="K261">
         <v>50</v>
       </c>
+      <c r="L261">
+        <v>14</v>
+      </c>
+      <c r="M261" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N261" t="s">
         <v>398</v>
       </c>
@@ -11984,6 +12474,9 @@
       <c r="F262">
         <v>7</v>
       </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
       <c r="I262" t="s">
         <v>408</v>
       </c>
@@ -11992,6 +12485,13 @@
       </c>
       <c r="K262">
         <v>50</v>
+      </c>
+      <c r="L262">
+        <v>14</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="N262" t="s">
         <v>398</v>
@@ -12019,6 +12519,9 @@
       <c r="F263" s="2">
         <v>14</v>
       </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
       <c r="I263" t="s">
         <v>408</v>
       </c>
@@ -12027,6 +12530,13 @@
       </c>
       <c r="K263">
         <v>50</v>
+      </c>
+      <c r="L263">
+        <v>14</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="4"/>
+        <v>182</v>
       </c>
       <c r="N263" t="s">
         <v>398</v>
@@ -12057,6 +12567,9 @@
       <c r="F264" s="2">
         <v>4.5999999999999996</v>
       </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
       <c r="I264" t="s">
         <v>408</v>
       </c>
@@ -12066,6 +12579,13 @@
       <c r="K264">
         <v>10</v>
       </c>
+      <c r="L264">
+        <v>14</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="4"/>
+        <v>59.8</v>
+      </c>
       <c r="N264" t="s">
         <v>398</v>
       </c>
@@ -12089,6 +12609,9 @@
       <c r="F265" t="s">
         <v>4</v>
       </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
       <c r="I265">
         <v>135</v>
       </c>
@@ -12098,6 +12621,13 @@
       <c r="K265">
         <v>15</v>
       </c>
+      <c r="L265">
+        <v>14</v>
+      </c>
+      <c r="M265" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N265" t="s">
         <v>398</v>
       </c>
@@ -12118,6 +12648,9 @@
       <c r="F266" t="s">
         <v>4</v>
       </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
       <c r="I266">
         <v>31</v>
       </c>
@@ -12127,6 +12660,13 @@
       <c r="K266">
         <v>15</v>
       </c>
+      <c r="L266">
+        <v>14</v>
+      </c>
+      <c r="M266" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N266" t="s">
         <v>398</v>
       </c>
@@ -12147,6 +12687,9 @@
       <c r="F267" t="s">
         <v>4</v>
       </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
       <c r="I267">
         <v>90</v>
       </c>
@@ -12156,6 +12699,13 @@
       <c r="K267">
         <v>15</v>
       </c>
+      <c r="L267">
+        <v>14</v>
+      </c>
+      <c r="M267" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N267" t="s">
         <v>398</v>
       </c>
@@ -12176,6 +12726,9 @@
       <c r="F268" t="s">
         <v>4</v>
       </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
       <c r="I268">
         <v>142</v>
       </c>
@@ -12185,6 +12738,13 @@
       <c r="K268">
         <v>15</v>
       </c>
+      <c r="L268">
+        <v>14</v>
+      </c>
+      <c r="M268" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N268" t="s">
         <v>398</v>
       </c>
@@ -12205,6 +12765,9 @@
       <c r="F269" t="s">
         <v>4</v>
       </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
       <c r="I269">
         <v>317</v>
       </c>
@@ -12214,6 +12777,13 @@
       <c r="K269">
         <v>15</v>
       </c>
+      <c r="L269">
+        <v>14</v>
+      </c>
+      <c r="M269" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N269" t="s">
         <v>398</v>
       </c>
@@ -12234,6 +12804,9 @@
       <c r="F270" t="s">
         <v>4</v>
       </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
       <c r="I270">
         <v>342</v>
       </c>
@@ -12243,6 +12816,13 @@
       <c r="K270">
         <v>15</v>
       </c>
+      <c r="L270">
+        <v>14</v>
+      </c>
+      <c r="M270" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N270" t="s">
         <v>398</v>
       </c>
@@ -12263,6 +12843,9 @@
       <c r="F271" t="s">
         <v>4</v>
       </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
       <c r="I271">
         <v>352</v>
       </c>
@@ -12272,6 +12855,13 @@
       <c r="K271">
         <v>15</v>
       </c>
+      <c r="L271">
+        <v>14</v>
+      </c>
+      <c r="M271" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N271" t="s">
         <v>398</v>
       </c>
@@ -12292,6 +12882,9 @@
       <c r="F272" t="s">
         <v>4</v>
       </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
       <c r="I272">
         <v>326</v>
       </c>
@@ -12301,6 +12894,13 @@
       <c r="K272">
         <v>15</v>
       </c>
+      <c r="L272">
+        <v>14</v>
+      </c>
+      <c r="M272" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N272" t="s">
         <v>398</v>
       </c>
@@ -12321,6 +12921,9 @@
       <c r="F273" t="s">
         <v>4</v>
       </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
       <c r="I273">
         <v>242</v>
       </c>
@@ -12330,6 +12933,13 @@
       <c r="K273">
         <v>15</v>
       </c>
+      <c r="L273">
+        <v>14</v>
+      </c>
+      <c r="M273" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N273" t="s">
         <v>398</v>
       </c>
@@ -12350,6 +12960,9 @@
       <c r="F274" t="s">
         <v>4</v>
       </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
       <c r="I274">
         <v>236</v>
       </c>
@@ -12359,6 +12972,13 @@
       <c r="K274">
         <v>15</v>
       </c>
+      <c r="L274">
+        <v>14</v>
+      </c>
+      <c r="M274" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N274" t="s">
         <v>398</v>
       </c>
@@ -12379,6 +12999,9 @@
       <c r="F275" t="s">
         <v>4</v>
       </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
       <c r="I275">
         <v>234</v>
       </c>
@@ -12388,6 +13011,13 @@
       <c r="K275">
         <v>15</v>
       </c>
+      <c r="L275">
+        <v>14</v>
+      </c>
+      <c r="M275" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N275" t="s">
         <v>398</v>
       </c>
@@ -12408,6 +13038,9 @@
       <c r="F276" t="s">
         <v>4</v>
       </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
       <c r="I276">
         <v>212</v>
       </c>
@@ -12417,6 +13050,13 @@
       <c r="K276">
         <v>15</v>
       </c>
+      <c r="L276">
+        <v>14</v>
+      </c>
+      <c r="M276" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N276" t="s">
         <v>398</v>
       </c>
@@ -12437,6 +13077,9 @@
       <c r="F277" t="s">
         <v>4</v>
       </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
       <c r="I277">
         <v>285</v>
       </c>
@@ -12446,6 +13089,13 @@
       <c r="K277">
         <v>15</v>
       </c>
+      <c r="L277">
+        <v>14</v>
+      </c>
+      <c r="M277" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N277" t="s">
         <v>398</v>
       </c>
@@ -12466,6 +13116,9 @@
       <c r="F278" t="s">
         <v>4</v>
       </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
       <c r="I278">
         <v>266</v>
       </c>
@@ -12475,6 +13128,13 @@
       <c r="K278">
         <v>15</v>
       </c>
+      <c r="L278">
+        <v>14</v>
+      </c>
+      <c r="M278" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N278" t="s">
         <v>398</v>
       </c>
@@ -12495,6 +13155,9 @@
       <c r="F279" t="s">
         <v>4</v>
       </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
       <c r="I279">
         <v>271</v>
       </c>
@@ -12504,6 +13167,13 @@
       <c r="K279">
         <v>15</v>
       </c>
+      <c r="L279">
+        <v>14</v>
+      </c>
+      <c r="M279" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N279" t="s">
         <v>398</v>
       </c>
@@ -12524,6 +13194,9 @@
       <c r="F280" t="s">
         <v>4</v>
       </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
       <c r="I280">
         <v>291</v>
       </c>
@@ -12533,6 +13206,13 @@
       <c r="K280">
         <v>15</v>
       </c>
+      <c r="L280">
+        <v>14</v>
+      </c>
+      <c r="M280" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N280" t="s">
         <v>398</v>
       </c>
@@ -12553,6 +13233,9 @@
       <c r="F281" t="s">
         <v>4</v>
       </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
       <c r="I281">
         <v>499</v>
       </c>
@@ -12562,6 +13245,13 @@
       <c r="K281">
         <v>15</v>
       </c>
+      <c r="L281">
+        <v>14</v>
+      </c>
+      <c r="M281" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N281" t="s">
         <v>398</v>
       </c>
@@ -12582,6 +13272,9 @@
       <c r="F282" t="s">
         <v>4</v>
       </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
       <c r="I282">
         <v>506</v>
       </c>
@@ -12591,6 +13284,13 @@
       <c r="K282">
         <v>15</v>
       </c>
+      <c r="L282">
+        <v>14</v>
+      </c>
+      <c r="M282" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N282" t="s">
         <v>398</v>
       </c>
@@ -12611,6 +13311,9 @@
       <c r="F283" t="s">
         <v>4</v>
       </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
       <c r="I283">
         <v>468</v>
       </c>
@@ -12620,6 +13323,13 @@
       <c r="K283">
         <v>15</v>
       </c>
+      <c r="L283">
+        <v>14</v>
+      </c>
+      <c r="M283" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N283" t="s">
         <v>398</v>
       </c>
@@ -12640,6 +13350,9 @@
       <c r="F284" t="s">
         <v>4</v>
       </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
       <c r="I284">
         <v>503</v>
       </c>
@@ -12649,6 +13362,13 @@
       <c r="K284">
         <v>15</v>
       </c>
+      <c r="L284">
+        <v>14</v>
+      </c>
+      <c r="M284" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N284" t="s">
         <v>398</v>
       </c>
@@ -12669,6 +13389,9 @@
       <c r="F285" t="s">
         <v>4</v>
       </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
       <c r="I285">
         <v>458</v>
       </c>
@@ -12678,6 +13401,13 @@
       <c r="K285">
         <v>15</v>
       </c>
+      <c r="L285">
+        <v>14</v>
+      </c>
+      <c r="M285" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N285" t="s">
         <v>398</v>
       </c>
@@ -12698,6 +13428,9 @@
       <c r="F286" t="s">
         <v>4</v>
       </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
       <c r="I286">
         <v>419</v>
       </c>
@@ -12707,6 +13440,13 @@
       <c r="K286">
         <v>15</v>
       </c>
+      <c r="L286">
+        <v>14</v>
+      </c>
+      <c r="M286" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N286" t="s">
         <v>398</v>
       </c>
@@ -12727,6 +13467,9 @@
       <c r="F287" t="s">
         <v>4</v>
       </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
       <c r="I287">
         <v>438</v>
       </c>
@@ -12736,6 +13479,13 @@
       <c r="K287">
         <v>15</v>
       </c>
+      <c r="L287">
+        <v>14</v>
+      </c>
+      <c r="M287" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N287" t="s">
         <v>398</v>
       </c>
@@ -12756,6 +13506,9 @@
       <c r="F288" t="s">
         <v>4</v>
       </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
       <c r="I288">
         <v>455</v>
       </c>
@@ -12764,6 +13517,13 @@
       </c>
       <c r="K288">
         <v>15</v>
+      </c>
+      <c r="L288">
+        <v>14</v>
+      </c>
+      <c r="M288" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N288" t="s">
         <v>398</v>
@@ -12806,8 +13566,13 @@
       <c r="K289" s="4">
         <v>15</v>
       </c>
-      <c r="L289" s="4"/>
-      <c r="M289" s="4"/>
+      <c r="L289">
+        <v>14</v>
+      </c>
+      <c r="M289" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N289" t="s">
         <v>398</v>
       </c>
@@ -12851,8 +13616,13 @@
       <c r="K290" s="4">
         <v>15</v>
       </c>
-      <c r="L290" s="4"/>
-      <c r="M290" s="4"/>
+      <c r="L290">
+        <v>14</v>
+      </c>
+      <c r="M290" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N290" t="s">
         <v>398</v>
       </c>
@@ -12896,8 +13666,13 @@
       <c r="K291" s="4">
         <v>15</v>
       </c>
-      <c r="L291" s="4"/>
-      <c r="M291" s="4"/>
+      <c r="L291">
+        <v>14</v>
+      </c>
+      <c r="M291" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N291" t="s">
         <v>398</v>
       </c>
@@ -12941,8 +13716,13 @@
       <c r="K292" s="4">
         <v>15</v>
       </c>
-      <c r="L292" s="4"/>
-      <c r="M292" s="4"/>
+      <c r="L292">
+        <v>14</v>
+      </c>
+      <c r="M292" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N292" t="s">
         <v>398</v>
       </c>
@@ -12986,8 +13766,13 @@
       <c r="K293" s="4">
         <v>15</v>
       </c>
-      <c r="L293" s="4"/>
-      <c r="M293" s="4"/>
+      <c r="L293">
+        <v>14</v>
+      </c>
+      <c r="M293" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N293" t="s">
         <v>398</v>
       </c>
@@ -13031,8 +13816,13 @@
       <c r="K294" s="4">
         <v>15</v>
       </c>
-      <c r="L294" s="4"/>
-      <c r="M294" s="4"/>
+      <c r="L294">
+        <v>14</v>
+      </c>
+      <c r="M294" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N294" t="s">
         <v>398</v>
       </c>
@@ -13076,8 +13866,13 @@
       <c r="K295" s="4">
         <v>15</v>
       </c>
-      <c r="L295" s="4"/>
-      <c r="M295" s="4"/>
+      <c r="L295">
+        <v>14</v>
+      </c>
+      <c r="M295" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N295" t="s">
         <v>398</v>
       </c>
@@ -13121,8 +13916,13 @@
       <c r="K296" s="4">
         <v>15</v>
       </c>
-      <c r="L296" s="4"/>
-      <c r="M296" s="4"/>
+      <c r="L296">
+        <v>14</v>
+      </c>
+      <c r="M296" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N296" t="s">
         <v>398</v>
       </c>
@@ -13166,8 +13966,13 @@
       <c r="K297" s="4">
         <v>15</v>
       </c>
-      <c r="L297" s="4"/>
-      <c r="M297" s="4"/>
+      <c r="L297">
+        <v>14</v>
+      </c>
+      <c r="M297" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N297" t="s">
         <v>398</v>
       </c>
@@ -13211,8 +14016,13 @@
       <c r="K298" s="4">
         <v>15</v>
       </c>
-      <c r="L298" s="4"/>
-      <c r="M298" s="4"/>
+      <c r="L298">
+        <v>14</v>
+      </c>
+      <c r="M298" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N298" t="s">
         <v>398</v>
       </c>
@@ -13256,8 +14066,13 @@
       <c r="K299" s="4">
         <v>15</v>
       </c>
-      <c r="L299" s="4"/>
-      <c r="M299" s="4"/>
+      <c r="L299">
+        <v>14</v>
+      </c>
+      <c r="M299" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N299" t="s">
         <v>398</v>
       </c>
@@ -13301,8 +14116,13 @@
       <c r="K300" s="4">
         <v>15</v>
       </c>
-      <c r="L300" s="4"/>
-      <c r="M300" s="4"/>
+      <c r="L300">
+        <v>14</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="4"/>
+        <v>59.8</v>
+      </c>
       <c r="N300" t="s">
         <v>398</v>
       </c>
@@ -14550,7 +15370,7 @@
         <v>15</v>
       </c>
       <c r="M338" s="4">
-        <f t="shared" ref="M338:M401" si="0">(F338)*(L338-G338)</f>
+        <f t="shared" ref="M338:M401" si="5">(F338)*(L338-G338)</f>
         <v>57.98</v>
       </c>
       <c r="N338" t="s">
@@ -14598,7 +15418,7 @@
         <v>15</v>
       </c>
       <c r="M339" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>265.2</v>
       </c>
       <c r="N339" t="s">
@@ -14646,7 +15466,7 @@
         <v>15</v>
       </c>
       <c r="M340" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
       <c r="N340" t="s">
@@ -14694,7 +15514,7 @@
         <v>15</v>
       </c>
       <c r="M341" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>427.7</v>
       </c>
       <c r="N341" t="s">
@@ -14742,7 +15562,7 @@
         <v>15</v>
       </c>
       <c r="M342" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N342" t="s">
@@ -14790,7 +15610,7 @@
         <v>15</v>
       </c>
       <c r="M343" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>451.1</v>
       </c>
       <c r="N343" t="s">
@@ -14838,7 +15658,7 @@
         <v>15</v>
       </c>
       <c r="M344" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>172.9</v>
       </c>
       <c r="N344" t="s">
@@ -14886,7 +15706,7 @@
         <v>15</v>
       </c>
       <c r="M345" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>378.3</v>
       </c>
       <c r="N345" t="s">
@@ -14934,7 +15754,7 @@
         <v>15</v>
       </c>
       <c r="M346" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>553.80000000000007</v>
       </c>
       <c r="N346" t="s">
@@ -14982,7 +15802,7 @@
         <v>15</v>
       </c>
       <c r="M347" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>495.3</v>
       </c>
       <c r="N347" t="s">
@@ -15030,7 +15850,7 @@
         <v>15</v>
       </c>
       <c r="M348" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>345.8</v>
       </c>
       <c r="N348" t="s">
@@ -15078,7 +15898,7 @@
         <v>15</v>
       </c>
       <c r="M349" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>663</v>
       </c>
       <c r="N349" t="s">
@@ -15126,7 +15946,7 @@
         <v>15</v>
       </c>
       <c r="M350" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>231.4</v>
       </c>
       <c r="N350" t="s">
@@ -15174,7 +15994,7 @@
         <v>15</v>
       </c>
       <c r="M351" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>936</v>
       </c>
       <c r="N351" t="s">
@@ -15222,7 +16042,7 @@
         <v>15</v>
       </c>
       <c r="M352" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>217.1</v>
       </c>
       <c r="N352" t="s">
@@ -15270,7 +16090,7 @@
         <v>15</v>
       </c>
       <c r="M353" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>590.19999999999993</v>
       </c>
       <c r="N353" t="s">
@@ -15318,7 +16138,7 @@
         <v>15</v>
       </c>
       <c r="M354" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>146.9</v>
       </c>
       <c r="N354" t="s">
@@ -15366,7 +16186,7 @@
         <v>15</v>
       </c>
       <c r="M355" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>198.9</v>
       </c>
       <c r="N355" t="s">
@@ -15414,7 +16234,7 @@
         <v>15</v>
       </c>
       <c r="M356" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>261.3</v>
       </c>
       <c r="N356" t="s">
@@ -15462,7 +16282,7 @@
         <v>15</v>
       </c>
       <c r="M357" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>319.8</v>
       </c>
       <c r="N357" t="s">
@@ -15510,7 +16330,7 @@
         <v>15</v>
       </c>
       <c r="M358" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>219.7</v>
       </c>
       <c r="N358" t="s">
@@ -15558,7 +16378,7 @@
         <v>15</v>
       </c>
       <c r="M359" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>258.7</v>
       </c>
       <c r="N359" t="s">
@@ -15606,7 +16426,7 @@
         <v>15</v>
       </c>
       <c r="M360" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>250.9</v>
       </c>
       <c r="N360" t="s">
@@ -15654,7 +16474,7 @@
         <v>15</v>
       </c>
       <c r="M361" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>397.8</v>
       </c>
       <c r="N361" t="s">
@@ -15702,7 +16522,7 @@
         <v>15</v>
       </c>
       <c r="M362" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>178.1</v>
       </c>
       <c r="N362" t="s">
@@ -15750,7 +16570,7 @@
         <v>15</v>
       </c>
       <c r="M363" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>310.7</v>
       </c>
       <c r="N363" t="s">
@@ -15798,7 +16618,7 @@
         <v>15</v>
       </c>
       <c r="M364" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>215.8</v>
       </c>
       <c r="N364" t="s">
@@ -15846,7 +16666,7 @@
         <v>15</v>
       </c>
       <c r="M365" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>232.7</v>
       </c>
       <c r="N365" t="s">
@@ -15894,7 +16714,7 @@
         <v>15</v>
       </c>
       <c r="M366" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>322.40000000000003</v>
       </c>
       <c r="N366" t="s">
@@ -15942,7 +16762,7 @@
         <v>15</v>
       </c>
       <c r="M367" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>98.02</v>
       </c>
       <c r="N367" t="s">
@@ -15990,7 +16810,7 @@
         <v>15</v>
       </c>
       <c r="M368" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="N368" t="s">
@@ -16038,7 +16858,7 @@
         <v>15</v>
       </c>
       <c r="M369" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>284.7</v>
       </c>
       <c r="N369" t="s">
@@ -16086,7 +16906,7 @@
         <v>15</v>
       </c>
       <c r="M370" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="N370" t="s">
@@ -16134,7 +16954,7 @@
         <v>15</v>
       </c>
       <c r="M371" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>202.79999999999998</v>
       </c>
       <c r="N371" t="s">
@@ -16182,7 +17002,7 @@
         <v>15</v>
       </c>
       <c r="M372" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>248.3</v>
       </c>
       <c r="N372" t="s">
@@ -16230,7 +17050,7 @@
         <v>15</v>
       </c>
       <c r="M373" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>244.4</v>
       </c>
       <c r="N373" t="s">
@@ -16278,7 +17098,7 @@
         <v>15</v>
       </c>
       <c r="M374" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>265.2</v>
       </c>
       <c r="N374" t="s">
@@ -16326,7 +17146,7 @@
         <v>15</v>
       </c>
       <c r="M375" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>176.79999999999998</v>
       </c>
       <c r="N375" t="s">
@@ -16374,7 +17194,7 @@
         <v>15</v>
       </c>
       <c r="M376" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>276.90000000000003</v>
       </c>
       <c r="N376" t="s">
@@ -16422,7 +17242,7 @@
         <v>15</v>
       </c>
       <c r="M377" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>274.3</v>
       </c>
       <c r="N377" t="s">
@@ -16470,7 +17290,7 @@
         <v>15</v>
       </c>
       <c r="M378" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>315.90000000000003</v>
       </c>
       <c r="N378" t="s">
@@ -16518,7 +17338,7 @@
         <v>15</v>
       </c>
       <c r="M379" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>409.5</v>
       </c>
       <c r="N379" t="s">
@@ -16566,7 +17386,7 @@
         <v>15</v>
       </c>
       <c r="M380" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>68.509999999999991</v>
       </c>
       <c r="N380" t="s">
@@ -16614,7 +17434,7 @@
         <v>15</v>
       </c>
       <c r="M381" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>133.9</v>
       </c>
       <c r="N381" t="s">
@@ -16662,7 +17482,7 @@
         <v>15</v>
       </c>
       <c r="M382" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N382" t="s">
@@ -16710,7 +17530,7 @@
         <v>15</v>
       </c>
       <c r="M383" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>158.6</v>
       </c>
       <c r="N383" t="s">
@@ -16758,7 +17578,7 @@
         <v>15</v>
       </c>
       <c r="M384" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>146.9</v>
       </c>
       <c r="N384" t="s">
@@ -16806,7 +17626,7 @@
         <v>15</v>
       </c>
       <c r="M385" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>82.94</v>
       </c>
       <c r="N385" t="s">
@@ -16854,7 +17674,7 @@
         <v>15</v>
       </c>
       <c r="M386" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>159.9</v>
       </c>
       <c r="N386" t="s">
@@ -16902,7 +17722,7 @@
         <v>15</v>
       </c>
       <c r="M387" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>388.7</v>
       </c>
       <c r="N387" t="s">
@@ -16950,7 +17770,7 @@
         <v>15</v>
       </c>
       <c r="M388" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>347.09999999999997</v>
       </c>
       <c r="N388" t="s">
@@ -16998,7 +17818,7 @@
         <v>15</v>
       </c>
       <c r="M389" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>280.8</v>
       </c>
       <c r="N389" t="s">
@@ -17046,7 +17866,7 @@
         <v>15</v>
       </c>
       <c r="M390" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N390" t="s">
@@ -17094,7 +17914,7 @@
         <v>15</v>
       </c>
       <c r="M391" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>132.6</v>
       </c>
       <c r="N391" t="s">
@@ -17142,7 +17962,7 @@
         <v>15</v>
       </c>
       <c r="M392" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="N392" t="s">
@@ -17190,7 +18010,7 @@
         <v>15</v>
       </c>
       <c r="M393" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>258.7</v>
       </c>
       <c r="N393" t="s">
@@ -17238,7 +18058,7 @@
         <v>15</v>
       </c>
       <c r="M394" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>128.83000000000001</v>
       </c>
       <c r="N394" t="s">
@@ -17286,7 +18106,7 @@
         <v>15</v>
       </c>
       <c r="M395" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N395" t="s">
@@ -17334,7 +18154,7 @@
         <v>15</v>
       </c>
       <c r="M396" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>232.7</v>
       </c>
       <c r="N396" t="s">
@@ -17382,7 +18202,7 @@
         <v>15</v>
       </c>
       <c r="M397" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>309.40000000000003</v>
       </c>
       <c r="N397" t="s">
@@ -17430,7 +18250,7 @@
         <v>15</v>
       </c>
       <c r="M398" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>98.93</v>
       </c>
       <c r="N398" t="s">
@@ -17478,7 +18298,7 @@
         <v>15</v>
       </c>
       <c r="M399" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>304.2</v>
       </c>
       <c r="N399" t="s">
@@ -17526,7 +18346,7 @@
         <v>15</v>
       </c>
       <c r="M400" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52.259999999999991</v>
       </c>
       <c r="N400" t="s">
@@ -17574,7 +18394,7 @@
         <v>15</v>
       </c>
       <c r="M401" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>253.5</v>
       </c>
       <c r="N401" t="s">
@@ -17622,7 +18442,7 @@
         <v>15</v>
       </c>
       <c r="M402" s="4">
-        <f t="shared" ref="M402" si="1">(F402)*(L402-G402)</f>
+        <f t="shared" ref="M402" si="6">(F402)*(L402-G402)</f>
         <v>171.6</v>
       </c>
       <c r="N402" t="s">

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824FF85-444A-BA45-8574-E8E811CFEEB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F310B-0046-C640-AAF1-AF736FACD731}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1877,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
       <selection activeCell="J301" sqref="J301"/>
     </sheetView>
   </sheetViews>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E1A74-F462-D648-99D3-E5182945C300}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C709D4AC-2E4B-6D4F-8DAF-15D6E31E3A88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M337" sqref="M337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18469,9 +18469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603D0354-3EA4-0C4A-AE9B-693F8B52487F}">
   <dimension ref="B1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C709D4AC-2E4B-6D4F-8DAF-15D6E31E3A88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D43EC-16CF-D940-9969-FDF9E4139087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1480,9 +1480,6 @@
     <t>Sample_#190430-144123</t>
   </si>
   <si>
-    <t>Microprep-plus</t>
-  </si>
-  <si>
     <t>https://robertslab.github.io/sams-notebook/2019/04/30/RNA-Isolation-and-Quantification-C.bairdi-Hemolymph-Pellet-in-RNAlater.html</t>
   </si>
   <si>
@@ -1499,6 +1496,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>Zymo_microprep</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M337" sqref="M337"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="F337" sqref="F337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K1" t="s">
         <v>322</v>
       </c>
       <c r="L1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M1" t="s">
         <v>484</v>
-      </c>
-      <c r="M1" t="s">
-        <v>485</v>
       </c>
       <c r="N1" t="s">
         <v>397</v>
       </c>
       <c r="O1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P1" t="s">
         <v>333</v>
@@ -1994,7 +1994,7 @@
         <v>398</v>
       </c>
       <c r="P2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2042,7 +2042,7 @@
         <v>398</v>
       </c>
       <c r="P3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -15318,7 +15318,7 @@
         <v>13</v>
       </c>
       <c r="J337" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K337" s="2">
         <v>70</v>
@@ -15334,7 +15334,7 @@
         <v>398</v>
       </c>
       <c r="P337" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -15366,7 +15366,7 @@
         <v>18</v>
       </c>
       <c r="J338" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K338" s="2">
         <v>70</v>
@@ -15382,7 +15382,7 @@
         <v>398</v>
       </c>
       <c r="P338" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -15414,7 +15414,7 @@
         <v>28</v>
       </c>
       <c r="J339" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K339" s="2">
         <v>70</v>
@@ -15430,7 +15430,7 @@
         <v>398</v>
       </c>
       <c r="P339" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -15462,7 +15462,7 @@
         <v>33</v>
       </c>
       <c r="J340" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K340" s="2">
         <v>70</v>
@@ -15478,7 +15478,7 @@
         <v>398</v>
       </c>
       <c r="P340" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -15510,7 +15510,7 @@
         <v>75</v>
       </c>
       <c r="J341" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K341" s="2">
         <v>70</v>
@@ -15526,7 +15526,7 @@
         <v>398</v>
       </c>
       <c r="P341" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -15558,7 +15558,7 @@
         <v>82</v>
       </c>
       <c r="J342" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K342" s="2">
         <v>70</v>
@@ -15574,7 +15574,7 @@
         <v>398</v>
       </c>
       <c r="P342" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -15606,7 +15606,7 @@
         <v>84</v>
       </c>
       <c r="J343" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K343" s="2">
         <v>70</v>
@@ -15622,7 +15622,7 @@
         <v>398</v>
       </c>
       <c r="P343" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -15654,7 +15654,7 @@
         <v>98</v>
       </c>
       <c r="J344" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K344" s="2">
         <v>70</v>
@@ -15670,7 +15670,7 @@
         <v>398</v>
       </c>
       <c r="P344" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -15702,7 +15702,7 @@
         <v>104</v>
       </c>
       <c r="J345" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K345" s="2">
         <v>70</v>
@@ -15718,7 +15718,7 @@
         <v>398</v>
       </c>
       <c r="P345" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -15750,7 +15750,7 @@
         <v>105</v>
       </c>
       <c r="J346" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K346" s="2">
         <v>70</v>
@@ -15766,7 +15766,7 @@
         <v>398</v>
       </c>
       <c r="P346" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -15798,7 +15798,7 @@
         <v>113</v>
       </c>
       <c r="J347" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K347" s="2">
         <v>70</v>
@@ -15814,7 +15814,7 @@
         <v>398</v>
       </c>
       <c r="P347" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -15846,7 +15846,7 @@
         <v>115</v>
       </c>
       <c r="J348" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K348" s="2">
         <v>70</v>
@@ -15862,7 +15862,7 @@
         <v>398</v>
       </c>
       <c r="P348" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -15894,7 +15894,7 @@
         <v>118</v>
       </c>
       <c r="J349" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K349" s="2">
         <v>70</v>
@@ -15910,7 +15910,7 @@
         <v>398</v>
       </c>
       <c r="P349" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -15942,7 +15942,7 @@
         <v>122</v>
       </c>
       <c r="J350" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K350" s="2">
         <v>70</v>
@@ -15958,7 +15958,7 @@
         <v>398</v>
       </c>
       <c r="P350" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -15990,7 +15990,7 @@
         <v>127</v>
       </c>
       <c r="J351" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K351" s="2">
         <v>70</v>
@@ -16006,7 +16006,7 @@
         <v>398</v>
       </c>
       <c r="P351" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -16038,7 +16038,7 @@
         <v>129</v>
       </c>
       <c r="J352" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K352" s="2">
         <v>70</v>
@@ -16054,7 +16054,7 @@
         <v>398</v>
       </c>
       <c r="P352" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -16086,7 +16086,7 @@
         <v>131</v>
       </c>
       <c r="J353" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K353" s="2">
         <v>70</v>
@@ -16102,7 +16102,7 @@
         <v>398</v>
       </c>
       <c r="P353" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -16134,7 +16134,7 @@
         <v>132</v>
       </c>
       <c r="J354" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K354" s="2">
         <v>70</v>
@@ -16150,7 +16150,7 @@
         <v>398</v>
       </c>
       <c r="P354" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -16182,7 +16182,7 @@
         <v>147</v>
       </c>
       <c r="J355" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K355" s="2">
         <v>70</v>
@@ -16198,7 +16198,7 @@
         <v>398</v>
       </c>
       <c r="P355" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -16230,7 +16230,7 @@
         <v>159</v>
       </c>
       <c r="J356" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K356" s="2">
         <v>70</v>
@@ -16246,7 +16246,7 @@
         <v>398</v>
       </c>
       <c r="P356" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -16278,7 +16278,7 @@
         <v>160</v>
       </c>
       <c r="J357" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K357" s="2">
         <v>70</v>
@@ -16294,7 +16294,7 @@
         <v>398</v>
       </c>
       <c r="P357" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -16326,7 +16326,7 @@
         <v>161</v>
       </c>
       <c r="J358" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K358" s="2">
         <v>70</v>
@@ -16342,7 +16342,7 @@
         <v>398</v>
       </c>
       <c r="P358" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -16374,7 +16374,7 @@
         <v>206</v>
       </c>
       <c r="J359" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K359" s="2">
         <v>70</v>
@@ -16390,7 +16390,7 @@
         <v>398</v>
       </c>
       <c r="P359" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -16422,7 +16422,7 @@
         <v>219</v>
       </c>
       <c r="J360" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K360" s="2">
         <v>70</v>
@@ -16438,7 +16438,7 @@
         <v>398</v>
       </c>
       <c r="P360" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -16470,7 +16470,7 @@
         <v>222</v>
       </c>
       <c r="J361" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K361" s="2">
         <v>70</v>
@@ -16486,7 +16486,7 @@
         <v>398</v>
       </c>
       <c r="P361" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -16518,7 +16518,7 @@
         <v>235</v>
       </c>
       <c r="J362" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K362" s="2">
         <v>70</v>
@@ -16534,7 +16534,7 @@
         <v>398</v>
       </c>
       <c r="P362" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -16566,7 +16566,7 @@
         <v>244</v>
       </c>
       <c r="J363" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K363" s="2">
         <v>70</v>
@@ -16582,7 +16582,7 @@
         <v>398</v>
       </c>
       <c r="P363" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -16614,7 +16614,7 @@
         <v>255</v>
       </c>
       <c r="J364" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K364" s="2">
         <v>70</v>
@@ -16630,7 +16630,7 @@
         <v>398</v>
       </c>
       <c r="P364" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -16662,7 +16662,7 @@
         <v>280</v>
       </c>
       <c r="J365" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K365" s="2">
         <v>70</v>
@@ -16678,7 +16678,7 @@
         <v>398</v>
       </c>
       <c r="P365" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -16710,7 +16710,7 @@
         <v>288</v>
       </c>
       <c r="J366" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K366" s="2">
         <v>70</v>
@@ -16726,7 +16726,7 @@
         <v>398</v>
       </c>
       <c r="P366" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -16758,7 +16758,7 @@
         <v>295</v>
       </c>
       <c r="J367" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K367" s="2">
         <v>70</v>
@@ -16774,7 +16774,7 @@
         <v>398</v>
       </c>
       <c r="P367" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -16806,7 +16806,7 @@
         <v>330</v>
       </c>
       <c r="J368" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K368" s="2">
         <v>70</v>
@@ -16822,7 +16822,7 @@
         <v>398</v>
       </c>
       <c r="P368" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -16854,7 +16854,7 @@
         <v>331</v>
       </c>
       <c r="J369" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K369" s="2">
         <v>70</v>
@@ -16870,7 +16870,7 @@
         <v>398</v>
       </c>
       <c r="P369" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -16902,7 +16902,7 @@
         <v>332</v>
       </c>
       <c r="J370" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K370" s="2">
         <v>70</v>
@@ -16918,7 +16918,7 @@
         <v>398</v>
       </c>
       <c r="P370" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -16950,7 +16950,7 @@
         <v>334</v>
       </c>
       <c r="J371" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K371" s="2">
         <v>70</v>
@@ -16966,7 +16966,7 @@
         <v>398</v>
       </c>
       <c r="P371" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -16998,7 +16998,7 @@
         <v>345</v>
       </c>
       <c r="J372" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K372" s="2">
         <v>70</v>
@@ -17014,7 +17014,7 @@
         <v>398</v>
       </c>
       <c r="P372" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -17046,7 +17046,7 @@
         <v>347</v>
       </c>
       <c r="J373" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K373" s="2">
         <v>70</v>
@@ -17062,7 +17062,7 @@
         <v>398</v>
       </c>
       <c r="P373" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -17094,7 +17094,7 @@
         <v>350</v>
       </c>
       <c r="J374" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K374" s="2">
         <v>70</v>
@@ -17110,7 +17110,7 @@
         <v>398</v>
       </c>
       <c r="P374" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -17142,7 +17142,7 @@
         <v>351</v>
       </c>
       <c r="J375" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K375" s="2">
         <v>70</v>
@@ -17158,7 +17158,7 @@
         <v>398</v>
       </c>
       <c r="P375" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -17190,7 +17190,7 @@
         <v>356</v>
       </c>
       <c r="J376" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K376" s="2">
         <v>70</v>
@@ -17206,7 +17206,7 @@
         <v>398</v>
       </c>
       <c r="P376" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -17238,7 +17238,7 @@
         <v>364</v>
       </c>
       <c r="J377" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K377" s="2">
         <v>70</v>
@@ -17254,7 +17254,7 @@
         <v>398</v>
       </c>
       <c r="P377" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -17286,7 +17286,7 @@
         <v>367</v>
       </c>
       <c r="J378" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K378" s="2">
         <v>70</v>
@@ -17302,7 +17302,7 @@
         <v>398</v>
       </c>
       <c r="P378" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -17334,7 +17334,7 @@
         <v>369</v>
       </c>
       <c r="J379" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K379" s="2">
         <v>70</v>
@@ -17350,7 +17350,7 @@
         <v>398</v>
       </c>
       <c r="P379" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -17382,7 +17382,7 @@
         <v>401</v>
       </c>
       <c r="J380" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K380" s="2">
         <v>70</v>
@@ -17398,7 +17398,7 @@
         <v>398</v>
       </c>
       <c r="P380" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -17430,7 +17430,7 @@
         <v>402</v>
       </c>
       <c r="J381" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K381" s="2">
         <v>70</v>
@@ -17446,7 +17446,7 @@
         <v>398</v>
       </c>
       <c r="P381" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -17478,7 +17478,7 @@
         <v>403</v>
       </c>
       <c r="J382" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K382" s="2">
         <v>70</v>
@@ -17494,7 +17494,7 @@
         <v>398</v>
       </c>
       <c r="P382" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -17526,7 +17526,7 @@
         <v>409</v>
       </c>
       <c r="J383" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K383" s="2">
         <v>70</v>
@@ -17542,7 +17542,7 @@
         <v>398</v>
       </c>
       <c r="P383" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -17574,7 +17574,7 @@
         <v>411</v>
       </c>
       <c r="J384" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K384" s="2">
         <v>70</v>
@@ -17590,7 +17590,7 @@
         <v>398</v>
       </c>
       <c r="P384" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -17622,7 +17622,7 @@
         <v>413</v>
       </c>
       <c r="J385" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K385" s="2">
         <v>70</v>
@@ -17638,7 +17638,7 @@
         <v>398</v>
       </c>
       <c r="P385" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -17670,7 +17670,7 @@
         <v>415</v>
       </c>
       <c r="J386" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K386" s="2">
         <v>70</v>
@@ -17686,7 +17686,7 @@
         <v>398</v>
       </c>
       <c r="P386" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -17718,7 +17718,7 @@
         <v>425</v>
       </c>
       <c r="J387" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K387" s="2">
         <v>70</v>
@@ -17734,7 +17734,7 @@
         <v>398</v>
       </c>
       <c r="P387" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -17766,7 +17766,7 @@
         <v>432</v>
       </c>
       <c r="J388" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K388" s="2">
         <v>70</v>
@@ -17782,7 +17782,7 @@
         <v>398</v>
       </c>
       <c r="P388" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -17814,7 +17814,7 @@
         <v>439</v>
       </c>
       <c r="J389" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K389" s="2">
         <v>70</v>
@@ -17830,7 +17830,7 @@
         <v>398</v>
       </c>
       <c r="P389" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -17862,7 +17862,7 @@
         <v>449</v>
       </c>
       <c r="J390" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K390" s="2">
         <v>70</v>
@@ -17878,7 +17878,7 @@
         <v>398</v>
       </c>
       <c r="P390" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -17910,7 +17910,7 @@
         <v>455</v>
       </c>
       <c r="J391" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K391" s="2">
         <v>70</v>
@@ -17926,7 +17926,7 @@
         <v>398</v>
       </c>
       <c r="P391" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -17958,7 +17958,7 @@
         <v>457</v>
       </c>
       <c r="J392" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K392" s="2">
         <v>70</v>
@@ -17974,7 +17974,7 @@
         <v>398</v>
       </c>
       <c r="P392" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -18006,7 +18006,7 @@
         <v>471</v>
       </c>
       <c r="J393" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K393" s="2">
         <v>70</v>
@@ -18022,7 +18022,7 @@
         <v>398</v>
       </c>
       <c r="P393" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -18054,7 +18054,7 @@
         <v>473</v>
       </c>
       <c r="J394" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K394" s="2">
         <v>70</v>
@@ -18070,7 +18070,7 @@
         <v>398</v>
       </c>
       <c r="P394" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -18102,7 +18102,7 @@
         <v>480</v>
       </c>
       <c r="J395" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K395" s="2">
         <v>70</v>
@@ -18118,7 +18118,7 @@
         <v>398</v>
       </c>
       <c r="P395" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -18150,7 +18150,7 @@
         <v>481</v>
       </c>
       <c r="J396" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K396" s="2">
         <v>70</v>
@@ -18166,7 +18166,7 @@
         <v>398</v>
       </c>
       <c r="P396" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -18198,7 +18198,7 @@
         <v>484</v>
       </c>
       <c r="J397" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K397" s="2">
         <v>70</v>
@@ -18214,7 +18214,7 @@
         <v>398</v>
       </c>
       <c r="P397" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -18246,7 +18246,7 @@
         <v>485</v>
       </c>
       <c r="J398" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K398" s="2">
         <v>70</v>
@@ -18262,7 +18262,7 @@
         <v>398</v>
       </c>
       <c r="P398" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -18294,7 +18294,7 @@
         <v>488</v>
       </c>
       <c r="J399" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K399" s="2">
         <v>70</v>
@@ -18310,7 +18310,7 @@
         <v>398</v>
       </c>
       <c r="P399" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -18342,7 +18342,7 @@
         <v>493</v>
       </c>
       <c r="J400" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K400" s="2">
         <v>70</v>
@@ -18358,7 +18358,7 @@
         <v>398</v>
       </c>
       <c r="P400" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -18390,7 +18390,7 @@
         <v>499</v>
       </c>
       <c r="J401" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K401" s="2">
         <v>70</v>
@@ -18406,7 +18406,7 @@
         <v>398</v>
       </c>
       <c r="P401" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -18438,7 +18438,7 @@
         <v>504</v>
       </c>
       <c r="J402" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K402" s="2">
         <v>70</v>
@@ -18454,7 +18454,7 @@
         <v>398</v>
       </c>
       <c r="P402" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D43EC-16CF-D940-9969-FDF9E4139087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F456823-0E01-BB46-A691-75EA1A446094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:S402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337"/>
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F456823-0E01-BB46-A691-75EA1A446094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DB112-102C-9E46-AC80-333BBC08C515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1508,7 +1508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1534,6 +1534,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1552,10 +1560,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1564,8 +1573,10 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1880,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="E148" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166:M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2463,6 +2474,13 @@
       <c r="K12" t="s">
         <v>332</v>
       </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <f>(F12)*(L12-G12)</f>
+        <v>226.8</v>
+      </c>
       <c r="N12" t="s">
         <v>398</v>
       </c>
@@ -2501,6 +2519,13 @@
       <c r="K13" t="s">
         <v>332</v>
       </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M29" si="2">(F13)*(L13-G13)</f>
+        <v>161.1</v>
+      </c>
       <c r="N13" t="s">
         <v>398</v>
       </c>
@@ -2539,10 +2564,17 @@
       <c r="K14" t="s">
         <v>332</v>
       </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>59.400000000000006</v>
+      </c>
       <c r="N14" t="s">
         <v>398</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2580,6 +2612,13 @@
       <c r="K15" t="s">
         <v>332</v>
       </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>123.75</v>
+      </c>
       <c r="N15" t="s">
         <v>398</v>
       </c>
@@ -2621,6 +2660,13 @@
       <c r="K16" t="s">
         <v>332</v>
       </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>158.4</v>
+      </c>
       <c r="N16" t="s">
         <v>398</v>
       </c>
@@ -2662,6 +2708,13 @@
       <c r="K17" t="s">
         <v>332</v>
       </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>221.4</v>
+      </c>
       <c r="N17" t="s">
         <v>398</v>
       </c>
@@ -2703,6 +2756,13 @@
       <c r="K18" t="s">
         <v>332</v>
       </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>90.449999999999989</v>
+      </c>
       <c r="N18" t="s">
         <v>398</v>
       </c>
@@ -2744,6 +2804,13 @@
       <c r="K19" t="s">
         <v>332</v>
       </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>259.2</v>
+      </c>
       <c r="N19" t="s">
         <v>398</v>
       </c>
@@ -2785,6 +2852,13 @@
       <c r="K20" t="s">
         <v>332</v>
       </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>120.60000000000001</v>
+      </c>
       <c r="N20" t="s">
         <v>398</v>
       </c>
@@ -2826,6 +2900,13 @@
       <c r="K21" t="s">
         <v>332</v>
       </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>82.8</v>
+      </c>
       <c r="N21" t="s">
         <v>398</v>
       </c>
@@ -2867,6 +2948,13 @@
       <c r="K22" t="s">
         <v>332</v>
       </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>48.6</v>
+      </c>
       <c r="N22" t="s">
         <v>398</v>
       </c>
@@ -2908,6 +2996,13 @@
       <c r="K23" t="s">
         <v>332</v>
       </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>62.099999999999994</v>
+      </c>
       <c r="N23" t="s">
         <v>398</v>
       </c>
@@ -2949,6 +3044,13 @@
       <c r="K24" t="s">
         <v>332</v>
       </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>105.3</v>
+      </c>
       <c r="N24" t="s">
         <v>398</v>
       </c>
@@ -2990,6 +3092,13 @@
       <c r="K25" t="s">
         <v>332</v>
       </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N25" t="s">
         <v>398</v>
       </c>
@@ -3031,6 +3140,13 @@
       <c r="K26" t="s">
         <v>332</v>
       </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>109.8</v>
+      </c>
       <c r="N26" t="s">
         <v>398</v>
       </c>
@@ -3072,6 +3188,13 @@
       <c r="K27" t="s">
         <v>332</v>
       </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>166.95</v>
+      </c>
       <c r="N27" t="s">
         <v>398</v>
       </c>
@@ -3113,6 +3236,13 @@
       <c r="K28" t="s">
         <v>332</v>
       </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N28" t="s">
         <v>398</v>
       </c>
@@ -3154,6 +3284,13 @@
       <c r="K29" t="s">
         <v>332</v>
       </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N29" t="s">
         <v>398</v>
       </c>
@@ -3931,10 +4068,17 @@
       <c r="K53" t="s">
         <v>332</v>
       </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <f>(F53)*(L53-G53)</f>
+        <v>139.04999999999998</v>
+      </c>
       <c r="N53" t="s">
         <v>398</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="8" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3972,6 +4116,13 @@
       <c r="K54" t="s">
         <v>332</v>
       </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:M117" si="3">(F54)*(L54-G54)</f>
+        <v>0</v>
+      </c>
       <c r="N54" t="s">
         <v>398</v>
       </c>
@@ -4013,6 +4164,13 @@
       <c r="K55" t="s">
         <v>332</v>
       </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>112.94999999999999</v>
+      </c>
       <c r="N55" t="s">
         <v>398</v>
       </c>
@@ -4054,6 +4212,13 @@
       <c r="K56" t="s">
         <v>332</v>
       </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>109.8</v>
+      </c>
       <c r="N56" t="s">
         <v>398</v>
       </c>
@@ -4095,6 +4260,13 @@
       <c r="K57" t="s">
         <v>332</v>
       </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N57" t="s">
         <v>398</v>
       </c>
@@ -4136,6 +4308,13 @@
       <c r="K58" t="s">
         <v>332</v>
       </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
       <c r="N58" t="s">
         <v>398</v>
       </c>
@@ -4177,6 +4356,13 @@
       <c r="K59" t="s">
         <v>332</v>
       </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>98.100000000000009</v>
+      </c>
       <c r="N59" t="s">
         <v>398</v>
       </c>
@@ -4218,6 +4404,13 @@
       <c r="K60" t="s">
         <v>332</v>
       </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>65.7</v>
+      </c>
       <c r="N60" t="s">
         <v>398</v>
       </c>
@@ -4259,6 +4452,13 @@
       <c r="K61" t="s">
         <v>332</v>
       </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>118.80000000000001</v>
+      </c>
       <c r="N61" t="s">
         <v>398</v>
       </c>
@@ -4300,6 +4500,13 @@
       <c r="K62" t="s">
         <v>332</v>
       </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>264.60000000000002</v>
+      </c>
       <c r="N62" t="s">
         <v>398</v>
       </c>
@@ -4338,6 +4545,13 @@
       <c r="K63" t="s">
         <v>332</v>
       </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
       <c r="N63" t="s">
         <v>398</v>
       </c>
@@ -4376,6 +4590,13 @@
       <c r="K64" t="s">
         <v>332</v>
       </c>
+      <c r="L64">
+        <v>50</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>370.8</v>
+      </c>
       <c r="N64" t="s">
         <v>398</v>
       </c>
@@ -4414,6 +4635,13 @@
       <c r="K65" t="s">
         <v>332</v>
       </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>52.199999999999996</v>
+      </c>
       <c r="N65" t="s">
         <v>398</v>
       </c>
@@ -4452,6 +4680,13 @@
       <c r="K66" t="s">
         <v>332</v>
       </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>300.59999999999997</v>
+      </c>
       <c r="N66" t="s">
         <v>398</v>
       </c>
@@ -4490,6 +4725,13 @@
       <c r="K67" t="s">
         <v>332</v>
       </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="3"/>
+        <v>37.799999999999997</v>
+      </c>
       <c r="N67" t="s">
         <v>398</v>
       </c>
@@ -4528,6 +4770,13 @@
       <c r="K68" t="s">
         <v>332</v>
       </c>
+      <c r="L68">
+        <v>50</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>361.79999999999995</v>
+      </c>
       <c r="N68" t="s">
         <v>398</v>
       </c>
@@ -4566,6 +4815,13 @@
       <c r="K69" t="s">
         <v>332</v>
       </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="3"/>
+        <v>239.4</v>
+      </c>
       <c r="N69" t="s">
         <v>398</v>
       </c>
@@ -4604,6 +4860,13 @@
       <c r="K70" t="s">
         <v>332</v>
       </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="3"/>
+        <v>139.5</v>
+      </c>
       <c r="N70" t="s">
         <v>398</v>
       </c>
@@ -4642,6 +4905,13 @@
       <c r="K71" t="s">
         <v>332</v>
       </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="3"/>
+        <v>210.6</v>
+      </c>
       <c r="N71" t="s">
         <v>398</v>
       </c>
@@ -4680,6 +4950,13 @@
       <c r="K72" t="s">
         <v>332</v>
       </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="3"/>
+        <v>95.4</v>
+      </c>
       <c r="N72" t="s">
         <v>398</v>
       </c>
@@ -4718,6 +4995,13 @@
       <c r="K73" t="s">
         <v>332</v>
       </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
       <c r="N73" t="s">
         <v>398</v>
       </c>
@@ -4756,6 +5040,13 @@
       <c r="K74" t="s">
         <v>332</v>
       </c>
+      <c r="L74">
+        <v>50</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
       <c r="N74" t="s">
         <v>398</v>
       </c>
@@ -4794,6 +5085,13 @@
       <c r="K75" t="s">
         <v>332</v>
       </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="3"/>
+        <v>41.4</v>
+      </c>
       <c r="N75" t="s">
         <v>398</v>
       </c>
@@ -4832,10 +5130,17 @@
       <c r="K76" t="s">
         <v>332</v>
       </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="3"/>
+        <v>119.7</v>
+      </c>
       <c r="N76" t="s">
         <v>398</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="8" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4873,6 +5178,13 @@
       <c r="K77" t="s">
         <v>332</v>
       </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="3"/>
+        <v>289.8</v>
+      </c>
       <c r="N77" t="s">
         <v>398</v>
       </c>
@@ -4914,6 +5226,13 @@
       <c r="K78" t="s">
         <v>332</v>
       </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="3"/>
+        <v>277.2</v>
+      </c>
       <c r="N78" t="s">
         <v>398</v>
       </c>
@@ -4955,6 +5274,13 @@
       <c r="K79" t="s">
         <v>332</v>
       </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N79" t="s">
         <v>398</v>
       </c>
@@ -4996,6 +5322,13 @@
       <c r="K80" t="s">
         <v>332</v>
       </c>
+      <c r="L80">
+        <v>50</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>98.55</v>
+      </c>
       <c r="N80" t="s">
         <v>398</v>
       </c>
@@ -5037,6 +5370,13 @@
       <c r="K81" t="s">
         <v>332</v>
       </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="3"/>
+        <v>159.75</v>
+      </c>
       <c r="N81" t="s">
         <v>398</v>
       </c>
@@ -5078,6 +5418,13 @@
       <c r="K82" t="s">
         <v>332</v>
       </c>
+      <c r="L82">
+        <v>50</v>
+      </c>
+      <c r="M82">
+        <f>(F82)*(L82-G82)</f>
+        <v>79.2</v>
+      </c>
       <c r="N82" t="s">
         <v>398</v>
       </c>
@@ -5119,6 +5466,13 @@
       <c r="K83" t="s">
         <v>332</v>
       </c>
+      <c r="L83">
+        <v>50</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="3"/>
+        <v>253.79999999999998</v>
+      </c>
       <c r="N83" t="s">
         <v>398</v>
       </c>
@@ -5160,6 +5514,13 @@
       <c r="K84" t="s">
         <v>332</v>
       </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="3"/>
+        <v>79.650000000000006</v>
+      </c>
       <c r="N84" t="s">
         <v>398</v>
       </c>
@@ -5201,10 +5562,17 @@
       <c r="K85" t="s">
         <v>332</v>
       </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="3"/>
+        <v>264.60000000000002</v>
+      </c>
       <c r="N85" t="s">
         <v>398</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5230,6 +5598,13 @@
       <c r="K86" t="s">
         <v>332</v>
       </c>
+      <c r="L86">
+        <v>50</v>
+      </c>
+      <c r="M86" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N86" t="s">
         <v>398</v>
       </c>
@@ -5262,6 +5637,13 @@
       <c r="K87" t="s">
         <v>332</v>
       </c>
+      <c r="L87">
+        <v>50</v>
+      </c>
+      <c r="M87" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N87" t="s">
         <v>398</v>
       </c>
@@ -5294,6 +5676,13 @@
       <c r="K88" t="s">
         <v>332</v>
       </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N88" t="s">
         <v>398</v>
       </c>
@@ -5326,6 +5715,13 @@
       <c r="K89" t="s">
         <v>332</v>
       </c>
+      <c r="L89">
+        <v>50</v>
+      </c>
+      <c r="M89" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N89" t="s">
         <v>398</v>
       </c>
@@ -5358,6 +5754,13 @@
       <c r="K90" t="s">
         <v>332</v>
       </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N90" t="s">
         <v>398</v>
       </c>
@@ -5390,6 +5793,13 @@
       <c r="K91" t="s">
         <v>332</v>
       </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N91" t="s">
         <v>398</v>
       </c>
@@ -5422,6 +5832,13 @@
       <c r="K92" t="s">
         <v>332</v>
       </c>
+      <c r="L92">
+        <v>50</v>
+      </c>
+      <c r="M92" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N92" t="s">
         <v>398</v>
       </c>
@@ -5454,6 +5871,13 @@
       <c r="K93" t="s">
         <v>332</v>
       </c>
+      <c r="L93">
+        <v>50</v>
+      </c>
+      <c r="M93" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N93" t="s">
         <v>398</v>
       </c>
@@ -5485,6 +5909,13 @@
       </c>
       <c r="K94" t="s">
         <v>332</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N94" t="s">
         <v>398</v>
@@ -5530,10 +5961,17 @@
       <c r="K95" t="s">
         <v>332</v>
       </c>
+      <c r="L95">
+        <v>50</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="3"/>
+        <v>198.00000000000003</v>
+      </c>
       <c r="N95" t="s">
         <v>398</v>
       </c>
-      <c r="P95" t="s">
+      <c r="P95" s="8" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5571,6 +6009,13 @@
       <c r="K96" t="s">
         <v>332</v>
       </c>
+      <c r="L96">
+        <v>50</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="3"/>
+        <v>153.45000000000002</v>
+      </c>
       <c r="N96" t="s">
         <v>398</v>
       </c>
@@ -5612,6 +6057,13 @@
       <c r="K97" t="s">
         <v>332</v>
       </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="3"/>
+        <v>73.8</v>
+      </c>
       <c r="N97" t="s">
         <v>398</v>
       </c>
@@ -5653,6 +6105,13 @@
       <c r="K98" t="s">
         <v>332</v>
       </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="3"/>
+        <v>117.9</v>
+      </c>
       <c r="N98" t="s">
         <v>398</v>
       </c>
@@ -5694,6 +6153,13 @@
       <c r="K99" t="s">
         <v>332</v>
       </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="3"/>
+        <v>149.4</v>
+      </c>
       <c r="N99" t="s">
         <v>398</v>
       </c>
@@ -5735,6 +6201,13 @@
       <c r="K100" t="s">
         <v>332</v>
       </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="3"/>
+        <v>136.35</v>
+      </c>
       <c r="N100" t="s">
         <v>398</v>
       </c>
@@ -5776,6 +6249,13 @@
       <c r="K101" t="s">
         <v>332</v>
       </c>
+      <c r="L101">
+        <v>50</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="3"/>
+        <v>237.60000000000002</v>
+      </c>
       <c r="N101" t="s">
         <v>398</v>
       </c>
@@ -5817,6 +6297,13 @@
       <c r="K102" t="s">
         <v>332</v>
       </c>
+      <c r="L102">
+        <v>50</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="3"/>
+        <v>157.94999999999999</v>
+      </c>
       <c r="N102" t="s">
         <v>398</v>
       </c>
@@ -5858,6 +6345,13 @@
       <c r="K103" t="s">
         <v>332</v>
       </c>
+      <c r="L103">
+        <v>50</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="3"/>
+        <v>72.900000000000006</v>
+      </c>
       <c r="N103" t="s">
         <v>398</v>
       </c>
@@ -5899,6 +6393,13 @@
       <c r="K104" t="s">
         <v>332</v>
       </c>
+      <c r="L104">
+        <v>50</v>
+      </c>
+      <c r="M104">
+        <f>(F104)*(L104-G104)</f>
+        <v>0</v>
+      </c>
       <c r="N104" t="s">
         <v>398</v>
       </c>
@@ -5940,6 +6441,13 @@
       <c r="K105" t="s">
         <v>332</v>
       </c>
+      <c r="L105">
+        <v>50</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
+      </c>
       <c r="N105" t="s">
         <v>398</v>
       </c>
@@ -5981,6 +6489,13 @@
       <c r="K106" t="s">
         <v>332</v>
       </c>
+      <c r="L106">
+        <v>50</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="3"/>
+        <v>94.5</v>
+      </c>
       <c r="N106" t="s">
         <v>398</v>
       </c>
@@ -6022,6 +6537,13 @@
       <c r="K107" t="s">
         <v>332</v>
       </c>
+      <c r="L107">
+        <v>50</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
       <c r="N107" t="s">
         <v>398</v>
       </c>
@@ -6063,6 +6585,13 @@
       <c r="K108" t="s">
         <v>332</v>
       </c>
+      <c r="L108">
+        <v>50</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="3"/>
+        <v>84.6</v>
+      </c>
       <c r="N108" t="s">
         <v>398</v>
       </c>
@@ -6104,6 +6633,13 @@
       <c r="K109" t="s">
         <v>332</v>
       </c>
+      <c r="L109">
+        <v>50</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="3"/>
+        <v>107.1</v>
+      </c>
       <c r="N109" t="s">
         <v>398</v>
       </c>
@@ -6145,6 +6681,13 @@
       <c r="K110" t="s">
         <v>332</v>
       </c>
+      <c r="L110">
+        <v>50</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="3"/>
+        <v>338.4</v>
+      </c>
       <c r="N110" t="s">
         <v>398</v>
       </c>
@@ -6186,6 +6729,13 @@
       <c r="K111" t="s">
         <v>332</v>
       </c>
+      <c r="L111">
+        <v>50</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="3"/>
+        <v>163.80000000000001</v>
+      </c>
       <c r="N111" t="s">
         <v>398</v>
       </c>
@@ -6227,6 +6777,13 @@
       <c r="K112" t="s">
         <v>332</v>
       </c>
+      <c r="L112">
+        <v>50</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="3"/>
+        <v>226.8</v>
+      </c>
       <c r="N112" t="s">
         <v>398</v>
       </c>
@@ -6268,10 +6825,17 @@
       <c r="K113" t="s">
         <v>332</v>
       </c>
+      <c r="L113">
+        <v>50</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="3"/>
+        <v>228.6</v>
+      </c>
       <c r="N113" t="s">
         <v>398</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P113" s="8" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6309,6 +6873,13 @@
       <c r="K114" t="s">
         <v>332</v>
       </c>
+      <c r="L114">
+        <v>50</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
       <c r="N114" t="s">
         <v>398</v>
       </c>
@@ -6350,6 +6921,13 @@
       <c r="K115" t="s">
         <v>332</v>
       </c>
+      <c r="L115">
+        <v>50</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="3"/>
+        <v>151.19999999999999</v>
+      </c>
       <c r="N115" t="s">
         <v>398</v>
       </c>
@@ -6391,6 +6969,13 @@
       <c r="K116" t="s">
         <v>332</v>
       </c>
+      <c r="L116">
+        <v>50</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="3"/>
+        <v>127.8</v>
+      </c>
       <c r="N116" t="s">
         <v>398</v>
       </c>
@@ -6432,6 +7017,13 @@
       <c r="K117" t="s">
         <v>332</v>
       </c>
+      <c r="L117">
+        <v>50</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="3"/>
+        <v>273.60000000000002</v>
+      </c>
       <c r="N117" t="s">
         <v>398</v>
       </c>
@@ -6473,6 +7065,13 @@
       <c r="K118" t="s">
         <v>332</v>
       </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118">
+        <f t="shared" ref="M118:M125" si="4">(F118)*(L118-G118)</f>
+        <v>255.6</v>
+      </c>
       <c r="N118" t="s">
         <v>398</v>
       </c>
@@ -6514,6 +7113,13 @@
       <c r="K119" t="s">
         <v>332</v>
       </c>
+      <c r="L119">
+        <v>50</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="4"/>
+        <v>127.35000000000001</v>
+      </c>
       <c r="N119" t="s">
         <v>398</v>
       </c>
@@ -6555,6 +7161,13 @@
       <c r="K120" t="s">
         <v>332</v>
       </c>
+      <c r="L120">
+        <v>50</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="4"/>
+        <v>64.8</v>
+      </c>
       <c r="N120" t="s">
         <v>398</v>
       </c>
@@ -6596,6 +7209,13 @@
       <c r="K121" t="s">
         <v>332</v>
       </c>
+      <c r="L121">
+        <v>50</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="4"/>
+        <v>230.4</v>
+      </c>
       <c r="N121" t="s">
         <v>398</v>
       </c>
@@ -6637,6 +7257,13 @@
       <c r="K122" t="s">
         <v>332</v>
       </c>
+      <c r="L122">
+        <v>50</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="4"/>
+        <v>152.1</v>
+      </c>
       <c r="N122" t="s">
         <v>398</v>
       </c>
@@ -6678,6 +7305,13 @@
       <c r="K123" t="s">
         <v>332</v>
       </c>
+      <c r="L123">
+        <v>50</v>
+      </c>
+      <c r="M123" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N123" t="s">
         <v>398</v>
       </c>
@@ -6719,6 +7353,13 @@
       <c r="K124" t="s">
         <v>332</v>
       </c>
+      <c r="L124">
+        <v>50</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="4"/>
+        <v>226.8</v>
+      </c>
       <c r="N124" t="s">
         <v>398</v>
       </c>
@@ -6760,6 +7401,13 @@
       <c r="K125" t="s">
         <v>332</v>
       </c>
+      <c r="L125">
+        <v>50</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="4"/>
+        <v>144.9</v>
+      </c>
       <c r="N125" t="s">
         <v>398</v>
       </c>
@@ -6801,6 +7449,13 @@
       <c r="K126" t="s">
         <v>332</v>
       </c>
+      <c r="L126">
+        <v>50</v>
+      </c>
+      <c r="M126">
+        <f>(F126)*(L126-G126)</f>
+        <v>121.05</v>
+      </c>
       <c r="N126" t="s">
         <v>398</v>
       </c>
@@ -6842,6 +7497,13 @@
       <c r="K127" t="s">
         <v>332</v>
       </c>
+      <c r="L127">
+        <v>50</v>
+      </c>
+      <c r="M127">
+        <f t="shared" ref="M127:M149" si="5">(F127)*(L127-G127)</f>
+        <v>121.05</v>
+      </c>
       <c r="N127" t="s">
         <v>398</v>
       </c>
@@ -6883,6 +7545,13 @@
       <c r="K128" t="s">
         <v>332</v>
       </c>
+      <c r="L128">
+        <v>50</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="5"/>
+        <v>166.95</v>
+      </c>
       <c r="N128" t="s">
         <v>398</v>
       </c>
@@ -6924,6 +7593,13 @@
       <c r="K129" t="s">
         <v>332</v>
       </c>
+      <c r="L129">
+        <v>50</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="5"/>
+        <v>119.7</v>
+      </c>
       <c r="N129" t="s">
         <v>398</v>
       </c>
@@ -6965,6 +7641,13 @@
       <c r="K130" t="s">
         <v>332</v>
       </c>
+      <c r="L130">
+        <v>50</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="5"/>
+        <v>153.45000000000002</v>
+      </c>
       <c r="N130" t="s">
         <v>398</v>
       </c>
@@ -7006,6 +7689,13 @@
       <c r="K131" t="s">
         <v>332</v>
       </c>
+      <c r="L131">
+        <v>50</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="5"/>
+        <v>116.55</v>
+      </c>
       <c r="N131" t="s">
         <v>398</v>
       </c>
@@ -7047,6 +7737,13 @@
       <c r="K132" t="s">
         <v>332</v>
       </c>
+      <c r="L132">
+        <v>50</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="5"/>
+        <v>237.60000000000002</v>
+      </c>
       <c r="N132" t="s">
         <v>398</v>
       </c>
@@ -7088,6 +7785,13 @@
       <c r="K133" t="s">
         <v>332</v>
       </c>
+      <c r="L133">
+        <v>50</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="5"/>
+        <v>92.249999999999986</v>
+      </c>
       <c r="N133" t="s">
         <v>398</v>
       </c>
@@ -7129,6 +7833,13 @@
       <c r="K134" t="s">
         <v>332</v>
       </c>
+      <c r="L134">
+        <v>50</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="5"/>
+        <v>155.69999999999999</v>
+      </c>
       <c r="N134" t="s">
         <v>398</v>
       </c>
@@ -7170,6 +7881,13 @@
       <c r="K135" t="s">
         <v>332</v>
       </c>
+      <c r="L135">
+        <v>50</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="5"/>
+        <v>196.20000000000002</v>
+      </c>
       <c r="N135" t="s">
         <v>398</v>
       </c>
@@ -7211,6 +7929,13 @@
       <c r="K136" t="s">
         <v>332</v>
       </c>
+      <c r="L136">
+        <v>50</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="5"/>
+        <v>697.5</v>
+      </c>
       <c r="N136" t="s">
         <v>398</v>
       </c>
@@ -7252,6 +7977,13 @@
       <c r="K137" t="s">
         <v>332</v>
       </c>
+      <c r="L137">
+        <v>50</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="5"/>
+        <v>78.75</v>
+      </c>
       <c r="N137" t="s">
         <v>398</v>
       </c>
@@ -7293,6 +8025,13 @@
       <c r="K138" t="s">
         <v>332</v>
       </c>
+      <c r="L138">
+        <v>50</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="5"/>
+        <v>219.6</v>
+      </c>
       <c r="N138" t="s">
         <v>398</v>
       </c>
@@ -7334,6 +8073,13 @@
       <c r="K139" t="s">
         <v>332</v>
       </c>
+      <c r="L139">
+        <v>50</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="5"/>
+        <v>486.00000000000006</v>
+      </c>
       <c r="N139" t="s">
         <v>398</v>
       </c>
@@ -7375,6 +8121,13 @@
       <c r="K140" t="s">
         <v>332</v>
       </c>
+      <c r="L140">
+        <v>50</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="5"/>
+        <v>223.2</v>
+      </c>
       <c r="N140" t="s">
         <v>398</v>
       </c>
@@ -7416,6 +8169,13 @@
       <c r="K141" t="s">
         <v>332</v>
       </c>
+      <c r="L141">
+        <v>50</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
       <c r="N141" t="s">
         <v>398</v>
       </c>
@@ -7457,6 +8217,13 @@
       <c r="K142" t="s">
         <v>332</v>
       </c>
+      <c r="L142">
+        <v>50</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="5"/>
+        <v>372.59999999999997</v>
+      </c>
       <c r="N142" t="s">
         <v>398</v>
       </c>
@@ -7498,6 +8265,13 @@
       <c r="K143" t="s">
         <v>332</v>
       </c>
+      <c r="L143">
+        <v>50</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="5"/>
+        <v>293.39999999999998</v>
+      </c>
       <c r="N143" t="s">
         <v>398</v>
       </c>
@@ -7539,6 +8313,13 @@
       <c r="K144" t="s">
         <v>332</v>
       </c>
+      <c r="L144">
+        <v>50</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="5"/>
+        <v>177.3</v>
+      </c>
       <c r="N144" t="s">
         <v>398</v>
       </c>
@@ -7580,6 +8361,13 @@
       <c r="K145" t="s">
         <v>332</v>
       </c>
+      <c r="L145">
+        <v>50</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
       <c r="N145" t="s">
         <v>398</v>
       </c>
@@ -7621,6 +8409,13 @@
       <c r="K146" t="s">
         <v>332</v>
       </c>
+      <c r="L146">
+        <v>50</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="5"/>
+        <v>325.8</v>
+      </c>
       <c r="N146" t="s">
         <v>398</v>
       </c>
@@ -7662,6 +8457,13 @@
       <c r="K147" t="s">
         <v>332</v>
       </c>
+      <c r="L147">
+        <v>50</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
       <c r="N147" t="s">
         <v>398</v>
       </c>
@@ -7703,6 +8505,13 @@
       <c r="K148" t="s">
         <v>332</v>
       </c>
+      <c r="L148">
+        <v>50</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="5"/>
+        <v>110.7</v>
+      </c>
       <c r="N148" t="s">
         <v>398</v>
       </c>
@@ -7744,6 +8553,13 @@
       <c r="K149" t="s">
         <v>332</v>
       </c>
+      <c r="L149">
+        <v>50</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="5"/>
+        <v>129.6</v>
+      </c>
       <c r="N149" t="s">
         <v>398</v>
       </c>
@@ -7785,6 +8601,13 @@
       <c r="K150" t="s">
         <v>332</v>
       </c>
+      <c r="L150">
+        <v>50</v>
+      </c>
+      <c r="M150">
+        <f>(F150)*(L150-G150)</f>
+        <v>189</v>
+      </c>
       <c r="N150" t="s">
         <v>398</v>
       </c>
@@ -7826,6 +8649,13 @@
       <c r="K151" t="s">
         <v>332</v>
       </c>
+      <c r="L151">
+        <v>50</v>
+      </c>
+      <c r="M151">
+        <f t="shared" ref="M151:M165" si="6">(F151)*(L151-G151)</f>
+        <v>248.39999999999998</v>
+      </c>
       <c r="N151" t="s">
         <v>398</v>
       </c>
@@ -7867,6 +8697,13 @@
       <c r="K152" t="s">
         <v>332</v>
       </c>
+      <c r="L152">
+        <v>50</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="6"/>
+        <v>383.4</v>
+      </c>
       <c r="N152" t="s">
         <v>398</v>
       </c>
@@ -7908,6 +8745,13 @@
       <c r="K153" t="s">
         <v>332</v>
       </c>
+      <c r="L153">
+        <v>50</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="6"/>
+        <v>458.99999999999994</v>
+      </c>
       <c r="N153" t="s">
         <v>398</v>
       </c>
@@ -7949,6 +8793,13 @@
       <c r="K154" t="s">
         <v>332</v>
       </c>
+      <c r="L154">
+        <v>50</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="6"/>
+        <v>458.99999999999994</v>
+      </c>
       <c r="N154" t="s">
         <v>398</v>
       </c>
@@ -7990,6 +8841,13 @@
       <c r="K155" t="s">
         <v>332</v>
       </c>
+      <c r="L155">
+        <v>50</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="6"/>
+        <v>206.99999999999997</v>
+      </c>
       <c r="N155" t="s">
         <v>398</v>
       </c>
@@ -8031,6 +8889,13 @@
       <c r="K156" t="s">
         <v>332</v>
       </c>
+      <c r="L156">
+        <v>50</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="6"/>
+        <v>295.2</v>
+      </c>
       <c r="N156" t="s">
         <v>398</v>
       </c>
@@ -8072,6 +8937,13 @@
       <c r="K157" t="s">
         <v>332</v>
       </c>
+      <c r="L157">
+        <v>50</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="6"/>
+        <v>419.40000000000003</v>
+      </c>
       <c r="N157" t="s">
         <v>398</v>
       </c>
@@ -8113,6 +8985,13 @@
       <c r="K158" t="s">
         <v>332</v>
       </c>
+      <c r="L158">
+        <v>50</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="6"/>
+        <v>136.35</v>
+      </c>
       <c r="N158" t="s">
         <v>398</v>
       </c>
@@ -8154,6 +9033,13 @@
       <c r="K159" t="s">
         <v>332</v>
       </c>
+      <c r="L159">
+        <v>50</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="6"/>
+        <v>154.80000000000001</v>
+      </c>
       <c r="N159" t="s">
         <v>398</v>
       </c>
@@ -8195,6 +9081,13 @@
       <c r="K160" t="s">
         <v>332</v>
       </c>
+      <c r="L160">
+        <v>50</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="6"/>
+        <v>94.5</v>
+      </c>
       <c r="N160" t="s">
         <v>398</v>
       </c>
@@ -8236,6 +9129,13 @@
       <c r="K161" t="s">
         <v>332</v>
       </c>
+      <c r="L161">
+        <v>50</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="6"/>
+        <v>108.45</v>
+      </c>
       <c r="N161" t="s">
         <v>398</v>
       </c>
@@ -8265,6 +9165,13 @@
       <c r="K162" t="s">
         <v>332</v>
       </c>
+      <c r="L162">
+        <v>50</v>
+      </c>
+      <c r="M162" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N162" t="s">
         <v>398</v>
       </c>
@@ -8294,6 +9201,13 @@
       <c r="K163" t="s">
         <v>332</v>
       </c>
+      <c r="L163">
+        <v>50</v>
+      </c>
+      <c r="M163" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N163" t="s">
         <v>398</v>
       </c>
@@ -8323,6 +9237,13 @@
       <c r="K164" t="s">
         <v>332</v>
       </c>
+      <c r="L164">
+        <v>50</v>
+      </c>
+      <c r="M164" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N164" t="s">
         <v>398</v>
       </c>
@@ -8351,6 +9272,13 @@
       </c>
       <c r="K165" t="s">
         <v>332</v>
+      </c>
+      <c r="L165">
+        <v>50</v>
+      </c>
+      <c r="M165" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N165" t="s">
         <v>398</v>
@@ -8393,10 +9321,17 @@
       <c r="K166" t="s">
         <v>332</v>
       </c>
+      <c r="L166">
+        <v>30</v>
+      </c>
+      <c r="M166">
+        <f>(F166)*(L166-G166)</f>
+        <v>113.99999999999999</v>
+      </c>
       <c r="N166" t="s">
         <v>398</v>
       </c>
-      <c r="P166" t="s">
+      <c r="P166" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8434,6 +9369,13 @@
       <c r="K167" t="s">
         <v>332</v>
       </c>
+      <c r="L167">
+        <v>30</v>
+      </c>
+      <c r="M167">
+        <f t="shared" ref="M167:M169" si="7">(F167)*(L167-G167)</f>
+        <v>247.00000000000003</v>
+      </c>
       <c r="N167" t="s">
         <v>398</v>
       </c>
@@ -8475,6 +9417,13 @@
       <c r="K168" t="s">
         <v>332</v>
       </c>
+      <c r="L168">
+        <v>30</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="7"/>
+        <v>38.5</v>
+      </c>
       <c r="N168" t="s">
         <v>398</v>
       </c>
@@ -8516,6 +9465,13 @@
       <c r="K169" t="s">
         <v>332</v>
       </c>
+      <c r="L169">
+        <v>30</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="7"/>
+        <v>352.5</v>
+      </c>
       <c r="N169" t="s">
         <v>398</v>
       </c>
@@ -8609,7 +9565,7 @@
         <v>14</v>
       </c>
       <c r="M171">
-        <f t="shared" ref="M171:M209" si="2">(F171)*(L171-G171)</f>
+        <f t="shared" ref="M171:M209" si="8">(F171)*(L171-G171)</f>
         <v>234</v>
       </c>
       <c r="N171" t="s">
@@ -8657,7 +9613,7 @@
         <v>14</v>
       </c>
       <c r="M172" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N172" t="s">
@@ -8705,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="M173" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N173" t="s">
@@ -8753,7 +9709,7 @@
         <v>14</v>
       </c>
       <c r="M174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>224.9</v>
       </c>
       <c r="N174" t="s">
@@ -8801,7 +9757,7 @@
         <v>14</v>
       </c>
       <c r="M175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>387.40000000000003</v>
       </c>
       <c r="N175" t="s">
@@ -8849,7 +9805,7 @@
         <v>14</v>
       </c>
       <c r="M176" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N176" t="s">
@@ -8897,7 +9853,7 @@
         <v>14</v>
       </c>
       <c r="M177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>68.64</v>
       </c>
       <c r="N177" t="s">
@@ -8945,7 +9901,7 @@
         <v>14</v>
       </c>
       <c r="M178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>108.94000000000001</v>
       </c>
       <c r="N178" t="s">
@@ -8993,7 +9949,7 @@
         <v>14</v>
       </c>
       <c r="M179" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N179" t="s">
@@ -9041,7 +9997,7 @@
         <v>14</v>
       </c>
       <c r="M180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>90.22</v>
       </c>
       <c r="N180" t="s">
@@ -9089,7 +10045,7 @@
         <v>14</v>
       </c>
       <c r="M181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="N181" t="s">
@@ -9137,7 +10093,7 @@
         <v>14</v>
       </c>
       <c r="M182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>94.64</v>
       </c>
       <c r="N182" t="s">
@@ -9185,7 +10141,7 @@
         <v>14</v>
       </c>
       <c r="M183" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N183" t="s">
@@ -9233,7 +10189,7 @@
         <v>14</v>
       </c>
       <c r="M184" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N184" t="s">
@@ -9281,7 +10237,7 @@
         <v>14</v>
       </c>
       <c r="M185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>93.600000000000009</v>
       </c>
       <c r="N185" t="s">
@@ -9329,7 +10285,7 @@
         <v>14</v>
       </c>
       <c r="M186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>206.70000000000002</v>
       </c>
       <c r="N186" t="s">
@@ -9377,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="M187" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N187" t="s">
@@ -9425,7 +10381,7 @@
         <v>14</v>
       </c>
       <c r="M188" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N188" t="s">
@@ -9473,7 +10429,7 @@
         <v>14</v>
       </c>
       <c r="M189" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N189" t="s">
@@ -9521,7 +10477,7 @@
         <v>14</v>
       </c>
       <c r="M190" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N190" t="s">
@@ -9569,7 +10525,7 @@
         <v>14</v>
       </c>
       <c r="M191" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N191" t="s">
@@ -9617,7 +10573,7 @@
         <v>14</v>
       </c>
       <c r="M192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>62.4</v>
       </c>
       <c r="N192" t="s">
@@ -9665,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="M193" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N193" t="s">
@@ -9713,7 +10669,7 @@
         <v>14</v>
       </c>
       <c r="M194" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N194" t="s">
@@ -9761,7 +10717,7 @@
         <v>14</v>
       </c>
       <c r="M195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>89.18</v>
       </c>
       <c r="N195" t="s">
@@ -9809,7 +10765,7 @@
         <v>14</v>
       </c>
       <c r="M196" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N196" t="s">
@@ -9857,7 +10813,7 @@
         <v>14</v>
       </c>
       <c r="M197" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N197" t="s">
@@ -9905,7 +10861,7 @@
         <v>14</v>
       </c>
       <c r="M198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>118.55999999999999</v>
       </c>
       <c r="N198" t="s">
@@ -9953,7 +10909,7 @@
         <v>14</v>
       </c>
       <c r="M199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>71.759999999999991</v>
       </c>
       <c r="N199" t="s">
@@ -10001,7 +10957,7 @@
         <v>14</v>
       </c>
       <c r="M200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>126.62</v>
       </c>
       <c r="N200" t="s">
@@ -10049,7 +11005,7 @@
         <v>14</v>
       </c>
       <c r="M201" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N201" t="s">
@@ -10097,7 +11053,7 @@
         <v>14</v>
       </c>
       <c r="M202" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N202" t="s">
@@ -10145,7 +11101,7 @@
         <v>14</v>
       </c>
       <c r="M203" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N203" t="s">
@@ -10193,7 +11149,7 @@
         <v>14</v>
       </c>
       <c r="M204" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N204" t="s">
@@ -10241,7 +11197,7 @@
         <v>14</v>
       </c>
       <c r="M205" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N205" t="s">
@@ -10289,7 +11245,7 @@
         <v>14</v>
       </c>
       <c r="M206" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N206" t="s">
@@ -10337,7 +11293,7 @@
         <v>14</v>
       </c>
       <c r="M207" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N207" t="s">
@@ -10385,7 +11341,7 @@
         <v>14</v>
       </c>
       <c r="M208" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N208" t="s">
@@ -10433,7 +11389,7 @@
         <v>14</v>
       </c>
       <c r="M209" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N209" t="s">
@@ -11513,7 +12469,7 @@
         <v>14</v>
       </c>
       <c r="M235">
-        <f t="shared" ref="M235:M245" si="3">(F235)*(L235-G235)</f>
+        <f t="shared" ref="M235:M245" si="9">(F235)*(L235-G235)</f>
         <v>325</v>
       </c>
       <c r="N235" t="s">
@@ -11607,7 +12563,7 @@
         <v>14</v>
       </c>
       <c r="M238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>522.6</v>
       </c>
       <c r="N238" t="s">
@@ -11655,7 +12611,7 @@
         <v>14</v>
       </c>
       <c r="M239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>852.8</v>
       </c>
       <c r="N239" t="s">
@@ -11703,7 +12659,7 @@
         <v>14</v>
       </c>
       <c r="M240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>270.40000000000003</v>
       </c>
       <c r="N240" t="s">
@@ -11751,7 +12707,7 @@
         <v>14</v>
       </c>
       <c r="M241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>483.6</v>
       </c>
       <c r="N241" t="s">
@@ -11799,7 +12755,7 @@
         <v>14</v>
       </c>
       <c r="M242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>772.19999999999993</v>
       </c>
       <c r="N242" t="s">
@@ -11847,7 +12803,7 @@
         <v>14</v>
       </c>
       <c r="M243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>231.4</v>
       </c>
       <c r="N243" t="s">
@@ -11895,7 +12851,7 @@
         <v>14</v>
       </c>
       <c r="M244" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="N244" t="s">
@@ -11943,7 +12899,7 @@
         <v>14</v>
       </c>
       <c r="M245" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="N245" t="s">
@@ -12264,7 +13220,7 @@
         <v>14</v>
       </c>
       <c r="M256" t="e">
-        <f t="shared" ref="M256:M300" si="4">(F256)*(L256-G256)</f>
+        <f t="shared" ref="M256:M300" si="10">(F256)*(L256-G256)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N256" t="s">
@@ -12303,7 +13259,7 @@
         <v>14</v>
       </c>
       <c r="M257" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N257" t="s">
@@ -12342,7 +13298,7 @@
         <v>14</v>
       </c>
       <c r="M258" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N258" t="s">
@@ -12381,7 +13337,7 @@
         <v>14</v>
       </c>
       <c r="M259" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N259" t="s">
@@ -12420,7 +13376,7 @@
         <v>14</v>
       </c>
       <c r="M260" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N260" t="s">
@@ -12459,7 +13415,7 @@
         <v>14</v>
       </c>
       <c r="M261" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N261" t="s">
@@ -12495,7 +13451,7 @@
         <v>14</v>
       </c>
       <c r="M262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="N262" t="s">
@@ -12540,7 +13496,7 @@
         <v>14</v>
       </c>
       <c r="M263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="N263" t="s">
@@ -12588,7 +13544,7 @@
         <v>14</v>
       </c>
       <c r="M264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59.8</v>
       </c>
       <c r="N264" t="s">
@@ -12630,7 +13586,7 @@
         <v>14</v>
       </c>
       <c r="M265" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N265" t="s">
@@ -12669,7 +13625,7 @@
         <v>14</v>
       </c>
       <c r="M266" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N266" t="s">
@@ -12708,7 +13664,7 @@
         <v>14</v>
       </c>
       <c r="M267" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N267" t="s">
@@ -12747,7 +13703,7 @@
         <v>14</v>
       </c>
       <c r="M268" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N268" t="s">
@@ -12786,7 +13742,7 @@
         <v>14</v>
       </c>
       <c r="M269" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N269" t="s">
@@ -12825,7 +13781,7 @@
         <v>14</v>
       </c>
       <c r="M270" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N270" t="s">
@@ -12864,7 +13820,7 @@
         <v>14</v>
       </c>
       <c r="M271" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N271" t="s">
@@ -12903,7 +13859,7 @@
         <v>14</v>
       </c>
       <c r="M272" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N272" t="s">
@@ -12942,7 +13898,7 @@
         <v>14</v>
       </c>
       <c r="M273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N273" t="s">
@@ -12981,7 +13937,7 @@
         <v>14</v>
       </c>
       <c r="M274" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N274" t="s">
@@ -13020,7 +13976,7 @@
         <v>14</v>
       </c>
       <c r="M275" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N275" t="s">
@@ -13059,7 +14015,7 @@
         <v>14</v>
       </c>
       <c r="M276" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N276" t="s">
@@ -13098,7 +14054,7 @@
         <v>14</v>
       </c>
       <c r="M277" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N277" t="s">
@@ -13137,7 +14093,7 @@
         <v>14</v>
       </c>
       <c r="M278" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N278" t="s">
@@ -13176,7 +14132,7 @@
         <v>14</v>
       </c>
       <c r="M279" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N279" t="s">
@@ -13215,7 +14171,7 @@
         <v>14</v>
       </c>
       <c r="M280" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N280" t="s">
@@ -13254,7 +14210,7 @@
         <v>14</v>
       </c>
       <c r="M281" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N281" t="s">
@@ -13293,7 +14249,7 @@
         <v>14</v>
       </c>
       <c r="M282" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N282" t="s">
@@ -13332,7 +14288,7 @@
         <v>14</v>
       </c>
       <c r="M283" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N283" t="s">
@@ -13371,7 +14327,7 @@
         <v>14</v>
       </c>
       <c r="M284" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N284" t="s">
@@ -13410,7 +14366,7 @@
         <v>14</v>
       </c>
       <c r="M285" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N285" t="s">
@@ -13449,7 +14405,7 @@
         <v>14</v>
       </c>
       <c r="M286" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N286" t="s">
@@ -13488,7 +14444,7 @@
         <v>14</v>
       </c>
       <c r="M287" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N287" t="s">
@@ -13527,7 +14483,7 @@
         <v>14</v>
       </c>
       <c r="M288" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N288" t="s">
@@ -13575,7 +14531,7 @@
         <v>14</v>
       </c>
       <c r="M289" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N289" t="s">
@@ -13625,7 +14581,7 @@
         <v>14</v>
       </c>
       <c r="M290" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N290" t="s">
@@ -13675,7 +14631,7 @@
         <v>14</v>
       </c>
       <c r="M291" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N291" t="s">
@@ -13725,7 +14681,7 @@
         <v>14</v>
       </c>
       <c r="M292" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N292" t="s">
@@ -13775,7 +14731,7 @@
         <v>14</v>
       </c>
       <c r="M293" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N293" t="s">
@@ -13825,7 +14781,7 @@
         <v>14</v>
       </c>
       <c r="M294" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N294" t="s">
@@ -13875,7 +14831,7 @@
         <v>14</v>
       </c>
       <c r="M295" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N295" t="s">
@@ -13925,7 +14881,7 @@
         <v>14</v>
       </c>
       <c r="M296" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N296" t="s">
@@ -13975,7 +14931,7 @@
         <v>14</v>
       </c>
       <c r="M297" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N297" t="s">
@@ -14025,7 +14981,7 @@
         <v>14</v>
       </c>
       <c r="M298" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N298" t="s">
@@ -14075,7 +15031,7 @@
         <v>14</v>
       </c>
       <c r="M299" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N299" t="s">
@@ -14125,7 +15081,7 @@
         <v>14</v>
       </c>
       <c r="M300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59.8</v>
       </c>
       <c r="N300" t="s">
@@ -15375,7 +16331,7 @@
         <v>15</v>
       </c>
       <c r="M338" s="2">
-        <f t="shared" ref="M338:M401" si="5">(F338)*(L338-G338)</f>
+        <f t="shared" ref="M338:M401" si="11">(F338)*(L338-G338)</f>
         <v>57.98</v>
       </c>
       <c r="N338" t="s">
@@ -15423,7 +16379,7 @@
         <v>15</v>
       </c>
       <c r="M339" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>265.2</v>
       </c>
       <c r="N339" t="s">
@@ -15471,7 +16427,7 @@
         <v>15</v>
       </c>
       <c r="M340" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>273</v>
       </c>
       <c r="N340" t="s">
@@ -15519,7 +16475,7 @@
         <v>15</v>
       </c>
       <c r="M341" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>427.7</v>
       </c>
       <c r="N341" t="s">
@@ -15567,7 +16523,7 @@
         <v>15</v>
       </c>
       <c r="M342" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="N342" t="s">
@@ -15615,7 +16571,7 @@
         <v>15</v>
       </c>
       <c r="M343" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>451.1</v>
       </c>
       <c r="N343" t="s">
@@ -15663,7 +16619,7 @@
         <v>15</v>
       </c>
       <c r="M344" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>172.9</v>
       </c>
       <c r="N344" t="s">
@@ -15711,7 +16667,7 @@
         <v>15</v>
       </c>
       <c r="M345" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>378.3</v>
       </c>
       <c r="N345" t="s">
@@ -15759,7 +16715,7 @@
         <v>15</v>
       </c>
       <c r="M346" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>553.80000000000007</v>
       </c>
       <c r="N346" t="s">
@@ -15807,7 +16763,7 @@
         <v>15</v>
       </c>
       <c r="M347" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>495.3</v>
       </c>
       <c r="N347" t="s">
@@ -15855,7 +16811,7 @@
         <v>15</v>
       </c>
       <c r="M348" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>345.8</v>
       </c>
       <c r="N348" t="s">
@@ -15903,7 +16859,7 @@
         <v>15</v>
       </c>
       <c r="M349" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>663</v>
       </c>
       <c r="N349" t="s">
@@ -15951,7 +16907,7 @@
         <v>15</v>
       </c>
       <c r="M350" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>231.4</v>
       </c>
       <c r="N350" t="s">
@@ -15999,7 +16955,7 @@
         <v>15</v>
       </c>
       <c r="M351" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>936</v>
       </c>
       <c r="N351" t="s">
@@ -16047,7 +17003,7 @@
         <v>15</v>
       </c>
       <c r="M352" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>217.1</v>
       </c>
       <c r="N352" t="s">
@@ -16095,7 +17051,7 @@
         <v>15</v>
       </c>
       <c r="M353" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>590.19999999999993</v>
       </c>
       <c r="N353" t="s">
@@ -16143,7 +17099,7 @@
         <v>15</v>
       </c>
       <c r="M354" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>146.9</v>
       </c>
       <c r="N354" t="s">
@@ -16191,7 +17147,7 @@
         <v>15</v>
       </c>
       <c r="M355" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>198.9</v>
       </c>
       <c r="N355" t="s">
@@ -16239,7 +17195,7 @@
         <v>15</v>
       </c>
       <c r="M356" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>261.3</v>
       </c>
       <c r="N356" t="s">
@@ -16287,7 +17243,7 @@
         <v>15</v>
       </c>
       <c r="M357" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>319.8</v>
       </c>
       <c r="N357" t="s">
@@ -16335,7 +17291,7 @@
         <v>15</v>
       </c>
       <c r="M358" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>219.7</v>
       </c>
       <c r="N358" t="s">
@@ -16383,7 +17339,7 @@
         <v>15</v>
       </c>
       <c r="M359" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>258.7</v>
       </c>
       <c r="N359" t="s">
@@ -16431,7 +17387,7 @@
         <v>15</v>
       </c>
       <c r="M360" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>250.9</v>
       </c>
       <c r="N360" t="s">
@@ -16479,7 +17435,7 @@
         <v>15</v>
       </c>
       <c r="M361" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>397.8</v>
       </c>
       <c r="N361" t="s">
@@ -16527,7 +17483,7 @@
         <v>15</v>
       </c>
       <c r="M362" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>178.1</v>
       </c>
       <c r="N362" t="s">
@@ -16575,7 +17531,7 @@
         <v>15</v>
       </c>
       <c r="M363" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>310.7</v>
       </c>
       <c r="N363" t="s">
@@ -16623,7 +17579,7 @@
         <v>15</v>
       </c>
       <c r="M364" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>215.8</v>
       </c>
       <c r="N364" t="s">
@@ -16671,7 +17627,7 @@
         <v>15</v>
       </c>
       <c r="M365" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>232.7</v>
       </c>
       <c r="N365" t="s">
@@ -16719,7 +17675,7 @@
         <v>15</v>
       </c>
       <c r="M366" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>322.40000000000003</v>
       </c>
       <c r="N366" t="s">
@@ -16767,7 +17723,7 @@
         <v>15</v>
       </c>
       <c r="M367" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>98.02</v>
       </c>
       <c r="N367" t="s">
@@ -16815,7 +17771,7 @@
         <v>15</v>
       </c>
       <c r="M368" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
       <c r="N368" t="s">
@@ -16863,7 +17819,7 @@
         <v>15</v>
       </c>
       <c r="M369" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>284.7</v>
       </c>
       <c r="N369" t="s">
@@ -16911,7 +17867,7 @@
         <v>15</v>
       </c>
       <c r="M370" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="N370" t="s">
@@ -16959,7 +17915,7 @@
         <v>15</v>
       </c>
       <c r="M371" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>202.79999999999998</v>
       </c>
       <c r="N371" t="s">
@@ -17007,7 +17963,7 @@
         <v>15</v>
       </c>
       <c r="M372" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>248.3</v>
       </c>
       <c r="N372" t="s">
@@ -17055,7 +18011,7 @@
         <v>15</v>
       </c>
       <c r="M373" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>244.4</v>
       </c>
       <c r="N373" t="s">
@@ -17103,7 +18059,7 @@
         <v>15</v>
       </c>
       <c r="M374" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>265.2</v>
       </c>
       <c r="N374" t="s">
@@ -17151,7 +18107,7 @@
         <v>15</v>
       </c>
       <c r="M375" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>176.79999999999998</v>
       </c>
       <c r="N375" t="s">
@@ -17199,7 +18155,7 @@
         <v>15</v>
       </c>
       <c r="M376" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>276.90000000000003</v>
       </c>
       <c r="N376" t="s">
@@ -17247,7 +18203,7 @@
         <v>15</v>
       </c>
       <c r="M377" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>274.3</v>
       </c>
       <c r="N377" t="s">
@@ -17295,7 +18251,7 @@
         <v>15</v>
       </c>
       <c r="M378" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>315.90000000000003</v>
       </c>
       <c r="N378" t="s">
@@ -17343,7 +18299,7 @@
         <v>15</v>
       </c>
       <c r="M379" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>409.5</v>
       </c>
       <c r="N379" t="s">
@@ -17391,7 +18347,7 @@
         <v>15</v>
       </c>
       <c r="M380" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>68.509999999999991</v>
       </c>
       <c r="N380" t="s">
@@ -17439,7 +18395,7 @@
         <v>15</v>
       </c>
       <c r="M381" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>133.9</v>
       </c>
       <c r="N381" t="s">
@@ -17487,7 +18443,7 @@
         <v>15</v>
       </c>
       <c r="M382" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="N382" t="s">
@@ -17535,7 +18491,7 @@
         <v>15</v>
       </c>
       <c r="M383" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>158.6</v>
       </c>
       <c r="N383" t="s">
@@ -17583,7 +18539,7 @@
         <v>15</v>
       </c>
       <c r="M384" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>146.9</v>
       </c>
       <c r="N384" t="s">
@@ -17631,7 +18587,7 @@
         <v>15</v>
       </c>
       <c r="M385" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>82.94</v>
       </c>
       <c r="N385" t="s">
@@ -17679,7 +18635,7 @@
         <v>15</v>
       </c>
       <c r="M386" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>159.9</v>
       </c>
       <c r="N386" t="s">
@@ -17727,7 +18683,7 @@
         <v>15</v>
       </c>
       <c r="M387" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>388.7</v>
       </c>
       <c r="N387" t="s">
@@ -17775,7 +18731,7 @@
         <v>15</v>
       </c>
       <c r="M388" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>347.09999999999997</v>
       </c>
       <c r="N388" t="s">
@@ -17823,7 +18779,7 @@
         <v>15</v>
       </c>
       <c r="M389" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>280.8</v>
       </c>
       <c r="N389" t="s">
@@ -17871,7 +18827,7 @@
         <v>15</v>
       </c>
       <c r="M390" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N390" t="s">
@@ -17919,7 +18875,7 @@
         <v>15</v>
       </c>
       <c r="M391" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>132.6</v>
       </c>
       <c r="N391" t="s">
@@ -17967,7 +18923,7 @@
         <v>15</v>
       </c>
       <c r="M392" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="N392" t="s">
@@ -18015,7 +18971,7 @@
         <v>15</v>
       </c>
       <c r="M393" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>258.7</v>
       </c>
       <c r="N393" t="s">
@@ -18063,7 +19019,7 @@
         <v>15</v>
       </c>
       <c r="M394" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>128.83000000000001</v>
       </c>
       <c r="N394" t="s">
@@ -18111,7 +19067,7 @@
         <v>15</v>
       </c>
       <c r="M395" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N395" t="s">
@@ -18159,7 +19115,7 @@
         <v>15</v>
       </c>
       <c r="M396" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>232.7</v>
       </c>
       <c r="N396" t="s">
@@ -18207,7 +19163,7 @@
         <v>15</v>
       </c>
       <c r="M397" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>309.40000000000003</v>
       </c>
       <c r="N397" t="s">
@@ -18255,7 +19211,7 @@
         <v>15</v>
       </c>
       <c r="M398" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>98.93</v>
       </c>
       <c r="N398" t="s">
@@ -18303,7 +19259,7 @@
         <v>15</v>
       </c>
       <c r="M399" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>304.2</v>
       </c>
       <c r="N399" t="s">
@@ -18351,7 +19307,7 @@
         <v>15</v>
       </c>
       <c r="M400" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>52.259999999999991</v>
       </c>
       <c r="N400" t="s">
@@ -18399,7 +19355,7 @@
         <v>15</v>
       </c>
       <c r="M401" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>253.5</v>
       </c>
       <c r="N401" t="s">
@@ -18447,7 +19403,7 @@
         <v>15</v>
       </c>
       <c r="M402" s="2">
-        <f t="shared" ref="M402" si="6">(F402)*(L402-G402)</f>
+        <f t="shared" ref="M402" si="12">(F402)*(L402-G402)</f>
         <v>171.6</v>
       </c>
       <c r="N402" t="s">
@@ -18461,6 +19417,15 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O352">
     <sortCondition ref="D1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="P14" r:id="rId1" xr:uid="{76264D68-DEFB-2E4E-BD66-E3CCF9633DB3}"/>
+    <hyperlink ref="P53" r:id="rId2" xr:uid="{0B6E7FD7-661D-3140-8342-7C38B783316F}"/>
+    <hyperlink ref="P76" r:id="rId3" xr:uid="{AF2A73D2-5A82-7F45-B658-E1F07BB79E69}"/>
+    <hyperlink ref="P85" r:id="rId4" xr:uid="{233A8AB7-8EFA-B444-9961-FC359C19AC0B}"/>
+    <hyperlink ref="P95" r:id="rId5" xr:uid="{5BA88714-2A99-874F-82B2-0516F34F3BAA}"/>
+    <hyperlink ref="P113" r:id="rId6" xr:uid="{5D55FE1D-E708-6E4D-A2C9-0C86E23B4E37}"/>
+    <hyperlink ref="P166" r:id="rId7" xr:uid="{63BB1423-F625-0B45-A3D3-6F3C805B3178}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DB112-102C-9E46-AC80-333BBC08C515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A2E0C-935E-A349-967E-45E95ABF6F4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E148" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166:M169"/>
+    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
+      <selection activeCell="M262" sqref="M262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9565,7 +9565,7 @@
         <v>14</v>
       </c>
       <c r="M171">
-        <f t="shared" ref="M171:M209" si="8">(F171)*(L171-G171)</f>
+        <f t="shared" ref="M171:M233" si="8">(F171)*(L171-G171)</f>
         <v>234</v>
       </c>
       <c r="N171" t="s">
@@ -11433,6 +11433,13 @@
       <c r="K210" t="s">
         <v>332</v>
       </c>
+      <c r="L210">
+        <v>10</v>
+      </c>
+      <c r="M210" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N210" t="s">
         <v>398</v>
       </c>
@@ -11474,10 +11481,17 @@
       <c r="K211" t="s">
         <v>332</v>
       </c>
+      <c r="L211">
+        <v>10</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="8"/>
+        <v>16.5</v>
+      </c>
       <c r="N211" t="s">
         <v>398</v>
       </c>
-      <c r="P211" t="s">
+      <c r="P211" s="8" t="s">
         <v>387</v>
       </c>
     </row>
@@ -11515,6 +11529,13 @@
       <c r="K212" t="s">
         <v>332</v>
       </c>
+      <c r="L212">
+        <v>10</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="8"/>
+        <v>7.65</v>
+      </c>
       <c r="N212" t="s">
         <v>398</v>
       </c>
@@ -11556,6 +11577,13 @@
       <c r="K213" t="s">
         <v>332</v>
       </c>
+      <c r="L213">
+        <v>10</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="8"/>
+        <v>6.2</v>
+      </c>
       <c r="N213" t="s">
         <v>398</v>
       </c>
@@ -11597,6 +11625,13 @@
       <c r="K214" t="s">
         <v>332</v>
       </c>
+      <c r="L214">
+        <v>10</v>
+      </c>
+      <c r="M214" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N214" t="s">
         <v>398</v>
       </c>
@@ -11638,6 +11673,13 @@
       <c r="K215" t="s">
         <v>332</v>
       </c>
+      <c r="L215">
+        <v>10</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="8"/>
+        <v>14.2</v>
+      </c>
       <c r="N215" t="s">
         <v>398</v>
       </c>
@@ -11679,6 +11721,13 @@
       <c r="K216" t="s">
         <v>332</v>
       </c>
+      <c r="L216">
+        <v>10</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="8"/>
+        <v>19.099999999999998</v>
+      </c>
       <c r="N216" t="s">
         <v>398</v>
       </c>
@@ -11720,6 +11769,13 @@
       <c r="K217" t="s">
         <v>332</v>
       </c>
+      <c r="L217">
+        <v>10</v>
+      </c>
+      <c r="M217" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N217" t="s">
         <v>398</v>
       </c>
@@ -11761,6 +11817,13 @@
       <c r="K218" t="s">
         <v>332</v>
       </c>
+      <c r="L218">
+        <v>10</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="8"/>
+        <v>15.600000000000001</v>
+      </c>
       <c r="N218" t="s">
         <v>398</v>
       </c>
@@ -11802,6 +11865,13 @@
       <c r="K219" t="s">
         <v>332</v>
       </c>
+      <c r="L219">
+        <v>10</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="8"/>
+        <v>9.3999999999999986</v>
+      </c>
       <c r="N219" t="s">
         <v>398</v>
       </c>
@@ -11843,6 +11913,13 @@
       <c r="K220" t="s">
         <v>332</v>
       </c>
+      <c r="L220">
+        <v>10</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="8"/>
+        <v>15.75</v>
+      </c>
       <c r="N220" t="s">
         <v>398</v>
       </c>
@@ -11884,6 +11961,13 @@
       <c r="K221" t="s">
         <v>332</v>
       </c>
+      <c r="L221">
+        <v>10</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="8"/>
+        <v>24.4</v>
+      </c>
       <c r="N221" t="s">
         <v>398</v>
       </c>
@@ -11925,6 +12009,13 @@
       <c r="K222" t="s">
         <v>332</v>
       </c>
+      <c r="L222">
+        <v>10</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="8"/>
+        <v>13.200000000000001</v>
+      </c>
       <c r="N222" t="s">
         <v>398</v>
       </c>
@@ -11966,6 +12057,13 @@
       <c r="K223" t="s">
         <v>332</v>
       </c>
+      <c r="L223">
+        <v>10</v>
+      </c>
+      <c r="M223" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N223" t="s">
         <v>398</v>
       </c>
@@ -12007,6 +12105,13 @@
       <c r="K224" t="s">
         <v>332</v>
       </c>
+      <c r="L224">
+        <v>10</v>
+      </c>
+      <c r="M224" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N224" t="s">
         <v>398</v>
       </c>
@@ -12048,6 +12153,13 @@
       <c r="K225" t="s">
         <v>332</v>
       </c>
+      <c r="L225">
+        <v>10</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="8"/>
+        <v>21.8</v>
+      </c>
       <c r="N225" t="s">
         <v>398</v>
       </c>
@@ -12089,6 +12201,13 @@
       <c r="K226" t="s">
         <v>332</v>
       </c>
+      <c r="L226">
+        <v>10</v>
+      </c>
+      <c r="M226" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N226" t="s">
         <v>398</v>
       </c>
@@ -12130,6 +12249,13 @@
       <c r="K227" t="s">
         <v>332</v>
       </c>
+      <c r="L227">
+        <v>10</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="8"/>
+        <v>17.549999999999997</v>
+      </c>
       <c r="N227" t="s">
         <v>398</v>
       </c>
@@ -12171,6 +12297,13 @@
       <c r="K228" t="s">
         <v>332</v>
       </c>
+      <c r="L228">
+        <v>10</v>
+      </c>
+      <c r="M228" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N228" t="s">
         <v>398</v>
       </c>
@@ -12212,6 +12345,13 @@
       <c r="K229" t="s">
         <v>332</v>
       </c>
+      <c r="L229">
+        <v>10</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="8"/>
+        <v>4.6000000000000005</v>
+      </c>
       <c r="N229" t="s">
         <v>398</v>
       </c>
@@ -12253,6 +12393,13 @@
       <c r="K230" t="s">
         <v>332</v>
       </c>
+      <c r="L230">
+        <v>10</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="8"/>
+        <v>14.7</v>
+      </c>
       <c r="N230" t="s">
         <v>398</v>
       </c>
@@ -12294,6 +12441,13 @@
       <c r="K231" t="s">
         <v>332</v>
       </c>
+      <c r="L231">
+        <v>10</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
       <c r="N231" t="s">
         <v>398</v>
       </c>
@@ -12335,6 +12489,13 @@
       <c r="K232" t="s">
         <v>332</v>
       </c>
+      <c r="L232">
+        <v>10</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="8"/>
+        <v>32.400000000000006</v>
+      </c>
       <c r="N232" t="s">
         <v>398</v>
       </c>
@@ -12376,6 +12537,13 @@
       <c r="K233" t="s">
         <v>332</v>
       </c>
+      <c r="L233">
+        <v>10</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="8"/>
+        <v>7.75</v>
+      </c>
       <c r="N233" t="s">
         <v>398</v>
       </c>
@@ -12469,7 +12637,7 @@
         <v>14</v>
       </c>
       <c r="M235">
-        <f t="shared" ref="M235:M245" si="9">(F235)*(L235-G235)</f>
+        <f t="shared" ref="M235:M254" si="9">(F235)*(L235-G235)</f>
         <v>325</v>
       </c>
       <c r="N235" t="s">
@@ -13000,10 +13168,17 @@
       <c r="K249" t="s">
         <v>332</v>
       </c>
+      <c r="L249">
+        <v>20</v>
+      </c>
+      <c r="M249" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N249" t="s">
         <v>398</v>
       </c>
-      <c r="P249" t="s">
+      <c r="P249" s="8" t="s">
         <v>356</v>
       </c>
     </row>
@@ -13029,6 +13204,13 @@
       <c r="K250" t="s">
         <v>332</v>
       </c>
+      <c r="L250">
+        <v>20</v>
+      </c>
+      <c r="M250" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N250" t="s">
         <v>398</v>
       </c>
@@ -13058,6 +13240,13 @@
       <c r="K251" t="s">
         <v>332</v>
       </c>
+      <c r="L251">
+        <v>20</v>
+      </c>
+      <c r="M251" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N251" t="s">
         <v>398</v>
       </c>
@@ -13087,6 +13276,13 @@
       <c r="K252" t="s">
         <v>332</v>
       </c>
+      <c r="L252">
+        <v>20</v>
+      </c>
+      <c r="M252" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N252" t="s">
         <v>398</v>
       </c>
@@ -13116,6 +13312,13 @@
       <c r="K253" t="s">
         <v>332</v>
       </c>
+      <c r="L253">
+        <v>20</v>
+      </c>
+      <c r="M253" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N253" t="s">
         <v>398</v>
       </c>
@@ -13144,6 +13347,13 @@
       </c>
       <c r="K254" t="s">
         <v>332</v>
+      </c>
+      <c r="L254">
+        <v>20</v>
+      </c>
+      <c r="M254" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N254" t="s">
         <v>398</v>
@@ -19425,6 +19635,8 @@
     <hyperlink ref="P95" r:id="rId5" xr:uid="{5BA88714-2A99-874F-82B2-0516F34F3BAA}"/>
     <hyperlink ref="P113" r:id="rId6" xr:uid="{5D55FE1D-E708-6E4D-A2C9-0C86E23B4E37}"/>
     <hyperlink ref="P166" r:id="rId7" xr:uid="{63BB1423-F625-0B45-A3D3-6F3C805B3178}"/>
+    <hyperlink ref="P211" r:id="rId8" xr:uid="{A4AD7456-6774-F64D-B980-BB87F8307A8D}"/>
+    <hyperlink ref="P249" r:id="rId9" xr:uid="{82FBBAAC-C428-2C46-B31C-FB5C34C111B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A2E0C-935E-A349-967E-45E95ABF6F4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355D0ED-D6A7-7E4D-9772-B31E46AC967B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25480" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
   <sheets>
     <sheet name="qubit-iso" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="496">
   <si>
     <t>tube_number</t>
   </si>
@@ -1123,9 +1123,6 @@
     <t>https://grace-ac.github.io/bairdi-RNA-RNeasy/</t>
   </si>
   <si>
-    <t>from sam - need to find notebook post</t>
-  </si>
-  <si>
     <t>https://grace-ac.github.io/RNA-isolation-data-org-in-R/</t>
   </si>
   <si>
@@ -1499,6 +1496,30 @@
   </si>
   <si>
     <t>Zymo_microprep</t>
+  </si>
+  <si>
+    <t>438-1</t>
+  </si>
+  <si>
+    <t>458-1</t>
+  </si>
+  <si>
+    <t>468-1</t>
+  </si>
+  <si>
+    <t>499-1</t>
+  </si>
+  <si>
+    <t>QIAshredder columns</t>
+  </si>
+  <si>
+    <t>419-1</t>
+  </si>
+  <si>
+    <t>503-1</t>
+  </si>
+  <si>
+    <t>used manifold for 24 samples and QIA shredder columns</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
-      <selection activeCell="M262" sqref="M262"/>
+    <sheetView tabSelected="1" topLeftCell="E294" workbookViewId="0">
+      <selection activeCell="J314" sqref="J314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1939,22 +1960,22 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K1" t="s">
         <v>322</v>
       </c>
       <c r="L1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M1" t="s">
         <v>483</v>
       </c>
-      <c r="M1" t="s">
-        <v>484</v>
-      </c>
       <c r="N1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P1" t="s">
         <v>333</v>
@@ -2002,10 +2023,10 @@
         <v>35.840000000000003</v>
       </c>
       <c r="N2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2050,10 +2071,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2098,7 +2119,7 @@
         <v>76.95</v>
       </c>
       <c r="N4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P4" t="s">
         <v>334</v>
@@ -2146,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P5" t="s">
         <v>334</v>
@@ -2194,7 +2215,7 @@
         <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P6" t="s">
         <v>334</v>
@@ -2242,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P7" t="s">
         <v>334</v>
@@ -2290,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P8" t="s">
         <v>335</v>
@@ -2338,7 +2359,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P9" t="s">
         <v>335</v>
@@ -2386,7 +2407,7 @@
         <v>52.199999999999996</v>
       </c>
       <c r="N10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P10" t="s">
         <v>336</v>
@@ -2434,7 +2455,7 @@
         <v>232.20000000000002</v>
       </c>
       <c r="N11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P11" t="s">
         <v>336</v>
@@ -2482,7 +2503,7 @@
         <v>226.8</v>
       </c>
       <c r="N12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2527,7 +2548,7 @@
         <v>161.1</v>
       </c>
       <c r="N13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2572,7 +2593,7 @@
         <v>59.400000000000006</v>
       </c>
       <c r="N14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>337</v>
@@ -2620,7 +2641,7 @@
         <v>123.75</v>
       </c>
       <c r="N15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P15" t="s">
         <v>337</v>
@@ -2668,7 +2689,7 @@
         <v>158.4</v>
       </c>
       <c r="N16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P16" t="s">
         <v>338</v>
@@ -2716,7 +2737,7 @@
         <v>221.4</v>
       </c>
       <c r="N17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P17" t="s">
         <v>338</v>
@@ -2764,7 +2785,7 @@
         <v>90.449999999999989</v>
       </c>
       <c r="N18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P18" t="s">
         <v>338</v>
@@ -2812,7 +2833,7 @@
         <v>259.2</v>
       </c>
       <c r="N19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P19" t="s">
         <v>338</v>
@@ -2860,7 +2881,7 @@
         <v>120.60000000000001</v>
       </c>
       <c r="N20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P20" t="s">
         <v>338</v>
@@ -2908,7 +2929,7 @@
         <v>82.8</v>
       </c>
       <c r="N21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P21" t="s">
         <v>338</v>
@@ -2956,7 +2977,7 @@
         <v>48.6</v>
       </c>
       <c r="N22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P22" t="s">
         <v>338</v>
@@ -3004,7 +3025,7 @@
         <v>62.099999999999994</v>
       </c>
       <c r="N23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P23" t="s">
         <v>338</v>
@@ -3052,7 +3073,7 @@
         <v>105.3</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P24" t="s">
         <v>338</v>
@@ -3100,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P25" t="s">
         <v>338</v>
@@ -3148,7 +3169,7 @@
         <v>109.8</v>
       </c>
       <c r="N26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P26" t="s">
         <v>338</v>
@@ -3196,7 +3217,7 @@
         <v>166.95</v>
       </c>
       <c r="N27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P27" t="s">
         <v>338</v>
@@ -3244,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P28" t="s">
         <v>338</v>
@@ -3292,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P29" t="s">
         <v>338</v>
@@ -3327,7 +3348,7 @@
         <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3359,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="N31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3391,7 +3412,7 @@
         <v>314</v>
       </c>
       <c r="N32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3423,7 +3444,7 @@
         <v>339</v>
       </c>
       <c r="N33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3455,7 +3476,7 @@
         <v>346</v>
       </c>
       <c r="N34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3487,7 +3508,7 @@
         <v>474</v>
       </c>
       <c r="N35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3519,7 +3540,7 @@
         <v>507</v>
       </c>
       <c r="N36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3551,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3583,7 +3604,7 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3615,7 +3636,7 @@
         <v>309</v>
       </c>
       <c r="N39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3647,7 +3668,7 @@
         <v>360</v>
       </c>
       <c r="N40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3679,7 +3700,7 @@
         <v>349</v>
       </c>
       <c r="N41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3711,7 +3732,7 @@
         <v>469</v>
       </c>
       <c r="N42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3743,7 +3764,7 @@
         <v>502</v>
       </c>
       <c r="N43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3775,7 +3796,7 @@
         <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3807,7 +3828,7 @@
         <v>88</v>
       </c>
       <c r="N45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3839,7 +3860,7 @@
         <v>153</v>
       </c>
       <c r="N46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3871,7 +3892,7 @@
         <v>258</v>
       </c>
       <c r="N47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3903,7 +3924,7 @@
         <v>205</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3935,7 +3956,7 @@
         <v>223</v>
       </c>
       <c r="N49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3967,7 +3988,7 @@
         <v>406</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3999,7 +4020,7 @@
         <v>434</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4031,7 +4052,7 @@
         <v>461</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4076,7 +4097,7 @@
         <v>139.04999999999998</v>
       </c>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>339</v>
@@ -4124,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P54" t="s">
         <v>339</v>
@@ -4172,7 +4193,7 @@
         <v>112.94999999999999</v>
       </c>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P55" t="s">
         <v>339</v>
@@ -4220,7 +4241,7 @@
         <v>109.8</v>
       </c>
       <c r="N56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P56" t="s">
         <v>339</v>
@@ -4268,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s">
         <v>339</v>
@@ -4316,7 +4337,7 @@
         <v>81</v>
       </c>
       <c r="N58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P58" t="s">
         <v>339</v>
@@ -4364,7 +4385,7 @@
         <v>98.100000000000009</v>
       </c>
       <c r="N59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P59" t="s">
         <v>339</v>
@@ -4412,7 +4433,7 @@
         <v>65.7</v>
       </c>
       <c r="N60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P60" t="s">
         <v>339</v>
@@ -4460,7 +4481,7 @@
         <v>118.80000000000001</v>
       </c>
       <c r="N61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P61" t="s">
         <v>339</v>
@@ -4508,7 +4529,7 @@
         <v>264.60000000000002</v>
       </c>
       <c r="N62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4553,7 +4574,7 @@
         <v>216</v>
       </c>
       <c r="N63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4598,7 +4619,7 @@
         <v>370.8</v>
       </c>
       <c r="N64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4643,7 +4664,7 @@
         <v>52.199999999999996</v>
       </c>
       <c r="N65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4688,7 +4709,7 @@
         <v>300.59999999999997</v>
       </c>
       <c r="N66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4733,7 +4754,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="N67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4778,7 +4799,7 @@
         <v>361.79999999999995</v>
       </c>
       <c r="N68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4823,7 +4844,7 @@
         <v>239.4</v>
       </c>
       <c r="N69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4868,7 +4889,7 @@
         <v>139.5</v>
       </c>
       <c r="N70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4913,7 +4934,7 @@
         <v>210.6</v>
       </c>
       <c r="N71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4958,7 +4979,7 @@
         <v>95.4</v>
       </c>
       <c r="N72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5003,7 +5024,7 @@
         <v>279</v>
       </c>
       <c r="N73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5048,7 +5069,7 @@
         <v>225</v>
       </c>
       <c r="N74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5093,7 +5114,7 @@
         <v>41.4</v>
       </c>
       <c r="N75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5138,7 +5159,7 @@
         <v>119.7</v>
       </c>
       <c r="N76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P76" s="8" t="s">
         <v>340</v>
@@ -5186,7 +5207,7 @@
         <v>289.8</v>
       </c>
       <c r="N77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P77" t="s">
         <v>340</v>
@@ -5234,7 +5255,7 @@
         <v>277.2</v>
       </c>
       <c r="N78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P78" t="s">
         <v>340</v>
@@ -5282,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P79" t="s">
         <v>340</v>
@@ -5330,7 +5351,7 @@
         <v>98.55</v>
       </c>
       <c r="N80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P80" t="s">
         <v>340</v>
@@ -5378,7 +5399,7 @@
         <v>159.75</v>
       </c>
       <c r="N81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P81" t="s">
         <v>340</v>
@@ -5426,7 +5447,7 @@
         <v>79.2</v>
       </c>
       <c r="N82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P82" t="s">
         <v>340</v>
@@ -5474,7 +5495,7 @@
         <v>253.79999999999998</v>
       </c>
       <c r="N83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P83" t="s">
         <v>340</v>
@@ -5522,7 +5543,7 @@
         <v>79.650000000000006</v>
       </c>
       <c r="N84" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P84" t="s">
         <v>340</v>
@@ -5570,7 +5591,7 @@
         <v>264.60000000000002</v>
       </c>
       <c r="N85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P85" s="8" t="s">
         <v>341</v>
@@ -5606,13 +5627,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N86" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5645,13 +5666,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5684,13 +5705,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5723,13 +5744,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5762,13 +5783,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5801,13 +5822,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O91" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5840,13 +5861,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5879,13 +5900,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5918,13 +5939,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="N94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5969,7 +5990,7 @@
         <v>198.00000000000003</v>
       </c>
       <c r="N95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P95" s="8" t="s">
         <v>342</v>
@@ -6017,7 +6038,7 @@
         <v>153.45000000000002</v>
       </c>
       <c r="N96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P96" t="s">
         <v>342</v>
@@ -6065,7 +6086,7 @@
         <v>73.8</v>
       </c>
       <c r="N97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P97" t="s">
         <v>342</v>
@@ -6113,7 +6134,7 @@
         <v>117.9</v>
       </c>
       <c r="N98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P98" t="s">
         <v>342</v>
@@ -6161,7 +6182,7 @@
         <v>149.4</v>
       </c>
       <c r="N99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P99" t="s">
         <v>342</v>
@@ -6209,7 +6230,7 @@
         <v>136.35</v>
       </c>
       <c r="N100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P100" t="s">
         <v>342</v>
@@ -6257,7 +6278,7 @@
         <v>237.60000000000002</v>
       </c>
       <c r="N101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P101" t="s">
         <v>342</v>
@@ -6305,7 +6326,7 @@
         <v>157.94999999999999</v>
       </c>
       <c r="N102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P102" t="s">
         <v>342</v>
@@ -6353,7 +6374,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="N103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P103" t="s">
         <v>342</v>
@@ -6401,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P104" t="s">
         <v>342</v>
@@ -6449,7 +6470,7 @@
         <v>243.00000000000003</v>
       </c>
       <c r="N105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P105" t="s">
         <v>342</v>
@@ -6497,7 +6518,7 @@
         <v>94.5</v>
       </c>
       <c r="N106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P106" t="s">
         <v>342</v>
@@ -6545,7 +6566,7 @@
         <v>162</v>
       </c>
       <c r="N107" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P107" t="s">
         <v>342</v>
@@ -6593,7 +6614,7 @@
         <v>84.6</v>
       </c>
       <c r="N108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P108" t="s">
         <v>342</v>
@@ -6641,7 +6662,7 @@
         <v>107.1</v>
       </c>
       <c r="N109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P109" t="s">
         <v>342</v>
@@ -6689,7 +6710,7 @@
         <v>338.4</v>
       </c>
       <c r="N110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P110" t="s">
         <v>342</v>
@@ -6737,7 +6758,7 @@
         <v>163.80000000000001</v>
       </c>
       <c r="N111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P111" t="s">
         <v>342</v>
@@ -6785,7 +6806,7 @@
         <v>226.8</v>
       </c>
       <c r="N112" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P112" t="s">
         <v>342</v>
@@ -6833,7 +6854,7 @@
         <v>228.6</v>
       </c>
       <c r="N113" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P113" s="8" t="s">
         <v>343</v>
@@ -6881,7 +6902,7 @@
         <v>1170</v>
       </c>
       <c r="N114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P114" t="s">
         <v>343</v>
@@ -6929,7 +6950,7 @@
         <v>151.19999999999999</v>
       </c>
       <c r="N115" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P115" t="s">
         <v>343</v>
@@ -6977,7 +6998,7 @@
         <v>127.8</v>
       </c>
       <c r="N116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P116" t="s">
         <v>343</v>
@@ -7025,7 +7046,7 @@
         <v>273.60000000000002</v>
       </c>
       <c r="N117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P117" t="s">
         <v>343</v>
@@ -7073,7 +7094,7 @@
         <v>255.6</v>
       </c>
       <c r="N118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P118" t="s">
         <v>343</v>
@@ -7121,7 +7142,7 @@
         <v>127.35000000000001</v>
       </c>
       <c r="N119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P119" t="s">
         <v>343</v>
@@ -7169,7 +7190,7 @@
         <v>64.8</v>
       </c>
       <c r="N120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P120" t="s">
         <v>343</v>
@@ -7217,7 +7238,7 @@
         <v>230.4</v>
       </c>
       <c r="N121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P121" t="s">
         <v>343</v>
@@ -7265,7 +7286,7 @@
         <v>152.1</v>
       </c>
       <c r="N122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P122" t="s">
         <v>343</v>
@@ -7313,7 +7334,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P123" t="s">
         <v>343</v>
@@ -7361,7 +7382,7 @@
         <v>226.8</v>
       </c>
       <c r="N124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P124" t="s">
         <v>343</v>
@@ -7409,7 +7430,7 @@
         <v>144.9</v>
       </c>
       <c r="N125" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P125" t="s">
         <v>343</v>
@@ -7457,7 +7478,7 @@
         <v>121.05</v>
       </c>
       <c r="N126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P126" t="s">
         <v>343</v>
@@ -7505,7 +7526,7 @@
         <v>121.05</v>
       </c>
       <c r="N127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P127" t="s">
         <v>343</v>
@@ -7553,7 +7574,7 @@
         <v>166.95</v>
       </c>
       <c r="N128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P128" t="s">
         <v>343</v>
@@ -7601,7 +7622,7 @@
         <v>119.7</v>
       </c>
       <c r="N129" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P129" t="s">
         <v>343</v>
@@ -7649,7 +7670,7 @@
         <v>153.45000000000002</v>
       </c>
       <c r="N130" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P130" t="s">
         <v>343</v>
@@ -7697,7 +7718,7 @@
         <v>116.55</v>
       </c>
       <c r="N131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P131" t="s">
         <v>344</v>
@@ -7745,7 +7766,7 @@
         <v>237.60000000000002</v>
       </c>
       <c r="N132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P132" t="s">
         <v>344</v>
@@ -7793,7 +7814,7 @@
         <v>92.249999999999986</v>
       </c>
       <c r="N133" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P133" t="s">
         <v>344</v>
@@ -7841,7 +7862,7 @@
         <v>155.69999999999999</v>
       </c>
       <c r="N134" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P134" t="s">
         <v>344</v>
@@ -7889,7 +7910,7 @@
         <v>196.20000000000002</v>
       </c>
       <c r="N135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P135" t="s">
         <v>344</v>
@@ -7937,7 +7958,7 @@
         <v>697.5</v>
       </c>
       <c r="N136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P136" t="s">
         <v>344</v>
@@ -7985,7 +8006,7 @@
         <v>78.75</v>
       </c>
       <c r="N137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P137" t="s">
         <v>345</v>
@@ -8033,7 +8054,7 @@
         <v>219.6</v>
       </c>
       <c r="N138" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P138" t="s">
         <v>345</v>
@@ -8081,7 +8102,7 @@
         <v>486.00000000000006</v>
       </c>
       <c r="N139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P139" t="s">
         <v>345</v>
@@ -8129,7 +8150,7 @@
         <v>223.2</v>
       </c>
       <c r="N140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P140" t="s">
         <v>345</v>
@@ -8177,7 +8198,7 @@
         <v>342</v>
       </c>
       <c r="N141" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P141" t="s">
         <v>345</v>
@@ -8225,7 +8246,7 @@
         <v>372.59999999999997</v>
       </c>
       <c r="N142" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P142" t="s">
         <v>345</v>
@@ -8273,7 +8294,7 @@
         <v>293.39999999999998</v>
       </c>
       <c r="N143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P143" t="s">
         <v>345</v>
@@ -8321,7 +8342,7 @@
         <v>177.3</v>
       </c>
       <c r="N144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P144" t="s">
         <v>345</v>
@@ -8369,10 +8390,10 @@
         <v>324</v>
       </c>
       <c r="N145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P145" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8417,10 +8438,10 @@
         <v>325.8</v>
       </c>
       <c r="N146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8465,10 +8486,10 @@
         <v>189</v>
       </c>
       <c r="N147" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8513,10 +8534,10 @@
         <v>110.7</v>
       </c>
       <c r="N148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8561,10 +8582,10 @@
         <v>129.6</v>
       </c>
       <c r="N149" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8609,10 +8630,10 @@
         <v>189</v>
       </c>
       <c r="N150" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P150" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8657,10 +8678,10 @@
         <v>248.39999999999998</v>
       </c>
       <c r="N151" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P151" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8705,10 +8726,10 @@
         <v>383.4</v>
       </c>
       <c r="N152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8753,10 +8774,10 @@
         <v>458.99999999999994</v>
       </c>
       <c r="N153" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P153" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8801,10 +8822,10 @@
         <v>458.99999999999994</v>
       </c>
       <c r="N154" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P154" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8849,10 +8870,10 @@
         <v>206.99999999999997</v>
       </c>
       <c r="N155" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -8897,10 +8918,10 @@
         <v>295.2</v>
       </c>
       <c r="N156" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8945,10 +8966,10 @@
         <v>419.40000000000003</v>
       </c>
       <c r="N157" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8993,10 +9014,10 @@
         <v>136.35</v>
       </c>
       <c r="N158" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P158" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9041,10 +9062,10 @@
         <v>154.80000000000001</v>
       </c>
       <c r="N159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9089,10 +9110,10 @@
         <v>94.5</v>
       </c>
       <c r="N160" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9137,10 +9158,10 @@
         <v>108.45</v>
       </c>
       <c r="N161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9173,10 +9194,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P162" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9209,10 +9230,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N163" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P163" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9245,10 +9266,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N164" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P164" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9281,21 +9302,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="N165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D166" s="6">
         <v>43312.548703703702</v>
@@ -9313,7 +9334,7 @@
         <v>40</v>
       </c>
       <c r="I166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J166" t="s">
         <v>352</v>
@@ -9329,21 +9350,21 @@
         <v>113.99999999999999</v>
       </c>
       <c r="N166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P166" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D167" s="6">
         <v>43312.548784722225</v>
@@ -9361,7 +9382,7 @@
         <v>40</v>
       </c>
       <c r="I167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J167" t="s">
         <v>352</v>
@@ -9377,21 +9398,21 @@
         <v>247.00000000000003</v>
       </c>
       <c r="N167" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P167" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D168" s="6">
         <v>43312.54886574074</v>
@@ -9409,7 +9430,7 @@
         <v>40</v>
       </c>
       <c r="I168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J168" t="s">
         <v>352</v>
@@ -9425,21 +9446,21 @@
         <v>38.5</v>
       </c>
       <c r="N168" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P168" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D169" s="6">
         <v>43312.548946759256</v>
@@ -9457,7 +9478,7 @@
         <v>40</v>
       </c>
       <c r="I169" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J169" t="s">
         <v>352</v>
@@ -9473,10 +9494,10 @@
         <v>352.5</v>
       </c>
       <c r="N169" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P169" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9521,7 +9542,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N170" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P170" t="s">
         <v>353</v>
@@ -9569,7 +9590,7 @@
         <v>234</v>
       </c>
       <c r="N171" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P171" t="s">
         <v>353</v>
@@ -9617,7 +9638,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N172" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P172" t="s">
         <v>353</v>
@@ -9665,7 +9686,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N173" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P173" t="s">
         <v>353</v>
@@ -9713,7 +9734,7 @@
         <v>224.9</v>
       </c>
       <c r="N174" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P174" t="s">
         <v>353</v>
@@ -9761,7 +9782,7 @@
         <v>387.40000000000003</v>
       </c>
       <c r="N175" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P175" t="s">
         <v>353</v>
@@ -9809,7 +9830,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N176" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P176" t="s">
         <v>353</v>
@@ -9857,7 +9878,7 @@
         <v>68.64</v>
       </c>
       <c r="N177" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P177" t="s">
         <v>353</v>
@@ -9905,7 +9926,7 @@
         <v>108.94000000000001</v>
       </c>
       <c r="N178" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P178" t="s">
         <v>353</v>
@@ -9953,7 +9974,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N179" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P179" t="s">
         <v>353</v>
@@ -10001,7 +10022,7 @@
         <v>90.22</v>
       </c>
       <c r="N180" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P180" t="s">
         <v>353</v>
@@ -10049,7 +10070,7 @@
         <v>52</v>
       </c>
       <c r="N181" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P181" t="s">
         <v>353</v>
@@ -10097,7 +10118,7 @@
         <v>94.64</v>
       </c>
       <c r="N182" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P182" t="s">
         <v>353</v>
@@ -10145,7 +10166,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N183" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P183" t="s">
         <v>353</v>
@@ -10193,7 +10214,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N184" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P184" t="s">
         <v>353</v>
@@ -10241,7 +10262,7 @@
         <v>93.600000000000009</v>
       </c>
       <c r="N185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P185" t="s">
         <v>353</v>
@@ -10289,7 +10310,7 @@
         <v>206.70000000000002</v>
       </c>
       <c r="N186" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P186" t="s">
         <v>353</v>
@@ -10337,7 +10358,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N187" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P187" t="s">
         <v>353</v>
@@ -10385,7 +10406,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P188" t="s">
         <v>353</v>
@@ -10433,7 +10454,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N189" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P189" t="s">
         <v>353</v>
@@ -10481,7 +10502,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N190" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P190" t="s">
         <v>353</v>
@@ -10529,7 +10550,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N191" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P191" t="s">
         <v>353</v>
@@ -10577,7 +10598,7 @@
         <v>62.4</v>
       </c>
       <c r="N192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P192" t="s">
         <v>353</v>
@@ -10625,7 +10646,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P193" t="s">
         <v>353</v>
@@ -10673,7 +10694,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P194" t="s">
         <v>353</v>
@@ -10721,7 +10742,7 @@
         <v>89.18</v>
       </c>
       <c r="N195" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P195" t="s">
         <v>353</v>
@@ -10769,7 +10790,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P196" t="s">
         <v>353</v>
@@ -10817,7 +10838,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N197" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P197" t="s">
         <v>353</v>
@@ -10865,7 +10886,7 @@
         <v>118.55999999999999</v>
       </c>
       <c r="N198" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P198" t="s">
         <v>353</v>
@@ -10913,7 +10934,7 @@
         <v>71.759999999999991</v>
       </c>
       <c r="N199" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P199" t="s">
         <v>353</v>
@@ -10961,7 +10982,7 @@
         <v>126.62</v>
       </c>
       <c r="N200" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P200" t="s">
         <v>353</v>
@@ -11009,7 +11030,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N201" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P201" t="s">
         <v>353</v>
@@ -11057,7 +11078,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N202" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P202" t="s">
         <v>353</v>
@@ -11105,7 +11126,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N203" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P203" t="s">
         <v>353</v>
@@ -11153,7 +11174,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P204" t="s">
         <v>353</v>
@@ -11201,7 +11222,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N205" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P205" t="s">
         <v>353</v>
@@ -11249,7 +11270,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N206" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P206" t="s">
         <v>353</v>
@@ -11297,7 +11318,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N207" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P207" t="s">
         <v>353</v>
@@ -11345,7 +11366,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N208" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P208" t="s">
         <v>353</v>
@@ -11393,7 +11414,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N209" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P209" t="s">
         <v>353</v>
@@ -11401,13 +11422,13 @@
     </row>
     <row r="210" spans="1:16" ht="17">
       <c r="A210" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
         <v>378</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210" t="s">
-        <v>379</v>
       </c>
       <c r="D210" s="5">
         <v>43378.584027777775</v>
@@ -11425,7 +11446,7 @@
         <v>40</v>
       </c>
       <c r="I210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J210" t="s">
         <v>346</v>
@@ -11441,21 +11462,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="N210" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="17">
       <c r="A211" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D211" s="5">
         <v>43378.584027777775</v>
@@ -11473,7 +11494,7 @@
         <v>40</v>
       </c>
       <c r="I211" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J211" t="s">
         <v>346</v>
@@ -11489,21 +11510,21 @@
         <v>16.5</v>
       </c>
       <c r="N211" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P211" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="17">
       <c r="A212" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D212" s="5">
         <v>43378.584027777775</v>
@@ -11521,7 +11542,7 @@
         <v>40</v>
       </c>
       <c r="I212" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J212" t="s">
         <v>346</v>
@@ -11537,21 +11558,21 @@
         <v>7.65</v>
       </c>
       <c r="N212" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P212" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="17">
       <c r="A213" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D213" s="5">
         <v>43378.584027777775</v>
@@ -11569,7 +11590,7 @@
         <v>40</v>
       </c>
       <c r="I213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J213" t="s">
         <v>346</v>
@@ -11585,10 +11606,10 @@
         <v>6.2</v>
       </c>
       <c r="N213" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -11633,7 +11654,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N214" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P214" t="s">
         <v>347</v>
@@ -11681,7 +11702,7 @@
         <v>14.2</v>
       </c>
       <c r="N215" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P215" t="s">
         <v>347</v>
@@ -11729,7 +11750,7 @@
         <v>19.099999999999998</v>
       </c>
       <c r="N216" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P216" t="s">
         <v>347</v>
@@ -11777,7 +11798,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P217" t="s">
         <v>347</v>
@@ -11825,7 +11846,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="N218" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P218" t="s">
         <v>347</v>
@@ -11873,7 +11894,7 @@
         <v>9.3999999999999986</v>
       </c>
       <c r="N219" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P219" t="s">
         <v>347</v>
@@ -11921,7 +11942,7 @@
         <v>15.75</v>
       </c>
       <c r="N220" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P220" t="s">
         <v>347</v>
@@ -11969,7 +11990,7 @@
         <v>24.4</v>
       </c>
       <c r="N221" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P221" t="s">
         <v>347</v>
@@ -12017,7 +12038,7 @@
         <v>13.200000000000001</v>
       </c>
       <c r="N222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P222" t="s">
         <v>347</v>
@@ -12065,7 +12086,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N223" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P223" t="s">
         <v>347</v>
@@ -12113,7 +12134,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N224" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P224" t="s">
         <v>348</v>
@@ -12161,7 +12182,7 @@
         <v>21.8</v>
       </c>
       <c r="N225" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P225" t="s">
         <v>348</v>
@@ -12209,7 +12230,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N226" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P226" t="s">
         <v>348</v>
@@ -12257,7 +12278,7 @@
         <v>17.549999999999997</v>
       </c>
       <c r="N227" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P227" t="s">
         <v>348</v>
@@ -12305,7 +12326,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N228" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P228" t="s">
         <v>348</v>
@@ -12353,7 +12374,7 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="N229" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P229" t="s">
         <v>348</v>
@@ -12401,7 +12422,7 @@
         <v>14.7</v>
       </c>
       <c r="N230" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P230" t="s">
         <v>348</v>
@@ -12449,7 +12470,7 @@
         <v>57</v>
       </c>
       <c r="N231" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P231" t="s">
         <v>348</v>
@@ -12497,7 +12518,7 @@
         <v>32.400000000000006</v>
       </c>
       <c r="N232" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P232" t="s">
         <v>348</v>
@@ -12545,7 +12566,7 @@
         <v>7.75</v>
       </c>
       <c r="N233" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P233" t="s">
         <v>348</v>
@@ -12593,7 +12614,7 @@
         <v>371.8</v>
       </c>
       <c r="N234" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P234" t="s">
         <v>351</v>
@@ -12641,7 +12662,7 @@
         <v>325</v>
       </c>
       <c r="N235" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P235" t="s">
         <v>351</v>
@@ -12652,7 +12673,7 @@
         <v>43404.745706018519</v>
       </c>
       <c r="I236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J236" t="s">
         <v>352</v>
@@ -12661,10 +12682,10 @@
         <v>332</v>
       </c>
       <c r="N236" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O236" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P236" t="s">
         <v>351</v>
@@ -12675,7 +12696,7 @@
         <v>43404.745706018519</v>
       </c>
       <c r="I237" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J237" t="s">
         <v>352</v>
@@ -12684,10 +12705,10 @@
         <v>332</v>
       </c>
       <c r="N237" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O237" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P237" t="s">
         <v>351</v>
@@ -12735,7 +12756,7 @@
         <v>522.6</v>
       </c>
       <c r="N238" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P238" t="s">
         <v>354</v>
@@ -12783,7 +12804,7 @@
         <v>852.8</v>
       </c>
       <c r="N239" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P239" t="s">
         <v>354</v>
@@ -12831,7 +12852,7 @@
         <v>270.40000000000003</v>
       </c>
       <c r="N240" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P240" t="s">
         <v>354</v>
@@ -12879,7 +12900,7 @@
         <v>483.6</v>
       </c>
       <c r="N241" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P241" t="s">
         <v>354</v>
@@ -12927,7 +12948,7 @@
         <v>772.19999999999993</v>
       </c>
       <c r="N242" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P242" t="s">
         <v>354</v>
@@ -12975,7 +12996,7 @@
         <v>231.4</v>
       </c>
       <c r="N243" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P243" t="s">
         <v>354</v>
@@ -13023,7 +13044,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N244" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P244" t="s">
         <v>354</v>
@@ -13071,7 +13092,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N245" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P245" t="s">
         <v>354</v>
@@ -13082,7 +13103,7 @@
         <v>43479</v>
       </c>
       <c r="I246" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J246" t="s">
         <v>355</v>
@@ -13091,13 +13112,13 @@
         <v>332</v>
       </c>
       <c r="N246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O246" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P246" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13105,7 +13126,7 @@
         <v>43479</v>
       </c>
       <c r="I247" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J247" t="s">
         <v>355</v>
@@ -13114,13 +13135,13 @@
         <v>332</v>
       </c>
       <c r="N247" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O247" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P247" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13128,7 +13149,7 @@
         <v>43479</v>
       </c>
       <c r="I248" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J248" t="s">
         <v>355</v>
@@ -13137,13 +13158,13 @@
         <v>332</v>
       </c>
       <c r="N248" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P248" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13160,7 +13181,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J249" t="s">
         <v>355</v>
@@ -13176,7 +13197,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N249" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P249" s="8" t="s">
         <v>356</v>
@@ -13196,7 +13217,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J250" t="s">
         <v>355</v>
@@ -13212,7 +13233,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N250" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P250" t="s">
         <v>356</v>
@@ -13232,7 +13253,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J251" t="s">
         <v>355</v>
@@ -13248,7 +13269,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N251" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P251" t="s">
         <v>356</v>
@@ -13284,7 +13305,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N252" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P252" t="s">
         <v>357</v>
@@ -13320,7 +13341,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N253" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P253" t="s">
         <v>357</v>
@@ -13356,7 +13377,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N254" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P254" t="s">
         <v>357</v>
@@ -13379,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J255" t="s">
         <v>352</v>
@@ -13395,10 +13416,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N255" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P255" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -13418,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J256" t="s">
         <v>352</v>
@@ -13430,14 +13451,14 @@
         <v>14</v>
       </c>
       <c r="M256" t="e">
-        <f t="shared" ref="M256:M300" si="10">(F256)*(L256-G256)</f>
+        <f t="shared" ref="M256:M319" si="10">(F256)*(L256-G256)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N256" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -13457,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J257" t="s">
         <v>352</v>
@@ -13473,10 +13494,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P257" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -13496,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J258" t="s">
         <v>352</v>
@@ -13512,10 +13533,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P258" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -13535,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J259" t="s">
         <v>352</v>
@@ -13551,10 +13572,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N259" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P259" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -13574,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J260" t="s">
         <v>352</v>
@@ -13590,10 +13611,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N260" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P260" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -13613,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J261" t="s">
         <v>352</v>
@@ -13629,10 +13650,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N261" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P261" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -13649,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J262" t="s">
         <v>352</v>
@@ -13665,21 +13686,21 @@
         <v>91</v>
       </c>
       <c r="N262" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P262" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263" spans="1:16">
       <c r="A263" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D263" s="7">
         <v>43516.685416666667</v>
@@ -13694,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J263" t="s">
         <v>352</v>
@@ -13710,24 +13731,24 @@
         <v>182</v>
       </c>
       <c r="N263" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O263" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P263" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" spans="1:16">
       <c r="A264" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D264" s="7">
         <v>43516.685416666667</v>
@@ -13742,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J264" t="s">
         <v>352</v>
@@ -13758,13 +13779,13 @@
         <v>59.8</v>
       </c>
       <c r="N264" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O264" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -13800,7 +13821,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N265" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P265" t="s">
         <v>361</v>
@@ -13839,7 +13860,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N266" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P266" t="s">
         <v>361</v>
@@ -13878,7 +13899,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N267" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P267" t="s">
         <v>361</v>
@@ -13917,7 +13938,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N268" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P268" t="s">
         <v>361</v>
@@ -13956,7 +13977,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N269" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P269" t="s">
         <v>361</v>
@@ -13995,7 +14016,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N270" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P270" t="s">
         <v>361</v>
@@ -14034,7 +14055,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N271" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P271" t="s">
         <v>361</v>
@@ -14073,7 +14094,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N272" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P272" t="s">
         <v>361</v>
@@ -14112,7 +14133,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N273" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P273" t="s">
         <v>361</v>
@@ -14151,7 +14172,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N274" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P274" t="s">
         <v>361</v>
@@ -14190,7 +14211,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N275" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P275" t="s">
         <v>361</v>
@@ -14229,7 +14250,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N276" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P276" t="s">
         <v>361</v>
@@ -14268,7 +14289,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N277" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P277" t="s">
         <v>361</v>
@@ -14307,7 +14328,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N278" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P278" t="s">
         <v>361</v>
@@ -14346,7 +14367,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N279" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P279" t="s">
         <v>361</v>
@@ -14385,7 +14406,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N280" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P280" t="s">
         <v>361</v>
@@ -14424,7 +14445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N281" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P281" t="s">
         <v>361</v>
@@ -14463,7 +14484,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N282" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P282" t="s">
         <v>361</v>
@@ -14502,7 +14523,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N283" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P283" t="s">
         <v>361</v>
@@ -14541,7 +14562,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N284" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P284" t="s">
         <v>361</v>
@@ -14580,7 +14601,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N285" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P285" t="s">
         <v>361</v>
@@ -14619,7 +14640,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N286" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P286" t="s">
         <v>361</v>
@@ -14658,7 +14679,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N287" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P287" t="s">
         <v>361</v>
@@ -14697,7 +14718,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N288" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P288" t="s">
         <v>361</v>
@@ -14745,7 +14766,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N289" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O289" s="1"/>
       <c r="P289" s="1" t="s">
@@ -14795,7 +14816,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N290" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O290" s="1"/>
       <c r="P290" s="1" t="s">
@@ -14845,7 +14866,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N291" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O291" s="1"/>
       <c r="P291" s="1" t="s">
@@ -14895,7 +14916,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N292" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O292" s="1"/>
       <c r="P292" s="1" t="s">
@@ -14945,7 +14966,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N293" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O293" s="1"/>
       <c r="P293" s="1" t="s">
@@ -14995,7 +15016,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N294" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O294" s="1"/>
       <c r="P294" s="1" t="s">
@@ -15045,7 +15066,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N295" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O295" s="1"/>
       <c r="P295" s="1" t="s">
@@ -15095,7 +15116,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N296" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O296" s="1"/>
       <c r="P296" s="1" t="s">
@@ -15145,7 +15166,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N297" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O297" s="1"/>
       <c r="P297" s="1" t="s">
@@ -15195,7 +15216,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N298" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O298" s="1"/>
       <c r="P298" s="1" t="s">
@@ -15245,7 +15266,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N299" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O299" s="1"/>
       <c r="P299" s="1" t="s">
@@ -15295,9 +15316,8 @@
         <v>59.8</v>
       </c>
       <c r="N300" t="s">
-        <v>398</v>
-      </c>
-      <c r="O300" s="1"/>
+        <v>397</v>
+      </c>
       <c r="P300" s="1" t="s">
         <v>362</v>
       </c>
@@ -15328,11 +15348,30 @@
       <c r="H301">
         <v>20</v>
       </c>
+      <c r="I301" s="2">
+        <v>135</v>
+      </c>
+      <c r="J301" t="s">
+        <v>352</v>
+      </c>
+      <c r="K301" s="2">
+        <v>15</v>
+      </c>
+      <c r="L301">
+        <v>10</v>
+      </c>
+      <c r="M301" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N301" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P301" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -15360,11 +15399,30 @@
       <c r="H302">
         <v>20</v>
       </c>
+      <c r="I302" s="2">
+        <v>90</v>
+      </c>
+      <c r="J302" t="s">
+        <v>352</v>
+      </c>
+      <c r="K302" s="2">
+        <v>15</v>
+      </c>
+      <c r="L302">
+        <v>10</v>
+      </c>
+      <c r="M302" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N302" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P302" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -15392,11 +15450,30 @@
       <c r="H303">
         <v>20</v>
       </c>
+      <c r="I303" s="2">
+        <v>142</v>
+      </c>
+      <c r="J303" t="s">
+        <v>352</v>
+      </c>
+      <c r="K303" s="2">
+        <v>15</v>
+      </c>
+      <c r="L303">
+        <v>10</v>
+      </c>
+      <c r="M303" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N303" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P303" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -15424,11 +15501,30 @@
       <c r="H304">
         <v>20</v>
       </c>
+      <c r="I304" t="s">
+        <v>491</v>
+      </c>
+      <c r="J304" t="s">
+        <v>352</v>
+      </c>
+      <c r="K304" s="2">
+        <v>15</v>
+      </c>
+      <c r="L304">
+        <v>10</v>
+      </c>
+      <c r="M304" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N304" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P304" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -15456,11 +15552,30 @@
       <c r="H305">
         <v>20</v>
       </c>
+      <c r="I305" s="2">
+        <v>212</v>
+      </c>
+      <c r="J305" t="s">
+        <v>352</v>
+      </c>
+      <c r="K305" s="2">
+        <v>15</v>
+      </c>
+      <c r="L305">
+        <v>10</v>
+      </c>
+      <c r="M305" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N305" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P305" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -15488,11 +15603,30 @@
       <c r="H306">
         <v>20</v>
       </c>
+      <c r="I306" s="2">
+        <v>317</v>
+      </c>
+      <c r="J306" t="s">
+        <v>352</v>
+      </c>
+      <c r="K306" s="2">
+        <v>15</v>
+      </c>
+      <c r="L306">
+        <v>10</v>
+      </c>
+      <c r="M306" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N306" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P306" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -15520,11 +15654,30 @@
       <c r="H307">
         <v>20</v>
       </c>
+      <c r="I307" s="2">
+        <v>342</v>
+      </c>
+      <c r="J307" t="s">
+        <v>352</v>
+      </c>
+      <c r="K307" s="2">
+        <v>15</v>
+      </c>
+      <c r="L307">
+        <v>10</v>
+      </c>
+      <c r="M307" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N307" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P307" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -15552,11 +15705,30 @@
       <c r="H308">
         <v>20</v>
       </c>
+      <c r="I308" s="2">
+        <v>352</v>
+      </c>
+      <c r="J308" t="s">
+        <v>352</v>
+      </c>
+      <c r="K308" s="2">
+        <v>15</v>
+      </c>
+      <c r="L308">
+        <v>10</v>
+      </c>
+      <c r="M308" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N308" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P308" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -15584,11 +15756,30 @@
       <c r="H309">
         <v>20</v>
       </c>
+      <c r="I309" s="2">
+        <v>326</v>
+      </c>
+      <c r="J309" t="s">
+        <v>352</v>
+      </c>
+      <c r="K309" s="2">
+        <v>15</v>
+      </c>
+      <c r="L309">
+        <v>10</v>
+      </c>
+      <c r="M309">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="N309" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P309" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -15616,11 +15807,30 @@
       <c r="H310">
         <v>20</v>
       </c>
+      <c r="I310" s="2">
+        <v>234</v>
+      </c>
+      <c r="J310" t="s">
+        <v>352</v>
+      </c>
+      <c r="K310" s="2">
+        <v>15</v>
+      </c>
+      <c r="L310">
+        <v>10</v>
+      </c>
+      <c r="M310" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N310" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P310" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -15648,11 +15858,30 @@
       <c r="H311">
         <v>20</v>
       </c>
+      <c r="I311" s="2">
+        <v>236</v>
+      </c>
+      <c r="J311" t="s">
+        <v>352</v>
+      </c>
+      <c r="K311" s="2">
+        <v>15</v>
+      </c>
+      <c r="L311">
+        <v>10</v>
+      </c>
+      <c r="M311" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N311" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P311" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -15680,11 +15909,30 @@
       <c r="H312">
         <v>20</v>
       </c>
+      <c r="I312" t="s">
+        <v>490</v>
+      </c>
+      <c r="J312" t="s">
+        <v>352</v>
+      </c>
+      <c r="K312" s="2">
+        <v>15</v>
+      </c>
+      <c r="L312">
+        <v>10</v>
+      </c>
+      <c r="M312" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N312" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P312" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -15712,11 +15960,30 @@
       <c r="H313">
         <v>20</v>
       </c>
+      <c r="I313" s="2">
+        <v>242</v>
+      </c>
+      <c r="J313" t="s">
+        <v>352</v>
+      </c>
+      <c r="K313" s="2">
+        <v>15</v>
+      </c>
+      <c r="L313">
+        <v>10</v>
+      </c>
+      <c r="M313" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N313" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P313" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -15744,11 +16011,30 @@
       <c r="H314">
         <v>20</v>
       </c>
+      <c r="I314" s="2">
+        <v>506</v>
+      </c>
+      <c r="J314" t="s">
+        <v>352</v>
+      </c>
+      <c r="K314" s="2">
+        <v>15</v>
+      </c>
+      <c r="L314">
+        <v>10</v>
+      </c>
+      <c r="M314" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N314" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P314" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -15776,11 +16062,30 @@
       <c r="H315">
         <v>20</v>
       </c>
+      <c r="I315" s="2">
+        <v>266</v>
+      </c>
+      <c r="J315" t="s">
+        <v>352</v>
+      </c>
+      <c r="K315" s="2">
+        <v>15</v>
+      </c>
+      <c r="L315">
+        <v>10</v>
+      </c>
+      <c r="M315" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N315" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P315" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -15808,11 +16113,30 @@
       <c r="H316">
         <v>20</v>
       </c>
+      <c r="I316" s="2">
+        <v>31</v>
+      </c>
+      <c r="J316" t="s">
+        <v>352</v>
+      </c>
+      <c r="K316" s="2">
+        <v>15</v>
+      </c>
+      <c r="L316">
+        <v>10</v>
+      </c>
+      <c r="M316">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="N316" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P316" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -15840,11 +16164,30 @@
       <c r="H317">
         <v>20</v>
       </c>
+      <c r="I317" t="s">
+        <v>489</v>
+      </c>
+      <c r="J317" t="s">
+        <v>352</v>
+      </c>
+      <c r="K317" s="2">
+        <v>15</v>
+      </c>
+      <c r="L317">
+        <v>10</v>
+      </c>
+      <c r="M317" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N317" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P317" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -15872,11 +16215,30 @@
       <c r="H318">
         <v>20</v>
       </c>
+      <c r="I318" t="s">
+        <v>493</v>
+      </c>
+      <c r="J318" t="s">
+        <v>352</v>
+      </c>
+      <c r="K318" s="2">
+        <v>15</v>
+      </c>
+      <c r="L318">
+        <v>10</v>
+      </c>
+      <c r="M318">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="N318" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P318" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -15904,11 +16266,30 @@
       <c r="H319">
         <v>20</v>
       </c>
+      <c r="I319" s="2">
+        <v>291</v>
+      </c>
+      <c r="J319" t="s">
+        <v>352</v>
+      </c>
+      <c r="K319" s="2">
+        <v>15</v>
+      </c>
+      <c r="L319">
+        <v>10</v>
+      </c>
+      <c r="M319" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N319" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P319" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -15936,11 +16317,30 @@
       <c r="H320">
         <v>20</v>
       </c>
+      <c r="I320" t="s">
+        <v>488</v>
+      </c>
+      <c r="J320" t="s">
+        <v>352</v>
+      </c>
+      <c r="K320" s="2">
+        <v>15</v>
+      </c>
+      <c r="L320">
+        <v>10</v>
+      </c>
+      <c r="M320">
+        <f t="shared" ref="M320:M324" si="11">(F320)*(L320-G320)</f>
+        <v>0</v>
+      </c>
       <c r="N320" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O320" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P320" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -15968,11 +16368,30 @@
       <c r="H321">
         <v>20</v>
       </c>
+      <c r="I321" t="s">
+        <v>26</v>
+      </c>
+      <c r="J321" t="s">
+        <v>352</v>
+      </c>
+      <c r="K321" s="2">
+        <v>15</v>
+      </c>
+      <c r="L321">
+        <v>10</v>
+      </c>
+      <c r="M321" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N321" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O321" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P321" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -16000,11 +16419,30 @@
       <c r="H322">
         <v>20</v>
       </c>
+      <c r="I322" t="s">
+        <v>494</v>
+      </c>
+      <c r="J322" t="s">
+        <v>352</v>
+      </c>
+      <c r="K322" s="2">
+        <v>15</v>
+      </c>
+      <c r="L322">
+        <v>10</v>
+      </c>
+      <c r="M322" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N322" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O322" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P322" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -16032,11 +16470,30 @@
       <c r="H323">
         <v>20</v>
       </c>
+      <c r="I323">
+        <v>271</v>
+      </c>
+      <c r="J323" t="s">
+        <v>352</v>
+      </c>
+      <c r="K323" s="2">
+        <v>15</v>
+      </c>
+      <c r="L323">
+        <v>10</v>
+      </c>
+      <c r="M323" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N323" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O323" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P323" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -16064,11 +16521,30 @@
       <c r="H324">
         <v>20</v>
       </c>
+      <c r="I324">
+        <v>285</v>
+      </c>
+      <c r="J324" t="s">
+        <v>352</v>
+      </c>
+      <c r="K324" s="2">
+        <v>15</v>
+      </c>
+      <c r="L324">
+        <v>10</v>
+      </c>
+      <c r="M324" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N324" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O324" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="P324" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -16096,11 +16572,26 @@
       <c r="H325">
         <v>200</v>
       </c>
+      <c r="I325">
+        <v>135</v>
+      </c>
+      <c r="J325" t="s">
+        <v>352</v>
+      </c>
+      <c r="K325">
+        <v>15</v>
+      </c>
+      <c r="L325">
+        <v>14</v>
+      </c>
       <c r="N325" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O325" t="s">
+        <v>492</v>
       </c>
       <c r="P325" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -16128,11 +16619,26 @@
       <c r="H326">
         <v>200</v>
       </c>
+      <c r="I326">
+        <v>90</v>
+      </c>
+      <c r="J326" t="s">
+        <v>352</v>
+      </c>
+      <c r="K326">
+        <v>15</v>
+      </c>
+      <c r="L326">
+        <v>14</v>
+      </c>
       <c r="N326" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O326" t="s">
+        <v>492</v>
       </c>
       <c r="P326" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -16160,11 +16666,26 @@
       <c r="H327">
         <v>200</v>
       </c>
+      <c r="I327">
+        <v>317</v>
+      </c>
+      <c r="J327" t="s">
+        <v>352</v>
+      </c>
+      <c r="K327">
+        <v>15</v>
+      </c>
+      <c r="L327">
+        <v>14</v>
+      </c>
       <c r="N327" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O327" t="s">
+        <v>492</v>
       </c>
       <c r="P327" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -16192,11 +16713,26 @@
       <c r="H328">
         <v>200</v>
       </c>
+      <c r="I328">
+        <v>352</v>
+      </c>
+      <c r="J328" t="s">
+        <v>352</v>
+      </c>
+      <c r="K328">
+        <v>15</v>
+      </c>
+      <c r="L328">
+        <v>14</v>
+      </c>
       <c r="N328" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O328" t="s">
+        <v>492</v>
       </c>
       <c r="P328" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -16224,11 +16760,26 @@
       <c r="H329">
         <v>200</v>
       </c>
+      <c r="I329">
+        <v>242</v>
+      </c>
+      <c r="J329" t="s">
+        <v>352</v>
+      </c>
+      <c r="K329">
+        <v>15</v>
+      </c>
+      <c r="L329">
+        <v>14</v>
+      </c>
       <c r="N329" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O329" t="s">
+        <v>492</v>
       </c>
       <c r="P329" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -16256,11 +16807,26 @@
       <c r="H330">
         <v>200</v>
       </c>
+      <c r="I330">
+        <v>234</v>
+      </c>
+      <c r="J330" t="s">
+        <v>352</v>
+      </c>
+      <c r="K330">
+        <v>15</v>
+      </c>
+      <c r="L330">
+        <v>14</v>
+      </c>
       <c r="N330" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O330" t="s">
+        <v>492</v>
       </c>
       <c r="P330" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -16288,11 +16854,26 @@
       <c r="H331">
         <v>200</v>
       </c>
+      <c r="I331">
+        <v>285</v>
+      </c>
+      <c r="J331" t="s">
+        <v>352</v>
+      </c>
+      <c r="K331">
+        <v>15</v>
+      </c>
+      <c r="L331">
+        <v>14</v>
+      </c>
       <c r="N331" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O331" t="s">
+        <v>492</v>
       </c>
       <c r="P331" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -16320,11 +16901,26 @@
       <c r="H332">
         <v>200</v>
       </c>
+      <c r="I332">
+        <v>271</v>
+      </c>
+      <c r="J332" t="s">
+        <v>352</v>
+      </c>
+      <c r="K332">
+        <v>15</v>
+      </c>
+      <c r="L332">
+        <v>14</v>
+      </c>
       <c r="N332" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O332" t="s">
+        <v>492</v>
       </c>
       <c r="P332" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -16352,11 +16948,26 @@
       <c r="H333">
         <v>200</v>
       </c>
+      <c r="I333" t="s">
+        <v>491</v>
+      </c>
+      <c r="J333" t="s">
+        <v>352</v>
+      </c>
+      <c r="K333">
+        <v>15</v>
+      </c>
+      <c r="L333">
+        <v>14</v>
+      </c>
       <c r="N333" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O333" t="s">
+        <v>492</v>
       </c>
       <c r="P333" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -16384,11 +16995,26 @@
       <c r="H334">
         <v>200</v>
       </c>
+      <c r="I334" t="s">
+        <v>490</v>
+      </c>
+      <c r="J334" t="s">
+        <v>352</v>
+      </c>
+      <c r="K334">
+        <v>15</v>
+      </c>
+      <c r="L334">
+        <v>14</v>
+      </c>
       <c r="N334" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O334" t="s">
+        <v>492</v>
       </c>
       <c r="P334" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -16416,11 +17042,26 @@
       <c r="H335">
         <v>200</v>
       </c>
+      <c r="I335" t="s">
+        <v>489</v>
+      </c>
+      <c r="J335" t="s">
+        <v>352</v>
+      </c>
+      <c r="K335">
+        <v>15</v>
+      </c>
+      <c r="L335">
+        <v>14</v>
+      </c>
       <c r="N335" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O335" t="s">
+        <v>492</v>
       </c>
       <c r="P335" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -16448,22 +17089,37 @@
       <c r="H336">
         <v>200</v>
       </c>
+      <c r="I336" t="s">
+        <v>488</v>
+      </c>
+      <c r="J336" t="s">
+        <v>352</v>
+      </c>
+      <c r="K336">
+        <v>15</v>
+      </c>
+      <c r="L336">
+        <v>14</v>
+      </c>
       <c r="N336" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="O336" t="s">
+        <v>492</v>
       </c>
       <c r="P336" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="337" spans="1:16">
       <c r="A337" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D337" s="6">
         <v>43585.60701388889</v>
@@ -16484,7 +17140,7 @@
         <v>13</v>
       </c>
       <c r="J337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K337" s="2">
         <v>70</v>
@@ -16497,21 +17153,21 @@
         <v>107.76999999999998</v>
       </c>
       <c r="N337" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P337" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:16">
       <c r="A338" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D338" s="6">
         <v>43585.607083333336</v>
@@ -16532,7 +17188,7 @@
         <v>18</v>
       </c>
       <c r="J338" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K338" s="2">
         <v>70</v>
@@ -16541,25 +17197,25 @@
         <v>15</v>
       </c>
       <c r="M338" s="2">
-        <f t="shared" ref="M338:M401" si="11">(F338)*(L338-G338)</f>
+        <f t="shared" ref="M338:M401" si="12">(F338)*(L338-G338)</f>
         <v>57.98</v>
       </c>
       <c r="N338" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P338" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="339" spans="1:16">
       <c r="A339" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D339" s="6">
         <v>43585.607164351852</v>
@@ -16580,7 +17236,7 @@
         <v>28</v>
       </c>
       <c r="J339" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K339" s="2">
         <v>70</v>
@@ -16589,25 +17245,25 @@
         <v>15</v>
       </c>
       <c r="M339" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>265.2</v>
       </c>
       <c r="N339" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P339" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="1:16">
       <c r="A340" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D340" s="6">
         <v>43585.607245370367</v>
@@ -16628,7 +17284,7 @@
         <v>33</v>
       </c>
       <c r="J340" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K340" s="2">
         <v>70</v>
@@ -16637,25 +17293,25 @@
         <v>15</v>
       </c>
       <c r="M340" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="N340" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P340" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" spans="1:16">
       <c r="A341" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D341" s="6">
         <v>43585.60732638889</v>
@@ -16676,7 +17332,7 @@
         <v>75</v>
       </c>
       <c r="J341" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K341" s="2">
         <v>70</v>
@@ -16685,25 +17341,25 @@
         <v>15</v>
       </c>
       <c r="M341" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>427.7</v>
       </c>
       <c r="N341" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P341" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:16">
       <c r="A342" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D342" s="6">
         <v>43585.607395833336</v>
@@ -16724,7 +17380,7 @@
         <v>82</v>
       </c>
       <c r="J342" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K342" s="2">
         <v>70</v>
@@ -16733,25 +17389,25 @@
         <v>15</v>
       </c>
       <c r="M342" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="N342" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P342" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" spans="1:16">
       <c r="A343" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D343" s="6">
         <v>43585.607511574075</v>
@@ -16772,7 +17428,7 @@
         <v>84</v>
       </c>
       <c r="J343" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K343" s="2">
         <v>70</v>
@@ -16781,25 +17437,25 @@
         <v>15</v>
       </c>
       <c r="M343" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>451.1</v>
       </c>
       <c r="N343" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P343" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:16">
       <c r="A344" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D344" s="6">
         <v>43585.607592592591</v>
@@ -16820,7 +17476,7 @@
         <v>98</v>
       </c>
       <c r="J344" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K344" s="2">
         <v>70</v>
@@ -16829,25 +17485,25 @@
         <v>15</v>
       </c>
       <c r="M344" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>172.9</v>
       </c>
       <c r="N344" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P344" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:16">
       <c r="A345" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D345" s="6">
         <v>43585.607673611114</v>
@@ -16868,7 +17524,7 @@
         <v>104</v>
       </c>
       <c r="J345" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K345" s="2">
         <v>70</v>
@@ -16877,25 +17533,25 @@
         <v>15</v>
       </c>
       <c r="M345" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>378.3</v>
       </c>
       <c r="N345" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P345" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:16">
       <c r="A346" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D346" s="6">
         <v>43585.607754629629</v>
@@ -16916,7 +17572,7 @@
         <v>105</v>
       </c>
       <c r="J346" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K346" s="2">
         <v>70</v>
@@ -16925,25 +17581,25 @@
         <v>15</v>
       </c>
       <c r="M346" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>553.80000000000007</v>
       </c>
       <c r="N346" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P346" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:16">
       <c r="A347" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D347" s="6">
         <v>43585.607824074075</v>
@@ -16964,7 +17620,7 @@
         <v>113</v>
       </c>
       <c r="J347" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K347" s="2">
         <v>70</v>
@@ -16973,25 +17629,25 @@
         <v>15</v>
       </c>
       <c r="M347" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>495.3</v>
       </c>
       <c r="N347" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P347" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:16">
       <c r="A348" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D348" s="6">
         <v>43585.607905092591</v>
@@ -17012,7 +17668,7 @@
         <v>115</v>
       </c>
       <c r="J348" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K348" s="2">
         <v>70</v>
@@ -17021,25 +17677,25 @@
         <v>15</v>
       </c>
       <c r="M348" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>345.8</v>
       </c>
       <c r="N348" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P348" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:16">
       <c r="A349" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D349" s="6">
         <v>43585.607974537037</v>
@@ -17060,7 +17716,7 @@
         <v>118</v>
       </c>
       <c r="J349" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K349" s="2">
         <v>70</v>
@@ -17069,25 +17725,25 @@
         <v>15</v>
       </c>
       <c r="M349" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>663</v>
       </c>
       <c r="N349" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P349" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:16">
       <c r="A350" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D350" s="6">
         <v>43585.608043981483</v>
@@ -17108,7 +17764,7 @@
         <v>122</v>
       </c>
       <c r="J350" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K350" s="2">
         <v>70</v>
@@ -17117,25 +17773,25 @@
         <v>15</v>
       </c>
       <c r="M350" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>231.4</v>
       </c>
       <c r="N350" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P350" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:16">
       <c r="A351" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D351" s="6">
         <v>43585.608124999999</v>
@@ -17156,7 +17812,7 @@
         <v>127</v>
       </c>
       <c r="J351" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K351" s="2">
         <v>70</v>
@@ -17165,25 +17821,25 @@
         <v>15</v>
       </c>
       <c r="M351" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>936</v>
       </c>
       <c r="N351" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P351" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="352" spans="1:16">
       <c r="A352" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D352" s="6">
         <v>43585.608206018522</v>
@@ -17204,7 +17860,7 @@
         <v>129</v>
       </c>
       <c r="J352" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K352" s="2">
         <v>70</v>
@@ -17213,25 +17869,25 @@
         <v>15</v>
       </c>
       <c r="M352" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>217.1</v>
       </c>
       <c r="N352" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P352" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="353" spans="1:16">
       <c r="A353" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D353" s="6">
         <v>43585.608275462961</v>
@@ -17252,7 +17908,7 @@
         <v>131</v>
       </c>
       <c r="J353" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K353" s="2">
         <v>70</v>
@@ -17261,25 +17917,25 @@
         <v>15</v>
       </c>
       <c r="M353" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>590.19999999999993</v>
       </c>
       <c r="N353" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P353" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:16">
       <c r="A354" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D354" s="6">
         <v>43585.608344907407</v>
@@ -17300,7 +17956,7 @@
         <v>132</v>
       </c>
       <c r="J354" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K354" s="2">
         <v>70</v>
@@ -17309,25 +17965,25 @@
         <v>15</v>
       </c>
       <c r="M354" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>146.9</v>
       </c>
       <c r="N354" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P354" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:16">
       <c r="A355" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D355" s="6">
         <v>43585.608449074076</v>
@@ -17348,7 +18004,7 @@
         <v>147</v>
       </c>
       <c r="J355" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K355" s="2">
         <v>70</v>
@@ -17357,25 +18013,25 @@
         <v>15</v>
       </c>
       <c r="M355" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>198.9</v>
       </c>
       <c r="N355" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P355" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:16">
       <c r="A356" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D356" s="6">
         <v>43585.608518518522</v>
@@ -17396,7 +18052,7 @@
         <v>159</v>
       </c>
       <c r="J356" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K356" s="2">
         <v>70</v>
@@ -17405,25 +18061,25 @@
         <v>15</v>
       </c>
       <c r="M356" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>261.3</v>
       </c>
       <c r="N356" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P356" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="357" spans="1:16">
       <c r="A357" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D357" s="6">
         <v>43585.608599537038</v>
@@ -17444,7 +18100,7 @@
         <v>160</v>
       </c>
       <c r="J357" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K357" s="2">
         <v>70</v>
@@ -17453,25 +18109,25 @@
         <v>15</v>
       </c>
       <c r="M357" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>319.8</v>
       </c>
       <c r="N357" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P357" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="358" spans="1:16">
       <c r="A358" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D358" s="6">
         <v>43585.608668981484</v>
@@ -17492,7 +18148,7 @@
         <v>161</v>
       </c>
       <c r="J358" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K358" s="2">
         <v>70</v>
@@ -17501,25 +18157,25 @@
         <v>15</v>
       </c>
       <c r="M358" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>219.7</v>
       </c>
       <c r="N358" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P358" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="359" spans="1:16">
       <c r="A359" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D359" s="6">
         <v>43585.608749999999</v>
@@ -17540,7 +18196,7 @@
         <v>206</v>
       </c>
       <c r="J359" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K359" s="2">
         <v>70</v>
@@ -17549,25 +18205,25 @@
         <v>15</v>
       </c>
       <c r="M359" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>258.7</v>
       </c>
       <c r="N359" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P359" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="360" spans="1:16">
       <c r="A360" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D360" s="6">
         <v>43585.608831018515</v>
@@ -17588,7 +18244,7 @@
         <v>219</v>
       </c>
       <c r="J360" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K360" s="2">
         <v>70</v>
@@ -17597,25 +18253,25 @@
         <v>15</v>
       </c>
       <c r="M360" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250.9</v>
       </c>
       <c r="N360" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P360" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:16">
       <c r="A361" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D361" s="6">
         <v>43585.608935185184</v>
@@ -17636,7 +18292,7 @@
         <v>222</v>
       </c>
       <c r="J361" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K361" s="2">
         <v>70</v>
@@ -17645,25 +18301,25 @@
         <v>15</v>
       </c>
       <c r="M361" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>397.8</v>
       </c>
       <c r="N361" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P361" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:16">
       <c r="A362" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D362" s="6">
         <v>43585.60900462963</v>
@@ -17684,7 +18340,7 @@
         <v>235</v>
       </c>
       <c r="J362" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K362" s="2">
         <v>70</v>
@@ -17693,25 +18349,25 @@
         <v>15</v>
       </c>
       <c r="M362" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>178.1</v>
       </c>
       <c r="N362" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P362" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" spans="1:16">
       <c r="A363" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D363" s="6">
         <v>43585.609085648146</v>
@@ -17732,7 +18388,7 @@
         <v>244</v>
       </c>
       <c r="J363" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K363" s="2">
         <v>70</v>
@@ -17741,25 +18397,25 @@
         <v>15</v>
       </c>
       <c r="M363" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>310.7</v>
       </c>
       <c r="N363" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P363" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:16">
       <c r="A364" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D364" s="6">
         <v>43585.609155092592</v>
@@ -17780,7 +18436,7 @@
         <v>255</v>
       </c>
       <c r="J364" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K364" s="2">
         <v>70</v>
@@ -17789,25 +18445,25 @@
         <v>15</v>
       </c>
       <c r="M364" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>215.8</v>
       </c>
       <c r="N364" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P364" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="365" spans="1:16">
       <c r="A365" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D365" s="6">
         <v>43585.609224537038</v>
@@ -17828,7 +18484,7 @@
         <v>280</v>
       </c>
       <c r="J365" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K365" s="2">
         <v>70</v>
@@ -17837,25 +18493,25 @@
         <v>15</v>
       </c>
       <c r="M365" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>232.7</v>
       </c>
       <c r="N365" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P365" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="366" spans="1:16">
       <c r="A366" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D366" s="6">
         <v>43585.609305555554</v>
@@ -17876,7 +18532,7 @@
         <v>288</v>
       </c>
       <c r="J366" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K366" s="2">
         <v>70</v>
@@ -17885,25 +18541,25 @@
         <v>15</v>
       </c>
       <c r="M366" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>322.40000000000003</v>
       </c>
       <c r="N366" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P366" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="367" spans="1:16">
       <c r="A367" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D367" s="6">
         <v>43585.609386574077</v>
@@ -17924,7 +18580,7 @@
         <v>295</v>
       </c>
       <c r="J367" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K367" s="2">
         <v>70</v>
@@ -17933,25 +18589,25 @@
         <v>15</v>
       </c>
       <c r="M367" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>98.02</v>
       </c>
       <c r="N367" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P367" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="368" spans="1:16">
       <c r="A368" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D368" s="6">
         <v>43585.609467592592</v>
@@ -17972,7 +18628,7 @@
         <v>330</v>
       </c>
       <c r="J368" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K368" s="2">
         <v>70</v>
@@ -17981,25 +18637,25 @@
         <v>15</v>
       </c>
       <c r="M368" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="N368" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P368" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:16">
       <c r="A369" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D369" s="6">
         <v>43585.609537037039</v>
@@ -18020,7 +18676,7 @@
         <v>331</v>
       </c>
       <c r="J369" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K369" s="2">
         <v>70</v>
@@ -18029,25 +18685,25 @@
         <v>15</v>
       </c>
       <c r="M369" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>284.7</v>
       </c>
       <c r="N369" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P369" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D370" s="6">
         <v>43585.609618055554</v>
@@ -18068,7 +18724,7 @@
         <v>332</v>
       </c>
       <c r="J370" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K370" s="2">
         <v>70</v>
@@ -18077,25 +18733,25 @@
         <v>15</v>
       </c>
       <c r="M370" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>208</v>
       </c>
       <c r="N370" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P370" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D371" s="6">
         <v>43585.6096875</v>
@@ -18116,7 +18772,7 @@
         <v>334</v>
       </c>
       <c r="J371" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K371" s="2">
         <v>70</v>
@@ -18125,25 +18781,25 @@
         <v>15</v>
       </c>
       <c r="M371" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>202.79999999999998</v>
       </c>
       <c r="N371" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D372" s="6">
         <v>43585.609768518516</v>
@@ -18164,7 +18820,7 @@
         <v>345</v>
       </c>
       <c r="J372" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K372" s="2">
         <v>70</v>
@@ -18173,25 +18829,25 @@
         <v>15</v>
       </c>
       <c r="M372" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>248.3</v>
       </c>
       <c r="N372" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P372" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D373" s="6">
         <v>43585.609849537039</v>
@@ -18212,7 +18868,7 @@
         <v>347</v>
       </c>
       <c r="J373" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K373" s="2">
         <v>70</v>
@@ -18221,25 +18877,25 @@
         <v>15</v>
       </c>
       <c r="M373" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>244.4</v>
       </c>
       <c r="N373" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P373" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D374" s="6">
         <v>43585.609918981485</v>
@@ -18260,7 +18916,7 @@
         <v>350</v>
       </c>
       <c r="J374" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K374" s="2">
         <v>70</v>
@@ -18269,25 +18925,25 @@
         <v>15</v>
       </c>
       <c r="M374" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>265.2</v>
       </c>
       <c r="N374" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P374" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D375" s="6">
         <v>43585.609988425924</v>
@@ -18308,7 +18964,7 @@
         <v>351</v>
       </c>
       <c r="J375" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K375" s="2">
         <v>70</v>
@@ -18317,25 +18973,25 @@
         <v>15</v>
       </c>
       <c r="M375" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>176.79999999999998</v>
       </c>
       <c r="N375" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P375" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D376" s="6">
         <v>43585.610069444447</v>
@@ -18356,7 +19012,7 @@
         <v>356</v>
       </c>
       <c r="J376" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K376" s="2">
         <v>70</v>
@@ -18365,25 +19021,25 @@
         <v>15</v>
       </c>
       <c r="M376" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>276.90000000000003</v>
       </c>
       <c r="N376" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P376" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D377" s="6">
         <v>43585.610138888886</v>
@@ -18404,7 +19060,7 @@
         <v>364</v>
       </c>
       <c r="J377" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K377" s="2">
         <v>70</v>
@@ -18413,25 +19069,25 @@
         <v>15</v>
       </c>
       <c r="M377" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>274.3</v>
       </c>
       <c r="N377" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P377" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="378" spans="1:16">
       <c r="A378" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D378" s="6">
         <v>43585.610219907408</v>
@@ -18452,7 +19108,7 @@
         <v>367</v>
       </c>
       <c r="J378" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K378" s="2">
         <v>70</v>
@@ -18461,25 +19117,25 @@
         <v>15</v>
       </c>
       <c r="M378" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>315.90000000000003</v>
       </c>
       <c r="N378" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P378" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D379" s="6">
         <v>43585.610289351855</v>
@@ -18500,7 +19156,7 @@
         <v>369</v>
       </c>
       <c r="J379" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K379" s="2">
         <v>70</v>
@@ -18509,25 +19165,25 @@
         <v>15</v>
       </c>
       <c r="M379" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>409.5</v>
       </c>
       <c r="N379" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P379" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="380" spans="1:16">
       <c r="A380" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D380" s="6">
         <v>43585.610358796293</v>
@@ -18548,7 +19204,7 @@
         <v>401</v>
       </c>
       <c r="J380" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K380" s="2">
         <v>70</v>
@@ -18557,25 +19213,25 @@
         <v>15</v>
       </c>
       <c r="M380" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>68.509999999999991</v>
       </c>
       <c r="N380" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P380" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="381" spans="1:16">
       <c r="A381" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D381" s="6">
         <v>43585.61042824074</v>
@@ -18596,7 +19252,7 @@
         <v>402</v>
       </c>
       <c r="J381" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K381" s="2">
         <v>70</v>
@@ -18605,25 +19261,25 @@
         <v>15</v>
       </c>
       <c r="M381" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133.9</v>
       </c>
       <c r="N381" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P381" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:16">
       <c r="A382" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D382" s="6">
         <v>43585.610509259262</v>
@@ -18644,7 +19300,7 @@
         <v>403</v>
       </c>
       <c r="J382" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K382" s="2">
         <v>70</v>
@@ -18653,25 +19309,25 @@
         <v>15</v>
       </c>
       <c r="M382" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="N382" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P382" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:16">
       <c r="A383" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D383" s="6">
         <v>43585.610601851855</v>
@@ -18692,7 +19348,7 @@
         <v>409</v>
       </c>
       <c r="J383" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K383" s="2">
         <v>70</v>
@@ -18701,25 +19357,25 @@
         <v>15</v>
       </c>
       <c r="M383" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>158.6</v>
       </c>
       <c r="N383" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P383" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="1:16">
       <c r="A384" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D384" s="6">
         <v>43585.610671296294</v>
@@ -18740,7 +19396,7 @@
         <v>411</v>
       </c>
       <c r="J384" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K384" s="2">
         <v>70</v>
@@ -18749,25 +19405,25 @@
         <v>15</v>
       </c>
       <c r="M384" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>146.9</v>
       </c>
       <c r="N384" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P384" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="385" spans="1:16">
       <c r="A385" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D385" s="6">
         <v>43585.610763888886</v>
@@ -18788,7 +19444,7 @@
         <v>413</v>
       </c>
       <c r="J385" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K385" s="2">
         <v>70</v>
@@ -18797,25 +19453,25 @@
         <v>15</v>
       </c>
       <c r="M385" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82.94</v>
       </c>
       <c r="N385" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P385" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="1:16">
       <c r="A386" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D386" s="6">
         <v>43585.610833333332</v>
@@ -18836,7 +19492,7 @@
         <v>415</v>
       </c>
       <c r="J386" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K386" s="2">
         <v>70</v>
@@ -18845,25 +19501,25 @@
         <v>15</v>
       </c>
       <c r="M386" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>159.9</v>
       </c>
       <c r="N386" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P386" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="387" spans="1:16">
       <c r="A387" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D387" s="6">
         <v>43585.610914351855</v>
@@ -18884,7 +19540,7 @@
         <v>425</v>
       </c>
       <c r="J387" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K387" s="2">
         <v>70</v>
@@ -18893,25 +19549,25 @@
         <v>15</v>
       </c>
       <c r="M387" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>388.7</v>
       </c>
       <c r="N387" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P387" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="1:16">
       <c r="A388" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D388" s="6">
         <v>43585.610983796294</v>
@@ -18932,7 +19588,7 @@
         <v>432</v>
       </c>
       <c r="J388" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K388" s="2">
         <v>70</v>
@@ -18941,25 +19597,25 @@
         <v>15</v>
       </c>
       <c r="M388" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>347.09999999999997</v>
       </c>
       <c r="N388" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P388" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="389" spans="1:16">
       <c r="A389" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D389" s="6">
         <v>43585.611064814817</v>
@@ -18980,7 +19636,7 @@
         <v>439</v>
       </c>
       <c r="J389" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K389" s="2">
         <v>70</v>
@@ -18989,25 +19645,25 @@
         <v>15</v>
       </c>
       <c r="M389" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>280.8</v>
       </c>
       <c r="N389" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P389" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="390" spans="1:16">
       <c r="A390" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D390" s="6">
         <v>43585.611134259256</v>
@@ -19028,7 +19684,7 @@
         <v>449</v>
       </c>
       <c r="J390" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K390" s="2">
         <v>70</v>
@@ -19037,25 +19693,25 @@
         <v>15</v>
       </c>
       <c r="M390" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N390" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P390" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="391" spans="1:16">
       <c r="A391" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D391" s="6">
         <v>43585.611203703702</v>
@@ -19076,7 +19732,7 @@
         <v>455</v>
       </c>
       <c r="J391" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K391" s="2">
         <v>70</v>
@@ -19085,25 +19741,25 @@
         <v>15</v>
       </c>
       <c r="M391" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>132.6</v>
       </c>
       <c r="N391" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P391" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="392" spans="1:16">
       <c r="A392" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D392" s="6">
         <v>43585.611273148148</v>
@@ -19124,7 +19780,7 @@
         <v>457</v>
       </c>
       <c r="J392" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K392" s="2">
         <v>70</v>
@@ -19133,25 +19789,25 @@
         <v>15</v>
       </c>
       <c r="M392" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="N392" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P392" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="393" spans="1:16">
       <c r="A393" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D393" s="6">
         <v>43585.611354166664</v>
@@ -19172,7 +19828,7 @@
         <v>471</v>
       </c>
       <c r="J393" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K393" s="2">
         <v>70</v>
@@ -19181,25 +19837,25 @@
         <v>15</v>
       </c>
       <c r="M393" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>258.7</v>
       </c>
       <c r="N393" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P393" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="394" spans="1:16">
       <c r="A394" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D394" s="6">
         <v>43585.61142361111</v>
@@ -19220,7 +19876,7 @@
         <v>473</v>
       </c>
       <c r="J394" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K394" s="2">
         <v>70</v>
@@ -19229,25 +19885,25 @@
         <v>15</v>
       </c>
       <c r="M394" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128.83000000000001</v>
       </c>
       <c r="N394" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P394" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="395" spans="1:16">
       <c r="A395" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D395" s="6">
         <v>43585.611504629633</v>
@@ -19268,7 +19924,7 @@
         <v>480</v>
       </c>
       <c r="J395" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K395" s="2">
         <v>70</v>
@@ -19277,25 +19933,25 @@
         <v>15</v>
       </c>
       <c r="M395" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>257.40000000000003</v>
       </c>
       <c r="N395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P395" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" spans="1:16">
       <c r="A396" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D396" s="6">
         <v>43585.611585648148</v>
@@ -19316,7 +19972,7 @@
         <v>481</v>
       </c>
       <c r="J396" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K396" s="2">
         <v>70</v>
@@ -19325,25 +19981,25 @@
         <v>15</v>
       </c>
       <c r="M396" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>232.7</v>
       </c>
       <c r="N396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P396" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="1:16">
       <c r="A397" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D397" s="6">
         <v>43585.611655092594</v>
@@ -19364,7 +20020,7 @@
         <v>484</v>
       </c>
       <c r="J397" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K397" s="2">
         <v>70</v>
@@ -19373,25 +20029,25 @@
         <v>15</v>
       </c>
       <c r="M397" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>309.40000000000003</v>
       </c>
       <c r="N397" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P397" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D398" s="6">
         <v>43585.61173611111</v>
@@ -19412,7 +20068,7 @@
         <v>485</v>
       </c>
       <c r="J398" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K398" s="2">
         <v>70</v>
@@ -19421,25 +20077,25 @@
         <v>15</v>
       </c>
       <c r="M398" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>98.93</v>
       </c>
       <c r="N398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P398" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="399" spans="1:16">
       <c r="A399" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D399" s="6">
         <v>43585.611817129633</v>
@@ -19460,7 +20116,7 @@
         <v>488</v>
       </c>
       <c r="J399" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K399" s="2">
         <v>70</v>
@@ -19469,25 +20125,25 @@
         <v>15</v>
       </c>
       <c r="M399" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>304.2</v>
       </c>
       <c r="N399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P399" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="1:16">
       <c r="A400" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D400" s="6">
         <v>43585.611921296295</v>
@@ -19508,7 +20164,7 @@
         <v>493</v>
       </c>
       <c r="J400" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K400" s="2">
         <v>70</v>
@@ -19517,25 +20173,25 @@
         <v>15</v>
       </c>
       <c r="M400" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.259999999999991</v>
       </c>
       <c r="N400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P400" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="401" spans="1:16">
       <c r="A401" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D401" s="6">
         <v>43585.611990740741</v>
@@ -19556,7 +20212,7 @@
         <v>499</v>
       </c>
       <c r="J401" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K401" s="2">
         <v>70</v>
@@ -19565,25 +20221,25 @@
         <v>15</v>
       </c>
       <c r="M401" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>253.5</v>
       </c>
       <c r="N401" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P401" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="402" spans="1:16">
       <c r="A402" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D402" s="6">
         <v>43585.612071759257</v>
@@ -19604,7 +20260,7 @@
         <v>504</v>
       </c>
       <c r="J402" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K402" s="2">
         <v>70</v>
@@ -19613,14 +20269,14 @@
         <v>15</v>
       </c>
       <c r="M402" s="2">
-        <f t="shared" ref="M402" si="12">(F402)*(L402-G402)</f>
+        <f t="shared" ref="M402" si="13">(F402)*(L402-G402)</f>
         <v>171.6</v>
       </c>
       <c r="N402" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P402" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB1514-6153-E24D-943B-45BA5B005E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65439D-A5AF-344B-821C-92457EF1E797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65439D-A5AF-344B-821C-92457EF1E797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56571B-D01C-A24E-959D-95D0446D4957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="qubit-iso" sheetId="1" r:id="rId1"/>
     <sheet name="seq-samps" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="499">
   <si>
     <t>tube_number</t>
   </si>
@@ -1523,6 +1523,12 @@
   </si>
   <si>
     <t>elution_vol_ul</t>
+  </si>
+  <si>
+    <t>sequenced_y_n</t>
+  </si>
+  <si>
+    <t>transcriptome_ID</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1536,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1594,9 +1600,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1913,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
-  <dimension ref="A1:S402"/>
+  <dimension ref="A1:U402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1930,11 +1936,11 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="11" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -1978,13 +1984,19 @@
         <v>396</v>
       </c>
       <c r="O1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q1" t="s">
         <v>485</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -2028,11 +2040,11 @@
       <c r="N2" t="s">
         <v>397</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -2076,11 +2088,11 @@
       <c r="N3" t="s">
         <v>397</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2124,11 +2136,11 @@
       <c r="N4" t="s">
         <v>397</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2172,11 +2184,11 @@
       <c r="N5" t="s">
         <v>397</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -2220,11 +2232,11 @@
       <c r="N6" t="s">
         <v>397</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2268,11 +2280,11 @@
       <c r="N7" t="s">
         <v>397</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2316,11 +2328,11 @@
       <c r="N8" t="s">
         <v>397</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2364,11 +2376,11 @@
       <c r="N9" t="s">
         <v>397</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -2412,11 +2424,11 @@
       <c r="N10" t="s">
         <v>397</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2460,11 +2472,11 @@
       <c r="N11" t="s">
         <v>397</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -2598,11 +2610,11 @@
       <c r="N14" t="s">
         <v>397</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -2646,11 +2658,11 @@
       <c r="N15" t="s">
         <v>397</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -2694,11 +2706,11 @@
       <c r="N16" t="s">
         <v>397</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2742,11 +2754,11 @@
       <c r="N17" t="s">
         <v>397</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -2790,11 +2802,11 @@
       <c r="N18" t="s">
         <v>397</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2838,11 +2850,11 @@
       <c r="N19" t="s">
         <v>397</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -2886,11 +2898,11 @@
       <c r="N20" t="s">
         <v>397</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -2934,11 +2946,11 @@
       <c r="N21" t="s">
         <v>397</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -2982,11 +2994,11 @@
       <c r="N22" t="s">
         <v>397</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -3030,11 +3042,11 @@
       <c r="N23" t="s">
         <v>397</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -3078,11 +3090,11 @@
       <c r="N24" t="s">
         <v>397</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -3126,11 +3138,11 @@
       <c r="N25" t="s">
         <v>397</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -3174,11 +3186,11 @@
       <c r="N26" t="s">
         <v>397</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -3222,11 +3234,11 @@
       <c r="N27" t="s">
         <v>397</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -3270,11 +3282,11 @@
       <c r="N28" t="s">
         <v>397</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -3318,11 +3330,11 @@
       <c r="N29" t="s">
         <v>397</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3366,11 +3378,11 @@
       <c r="N30" t="s">
         <v>397</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -3414,11 +3426,11 @@
       <c r="N31" t="s">
         <v>397</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -3462,11 +3474,11 @@
       <c r="N32" t="s">
         <v>397</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -3510,11 +3522,11 @@
       <c r="N33" t="s">
         <v>397</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -3558,11 +3570,11 @@
       <c r="N34" t="s">
         <v>397</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -3606,11 +3618,11 @@
       <c r="N35" t="s">
         <v>397</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -3654,11 +3666,11 @@
       <c r="N36" t="s">
         <v>397</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3702,11 +3714,11 @@
       <c r="N37" t="s">
         <v>397</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3750,11 +3762,11 @@
       <c r="N38" t="s">
         <v>397</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -3798,11 +3810,11 @@
       <c r="N39" t="s">
         <v>397</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -3846,11 +3858,11 @@
       <c r="N40" t="s">
         <v>397</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -3894,11 +3906,11 @@
       <c r="N41" t="s">
         <v>397</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -3942,11 +3954,11 @@
       <c r="N42" t="s">
         <v>397</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3990,11 +4002,11 @@
       <c r="N43" t="s">
         <v>397</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -4038,11 +4050,11 @@
       <c r="N44" t="s">
         <v>397</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -4086,11 +4098,11 @@
       <c r="N45" t="s">
         <v>397</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -4134,11 +4146,11 @@
       <c r="N46" t="s">
         <v>397</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -4182,11 +4194,11 @@
       <c r="N47" t="s">
         <v>397</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -4230,11 +4242,11 @@
       <c r="N48" t="s">
         <v>397</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -4278,11 +4290,11 @@
       <c r="N49" t="s">
         <v>397</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -4326,11 +4338,11 @@
       <c r="N50" t="s">
         <v>397</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -4374,11 +4386,11 @@
       <c r="N51" t="s">
         <v>397</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4422,11 +4434,11 @@
       <c r="N52" t="s">
         <v>397</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -4470,11 +4482,11 @@
       <c r="N53" t="s">
         <v>397</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="R53" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4518,11 +4530,11 @@
       <c r="N54" t="s">
         <v>397</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4566,11 +4578,11 @@
       <c r="N55" t="s">
         <v>397</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -4614,11 +4626,11 @@
       <c r="N56" t="s">
         <v>397</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -4662,11 +4674,11 @@
       <c r="N57" t="s">
         <v>397</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -4710,11 +4722,11 @@
       <c r="N58" t="s">
         <v>397</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -4758,11 +4770,11 @@
       <c r="N59" t="s">
         <v>397</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -4806,11 +4818,11 @@
       <c r="N60" t="s">
         <v>397</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -4854,11 +4866,11 @@
       <c r="N61" t="s">
         <v>397</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>175</v>
       </c>
@@ -5038,7 +5050,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -5128,7 +5140,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -5263,7 +5275,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -5308,7 +5320,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -5488,7 +5500,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -5532,11 +5544,11 @@
       <c r="N76" t="s">
         <v>397</v>
       </c>
-      <c r="P76" s="8" t="s">
+      <c r="R76" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -5580,11 +5592,11 @@
       <c r="N77" t="s">
         <v>397</v>
       </c>
-      <c r="P77" t="s">
+      <c r="R77" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -5628,11 +5640,11 @@
       <c r="N78" t="s">
         <v>397</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -5676,11 +5688,11 @@
       <c r="N79" t="s">
         <v>397</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -5724,11 +5736,11 @@
       <c r="N80" t="s">
         <v>397</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -5772,11 +5784,11 @@
       <c r="N81" t="s">
         <v>397</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -5820,11 +5832,11 @@
       <c r="N82" t="s">
         <v>397</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -5868,11 +5880,11 @@
       <c r="N83" t="s">
         <v>397</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -5916,11 +5928,11 @@
       <c r="N84" t="s">
         <v>397</v>
       </c>
-      <c r="P84" t="s">
+      <c r="R84" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -5964,11 +5976,11 @@
       <c r="N85" t="s">
         <v>397</v>
       </c>
-      <c r="P85" s="8" t="s">
+      <c r="R85" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:18">
       <c r="B86" t="s">
         <v>2</v>
       </c>
@@ -6000,14 +6012,14 @@
       <c r="N86" t="s">
         <v>397</v>
       </c>
-      <c r="O86" t="s">
+      <c r="Q86" t="s">
         <v>364</v>
       </c>
-      <c r="P86" t="s">
+      <c r="R86" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:18">
       <c r="B87" t="s">
         <v>2</v>
       </c>
@@ -6039,14 +6051,14 @@
       <c r="N87" t="s">
         <v>397</v>
       </c>
-      <c r="O87" t="s">
+      <c r="Q87" t="s">
         <v>364</v>
       </c>
-      <c r="P87" t="s">
+      <c r="R87" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:18">
       <c r="B88" t="s">
         <v>2</v>
       </c>
@@ -6078,14 +6090,14 @@
       <c r="N88" t="s">
         <v>397</v>
       </c>
-      <c r="O88" t="s">
+      <c r="Q88" t="s">
         <v>364</v>
       </c>
-      <c r="P88" t="s">
+      <c r="R88" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:18">
       <c r="B89" t="s">
         <v>2</v>
       </c>
@@ -6117,14 +6129,14 @@
       <c r="N89" t="s">
         <v>397</v>
       </c>
-      <c r="O89" t="s">
+      <c r="Q89" t="s">
         <v>364</v>
       </c>
-      <c r="P89" t="s">
+      <c r="R89" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:18">
       <c r="B90" t="s">
         <v>2</v>
       </c>
@@ -6156,14 +6168,14 @@
       <c r="N90" t="s">
         <v>397</v>
       </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
         <v>364</v>
       </c>
-      <c r="P90" t="s">
+      <c r="R90" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:18">
       <c r="B91" t="s">
         <v>2</v>
       </c>
@@ -6195,14 +6207,14 @@
       <c r="N91" t="s">
         <v>397</v>
       </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
         <v>364</v>
       </c>
-      <c r="P91" t="s">
+      <c r="R91" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:18">
       <c r="B92" t="s">
         <v>2</v>
       </c>
@@ -6234,14 +6246,14 @@
       <c r="N92" t="s">
         <v>397</v>
       </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
         <v>364</v>
       </c>
-      <c r="P92" t="s">
+      <c r="R92" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:18">
       <c r="B93" t="s">
         <v>2</v>
       </c>
@@ -6273,14 +6285,14 @@
       <c r="N93" t="s">
         <v>397</v>
       </c>
-      <c r="O93" t="s">
+      <c r="Q93" t="s">
         <v>364</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:18">
       <c r="B94" t="s">
         <v>2</v>
       </c>
@@ -6312,14 +6324,14 @@
       <c r="N94" t="s">
         <v>397</v>
       </c>
-      <c r="O94" t="s">
+      <c r="Q94" t="s">
         <v>364</v>
       </c>
-      <c r="P94" t="s">
+      <c r="R94" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -6363,11 +6375,11 @@
       <c r="N95" t="s">
         <v>397</v>
       </c>
-      <c r="P95" s="8" t="s">
+      <c r="R95" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -6411,11 +6423,11 @@
       <c r="N96" t="s">
         <v>397</v>
       </c>
-      <c r="P96" t="s">
+      <c r="R96" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -6459,11 +6471,11 @@
       <c r="N97" t="s">
         <v>397</v>
       </c>
-      <c r="P97" t="s">
+      <c r="R97" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -6507,11 +6519,11 @@
       <c r="N98" t="s">
         <v>397</v>
       </c>
-      <c r="P98" t="s">
+      <c r="R98" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -6555,11 +6567,11 @@
       <c r="N99" t="s">
         <v>397</v>
       </c>
-      <c r="P99" t="s">
+      <c r="R99" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -6603,11 +6615,11 @@
       <c r="N100" t="s">
         <v>397</v>
       </c>
-      <c r="P100" t="s">
+      <c r="R100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -6651,11 +6663,11 @@
       <c r="N101" t="s">
         <v>397</v>
       </c>
-      <c r="P101" t="s">
+      <c r="R101" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -6699,11 +6711,11 @@
       <c r="N102" t="s">
         <v>397</v>
       </c>
-      <c r="P102" t="s">
+      <c r="R102" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6747,11 +6759,11 @@
       <c r="N103" t="s">
         <v>397</v>
       </c>
-      <c r="P103" t="s">
+      <c r="R103" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -6795,11 +6807,11 @@
       <c r="N104" t="s">
         <v>397</v>
       </c>
-      <c r="P104" t="s">
+      <c r="R104" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>214</v>
       </c>
@@ -6843,11 +6855,11 @@
       <c r="N105" t="s">
         <v>397</v>
       </c>
-      <c r="P105" t="s">
+      <c r="R105" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -6891,11 +6903,11 @@
       <c r="N106" t="s">
         <v>397</v>
       </c>
-      <c r="P106" t="s">
+      <c r="R106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -6939,11 +6951,11 @@
       <c r="N107" t="s">
         <v>397</v>
       </c>
-      <c r="P107" t="s">
+      <c r="R107" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -6987,11 +6999,11 @@
       <c r="N108" t="s">
         <v>397</v>
       </c>
-      <c r="P108" t="s">
+      <c r="R108" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -7035,11 +7047,11 @@
       <c r="N109" t="s">
         <v>397</v>
       </c>
-      <c r="P109" t="s">
+      <c r="R109" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>214</v>
       </c>
@@ -7083,11 +7095,11 @@
       <c r="N110" t="s">
         <v>397</v>
       </c>
-      <c r="P110" t="s">
+      <c r="R110" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -7131,11 +7143,11 @@
       <c r="N111" t="s">
         <v>397</v>
       </c>
-      <c r="P111" t="s">
+      <c r="R111" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -7179,11 +7191,11 @@
       <c r="N112" t="s">
         <v>397</v>
       </c>
-      <c r="P112" t="s">
+      <c r="R112" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -7227,11 +7239,11 @@
       <c r="N113" t="s">
         <v>397</v>
       </c>
-      <c r="P113" s="8" t="s">
+      <c r="R113" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -7275,11 +7287,11 @@
       <c r="N114" t="s">
         <v>397</v>
       </c>
-      <c r="P114" t="s">
+      <c r="R114" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>224</v>
       </c>
@@ -7323,11 +7335,11 @@
       <c r="N115" t="s">
         <v>397</v>
       </c>
-      <c r="P115" t="s">
+      <c r="R115" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>224</v>
       </c>
@@ -7371,11 +7383,11 @@
       <c r="N116" t="s">
         <v>397</v>
       </c>
-      <c r="P116" t="s">
+      <c r="R116" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>224</v>
       </c>
@@ -7419,11 +7431,11 @@
       <c r="N117" t="s">
         <v>397</v>
       </c>
-      <c r="P117" t="s">
+      <c r="R117" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -7467,11 +7479,11 @@
       <c r="N118" t="s">
         <v>397</v>
       </c>
-      <c r="P118" t="s">
+      <c r="R118" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -7515,11 +7527,11 @@
       <c r="N119" t="s">
         <v>397</v>
       </c>
-      <c r="P119" t="s">
+      <c r="R119" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>224</v>
       </c>
@@ -7563,11 +7575,11 @@
       <c r="N120" t="s">
         <v>397</v>
       </c>
-      <c r="P120" t="s">
+      <c r="R120" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -7611,11 +7623,11 @@
       <c r="N121" t="s">
         <v>397</v>
       </c>
-      <c r="P121" t="s">
+      <c r="R121" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -7659,11 +7671,11 @@
       <c r="N122" t="s">
         <v>397</v>
       </c>
-      <c r="P122" t="s">
+      <c r="R122" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -7707,11 +7719,11 @@
       <c r="N123" t="s">
         <v>397</v>
       </c>
-      <c r="P123" t="s">
+      <c r="R123" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>241</v>
       </c>
@@ -7755,11 +7767,11 @@
       <c r="N124" t="s">
         <v>397</v>
       </c>
-      <c r="P124" t="s">
+      <c r="R124" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -7803,11 +7815,11 @@
       <c r="N125" t="s">
         <v>397</v>
       </c>
-      <c r="P125" t="s">
+      <c r="R125" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>241</v>
       </c>
@@ -7851,11 +7863,11 @@
       <c r="N126" t="s">
         <v>397</v>
       </c>
-      <c r="P126" t="s">
+      <c r="R126" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -7899,11 +7911,11 @@
       <c r="N127" t="s">
         <v>397</v>
       </c>
-      <c r="P127" t="s">
+      <c r="R127" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>241</v>
       </c>
@@ -7947,11 +7959,11 @@
       <c r="N128" t="s">
         <v>397</v>
       </c>
-      <c r="P128" t="s">
+      <c r="R128" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -7995,11 +8007,11 @@
       <c r="N129" t="s">
         <v>397</v>
       </c>
-      <c r="P129" t="s">
+      <c r="R129" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>241</v>
       </c>
@@ -8043,11 +8055,11 @@
       <c r="N130" t="s">
         <v>397</v>
       </c>
-      <c r="P130" t="s">
+      <c r="R130" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>234</v>
       </c>
@@ -8091,11 +8103,11 @@
       <c r="N131" t="s">
         <v>397</v>
       </c>
-      <c r="P131" t="s">
+      <c r="R131" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>234</v>
       </c>
@@ -8139,11 +8151,11 @@
       <c r="N132" t="s">
         <v>397</v>
       </c>
-      <c r="P132" t="s">
+      <c r="R132" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -8187,11 +8199,11 @@
       <c r="N133" t="s">
         <v>397</v>
       </c>
-      <c r="P133" t="s">
+      <c r="R133" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>234</v>
       </c>
@@ -8235,11 +8247,11 @@
       <c r="N134" t="s">
         <v>397</v>
       </c>
-      <c r="P134" t="s">
+      <c r="R134" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>234</v>
       </c>
@@ -8283,11 +8295,11 @@
       <c r="N135" t="s">
         <v>397</v>
       </c>
-      <c r="P135" t="s">
+      <c r="R135" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>234</v>
       </c>
@@ -8331,11 +8343,11 @@
       <c r="N136" t="s">
         <v>397</v>
       </c>
-      <c r="P136" t="s">
+      <c r="R136" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -8379,11 +8391,11 @@
       <c r="N137" t="s">
         <v>397</v>
       </c>
-      <c r="P137" t="s">
+      <c r="R137" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>254</v>
       </c>
@@ -8427,11 +8439,11 @@
       <c r="N138" t="s">
         <v>397</v>
       </c>
-      <c r="P138" t="s">
+      <c r="R138" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>254</v>
       </c>
@@ -8475,11 +8487,11 @@
       <c r="N139" t="s">
         <v>397</v>
       </c>
-      <c r="P139" t="s">
+      <c r="R139" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>254</v>
       </c>
@@ -8523,11 +8535,11 @@
       <c r="N140" t="s">
         <v>397</v>
       </c>
-      <c r="P140" t="s">
+      <c r="R140" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>254</v>
       </c>
@@ -8571,11 +8583,11 @@
       <c r="N141" t="s">
         <v>397</v>
       </c>
-      <c r="P141" t="s">
+      <c r="R141" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>254</v>
       </c>
@@ -8619,11 +8631,11 @@
       <c r="N142" t="s">
         <v>397</v>
       </c>
-      <c r="P142" t="s">
+      <c r="R142" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>254</v>
       </c>
@@ -8667,11 +8679,11 @@
       <c r="N143" t="s">
         <v>397</v>
       </c>
-      <c r="P143" t="s">
+      <c r="R143" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>254</v>
       </c>
@@ -8715,11 +8727,11 @@
       <c r="N144" t="s">
         <v>397</v>
       </c>
-      <c r="P144" t="s">
+      <c r="R144" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>263</v>
       </c>
@@ -8763,11 +8775,11 @@
       <c r="N145" t="s">
         <v>397</v>
       </c>
-      <c r="P145" t="s">
+      <c r="R145" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>263</v>
       </c>
@@ -8811,11 +8823,11 @@
       <c r="N146" t="s">
         <v>397</v>
       </c>
-      <c r="P146" t="s">
+      <c r="R146" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -8859,11 +8871,11 @@
       <c r="N147" t="s">
         <v>397</v>
       </c>
-      <c r="P147" t="s">
+      <c r="R147" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>263</v>
       </c>
@@ -8907,11 +8919,11 @@
       <c r="N148" t="s">
         <v>397</v>
       </c>
-      <c r="P148" t="s">
+      <c r="R148" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>263</v>
       </c>
@@ -8955,11 +8967,11 @@
       <c r="N149" t="s">
         <v>397</v>
       </c>
-      <c r="P149" t="s">
+      <c r="R149" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -9003,11 +9015,11 @@
       <c r="N150" t="s">
         <v>397</v>
       </c>
-      <c r="P150" t="s">
+      <c r="R150" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>263</v>
       </c>
@@ -9051,11 +9063,11 @@
       <c r="N151" t="s">
         <v>397</v>
       </c>
-      <c r="P151" t="s">
+      <c r="R151" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>263</v>
       </c>
@@ -9099,11 +9111,11 @@
       <c r="N152" t="s">
         <v>397</v>
       </c>
-      <c r="P152" t="s">
+      <c r="R152" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>272</v>
       </c>
@@ -9147,11 +9159,11 @@
       <c r="N153" t="s">
         <v>397</v>
       </c>
-      <c r="P153" t="s">
+      <c r="R153" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>272</v>
       </c>
@@ -9195,11 +9207,11 @@
       <c r="N154" t="s">
         <v>397</v>
       </c>
-      <c r="P154" t="s">
+      <c r="R154" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -9243,11 +9255,11 @@
       <c r="N155" t="s">
         <v>397</v>
       </c>
-      <c r="P155" t="s">
+      <c r="R155" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -9291,11 +9303,11 @@
       <c r="N156" t="s">
         <v>397</v>
       </c>
-      <c r="P156" t="s">
+      <c r="R156" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -9339,11 +9351,11 @@
       <c r="N157" t="s">
         <v>397</v>
       </c>
-      <c r="P157" t="s">
+      <c r="R157" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -9387,11 +9399,11 @@
       <c r="N158" t="s">
         <v>397</v>
       </c>
-      <c r="P158" t="s">
+      <c r="R158" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -9435,11 +9447,11 @@
       <c r="N159" t="s">
         <v>397</v>
       </c>
-      <c r="P159" t="s">
+      <c r="R159" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>272</v>
       </c>
@@ -9483,11 +9495,11 @@
       <c r="N160" t="s">
         <v>397</v>
       </c>
-      <c r="P160" t="s">
+      <c r="R160" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -9531,11 +9543,11 @@
       <c r="N161" t="s">
         <v>397</v>
       </c>
-      <c r="P161" t="s">
+      <c r="R161" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:18">
       <c r="B162" t="s">
         <v>2</v>
       </c>
@@ -9567,11 +9579,11 @@
       <c r="N162" t="s">
         <v>397</v>
       </c>
-      <c r="P162" t="s">
+      <c r="R162" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:18">
       <c r="B163" t="s">
         <v>2</v>
       </c>
@@ -9603,11 +9615,11 @@
       <c r="N163" t="s">
         <v>397</v>
       </c>
-      <c r="P163" t="s">
+      <c r="R163" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:18">
       <c r="B164" t="s">
         <v>2</v>
       </c>
@@ -9639,11 +9651,11 @@
       <c r="N164" t="s">
         <v>397</v>
       </c>
-      <c r="P164" t="s">
+      <c r="R164" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:18">
       <c r="B165" t="s">
         <v>2</v>
       </c>
@@ -9675,11 +9687,11 @@
       <c r="N165" t="s">
         <v>397</v>
       </c>
-      <c r="P165" t="s">
+      <c r="R165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:18">
       <c r="A166" s="2" t="s">
         <v>372</v>
       </c>
@@ -9723,11 +9735,11 @@
       <c r="N166" t="s">
         <v>397</v>
       </c>
-      <c r="P166" s="8" t="s">
+      <c r="R166" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:18">
       <c r="A167" s="2" t="s">
         <v>372</v>
       </c>
@@ -9771,11 +9783,11 @@
       <c r="N167" t="s">
         <v>397</v>
       </c>
-      <c r="P167" t="s">
+      <c r="R167" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:18">
       <c r="A168" s="2" t="s">
         <v>372</v>
       </c>
@@ -9819,11 +9831,11 @@
       <c r="N168" t="s">
         <v>397</v>
       </c>
-      <c r="P168" t="s">
+      <c r="R168" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:18">
       <c r="A169" s="2" t="s">
         <v>372</v>
       </c>
@@ -9867,11 +9879,11 @@
       <c r="N169" t="s">
         <v>397</v>
       </c>
-      <c r="P169" t="s">
+      <c r="R169" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>281</v>
       </c>
@@ -9915,11 +9927,11 @@
       <c r="N170" t="s">
         <v>397</v>
       </c>
-      <c r="P170" t="s">
+      <c r="R170" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>281</v>
       </c>
@@ -9963,11 +9975,11 @@
       <c r="N171" t="s">
         <v>397</v>
       </c>
-      <c r="P171" t="s">
+      <c r="R171" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>281</v>
       </c>
@@ -10011,11 +10023,11 @@
       <c r="N172" t="s">
         <v>397</v>
       </c>
-      <c r="P172" t="s">
+      <c r="R172" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>281</v>
       </c>
@@ -10059,11 +10071,11 @@
       <c r="N173" t="s">
         <v>397</v>
       </c>
-      <c r="P173" t="s">
+      <c r="R173" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>281</v>
       </c>
@@ -10107,11 +10119,11 @@
       <c r="N174" t="s">
         <v>397</v>
       </c>
-      <c r="P174" t="s">
+      <c r="R174" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>281</v>
       </c>
@@ -10155,11 +10167,11 @@
       <c r="N175" t="s">
         <v>397</v>
       </c>
-      <c r="P175" t="s">
+      <c r="R175" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -10203,11 +10215,11 @@
       <c r="N176" t="s">
         <v>397</v>
       </c>
-      <c r="P176" t="s">
+      <c r="R176" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>281</v>
       </c>
@@ -10251,11 +10263,11 @@
       <c r="N177" t="s">
         <v>397</v>
       </c>
-      <c r="P177" t="s">
+      <c r="R177" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -10299,11 +10311,11 @@
       <c r="N178" t="s">
         <v>397</v>
       </c>
-      <c r="P178" t="s">
+      <c r="R178" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>281</v>
       </c>
@@ -10347,11 +10359,11 @@
       <c r="N179" t="s">
         <v>397</v>
       </c>
-      <c r="P179" t="s">
+      <c r="R179" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>281</v>
       </c>
@@ -10395,11 +10407,11 @@
       <c r="N180" t="s">
         <v>397</v>
       </c>
-      <c r="P180" t="s">
+      <c r="R180" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>281</v>
       </c>
@@ -10443,11 +10455,11 @@
       <c r="N181" t="s">
         <v>397</v>
       </c>
-      <c r="P181" t="s">
+      <c r="R181" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>281</v>
       </c>
@@ -10491,11 +10503,11 @@
       <c r="N182" t="s">
         <v>397</v>
       </c>
-      <c r="P182" t="s">
+      <c r="R182" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>281</v>
       </c>
@@ -10539,11 +10551,11 @@
       <c r="N183" t="s">
         <v>397</v>
       </c>
-      <c r="P183" t="s">
+      <c r="R183" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>281</v>
       </c>
@@ -10587,11 +10599,11 @@
       <c r="N184" t="s">
         <v>397</v>
       </c>
-      <c r="P184" t="s">
+      <c r="R184" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>281</v>
       </c>
@@ -10635,11 +10647,11 @@
       <c r="N185" t="s">
         <v>397</v>
       </c>
-      <c r="P185" t="s">
+      <c r="R185" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>281</v>
       </c>
@@ -10683,11 +10695,11 @@
       <c r="N186" t="s">
         <v>397</v>
       </c>
-      <c r="P186" t="s">
+      <c r="R186" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>281</v>
       </c>
@@ -10731,11 +10743,11 @@
       <c r="N187" t="s">
         <v>397</v>
       </c>
-      <c r="P187" t="s">
+      <c r="R187" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>281</v>
       </c>
@@ -10779,11 +10791,11 @@
       <c r="N188" t="s">
         <v>397</v>
       </c>
-      <c r="P188" t="s">
+      <c r="R188" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>281</v>
       </c>
@@ -10827,11 +10839,11 @@
       <c r="N189" t="s">
         <v>397</v>
       </c>
-      <c r="P189" t="s">
+      <c r="R189" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>281</v>
       </c>
@@ -10875,11 +10887,11 @@
       <c r="N190" t="s">
         <v>397</v>
       </c>
-      <c r="P190" t="s">
+      <c r="R190" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>281</v>
       </c>
@@ -10923,11 +10935,11 @@
       <c r="N191" t="s">
         <v>397</v>
       </c>
-      <c r="P191" t="s">
+      <c r="R191" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>281</v>
       </c>
@@ -10971,11 +10983,11 @@
       <c r="N192" t="s">
         <v>397</v>
       </c>
-      <c r="P192" t="s">
+      <c r="R192" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>281</v>
       </c>
@@ -11019,11 +11031,11 @@
       <c r="N193" t="s">
         <v>397</v>
       </c>
-      <c r="P193" t="s">
+      <c r="R193" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>281</v>
       </c>
@@ -11067,11 +11079,11 @@
       <c r="N194" t="s">
         <v>397</v>
       </c>
-      <c r="P194" t="s">
+      <c r="R194" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>281</v>
       </c>
@@ -11115,11 +11127,11 @@
       <c r="N195" t="s">
         <v>397</v>
       </c>
-      <c r="P195" t="s">
+      <c r="R195" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>281</v>
       </c>
@@ -11163,11 +11175,11 @@
       <c r="N196" t="s">
         <v>397</v>
       </c>
-      <c r="P196" t="s">
+      <c r="R196" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>281</v>
       </c>
@@ -11211,11 +11223,11 @@
       <c r="N197" t="s">
         <v>397</v>
       </c>
-      <c r="P197" t="s">
+      <c r="R197" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>281</v>
       </c>
@@ -11259,11 +11271,11 @@
       <c r="N198" t="s">
         <v>397</v>
       </c>
-      <c r="P198" t="s">
+      <c r="R198" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>281</v>
       </c>
@@ -11307,11 +11319,11 @@
       <c r="N199" t="s">
         <v>397</v>
       </c>
-      <c r="P199" t="s">
+      <c r="R199" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -11355,11 +11367,11 @@
       <c r="N200" t="s">
         <v>397</v>
       </c>
-      <c r="P200" t="s">
+      <c r="R200" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>281</v>
       </c>
@@ -11403,11 +11415,11 @@
       <c r="N201" t="s">
         <v>397</v>
       </c>
-      <c r="P201" t="s">
+      <c r="R201" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>281</v>
       </c>
@@ -11451,11 +11463,11 @@
       <c r="N202" t="s">
         <v>397</v>
       </c>
-      <c r="P202" t="s">
+      <c r="R202" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>281</v>
       </c>
@@ -11499,11 +11511,11 @@
       <c r="N203" t="s">
         <v>397</v>
       </c>
-      <c r="P203" t="s">
+      <c r="R203" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>281</v>
       </c>
@@ -11547,11 +11559,11 @@
       <c r="N204" t="s">
         <v>397</v>
       </c>
-      <c r="P204" t="s">
+      <c r="R204" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>281</v>
       </c>
@@ -11595,11 +11607,11 @@
       <c r="N205" t="s">
         <v>397</v>
       </c>
-      <c r="P205" t="s">
+      <c r="R205" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>281</v>
       </c>
@@ -11643,11 +11655,11 @@
       <c r="N206" t="s">
         <v>397</v>
       </c>
-      <c r="P206" t="s">
+      <c r="R206" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>281</v>
       </c>
@@ -11691,11 +11703,11 @@
       <c r="N207" t="s">
         <v>397</v>
       </c>
-      <c r="P207" t="s">
+      <c r="R207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -11739,11 +11751,11 @@
       <c r="N208" t="s">
         <v>397</v>
       </c>
-      <c r="P208" t="s">
+      <c r="R208" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>281</v>
       </c>
@@ -11787,11 +11799,11 @@
       <c r="N209" t="s">
         <v>397</v>
       </c>
-      <c r="P209" t="s">
+      <c r="R209" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="17">
+    <row r="210" spans="1:18" ht="17">
       <c r="A210" s="3" t="s">
         <v>377</v>
       </c>
@@ -11835,11 +11847,11 @@
       <c r="N210" t="s">
         <v>397</v>
       </c>
-      <c r="P210" t="s">
+      <c r="R210" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="17">
+    <row r="211" spans="1:18" ht="17">
       <c r="A211" s="3" t="s">
         <v>377</v>
       </c>
@@ -11883,11 +11895,11 @@
       <c r="N211" t="s">
         <v>397</v>
       </c>
-      <c r="P211" s="8" t="s">
+      <c r="R211" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="17">
+    <row r="212" spans="1:18" ht="17">
       <c r="A212" s="3" t="s">
         <v>377</v>
       </c>
@@ -11931,11 +11943,11 @@
       <c r="N212" t="s">
         <v>397</v>
       </c>
-      <c r="P212" t="s">
+      <c r="R212" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="17">
+    <row r="213" spans="1:18" ht="17">
       <c r="A213" s="3" t="s">
         <v>377</v>
       </c>
@@ -11979,11 +11991,11 @@
       <c r="N213" t="s">
         <v>397</v>
       </c>
-      <c r="P213" t="s">
+      <c r="R213" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -12027,11 +12039,11 @@
       <c r="N214" t="s">
         <v>397</v>
       </c>
-      <c r="P214" t="s">
+      <c r="R214" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -12075,11 +12087,11 @@
       <c r="N215" t="s">
         <v>397</v>
       </c>
-      <c r="P215" t="s">
+      <c r="R215" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -12123,11 +12135,11 @@
       <c r="N216" t="s">
         <v>397</v>
       </c>
-      <c r="P216" t="s">
+      <c r="R216" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -12171,11 +12183,11 @@
       <c r="N217" t="s">
         <v>397</v>
       </c>
-      <c r="P217" t="s">
+      <c r="R217" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -12219,11 +12231,11 @@
       <c r="N218" t="s">
         <v>397</v>
       </c>
-      <c r="P218" t="s">
+      <c r="R218" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -12267,11 +12279,11 @@
       <c r="N219" t="s">
         <v>397</v>
       </c>
-      <c r="P219" t="s">
+      <c r="R219" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -12315,11 +12327,11 @@
       <c r="N220" t="s">
         <v>397</v>
       </c>
-      <c r="P220" t="s">
+      <c r="R220" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -12363,11 +12375,11 @@
       <c r="N221" t="s">
         <v>397</v>
       </c>
-      <c r="P221" t="s">
+      <c r="R221" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -12411,11 +12423,11 @@
       <c r="N222" t="s">
         <v>397</v>
       </c>
-      <c r="P222" t="s">
+      <c r="R222" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -12459,11 +12471,11 @@
       <c r="N223" t="s">
         <v>397</v>
       </c>
-      <c r="P223" t="s">
+      <c r="R223" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -12507,11 +12519,11 @@
       <c r="N224" t="s">
         <v>397</v>
       </c>
-      <c r="P224" t="s">
+      <c r="R224" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>41</v>
       </c>
@@ -12555,11 +12567,11 @@
       <c r="N225" t="s">
         <v>397</v>
       </c>
-      <c r="P225" t="s">
+      <c r="R225" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>41</v>
       </c>
@@ -12603,11 +12615,11 @@
       <c r="N226" t="s">
         <v>397</v>
       </c>
-      <c r="P226" t="s">
+      <c r="R226" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>41</v>
       </c>
@@ -12651,11 +12663,11 @@
       <c r="N227" t="s">
         <v>397</v>
       </c>
-      <c r="P227" t="s">
+      <c r="R227" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -12699,11 +12711,11 @@
       <c r="N228" t="s">
         <v>397</v>
       </c>
-      <c r="P228" t="s">
+      <c r="R228" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -12747,11 +12759,11 @@
       <c r="N229" t="s">
         <v>397</v>
       </c>
-      <c r="P229" t="s">
+      <c r="R229" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -12795,11 +12807,11 @@
       <c r="N230" t="s">
         <v>397</v>
       </c>
-      <c r="P230" t="s">
+      <c r="R230" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>41</v>
       </c>
@@ -12843,11 +12855,11 @@
       <c r="N231" t="s">
         <v>397</v>
       </c>
-      <c r="P231" t="s">
+      <c r="R231" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>41</v>
       </c>
@@ -12891,11 +12903,11 @@
       <c r="N232" t="s">
         <v>397</v>
       </c>
-      <c r="P232" t="s">
+      <c r="R232" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>41</v>
       </c>
@@ -12939,11 +12951,11 @@
       <c r="N233" t="s">
         <v>397</v>
       </c>
-      <c r="P233" t="s">
+      <c r="R233" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>62</v>
       </c>
@@ -12987,11 +12999,11 @@
       <c r="N234" t="s">
         <v>397</v>
       </c>
-      <c r="P234" t="s">
+      <c r="R234" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>62</v>
       </c>
@@ -13035,11 +13047,11 @@
       <c r="N235" t="s">
         <v>397</v>
       </c>
-      <c r="P235" t="s">
+      <c r="R235" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:18">
       <c r="D236" s="5">
         <v>43404.745706018519</v>
       </c>
@@ -13055,14 +13067,14 @@
       <c r="N236" t="s">
         <v>397</v>
       </c>
-      <c r="O236" t="s">
+      <c r="Q236" t="s">
         <v>389</v>
       </c>
-      <c r="P236" t="s">
+      <c r="R236" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:18">
       <c r="D237" s="5">
         <v>43404.745706018519</v>
       </c>
@@ -13078,14 +13090,14 @@
       <c r="N237" t="s">
         <v>397</v>
       </c>
-      <c r="O237" t="s">
+      <c r="Q237" t="s">
         <v>389</v>
       </c>
-      <c r="P237" t="s">
+      <c r="R237" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -13129,11 +13141,11 @@
       <c r="N238" t="s">
         <v>397</v>
       </c>
-      <c r="P238" t="s">
+      <c r="R238" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -13177,11 +13189,11 @@
       <c r="N239" t="s">
         <v>397</v>
       </c>
-      <c r="P239" t="s">
+      <c r="R239" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -13225,11 +13237,11 @@
       <c r="N240" t="s">
         <v>397</v>
       </c>
-      <c r="P240" t="s">
+      <c r="R240" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -13273,11 +13285,11 @@
       <c r="N241" t="s">
         <v>397</v>
       </c>
-      <c r="P241" t="s">
+      <c r="R241" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -13321,11 +13333,11 @@
       <c r="N242" t="s">
         <v>397</v>
       </c>
-      <c r="P242" t="s">
+      <c r="R242" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -13369,11 +13381,11 @@
       <c r="N243" t="s">
         <v>397</v>
       </c>
-      <c r="P243" t="s">
+      <c r="R243" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -13417,11 +13429,11 @@
       <c r="N244" t="s">
         <v>397</v>
       </c>
-      <c r="P244" t="s">
+      <c r="R244" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -13465,11 +13477,11 @@
       <c r="N245" t="s">
         <v>397</v>
       </c>
-      <c r="P245" t="s">
+      <c r="R245" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:18">
       <c r="D246" s="5">
         <v>43479</v>
       </c>
@@ -13485,14 +13497,14 @@
       <c r="N246" t="s">
         <v>397</v>
       </c>
-      <c r="O246" t="s">
+      <c r="Q246" t="s">
         <v>389</v>
       </c>
-      <c r="P246" t="s">
+      <c r="R246" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:18">
       <c r="D247" s="5">
         <v>43479</v>
       </c>
@@ -13508,14 +13520,14 @@
       <c r="N247" t="s">
         <v>397</v>
       </c>
-      <c r="O247" t="s">
+      <c r="Q247" t="s">
         <v>389</v>
       </c>
-      <c r="P247" t="s">
+      <c r="R247" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:18">
       <c r="D248" s="5">
         <v>43479</v>
       </c>
@@ -13531,14 +13543,14 @@
       <c r="N248" t="s">
         <v>397</v>
       </c>
-      <c r="O248" t="s">
+      <c r="Q248" t="s">
         <v>389</v>
       </c>
-      <c r="P248" t="s">
+      <c r="R248" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:18">
       <c r="B249" t="s">
         <v>2</v>
       </c>
@@ -13570,11 +13582,11 @@
       <c r="N249" t="s">
         <v>397</v>
       </c>
-      <c r="P249" s="8" t="s">
+      <c r="R249" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:18">
       <c r="B250" t="s">
         <v>2</v>
       </c>
@@ -13606,11 +13618,11 @@
       <c r="N250" t="s">
         <v>397</v>
       </c>
-      <c r="P250" t="s">
+      <c r="R250" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:18">
       <c r="B251" t="s">
         <v>2</v>
       </c>
@@ -13642,11 +13654,11 @@
       <c r="N251" t="s">
         <v>397</v>
       </c>
-      <c r="P251" t="s">
+      <c r="R251" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:18">
       <c r="B252" t="s">
         <v>2</v>
       </c>
@@ -13678,11 +13690,11 @@
       <c r="N252" t="s">
         <v>397</v>
       </c>
-      <c r="P252" t="s">
+      <c r="R252" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:18">
       <c r="B253" t="s">
         <v>2</v>
       </c>
@@ -13714,11 +13726,11 @@
       <c r="N253" t="s">
         <v>397</v>
       </c>
-      <c r="P253" t="s">
+      <c r="R253" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:18">
       <c r="B254" t="s">
         <v>2</v>
       </c>
@@ -13750,11 +13762,11 @@
       <c r="N254" t="s">
         <v>397</v>
       </c>
-      <c r="P254" t="s">
+      <c r="R254" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:18">
       <c r="B255" t="s">
         <v>2</v>
       </c>
@@ -13789,11 +13801,11 @@
       <c r="N255" t="s">
         <v>398</v>
       </c>
-      <c r="P255" t="s">
+      <c r="R255" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:18">
       <c r="B256" t="s">
         <v>2</v>
       </c>
@@ -13828,11 +13840,11 @@
       <c r="N256" t="s">
         <v>398</v>
       </c>
-      <c r="P256" t="s">
+      <c r="R256" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:18">
       <c r="B257" t="s">
         <v>2</v>
       </c>
@@ -13867,11 +13879,11 @@
       <c r="N257" t="s">
         <v>398</v>
       </c>
-      <c r="P257" t="s">
+      <c r="R257" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:18">
       <c r="B258" t="s">
         <v>2</v>
       </c>
@@ -13906,11 +13918,11 @@
       <c r="N258" t="s">
         <v>398</v>
       </c>
-      <c r="P258" t="s">
+      <c r="R258" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:18">
       <c r="B259" t="s">
         <v>2</v>
       </c>
@@ -13945,11 +13957,11 @@
       <c r="N259" t="s">
         <v>397</v>
       </c>
-      <c r="P259" t="s">
+      <c r="R259" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:18">
       <c r="B260" t="s">
         <v>2</v>
       </c>
@@ -13984,11 +13996,11 @@
       <c r="N260" t="s">
         <v>397</v>
       </c>
-      <c r="P260" t="s">
+      <c r="R260" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:18">
       <c r="B261" t="s">
         <v>2</v>
       </c>
@@ -14023,11 +14035,11 @@
       <c r="N261" t="s">
         <v>397</v>
       </c>
-      <c r="P261" t="s">
+      <c r="R261" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:18">
       <c r="B262" t="s">
         <v>2</v>
       </c>
@@ -14059,11 +14071,11 @@
       <c r="N262" t="s">
         <v>397</v>
       </c>
-      <c r="P262" t="s">
+      <c r="R262" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:18">
       <c r="A263" s="1" t="s">
         <v>409</v>
       </c>
@@ -14104,14 +14116,14 @@
       <c r="N263" t="s">
         <v>397</v>
       </c>
-      <c r="O263" t="s">
+      <c r="Q263" t="s">
         <v>413</v>
       </c>
-      <c r="P263" t="s">
+      <c r="R263" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:18">
       <c r="A264" s="1" t="s">
         <v>409</v>
       </c>
@@ -14152,14 +14164,14 @@
       <c r="N264" t="s">
         <v>397</v>
       </c>
-      <c r="O264" t="s">
+      <c r="Q264" t="s">
         <v>413</v>
       </c>
-      <c r="P264" t="s">
+      <c r="R264" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:18">
       <c r="B265" t="s">
         <v>2</v>
       </c>
@@ -14194,11 +14206,11 @@
       <c r="N265" t="s">
         <v>397</v>
       </c>
-      <c r="P265" t="s">
+      <c r="R265" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:18">
       <c r="B266" t="s">
         <v>2</v>
       </c>
@@ -14233,11 +14245,11 @@
       <c r="N266" t="s">
         <v>397</v>
       </c>
-      <c r="P266" t="s">
+      <c r="R266" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:18">
       <c r="B267" t="s">
         <v>2</v>
       </c>
@@ -14272,11 +14284,11 @@
       <c r="N267" t="s">
         <v>397</v>
       </c>
-      <c r="P267" t="s">
+      <c r="R267" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:18">
       <c r="B268" t="s">
         <v>2</v>
       </c>
@@ -14311,11 +14323,11 @@
       <c r="N268" t="s">
         <v>397</v>
       </c>
-      <c r="P268" t="s">
+      <c r="R268" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:18">
       <c r="B269" t="s">
         <v>2</v>
       </c>
@@ -14350,11 +14362,11 @@
       <c r="N269" t="s">
         <v>397</v>
       </c>
-      <c r="P269" t="s">
+      <c r="R269" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:18">
       <c r="B270" t="s">
         <v>2</v>
       </c>
@@ -14389,11 +14401,11 @@
       <c r="N270" t="s">
         <v>397</v>
       </c>
-      <c r="P270" t="s">
+      <c r="R270" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:18">
       <c r="B271" t="s">
         <v>2</v>
       </c>
@@ -14428,11 +14440,11 @@
       <c r="N271" t="s">
         <v>397</v>
       </c>
-      <c r="P271" t="s">
+      <c r="R271" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:18">
       <c r="B272" t="s">
         <v>2</v>
       </c>
@@ -14467,11 +14479,11 @@
       <c r="N272" t="s">
         <v>397</v>
       </c>
-      <c r="P272" t="s">
+      <c r="R272" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="273" spans="2:16">
+    <row r="273" spans="2:18">
       <c r="B273" t="s">
         <v>2</v>
       </c>
@@ -14506,11 +14518,11 @@
       <c r="N273" t="s">
         <v>397</v>
       </c>
-      <c r="P273" t="s">
+      <c r="R273" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="274" spans="2:16">
+    <row r="274" spans="2:18">
       <c r="B274" t="s">
         <v>2</v>
       </c>
@@ -14545,11 +14557,11 @@
       <c r="N274" t="s">
         <v>397</v>
       </c>
-      <c r="P274" t="s">
+      <c r="R274" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="275" spans="2:16">
+    <row r="275" spans="2:18">
       <c r="B275" t="s">
         <v>2</v>
       </c>
@@ -14584,11 +14596,11 @@
       <c r="N275" t="s">
         <v>397</v>
       </c>
-      <c r="P275" t="s">
+      <c r="R275" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="276" spans="2:16">
+    <row r="276" spans="2:18">
       <c r="B276" t="s">
         <v>2</v>
       </c>
@@ -14623,11 +14635,11 @@
       <c r="N276" t="s">
         <v>397</v>
       </c>
-      <c r="P276" t="s">
+      <c r="R276" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="277" spans="2:16">
+    <row r="277" spans="2:18">
       <c r="B277" t="s">
         <v>2</v>
       </c>
@@ -14662,11 +14674,11 @@
       <c r="N277" t="s">
         <v>397</v>
       </c>
-      <c r="P277" t="s">
+      <c r="R277" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="278" spans="2:16">
+    <row r="278" spans="2:18">
       <c r="B278" t="s">
         <v>2</v>
       </c>
@@ -14701,11 +14713,11 @@
       <c r="N278" t="s">
         <v>397</v>
       </c>
-      <c r="P278" t="s">
+      <c r="R278" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="2:16">
+    <row r="279" spans="2:18">
       <c r="B279" t="s">
         <v>2</v>
       </c>
@@ -14740,11 +14752,11 @@
       <c r="N279" t="s">
         <v>397</v>
       </c>
-      <c r="P279" t="s">
+      <c r="R279" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="280" spans="2:16">
+    <row r="280" spans="2:18">
       <c r="B280" t="s">
         <v>2</v>
       </c>
@@ -14779,11 +14791,11 @@
       <c r="N280" t="s">
         <v>397</v>
       </c>
-      <c r="P280" t="s">
+      <c r="R280" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="281" spans="2:16">
+    <row r="281" spans="2:18">
       <c r="B281" t="s">
         <v>2</v>
       </c>
@@ -14818,11 +14830,11 @@
       <c r="N281" t="s">
         <v>397</v>
       </c>
-      <c r="P281" t="s">
+      <c r="R281" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="282" spans="2:16">
+    <row r="282" spans="2:18">
       <c r="B282" t="s">
         <v>2</v>
       </c>
@@ -14857,11 +14869,11 @@
       <c r="N282" t="s">
         <v>397</v>
       </c>
-      <c r="P282" t="s">
+      <c r="R282" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="283" spans="2:16">
+    <row r="283" spans="2:18">
       <c r="B283" t="s">
         <v>2</v>
       </c>
@@ -14896,11 +14908,11 @@
       <c r="N283" t="s">
         <v>397</v>
       </c>
-      <c r="P283" t="s">
+      <c r="R283" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="284" spans="2:16">
+    <row r="284" spans="2:18">
       <c r="B284" t="s">
         <v>2</v>
       </c>
@@ -14935,11 +14947,11 @@
       <c r="N284" t="s">
         <v>397</v>
       </c>
-      <c r="P284" t="s">
+      <c r="R284" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="285" spans="2:16">
+    <row r="285" spans="2:18">
       <c r="B285" t="s">
         <v>2</v>
       </c>
@@ -14974,11 +14986,11 @@
       <c r="N285" t="s">
         <v>397</v>
       </c>
-      <c r="P285" t="s">
+      <c r="R285" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="286" spans="2:16">
+    <row r="286" spans="2:18">
       <c r="B286" t="s">
         <v>2</v>
       </c>
@@ -15013,11 +15025,11 @@
       <c r="N286" t="s">
         <v>397</v>
       </c>
-      <c r="P286" t="s">
+      <c r="R286" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="287" spans="2:16">
+    <row r="287" spans="2:18">
       <c r="B287" t="s">
         <v>2</v>
       </c>
@@ -15052,11 +15064,11 @@
       <c r="N287" t="s">
         <v>397</v>
       </c>
-      <c r="P287" t="s">
+      <c r="R287" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="288" spans="2:16">
+    <row r="288" spans="2:18">
       <c r="B288" t="s">
         <v>2</v>
       </c>
@@ -15091,11 +15103,11 @@
       <c r="N288" t="s">
         <v>397</v>
       </c>
-      <c r="P288" t="s">
+      <c r="R288" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:21">
       <c r="A289" s="1" t="s">
         <v>90</v>
       </c>
@@ -15139,13 +15151,13 @@
       <c r="N289" t="s">
         <v>397</v>
       </c>
-      <c r="O289" s="1"/>
-      <c r="P289" s="1" t="s">
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S289" s="2"/>
-    </row>
-    <row r="290" spans="1:19">
+      <c r="U289" s="2"/>
+    </row>
+    <row r="290" spans="1:21">
       <c r="A290" s="1" t="s">
         <v>90</v>
       </c>
@@ -15189,13 +15201,13 @@
       <c r="N290" t="s">
         <v>397</v>
       </c>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1" t="s">
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S290" s="2"/>
-    </row>
-    <row r="291" spans="1:19">
+      <c r="U290" s="2"/>
+    </row>
+    <row r="291" spans="1:21">
       <c r="A291" s="1" t="s">
         <v>90</v>
       </c>
@@ -15239,13 +15251,13 @@
       <c r="N291" t="s">
         <v>397</v>
       </c>
-      <c r="O291" s="1"/>
-      <c r="P291" s="1" t="s">
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S291" s="2"/>
-    </row>
-    <row r="292" spans="1:19">
+      <c r="U291" s="2"/>
+    </row>
+    <row r="292" spans="1:21">
       <c r="A292" s="1" t="s">
         <v>90</v>
       </c>
@@ -15289,13 +15301,13 @@
       <c r="N292" t="s">
         <v>397</v>
       </c>
-      <c r="O292" s="1"/>
-      <c r="P292" s="1" t="s">
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S292" s="2"/>
-    </row>
-    <row r="293" spans="1:19">
+      <c r="U292" s="2"/>
+    </row>
+    <row r="293" spans="1:21">
       <c r="A293" s="1" t="s">
         <v>90</v>
       </c>
@@ -15339,13 +15351,13 @@
       <c r="N293" t="s">
         <v>397</v>
       </c>
-      <c r="O293" s="1"/>
-      <c r="P293" s="1" t="s">
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S293" s="2"/>
-    </row>
-    <row r="294" spans="1:19">
+      <c r="U293" s="2"/>
+    </row>
+    <row r="294" spans="1:21">
       <c r="A294" s="1" t="s">
         <v>90</v>
       </c>
@@ -15389,13 +15401,13 @@
       <c r="N294" t="s">
         <v>397</v>
       </c>
-      <c r="O294" s="1"/>
-      <c r="P294" s="1" t="s">
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S294" s="2"/>
-    </row>
-    <row r="295" spans="1:19">
+      <c r="U294" s="2"/>
+    </row>
+    <row r="295" spans="1:21">
       <c r="A295" s="1" t="s">
         <v>90</v>
       </c>
@@ -15439,13 +15451,13 @@
       <c r="N295" t="s">
         <v>397</v>
       </c>
-      <c r="O295" s="1"/>
-      <c r="P295" s="1" t="s">
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S295" s="2"/>
-    </row>
-    <row r="296" spans="1:19">
+      <c r="U295" s="2"/>
+    </row>
+    <row r="296" spans="1:21">
       <c r="A296" s="1" t="s">
         <v>90</v>
       </c>
@@ -15489,13 +15501,13 @@
       <c r="N296" t="s">
         <v>397</v>
       </c>
-      <c r="O296" s="1"/>
-      <c r="P296" s="1" t="s">
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S296" s="2"/>
-    </row>
-    <row r="297" spans="1:19">
+      <c r="U296" s="2"/>
+    </row>
+    <row r="297" spans="1:21">
       <c r="A297" s="1" t="s">
         <v>90</v>
       </c>
@@ -15539,13 +15551,13 @@
       <c r="N297" t="s">
         <v>397</v>
       </c>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1" t="s">
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S297" s="2"/>
-    </row>
-    <row r="298" spans="1:19">
+      <c r="U297" s="2"/>
+    </row>
+    <row r="298" spans="1:21">
       <c r="A298" s="1" t="s">
         <v>90</v>
       </c>
@@ -15589,13 +15601,13 @@
       <c r="N298" t="s">
         <v>397</v>
       </c>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1" t="s">
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S298" s="2"/>
-    </row>
-    <row r="299" spans="1:19">
+      <c r="U298" s="2"/>
+    </row>
+    <row r="299" spans="1:21">
       <c r="A299" s="1" t="s">
         <v>90</v>
       </c>
@@ -15639,13 +15651,13 @@
       <c r="N299" t="s">
         <v>397</v>
       </c>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1" t="s">
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S299" s="2"/>
-    </row>
-    <row r="300" spans="1:19">
+      <c r="U299" s="2"/>
+    </row>
+    <row r="300" spans="1:21">
       <c r="A300" s="1" t="s">
         <v>90</v>
       </c>
@@ -15689,12 +15701,12 @@
       <c r="N300" t="s">
         <v>397</v>
       </c>
-      <c r="P300" s="1" t="s">
+      <c r="R300" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="S300" s="2"/>
-    </row>
-    <row r="301" spans="1:19">
+      <c r="U300" s="2"/>
+    </row>
+    <row r="301" spans="1:21">
       <c r="A301" t="s">
         <v>65</v>
       </c>
@@ -15738,14 +15750,14 @@
       <c r="N301" t="s">
         <v>397</v>
       </c>
-      <c r="O301" s="1" t="s">
+      <c r="Q301" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P301" s="1" t="s">
+      <c r="R301" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:21">
       <c r="A302" t="s">
         <v>65</v>
       </c>
@@ -15789,14 +15801,14 @@
       <c r="N302" t="s">
         <v>397</v>
       </c>
-      <c r="O302" s="1" t="s">
+      <c r="Q302" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P302" s="1" t="s">
+      <c r="R302" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:21">
       <c r="A303" t="s">
         <v>65</v>
       </c>
@@ -15840,14 +15852,14 @@
       <c r="N303" t="s">
         <v>397</v>
       </c>
-      <c r="O303" s="1" t="s">
+      <c r="Q303" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P303" s="1" t="s">
+      <c r="R303" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:21">
       <c r="A304" t="s">
         <v>65</v>
       </c>
@@ -15891,14 +15903,14 @@
       <c r="N304" t="s">
         <v>397</v>
       </c>
-      <c r="O304" s="1" t="s">
+      <c r="Q304" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P304" s="1" t="s">
+      <c r="R304" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>65</v>
       </c>
@@ -15942,14 +15954,14 @@
       <c r="N305" t="s">
         <v>397</v>
       </c>
-      <c r="O305" s="1" t="s">
+      <c r="Q305" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P305" s="1" t="s">
+      <c r="R305" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>65</v>
       </c>
@@ -15993,14 +16005,14 @@
       <c r="N306" t="s">
         <v>397</v>
       </c>
-      <c r="O306" s="1" t="s">
+      <c r="Q306" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P306" s="1" t="s">
+      <c r="R306" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:18">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -16044,14 +16056,14 @@
       <c r="N307" t="s">
         <v>397</v>
       </c>
-      <c r="O307" s="1" t="s">
+      <c r="Q307" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P307" s="1" t="s">
+      <c r="R307" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>65</v>
       </c>
@@ -16095,14 +16107,14 @@
       <c r="N308" t="s">
         <v>397</v>
       </c>
-      <c r="O308" s="1" t="s">
+      <c r="Q308" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P308" s="1" t="s">
+      <c r="R308" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>65</v>
       </c>
@@ -16146,14 +16158,14 @@
       <c r="N309" t="s">
         <v>397</v>
       </c>
-      <c r="O309" s="1" t="s">
+      <c r="Q309" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P309" s="1" t="s">
+      <c r="R309" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>65</v>
       </c>
@@ -16197,14 +16209,14 @@
       <c r="N310" t="s">
         <v>397</v>
       </c>
-      <c r="O310" s="1" t="s">
+      <c r="Q310" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P310" s="1" t="s">
+      <c r="R310" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>65</v>
       </c>
@@ -16248,14 +16260,14 @@
       <c r="N311" t="s">
         <v>397</v>
       </c>
-      <c r="O311" s="1" t="s">
+      <c r="Q311" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P311" s="1" t="s">
+      <c r="R311" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:18">
       <c r="A312" t="s">
         <v>65</v>
       </c>
@@ -16299,14 +16311,14 @@
       <c r="N312" t="s">
         <v>397</v>
       </c>
-      <c r="O312" s="1" t="s">
+      <c r="Q312" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P312" s="1" t="s">
+      <c r="R312" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:18">
       <c r="A313" t="s">
         <v>65</v>
       </c>
@@ -16350,14 +16362,14 @@
       <c r="N313" t="s">
         <v>397</v>
       </c>
-      <c r="O313" s="1" t="s">
+      <c r="Q313" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P313" s="1" t="s">
+      <c r="R313" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>65</v>
       </c>
@@ -16401,14 +16413,14 @@
       <c r="N314" t="s">
         <v>397</v>
       </c>
-      <c r="O314" s="1" t="s">
+      <c r="Q314" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P314" s="1" t="s">
+      <c r="R314" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>65</v>
       </c>
@@ -16452,14 +16464,14 @@
       <c r="N315" t="s">
         <v>397</v>
       </c>
-      <c r="O315" s="1" t="s">
+      <c r="Q315" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P315" s="1" t="s">
+      <c r="R315" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:18">
       <c r="A316" t="s">
         <v>65</v>
       </c>
@@ -16503,14 +16515,14 @@
       <c r="N316" t="s">
         <v>397</v>
       </c>
-      <c r="O316" s="1" t="s">
+      <c r="Q316" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P316" s="1" t="s">
+      <c r="R316" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:18">
       <c r="A317" t="s">
         <v>65</v>
       </c>
@@ -16554,14 +16566,14 @@
       <c r="N317" t="s">
         <v>397</v>
       </c>
-      <c r="O317" s="1" t="s">
+      <c r="Q317" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P317" s="1" t="s">
+      <c r="R317" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:18">
       <c r="A318" t="s">
         <v>65</v>
       </c>
@@ -16605,14 +16617,14 @@
       <c r="N318" t="s">
         <v>397</v>
       </c>
-      <c r="O318" s="1" t="s">
+      <c r="Q318" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P318" s="1" t="s">
+      <c r="R318" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:18">
       <c r="A319" t="s">
         <v>65</v>
       </c>
@@ -16656,14 +16668,14 @@
       <c r="N319" t="s">
         <v>397</v>
       </c>
-      <c r="O319" s="1" t="s">
+      <c r="Q319" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P319" s="1" t="s">
+      <c r="R319" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:18">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -16707,14 +16719,14 @@
       <c r="N320" t="s">
         <v>397</v>
       </c>
-      <c r="O320" s="1" t="s">
+      <c r="Q320" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P320" s="1" t="s">
+      <c r="R320" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:18">
       <c r="A321" t="s">
         <v>65</v>
       </c>
@@ -16758,14 +16770,14 @@
       <c r="N321" t="s">
         <v>397</v>
       </c>
-      <c r="O321" s="1" t="s">
+      <c r="Q321" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P321" s="1" t="s">
+      <c r="R321" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:18">
       <c r="A322" t="s">
         <v>65</v>
       </c>
@@ -16809,14 +16821,14 @@
       <c r="N322" t="s">
         <v>397</v>
       </c>
-      <c r="O322" s="1" t="s">
+      <c r="Q322" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P322" s="1" t="s">
+      <c r="R322" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:18">
       <c r="A323" t="s">
         <v>65</v>
       </c>
@@ -16860,14 +16872,14 @@
       <c r="N323" t="s">
         <v>397</v>
       </c>
-      <c r="O323" s="1" t="s">
+      <c r="Q323" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P323" s="1" t="s">
+      <c r="R323" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:18">
       <c r="A324" t="s">
         <v>65</v>
       </c>
@@ -16911,14 +16923,14 @@
       <c r="N324" t="s">
         <v>397</v>
       </c>
-      <c r="O324" s="1" t="s">
+      <c r="Q324" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="P324" s="1" t="s">
+      <c r="R324" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:18">
       <c r="A325" t="s">
         <v>90</v>
       </c>
@@ -16962,14 +16974,14 @@
       <c r="N325" t="s">
         <v>397</v>
       </c>
-      <c r="O325" t="s">
+      <c r="Q325" t="s">
         <v>491</v>
       </c>
-      <c r="P325" s="1" t="s">
+      <c r="R325" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:18">
       <c r="A326" t="s">
         <v>90</v>
       </c>
@@ -17013,14 +17025,14 @@
       <c r="N326" t="s">
         <v>397</v>
       </c>
-      <c r="O326" t="s">
+      <c r="Q326" t="s">
         <v>491</v>
       </c>
-      <c r="P326" s="1" t="s">
+      <c r="R326" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:18">
       <c r="A327" t="s">
         <v>90</v>
       </c>
@@ -17064,14 +17076,14 @@
       <c r="N327" t="s">
         <v>397</v>
       </c>
-      <c r="O327" t="s">
+      <c r="Q327" t="s">
         <v>491</v>
       </c>
-      <c r="P327" s="1" t="s">
+      <c r="R327" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:18">
       <c r="A328" t="s">
         <v>90</v>
       </c>
@@ -17115,14 +17127,14 @@
       <c r="N328" t="s">
         <v>397</v>
       </c>
-      <c r="O328" t="s">
+      <c r="Q328" t="s">
         <v>491</v>
       </c>
-      <c r="P328" s="1" t="s">
+      <c r="R328" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:18">
       <c r="A329" t="s">
         <v>90</v>
       </c>
@@ -17166,14 +17178,14 @@
       <c r="N329" t="s">
         <v>397</v>
       </c>
-      <c r="O329" t="s">
+      <c r="Q329" t="s">
         <v>491</v>
       </c>
-      <c r="P329" s="1" t="s">
+      <c r="R329" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:18">
       <c r="A330" t="s">
         <v>90</v>
       </c>
@@ -17217,14 +17229,14 @@
       <c r="N330" t="s">
         <v>397</v>
       </c>
-      <c r="O330" t="s">
+      <c r="Q330" t="s">
         <v>491</v>
       </c>
-      <c r="P330" s="1" t="s">
+      <c r="R330" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:18">
       <c r="A331" t="s">
         <v>90</v>
       </c>
@@ -17268,14 +17280,14 @@
       <c r="N331" t="s">
         <v>397</v>
       </c>
-      <c r="O331" t="s">
+      <c r="Q331" t="s">
         <v>491</v>
       </c>
-      <c r="P331" s="1" t="s">
+      <c r="R331" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:18">
       <c r="A332" t="s">
         <v>90</v>
       </c>
@@ -17319,14 +17331,14 @@
       <c r="N332" t="s">
         <v>397</v>
       </c>
-      <c r="O332" t="s">
+      <c r="Q332" t="s">
         <v>491</v>
       </c>
-      <c r="P332" s="1" t="s">
+      <c r="R332" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:18">
       <c r="A333" t="s">
         <v>90</v>
       </c>
@@ -17370,14 +17382,14 @@
       <c r="N333" t="s">
         <v>397</v>
       </c>
-      <c r="O333" t="s">
+      <c r="Q333" t="s">
         <v>491</v>
       </c>
-      <c r="P333" s="1" t="s">
+      <c r="R333" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:18">
       <c r="A334" t="s">
         <v>90</v>
       </c>
@@ -17421,14 +17433,14 @@
       <c r="N334" t="s">
         <v>397</v>
       </c>
-      <c r="O334" t="s">
+      <c r="Q334" t="s">
         <v>491</v>
       </c>
-      <c r="P334" s="1" t="s">
+      <c r="R334" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:18">
       <c r="A335" t="s">
         <v>90</v>
       </c>
@@ -17472,14 +17484,14 @@
       <c r="N335" t="s">
         <v>397</v>
       </c>
-      <c r="O335" t="s">
+      <c r="Q335" t="s">
         <v>491</v>
       </c>
-      <c r="P335" s="1" t="s">
+      <c r="R335" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:18">
       <c r="A336" t="s">
         <v>90</v>
       </c>
@@ -17523,14 +17535,14 @@
       <c r="N336" t="s">
         <v>397</v>
       </c>
-      <c r="O336" t="s">
+      <c r="Q336" t="s">
         <v>491</v>
       </c>
-      <c r="P336" s="1" t="s">
+      <c r="R336" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:18">
       <c r="A337" s="2" t="s">
         <v>414</v>
       </c>
@@ -17574,11 +17586,11 @@
       <c r="N337" t="s">
         <v>397</v>
       </c>
-      <c r="P337" t="s">
+      <c r="R337" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:18">
       <c r="A338" s="2" t="s">
         <v>414</v>
       </c>
@@ -17622,11 +17634,11 @@
       <c r="N338" t="s">
         <v>397</v>
       </c>
-      <c r="P338" t="s">
+      <c r="R338" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:18">
       <c r="A339" s="2" t="s">
         <v>414</v>
       </c>
@@ -17670,11 +17682,11 @@
       <c r="N339" t="s">
         <v>397</v>
       </c>
-      <c r="P339" t="s">
+      <c r="R339" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:18">
       <c r="A340" s="2" t="s">
         <v>414</v>
       </c>
@@ -17718,11 +17730,11 @@
       <c r="N340" t="s">
         <v>397</v>
       </c>
-      <c r="P340" t="s">
+      <c r="R340" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:18">
       <c r="A341" s="2" t="s">
         <v>414</v>
       </c>
@@ -17766,11 +17778,11 @@
       <c r="N341" t="s">
         <v>397</v>
       </c>
-      <c r="P341" t="s">
+      <c r="R341" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:18">
       <c r="A342" s="2" t="s">
         <v>414</v>
       </c>
@@ -17814,11 +17826,11 @@
       <c r="N342" t="s">
         <v>397</v>
       </c>
-      <c r="P342" t="s">
+      <c r="R342" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:18">
       <c r="A343" s="2" t="s">
         <v>414</v>
       </c>
@@ -17862,11 +17874,11 @@
       <c r="N343" t="s">
         <v>397</v>
       </c>
-      <c r="P343" t="s">
+      <c r="R343" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:18">
       <c r="A344" s="2" t="s">
         <v>414</v>
       </c>
@@ -17910,11 +17922,11 @@
       <c r="N344" t="s">
         <v>397</v>
       </c>
-      <c r="P344" t="s">
+      <c r="R344" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:18">
       <c r="A345" s="2" t="s">
         <v>414</v>
       </c>
@@ -17958,11 +17970,11 @@
       <c r="N345" t="s">
         <v>397</v>
       </c>
-      <c r="P345" t="s">
+      <c r="R345" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:18">
       <c r="A346" s="2" t="s">
         <v>414</v>
       </c>
@@ -18006,11 +18018,11 @@
       <c r="N346" t="s">
         <v>397</v>
       </c>
-      <c r="P346" t="s">
+      <c r="R346" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:18">
       <c r="A347" s="2" t="s">
         <v>414</v>
       </c>
@@ -18054,11 +18066,11 @@
       <c r="N347" t="s">
         <v>397</v>
       </c>
-      <c r="P347" t="s">
+      <c r="R347" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:18">
       <c r="A348" s="2" t="s">
         <v>414</v>
       </c>
@@ -18102,11 +18114,11 @@
       <c r="N348" t="s">
         <v>397</v>
       </c>
-      <c r="P348" t="s">
+      <c r="R348" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:18">
       <c r="A349" s="2" t="s">
         <v>414</v>
       </c>
@@ -18150,11 +18162,11 @@
       <c r="N349" t="s">
         <v>397</v>
       </c>
-      <c r="P349" t="s">
+      <c r="R349" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:18">
       <c r="A350" s="2" t="s">
         <v>414</v>
       </c>
@@ -18198,11 +18210,11 @@
       <c r="N350" t="s">
         <v>397</v>
       </c>
-      <c r="P350" t="s">
+      <c r="R350" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:18">
       <c r="A351" s="2" t="s">
         <v>414</v>
       </c>
@@ -18246,11 +18258,11 @@
       <c r="N351" t="s">
         <v>397</v>
       </c>
-      <c r="P351" t="s">
+      <c r="R351" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:18">
       <c r="A352" s="2" t="s">
         <v>414</v>
       </c>
@@ -18294,11 +18306,11 @@
       <c r="N352" t="s">
         <v>397</v>
       </c>
-      <c r="P352" t="s">
+      <c r="R352" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:18">
       <c r="A353" s="2" t="s">
         <v>414</v>
       </c>
@@ -18342,11 +18354,11 @@
       <c r="N353" t="s">
         <v>397</v>
       </c>
-      <c r="P353" t="s">
+      <c r="R353" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:18">
       <c r="A354" s="2" t="s">
         <v>414</v>
       </c>
@@ -18390,11 +18402,11 @@
       <c r="N354" t="s">
         <v>397</v>
       </c>
-      <c r="P354" t="s">
+      <c r="R354" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="355" spans="1:16">
+    <row r="355" spans="1:18">
       <c r="A355" s="2" t="s">
         <v>414</v>
       </c>
@@ -18438,11 +18450,11 @@
       <c r="N355" t="s">
         <v>397</v>
       </c>
-      <c r="P355" t="s">
+      <c r="R355" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="356" spans="1:16">
+    <row r="356" spans="1:18">
       <c r="A356" s="2" t="s">
         <v>414</v>
       </c>
@@ -18486,11 +18498,11 @@
       <c r="N356" t="s">
         <v>397</v>
       </c>
-      <c r="P356" t="s">
+      <c r="R356" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="357" spans="1:16">
+    <row r="357" spans="1:18">
       <c r="A357" s="2" t="s">
         <v>414</v>
       </c>
@@ -18534,11 +18546,11 @@
       <c r="N357" t="s">
         <v>397</v>
       </c>
-      <c r="P357" t="s">
+      <c r="R357" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="358" spans="1:16">
+    <row r="358" spans="1:18">
       <c r="A358" s="2" t="s">
         <v>414</v>
       </c>
@@ -18582,11 +18594,11 @@
       <c r="N358" t="s">
         <v>397</v>
       </c>
-      <c r="P358" t="s">
+      <c r="R358" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="359" spans="1:16">
+    <row r="359" spans="1:18">
       <c r="A359" s="2" t="s">
         <v>414</v>
       </c>
@@ -18630,11 +18642,11 @@
       <c r="N359" t="s">
         <v>397</v>
       </c>
-      <c r="P359" t="s">
+      <c r="R359" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="360" spans="1:16">
+    <row r="360" spans="1:18">
       <c r="A360" s="2" t="s">
         <v>414</v>
       </c>
@@ -18678,11 +18690,11 @@
       <c r="N360" t="s">
         <v>397</v>
       </c>
-      <c r="P360" t="s">
+      <c r="R360" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:18">
       <c r="A361" s="2" t="s">
         <v>414</v>
       </c>
@@ -18726,11 +18738,11 @@
       <c r="N361" t="s">
         <v>397</v>
       </c>
-      <c r="P361" t="s">
+      <c r="R361" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="362" spans="1:16">
+    <row r="362" spans="1:18">
       <c r="A362" s="2" t="s">
         <v>414</v>
       </c>
@@ -18774,11 +18786,11 @@
       <c r="N362" t="s">
         <v>397</v>
       </c>
-      <c r="P362" t="s">
+      <c r="R362" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="363" spans="1:16">
+    <row r="363" spans="1:18">
       <c r="A363" s="2" t="s">
         <v>414</v>
       </c>
@@ -18822,11 +18834,11 @@
       <c r="N363" t="s">
         <v>397</v>
       </c>
-      <c r="P363" t="s">
+      <c r="R363" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="364" spans="1:16">
+    <row r="364" spans="1:18">
       <c r="A364" s="2" t="s">
         <v>414</v>
       </c>
@@ -18870,11 +18882,11 @@
       <c r="N364" t="s">
         <v>397</v>
       </c>
-      <c r="P364" t="s">
+      <c r="R364" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="365" spans="1:16">
+    <row r="365" spans="1:18">
       <c r="A365" s="2" t="s">
         <v>414</v>
       </c>
@@ -18918,11 +18930,11 @@
       <c r="N365" t="s">
         <v>397</v>
       </c>
-      <c r="P365" t="s">
+      <c r="R365" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="366" spans="1:16">
+    <row r="366" spans="1:18">
       <c r="A366" s="2" t="s">
         <v>414</v>
       </c>
@@ -18966,11 +18978,11 @@
       <c r="N366" t="s">
         <v>397</v>
       </c>
-      <c r="P366" t="s">
+      <c r="R366" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="367" spans="1:16">
+    <row r="367" spans="1:18">
       <c r="A367" s="2" t="s">
         <v>414</v>
       </c>
@@ -19014,11 +19026,11 @@
       <c r="N367" t="s">
         <v>397</v>
       </c>
-      <c r="P367" t="s">
+      <c r="R367" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="368" spans="1:16">
+    <row r="368" spans="1:18">
       <c r="A368" s="2" t="s">
         <v>414</v>
       </c>
@@ -19062,11 +19074,11 @@
       <c r="N368" t="s">
         <v>397</v>
       </c>
-      <c r="P368" t="s">
+      <c r="R368" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:18">
       <c r="A369" s="2" t="s">
         <v>414</v>
       </c>
@@ -19110,11 +19122,11 @@
       <c r="N369" t="s">
         <v>397</v>
       </c>
-      <c r="P369" t="s">
+      <c r="R369" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:18">
       <c r="A370" s="2" t="s">
         <v>414</v>
       </c>
@@ -19158,11 +19170,11 @@
       <c r="N370" t="s">
         <v>397</v>
       </c>
-      <c r="P370" t="s">
+      <c r="R370" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:18">
       <c r="A371" s="2" t="s">
         <v>414</v>
       </c>
@@ -19206,11 +19218,11 @@
       <c r="N371" t="s">
         <v>397</v>
       </c>
-      <c r="P371" t="s">
+      <c r="R371" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:18">
       <c r="A372" s="2" t="s">
         <v>414</v>
       </c>
@@ -19254,11 +19266,11 @@
       <c r="N372" t="s">
         <v>397</v>
       </c>
-      <c r="P372" t="s">
+      <c r="R372" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:18">
       <c r="A373" s="2" t="s">
         <v>414</v>
       </c>
@@ -19302,11 +19314,11 @@
       <c r="N373" t="s">
         <v>397</v>
       </c>
-      <c r="P373" t="s">
+      <c r="R373" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:18">
       <c r="A374" s="2" t="s">
         <v>414</v>
       </c>
@@ -19350,11 +19362,11 @@
       <c r="N374" t="s">
         <v>397</v>
       </c>
-      <c r="P374" t="s">
+      <c r="R374" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:18">
       <c r="A375" s="2" t="s">
         <v>414</v>
       </c>
@@ -19398,11 +19410,11 @@
       <c r="N375" t="s">
         <v>397</v>
       </c>
-      <c r="P375" t="s">
+      <c r="R375" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:18">
       <c r="A376" s="2" t="s">
         <v>414</v>
       </c>
@@ -19446,11 +19458,11 @@
       <c r="N376" t="s">
         <v>397</v>
       </c>
-      <c r="P376" t="s">
+      <c r="R376" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:18">
       <c r="A377" s="2" t="s">
         <v>414</v>
       </c>
@@ -19494,11 +19506,11 @@
       <c r="N377" t="s">
         <v>397</v>
       </c>
-      <c r="P377" t="s">
+      <c r="R377" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:18">
       <c r="A378" s="2" t="s">
         <v>414</v>
       </c>
@@ -19542,11 +19554,11 @@
       <c r="N378" t="s">
         <v>397</v>
       </c>
-      <c r="P378" t="s">
+      <c r="R378" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:18">
       <c r="A379" s="2" t="s">
         <v>414</v>
       </c>
@@ -19590,11 +19602,11 @@
       <c r="N379" t="s">
         <v>397</v>
       </c>
-      <c r="P379" t="s">
+      <c r="R379" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:18">
       <c r="A380" s="2" t="s">
         <v>414</v>
       </c>
@@ -19638,11 +19650,11 @@
       <c r="N380" t="s">
         <v>397</v>
       </c>
-      <c r="P380" t="s">
+      <c r="R380" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:18">
       <c r="A381" s="2" t="s">
         <v>414</v>
       </c>
@@ -19686,11 +19698,11 @@
       <c r="N381" t="s">
         <v>397</v>
       </c>
-      <c r="P381" t="s">
+      <c r="R381" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:18">
       <c r="A382" s="2" t="s">
         <v>414</v>
       </c>
@@ -19734,11 +19746,11 @@
       <c r="N382" t="s">
         <v>397</v>
       </c>
-      <c r="P382" t="s">
+      <c r="R382" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:18">
       <c r="A383" s="2" t="s">
         <v>414</v>
       </c>
@@ -19782,11 +19794,11 @@
       <c r="N383" t="s">
         <v>397</v>
       </c>
-      <c r="P383" t="s">
+      <c r="R383" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:18">
       <c r="A384" s="2" t="s">
         <v>414</v>
       </c>
@@ -19830,11 +19842,11 @@
       <c r="N384" t="s">
         <v>397</v>
       </c>
-      <c r="P384" t="s">
+      <c r="R384" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:18">
       <c r="A385" s="2" t="s">
         <v>414</v>
       </c>
@@ -19878,11 +19890,11 @@
       <c r="N385" t="s">
         <v>397</v>
       </c>
-      <c r="P385" t="s">
+      <c r="R385" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:18">
       <c r="A386" s="2" t="s">
         <v>414</v>
       </c>
@@ -19926,11 +19938,11 @@
       <c r="N386" t="s">
         <v>397</v>
       </c>
-      <c r="P386" t="s">
+      <c r="R386" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:18">
       <c r="A387" s="2" t="s">
         <v>414</v>
       </c>
@@ -19974,11 +19986,11 @@
       <c r="N387" t="s">
         <v>397</v>
       </c>
-      <c r="P387" t="s">
+      <c r="R387" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:18">
       <c r="A388" s="2" t="s">
         <v>414</v>
       </c>
@@ -20022,11 +20034,11 @@
       <c r="N388" t="s">
         <v>397</v>
       </c>
-      <c r="P388" t="s">
+      <c r="R388" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:18">
       <c r="A389" s="2" t="s">
         <v>414</v>
       </c>
@@ -20070,11 +20082,11 @@
       <c r="N389" t="s">
         <v>397</v>
       </c>
-      <c r="P389" t="s">
+      <c r="R389" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:18">
       <c r="A390" s="2" t="s">
         <v>414</v>
       </c>
@@ -20118,11 +20130,11 @@
       <c r="N390" t="s">
         <v>397</v>
       </c>
-      <c r="P390" t="s">
+      <c r="R390" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:18">
       <c r="A391" s="2" t="s">
         <v>414</v>
       </c>
@@ -20166,11 +20178,11 @@
       <c r="N391" t="s">
         <v>397</v>
       </c>
-      <c r="P391" t="s">
+      <c r="R391" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:18">
       <c r="A392" s="2" t="s">
         <v>414</v>
       </c>
@@ -20214,11 +20226,11 @@
       <c r="N392" t="s">
         <v>397</v>
       </c>
-      <c r="P392" t="s">
+      <c r="R392" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:18">
       <c r="A393" s="2" t="s">
         <v>414</v>
       </c>
@@ -20262,11 +20274,11 @@
       <c r="N393" t="s">
         <v>397</v>
       </c>
-      <c r="P393" t="s">
+      <c r="R393" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:18">
       <c r="A394" s="2" t="s">
         <v>414</v>
       </c>
@@ -20310,11 +20322,11 @@
       <c r="N394" t="s">
         <v>397</v>
       </c>
-      <c r="P394" t="s">
+      <c r="R394" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:18">
       <c r="A395" s="2" t="s">
         <v>414</v>
       </c>
@@ -20358,11 +20370,11 @@
       <c r="N395" t="s">
         <v>397</v>
       </c>
-      <c r="P395" t="s">
+      <c r="R395" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:18">
       <c r="A396" s="2" t="s">
         <v>414</v>
       </c>
@@ -20406,11 +20418,11 @@
       <c r="N396" t="s">
         <v>397</v>
       </c>
-      <c r="P396" t="s">
+      <c r="R396" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:18">
       <c r="A397" s="2" t="s">
         <v>414</v>
       </c>
@@ -20454,11 +20466,11 @@
       <c r="N397" t="s">
         <v>397</v>
       </c>
-      <c r="P397" t="s">
+      <c r="R397" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:18">
       <c r="A398" s="2" t="s">
         <v>414</v>
       </c>
@@ -20502,11 +20514,11 @@
       <c r="N398" t="s">
         <v>397</v>
       </c>
-      <c r="P398" t="s">
+      <c r="R398" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:18">
       <c r="A399" s="2" t="s">
         <v>414</v>
       </c>
@@ -20550,11 +20562,11 @@
       <c r="N399" t="s">
         <v>397</v>
       </c>
-      <c r="P399" t="s">
+      <c r="R399" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:18">
       <c r="A400" s="2" t="s">
         <v>414</v>
       </c>
@@ -20598,11 +20610,11 @@
       <c r="N400" t="s">
         <v>397</v>
       </c>
-      <c r="P400" t="s">
+      <c r="R400" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="401" spans="1:16">
+    <row r="401" spans="1:18">
       <c r="A401" s="2" t="s">
         <v>414</v>
       </c>
@@ -20646,11 +20658,11 @@
       <c r="N401" t="s">
         <v>397</v>
       </c>
-      <c r="P401" t="s">
+      <c r="R401" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="402" spans="1:16">
+    <row r="402" spans="1:18">
       <c r="A402" s="2" t="s">
         <v>414</v>
       </c>
@@ -20694,24 +20706,24 @@
       <c r="N402" t="s">
         <v>397</v>
       </c>
-      <c r="P402" t="s">
+      <c r="R402" t="s">
         <v>481</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O352">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q352">
     <sortCondition ref="D1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P14" r:id="rId1" xr:uid="{76264D68-DEFB-2E4E-BD66-E3CCF9633DB3}"/>
-    <hyperlink ref="P53" r:id="rId2" xr:uid="{0B6E7FD7-661D-3140-8342-7C38B783316F}"/>
-    <hyperlink ref="P76" r:id="rId3" xr:uid="{AF2A73D2-5A82-7F45-B658-E1F07BB79E69}"/>
-    <hyperlink ref="P85" r:id="rId4" xr:uid="{233A8AB7-8EFA-B444-9961-FC359C19AC0B}"/>
-    <hyperlink ref="P95" r:id="rId5" xr:uid="{5BA88714-2A99-874F-82B2-0516F34F3BAA}"/>
-    <hyperlink ref="P113" r:id="rId6" xr:uid="{5D55FE1D-E708-6E4D-A2C9-0C86E23B4E37}"/>
-    <hyperlink ref="P166" r:id="rId7" xr:uid="{63BB1423-F625-0B45-A3D3-6F3C805B3178}"/>
-    <hyperlink ref="P211" r:id="rId8" xr:uid="{A4AD7456-6774-F64D-B980-BB87F8307A8D}"/>
-    <hyperlink ref="P249" r:id="rId9" xr:uid="{82FBBAAC-C428-2C46-B31C-FB5C34C111B1}"/>
+    <hyperlink ref="R14" r:id="rId1" xr:uid="{76264D68-DEFB-2E4E-BD66-E3CCF9633DB3}"/>
+    <hyperlink ref="R53" r:id="rId2" xr:uid="{0B6E7FD7-661D-3140-8342-7C38B783316F}"/>
+    <hyperlink ref="R76" r:id="rId3" xr:uid="{AF2A73D2-5A82-7F45-B658-E1F07BB79E69}"/>
+    <hyperlink ref="R85" r:id="rId4" xr:uid="{233A8AB7-8EFA-B444-9961-FC359C19AC0B}"/>
+    <hyperlink ref="R95" r:id="rId5" xr:uid="{5BA88714-2A99-874F-82B2-0516F34F3BAA}"/>
+    <hyperlink ref="R113" r:id="rId6" xr:uid="{5D55FE1D-E708-6E4D-A2C9-0C86E23B4E37}"/>
+    <hyperlink ref="R166" r:id="rId7" xr:uid="{63BB1423-F625-0B45-A3D3-6F3C805B3178}"/>
+    <hyperlink ref="R211" r:id="rId8" xr:uid="{A4AD7456-6774-F64D-B980-BB87F8307A8D}"/>
+    <hyperlink ref="R249" r:id="rId9" xr:uid="{82FBBAAC-C428-2C46-B31C-FB5C34C111B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56571B-D01C-A24E-959D-95D0446D4957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD49087-44B1-2F44-8814-A6E0D7A85C1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="502">
   <si>
     <t>tube_number</t>
   </si>
@@ -1529,6 +1529,15 @@
   </si>
   <si>
     <t>transcriptome_ID</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>pooled transcriptome - combined cold and ambient, infected and uninfected Day 26 (https://grace-ac.github.io/Pooled-sample-handed-toNWGC/)</t>
+  </si>
+  <si>
+    <t>https://robertslab.github.io/sams-notebook/2019/05/21/Sample-Submission-Tanner-Crab-Infected-vs-Uninfected-RNAseq.html</t>
   </si>
 </sst>
 </file>
@@ -1921,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:U402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I374" workbookViewId="0">
+      <selection activeCell="P393" sqref="P393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1936,7 +1945,8 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="16" width="14.5" customWidth="1"/>
+    <col min="11" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9975,6 +9985,15 @@
       <c r="N171" t="s">
         <v>397</v>
       </c>
+      <c r="O171" t="s">
+        <v>499</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>500</v>
+      </c>
       <c r="R171" t="s">
         <v>353</v>
       </c>
@@ -10119,6 +10138,15 @@
       <c r="N174" t="s">
         <v>397</v>
       </c>
+      <c r="O174" t="s">
+        <v>499</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>500</v>
+      </c>
       <c r="R174" t="s">
         <v>353</v>
       </c>
@@ -10167,6 +10195,15 @@
       <c r="N175" t="s">
         <v>397</v>
       </c>
+      <c r="O175" t="s">
+        <v>499</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>500</v>
+      </c>
       <c r="R175" t="s">
         <v>353</v>
       </c>
@@ -10263,6 +10300,15 @@
       <c r="N177" t="s">
         <v>397</v>
       </c>
+      <c r="O177" t="s">
+        <v>499</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>500</v>
+      </c>
       <c r="R177" t="s">
         <v>353</v>
       </c>
@@ -10311,6 +10357,15 @@
       <c r="N178" t="s">
         <v>397</v>
       </c>
+      <c r="O178" t="s">
+        <v>499</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>500</v>
+      </c>
       <c r="R178" t="s">
         <v>353</v>
       </c>
@@ -10407,6 +10462,15 @@
       <c r="N180" t="s">
         <v>397</v>
       </c>
+      <c r="O180" t="s">
+        <v>499</v>
+      </c>
+      <c r="P180">
+        <v>1</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>500</v>
+      </c>
       <c r="R180" t="s">
         <v>353</v>
       </c>
@@ -10455,6 +10519,15 @@
       <c r="N181" t="s">
         <v>397</v>
       </c>
+      <c r="O181" t="s">
+        <v>499</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>500</v>
+      </c>
       <c r="R181" t="s">
         <v>353</v>
       </c>
@@ -10503,6 +10576,15 @@
       <c r="N182" t="s">
         <v>397</v>
       </c>
+      <c r="O182" t="s">
+        <v>499</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>500</v>
+      </c>
       <c r="R182" t="s">
         <v>353</v>
       </c>
@@ -10647,6 +10729,15 @@
       <c r="N185" t="s">
         <v>397</v>
       </c>
+      <c r="O185" t="s">
+        <v>499</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>500</v>
+      </c>
       <c r="R185" t="s">
         <v>353</v>
       </c>
@@ -10695,6 +10786,15 @@
       <c r="N186" t="s">
         <v>397</v>
       </c>
+      <c r="O186" t="s">
+        <v>499</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>500</v>
+      </c>
       <c r="R186" t="s">
         <v>353</v>
       </c>
@@ -10983,6 +11083,15 @@
       <c r="N192" t="s">
         <v>397</v>
       </c>
+      <c r="O192" t="s">
+        <v>499</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>500</v>
+      </c>
       <c r="R192" t="s">
         <v>353</v>
       </c>
@@ -11127,6 +11236,15 @@
       <c r="N195" t="s">
         <v>397</v>
       </c>
+      <c r="O195" t="s">
+        <v>499</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>500</v>
+      </c>
       <c r="R195" t="s">
         <v>353</v>
       </c>
@@ -11271,6 +11389,15 @@
       <c r="N198" t="s">
         <v>397</v>
       </c>
+      <c r="O198" t="s">
+        <v>499</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>500</v>
+      </c>
       <c r="R198" t="s">
         <v>353</v>
       </c>
@@ -11319,6 +11446,15 @@
       <c r="N199" t="s">
         <v>397</v>
       </c>
+      <c r="O199" t="s">
+        <v>499</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>500</v>
+      </c>
       <c r="R199" t="s">
         <v>353</v>
       </c>
@@ -11367,6 +11503,15 @@
       <c r="N200" t="s">
         <v>397</v>
       </c>
+      <c r="O200" t="s">
+        <v>499</v>
+      </c>
+      <c r="P200">
+        <v>1</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>500</v>
+      </c>
       <c r="R200" t="s">
         <v>353</v>
       </c>
@@ -17586,6 +17731,12 @@
       <c r="N337" t="s">
         <v>397</v>
       </c>
+      <c r="O337" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>501</v>
+      </c>
       <c r="R337" t="s">
         <v>481</v>
       </c>
@@ -17634,6 +17785,12 @@
       <c r="N338" t="s">
         <v>397</v>
       </c>
+      <c r="O338" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>501</v>
+      </c>
       <c r="R338" t="s">
         <v>481</v>
       </c>
@@ -17682,6 +17839,12 @@
       <c r="N339" t="s">
         <v>397</v>
       </c>
+      <c r="O339" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>501</v>
+      </c>
       <c r="R339" t="s">
         <v>481</v>
       </c>
@@ -17730,6 +17893,12 @@
       <c r="N340" t="s">
         <v>397</v>
       </c>
+      <c r="O340" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>501</v>
+      </c>
       <c r="R340" t="s">
         <v>481</v>
       </c>
@@ -17778,6 +17947,12 @@
       <c r="N341" t="s">
         <v>397</v>
       </c>
+      <c r="O341" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>501</v>
+      </c>
       <c r="R341" t="s">
         <v>481</v>
       </c>
@@ -17874,6 +18049,12 @@
       <c r="N343" t="s">
         <v>397</v>
       </c>
+      <c r="O343" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>501</v>
+      </c>
       <c r="R343" t="s">
         <v>481</v>
       </c>
@@ -17922,6 +18103,12 @@
       <c r="N344" t="s">
         <v>397</v>
       </c>
+      <c r="O344" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>501</v>
+      </c>
       <c r="R344" t="s">
         <v>481</v>
       </c>
@@ -17970,6 +18157,12 @@
       <c r="N345" t="s">
         <v>397</v>
       </c>
+      <c r="O345" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>501</v>
+      </c>
       <c r="R345" t="s">
         <v>481</v>
       </c>
@@ -18018,6 +18211,12 @@
       <c r="N346" t="s">
         <v>397</v>
       </c>
+      <c r="O346" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>501</v>
+      </c>
       <c r="R346" t="s">
         <v>481</v>
       </c>
@@ -18066,6 +18265,12 @@
       <c r="N347" t="s">
         <v>397</v>
       </c>
+      <c r="O347" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>501</v>
+      </c>
       <c r="R347" t="s">
         <v>481</v>
       </c>
@@ -18114,6 +18319,12 @@
       <c r="N348" t="s">
         <v>397</v>
       </c>
+      <c r="O348" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>501</v>
+      </c>
       <c r="R348" t="s">
         <v>481</v>
       </c>
@@ -18162,6 +18373,12 @@
       <c r="N349" t="s">
         <v>397</v>
       </c>
+      <c r="O349" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>501</v>
+      </c>
       <c r="R349" t="s">
         <v>481</v>
       </c>
@@ -18210,6 +18427,12 @@
       <c r="N350" t="s">
         <v>397</v>
       </c>
+      <c r="O350" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>501</v>
+      </c>
       <c r="R350" t="s">
         <v>481</v>
       </c>
@@ -18258,6 +18481,12 @@
       <c r="N351" t="s">
         <v>397</v>
       </c>
+      <c r="O351" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>501</v>
+      </c>
       <c r="R351" t="s">
         <v>481</v>
       </c>
@@ -18306,6 +18535,12 @@
       <c r="N352" t="s">
         <v>397</v>
       </c>
+      <c r="O352" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>501</v>
+      </c>
       <c r="R352" t="s">
         <v>481</v>
       </c>
@@ -18354,6 +18589,12 @@
       <c r="N353" t="s">
         <v>397</v>
       </c>
+      <c r="O353" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>501</v>
+      </c>
       <c r="R353" t="s">
         <v>481</v>
       </c>
@@ -18402,6 +18643,12 @@
       <c r="N354" t="s">
         <v>397</v>
       </c>
+      <c r="O354" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>501</v>
+      </c>
       <c r="R354" t="s">
         <v>481</v>
       </c>
@@ -18450,6 +18697,12 @@
       <c r="N355" t="s">
         <v>397</v>
       </c>
+      <c r="O355" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>501</v>
+      </c>
       <c r="R355" t="s">
         <v>481</v>
       </c>
@@ -18498,6 +18751,12 @@
       <c r="N356" t="s">
         <v>397</v>
       </c>
+      <c r="O356" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>501</v>
+      </c>
       <c r="R356" t="s">
         <v>481</v>
       </c>
@@ -18546,6 +18805,12 @@
       <c r="N357" t="s">
         <v>397</v>
       </c>
+      <c r="O357" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>501</v>
+      </c>
       <c r="R357" t="s">
         <v>481</v>
       </c>
@@ -18594,6 +18859,12 @@
       <c r="N358" t="s">
         <v>397</v>
       </c>
+      <c r="O358" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>501</v>
+      </c>
       <c r="R358" t="s">
         <v>481</v>
       </c>
@@ -18642,6 +18913,12 @@
       <c r="N359" t="s">
         <v>397</v>
       </c>
+      <c r="O359" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>501</v>
+      </c>
       <c r="R359" t="s">
         <v>481</v>
       </c>
@@ -18690,6 +18967,12 @@
       <c r="N360" t="s">
         <v>397</v>
       </c>
+      <c r="O360" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>501</v>
+      </c>
       <c r="R360" t="s">
         <v>481</v>
       </c>
@@ -18738,6 +19021,12 @@
       <c r="N361" t="s">
         <v>397</v>
       </c>
+      <c r="O361" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>501</v>
+      </c>
       <c r="R361" t="s">
         <v>481</v>
       </c>
@@ -18786,6 +19075,12 @@
       <c r="N362" t="s">
         <v>397</v>
       </c>
+      <c r="O362" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>501</v>
+      </c>
       <c r="R362" t="s">
         <v>481</v>
       </c>
@@ -18834,6 +19129,12 @@
       <c r="N363" t="s">
         <v>397</v>
       </c>
+      <c r="O363" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>501</v>
+      </c>
       <c r="R363" t="s">
         <v>481</v>
       </c>
@@ -18882,6 +19183,12 @@
       <c r="N364" t="s">
         <v>397</v>
       </c>
+      <c r="O364" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>501</v>
+      </c>
       <c r="R364" t="s">
         <v>481</v>
       </c>
@@ -18930,6 +19237,12 @@
       <c r="N365" t="s">
         <v>397</v>
       </c>
+      <c r="O365" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>501</v>
+      </c>
       <c r="R365" t="s">
         <v>481</v>
       </c>
@@ -18978,6 +19291,12 @@
       <c r="N366" t="s">
         <v>397</v>
       </c>
+      <c r="O366" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>501</v>
+      </c>
       <c r="R366" t="s">
         <v>481</v>
       </c>
@@ -19026,6 +19345,12 @@
       <c r="N367" t="s">
         <v>397</v>
       </c>
+      <c r="O367" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>501</v>
+      </c>
       <c r="R367" t="s">
         <v>481</v>
       </c>
@@ -19074,6 +19399,12 @@
       <c r="N368" t="s">
         <v>397</v>
       </c>
+      <c r="O368" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>501</v>
+      </c>
       <c r="R368" t="s">
         <v>481</v>
       </c>
@@ -19122,6 +19453,12 @@
       <c r="N369" t="s">
         <v>397</v>
       </c>
+      <c r="O369" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>501</v>
+      </c>
       <c r="R369" t="s">
         <v>481</v>
       </c>
@@ -19170,6 +19507,12 @@
       <c r="N370" t="s">
         <v>397</v>
       </c>
+      <c r="O370" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>501</v>
+      </c>
       <c r="R370" t="s">
         <v>481</v>
       </c>
@@ -19218,6 +19561,12 @@
       <c r="N371" t="s">
         <v>397</v>
       </c>
+      <c r="O371" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>501</v>
+      </c>
       <c r="R371" t="s">
         <v>481</v>
       </c>
@@ -19266,6 +19615,12 @@
       <c r="N372" t="s">
         <v>397</v>
       </c>
+      <c r="O372" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>501</v>
+      </c>
       <c r="R372" t="s">
         <v>481</v>
       </c>
@@ -19314,6 +19669,12 @@
       <c r="N373" t="s">
         <v>397</v>
       </c>
+      <c r="O373" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>501</v>
+      </c>
       <c r="R373" t="s">
         <v>481</v>
       </c>
@@ -19362,6 +19723,12 @@
       <c r="N374" t="s">
         <v>397</v>
       </c>
+      <c r="O374" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>501</v>
+      </c>
       <c r="R374" t="s">
         <v>481</v>
       </c>
@@ -19410,6 +19777,12 @@
       <c r="N375" t="s">
         <v>397</v>
       </c>
+      <c r="O375" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>501</v>
+      </c>
       <c r="R375" t="s">
         <v>481</v>
       </c>
@@ -19458,6 +19831,12 @@
       <c r="N376" t="s">
         <v>397</v>
       </c>
+      <c r="O376" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>501</v>
+      </c>
       <c r="R376" t="s">
         <v>481</v>
       </c>
@@ -19506,6 +19885,12 @@
       <c r="N377" t="s">
         <v>397</v>
       </c>
+      <c r="O377" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>501</v>
+      </c>
       <c r="R377" t="s">
         <v>481</v>
       </c>
@@ -19554,6 +19939,12 @@
       <c r="N378" t="s">
         <v>397</v>
       </c>
+      <c r="O378" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>501</v>
+      </c>
       <c r="R378" t="s">
         <v>481</v>
       </c>
@@ -19602,6 +19993,12 @@
       <c r="N379" t="s">
         <v>397</v>
       </c>
+      <c r="O379" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>501</v>
+      </c>
       <c r="R379" t="s">
         <v>481</v>
       </c>
@@ -19650,6 +20047,12 @@
       <c r="N380" t="s">
         <v>397</v>
       </c>
+      <c r="O380" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>501</v>
+      </c>
       <c r="R380" t="s">
         <v>481</v>
       </c>
@@ -19698,6 +20101,12 @@
       <c r="N381" t="s">
         <v>397</v>
       </c>
+      <c r="O381" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>501</v>
+      </c>
       <c r="R381" t="s">
         <v>481</v>
       </c>
@@ -19794,6 +20203,12 @@
       <c r="N383" t="s">
         <v>397</v>
       </c>
+      <c r="O383" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>501</v>
+      </c>
       <c r="R383" t="s">
         <v>481</v>
       </c>
@@ -19842,6 +20257,12 @@
       <c r="N384" t="s">
         <v>397</v>
       </c>
+      <c r="O384" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>501</v>
+      </c>
       <c r="R384" t="s">
         <v>481</v>
       </c>
@@ -19890,6 +20311,12 @@
       <c r="N385" t="s">
         <v>397</v>
       </c>
+      <c r="O385" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>501</v>
+      </c>
       <c r="R385" t="s">
         <v>481</v>
       </c>
@@ -19938,6 +20365,12 @@
       <c r="N386" t="s">
         <v>397</v>
       </c>
+      <c r="O386" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>501</v>
+      </c>
       <c r="R386" t="s">
         <v>481</v>
       </c>
@@ -19986,6 +20419,12 @@
       <c r="N387" t="s">
         <v>397</v>
       </c>
+      <c r="O387" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>501</v>
+      </c>
       <c r="R387" t="s">
         <v>481</v>
       </c>
@@ -20034,6 +20473,12 @@
       <c r="N388" t="s">
         <v>397</v>
       </c>
+      <c r="O388" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>501</v>
+      </c>
       <c r="R388" t="s">
         <v>481</v>
       </c>
@@ -20082,6 +20527,12 @@
       <c r="N389" t="s">
         <v>397</v>
       </c>
+      <c r="O389" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>501</v>
+      </c>
       <c r="R389" t="s">
         <v>481</v>
       </c>
@@ -20130,6 +20581,12 @@
       <c r="N390" t="s">
         <v>397</v>
       </c>
+      <c r="O390" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>501</v>
+      </c>
       <c r="R390" t="s">
         <v>481</v>
       </c>
@@ -20178,6 +20635,12 @@
       <c r="N391" t="s">
         <v>397</v>
       </c>
+      <c r="O391" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>501</v>
+      </c>
       <c r="R391" t="s">
         <v>481</v>
       </c>
@@ -20226,6 +20689,12 @@
       <c r="N392" t="s">
         <v>397</v>
       </c>
+      <c r="O392" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>501</v>
+      </c>
       <c r="R392" t="s">
         <v>481</v>
       </c>
@@ -20274,6 +20743,12 @@
       <c r="N393" t="s">
         <v>397</v>
       </c>
+      <c r="O393" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>501</v>
+      </c>
       <c r="R393" t="s">
         <v>481</v>
       </c>
@@ -20322,6 +20797,12 @@
       <c r="N394" t="s">
         <v>397</v>
       </c>
+      <c r="O394" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>501</v>
+      </c>
       <c r="R394" t="s">
         <v>481</v>
       </c>
@@ -20370,6 +20851,12 @@
       <c r="N395" t="s">
         <v>397</v>
       </c>
+      <c r="O395" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>501</v>
+      </c>
       <c r="R395" t="s">
         <v>481</v>
       </c>
@@ -20418,6 +20905,12 @@
       <c r="N396" t="s">
         <v>397</v>
       </c>
+      <c r="O396" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>501</v>
+      </c>
       <c r="R396" t="s">
         <v>481</v>
       </c>
@@ -20466,6 +20959,12 @@
       <c r="N397" t="s">
         <v>397</v>
       </c>
+      <c r="O397" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>501</v>
+      </c>
       <c r="R397" t="s">
         <v>481</v>
       </c>
@@ -20514,6 +21013,12 @@
       <c r="N398" t="s">
         <v>397</v>
       </c>
+      <c r="O398" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>501</v>
+      </c>
       <c r="R398" t="s">
         <v>481</v>
       </c>
@@ -20562,6 +21067,12 @@
       <c r="N399" t="s">
         <v>397</v>
       </c>
+      <c r="O399" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>501</v>
+      </c>
       <c r="R399" t="s">
         <v>481</v>
       </c>
@@ -20610,6 +21121,12 @@
       <c r="N400" t="s">
         <v>397</v>
       </c>
+      <c r="O400" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>501</v>
+      </c>
       <c r="R400" t="s">
         <v>481</v>
       </c>
@@ -20658,6 +21175,12 @@
       <c r="N401" t="s">
         <v>397</v>
       </c>
+      <c r="O401" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>501</v>
+      </c>
       <c r="R401" t="s">
         <v>481</v>
       </c>
@@ -20705,6 +21228,12 @@
       </c>
       <c r="N402" t="s">
         <v>397</v>
+      </c>
+      <c r="O402" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>501</v>
       </c>
       <c r="R402" t="s">
         <v>481</v>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD49087-44B1-2F44-8814-A6E0D7A85C1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A842405-F4F9-D147-B395-7F8F0A9D710F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="503">
   <si>
     <t>tube_number</t>
   </si>
@@ -1538,6 +1538,9 @@
   </si>
   <si>
     <t>https://robertslab.github.io/sams-notebook/2019/05/21/Sample-Submission-Tanner-Crab-Infected-vs-Uninfected-RNAseq.html</t>
+  </si>
+  <si>
+    <t>didn't save qubit results file</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:U402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I374" workbookViewId="0">
-      <selection activeCell="P393" sqref="P393"/>
+    <sheetView tabSelected="1" topLeftCell="I156" workbookViewId="0">
+      <selection activeCell="Q165" sqref="Q165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9589,6 +9592,9 @@
       <c r="N162" t="s">
         <v>397</v>
       </c>
+      <c r="Q162" t="s">
+        <v>502</v>
+      </c>
       <c r="R162" t="s">
         <v>366</v>
       </c>
@@ -9625,6 +9631,9 @@
       <c r="N163" t="s">
         <v>397</v>
       </c>
+      <c r="Q163" t="s">
+        <v>502</v>
+      </c>
       <c r="R163" t="s">
         <v>366</v>
       </c>
@@ -9661,6 +9670,9 @@
       <c r="N164" t="s">
         <v>397</v>
       </c>
+      <c r="Q164" t="s">
+        <v>502</v>
+      </c>
       <c r="R164" t="s">
         <v>366</v>
       </c>
@@ -9696,6 +9708,9 @@
       </c>
       <c r="N165" t="s">
         <v>397</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>502</v>
       </c>
       <c r="R165" t="s">
         <v>366</v>

--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A842405-F4F9-D147-B395-7F8F0A9D710F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D0DDB-CAFF-084C-8F61-0BEC7AA2FAAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
   <sheets>
     <sheet name="qubit-iso" sheetId="1" r:id="rId1"/>
-    <sheet name="seq-samps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1606,12 +1605,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1933,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:U402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I156" workbookViewId="0">
-      <selection activeCell="Q165" sqref="Q165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P165" sqref="P165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2019,7 +2017,7 @@
       <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>43159.749305555553</v>
       </c>
       <c r="E2">
@@ -2067,7 +2065,7 @@
       <c r="C3" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>43159.75</v>
       </c>
       <c r="E3" t="s">
@@ -2115,7 +2113,7 @@
       <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>43185.559027777781</v>
       </c>
       <c r="E4">
@@ -2163,7 +2161,7 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>43185.559027777781</v>
       </c>
       <c r="E5">
@@ -2211,7 +2209,7 @@
       <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>43185.565972222219</v>
       </c>
       <c r="E6">
@@ -2259,7 +2257,7 @@
       <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>43185.565972222219</v>
       </c>
       <c r="E7">
@@ -2307,7 +2305,7 @@
       <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>43186.630555555559</v>
       </c>
       <c r="E8">
@@ -2355,7 +2353,7 @@
       <c r="C9" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>43186.630555555559</v>
       </c>
       <c r="E9">
@@ -2403,7 +2401,7 @@
       <c r="C10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>43187.594444444447</v>
       </c>
       <c r="E10">
@@ -2451,7 +2449,7 @@
       <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>43187.595138888886</v>
       </c>
       <c r="E11">
@@ -2499,7 +2497,7 @@
       <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>43193.630555555559</v>
       </c>
       <c r="E12">
@@ -2544,7 +2542,7 @@
       <c r="C13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>43193.630555555559</v>
       </c>
       <c r="E13">
@@ -2589,7 +2587,7 @@
       <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>43194.581944444442</v>
       </c>
       <c r="E14">
@@ -2623,7 +2621,7 @@
       <c r="N14" t="s">
         <v>397</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2637,7 +2635,7 @@
       <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>43194.581944444442</v>
       </c>
       <c r="E15">
@@ -2685,7 +2683,7 @@
       <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>43196.568055555559</v>
       </c>
       <c r="E16">
@@ -2733,7 +2731,7 @@
       <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>43196.568055555559</v>
       </c>
       <c r="E17">
@@ -2781,7 +2779,7 @@
       <c r="C18" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>43196.568055555559</v>
       </c>
       <c r="E18">
@@ -2829,7 +2827,7 @@
       <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>43196.568749999999</v>
       </c>
       <c r="E19">
@@ -2877,7 +2875,7 @@
       <c r="C20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>43196.568749999999</v>
       </c>
       <c r="E20">
@@ -2925,7 +2923,7 @@
       <c r="C21" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>43196.568749999999</v>
       </c>
       <c r="E21">
@@ -2973,7 +2971,7 @@
       <c r="C22" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>43196.568749999999</v>
       </c>
       <c r="E22">
@@ -3021,7 +3019,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>43196.584722222222</v>
       </c>
       <c r="E23">
@@ -3069,7 +3067,7 @@
       <c r="C24" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>43196.585416666669</v>
       </c>
       <c r="E24">
@@ -3117,7 +3115,7 @@
       <c r="C25" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>43196.585416666669</v>
       </c>
       <c r="E25">
@@ -3165,7 +3163,7 @@
       <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>43196.585416666669</v>
       </c>
       <c r="E26">
@@ -3213,7 +3211,7 @@
       <c r="C27" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>43196.585416666669</v>
       </c>
       <c r="E27">
@@ -3261,7 +3259,7 @@
       <c r="C28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>43196.585416666669</v>
       </c>
       <c r="E28">
@@ -3309,7 +3307,7 @@
       <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>43196.586111111108</v>
       </c>
       <c r="E29">
@@ -3357,7 +3355,7 @@
       <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>43199.554166666669</v>
       </c>
       <c r="E30">
@@ -3405,7 +3403,7 @@
       <c r="C31" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>43199.554861111108</v>
       </c>
       <c r="E31">
@@ -3453,7 +3451,7 @@
       <c r="C32" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>43199.554861111108</v>
       </c>
       <c r="E32">
@@ -3501,7 +3499,7 @@
       <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>43199.554861111108</v>
       </c>
       <c r="E33">
@@ -3549,7 +3547,7 @@
       <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>43199.554861111108</v>
       </c>
       <c r="E34">
@@ -3597,7 +3595,7 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>43199.555555555555</v>
       </c>
       <c r="E35">
@@ -3645,7 +3643,7 @@
       <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>43199.555555555555</v>
       </c>
       <c r="E36">
@@ -3693,7 +3691,7 @@
       <c r="C37" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>43199.567361111112</v>
       </c>
       <c r="E37">
@@ -3741,7 +3739,7 @@
       <c r="C38" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>43199.567361111112</v>
       </c>
       <c r="E38">
@@ -3789,7 +3787,7 @@
       <c r="C39" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>43199.567361111112</v>
       </c>
       <c r="E39">
@@ -3837,7 +3835,7 @@
       <c r="C40" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>43199.567361111112</v>
       </c>
       <c r="E40">
@@ -3885,7 +3883,7 @@
       <c r="C41" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>43199.568055555559</v>
       </c>
       <c r="E41">
@@ -3933,7 +3931,7 @@
       <c r="C42" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>43199.568055555559</v>
       </c>
       <c r="E42">
@@ -3981,7 +3979,7 @@
       <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>43199.568055555559</v>
       </c>
       <c r="E43">
@@ -4029,7 +4027,7 @@
       <c r="C44" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>43200.615972222222</v>
       </c>
       <c r="E44">
@@ -4077,7 +4075,7 @@
       <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>43200.615972222222</v>
       </c>
       <c r="E45">
@@ -4125,7 +4123,7 @@
       <c r="C46" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>43200.723611111112</v>
       </c>
       <c r="E46">
@@ -4173,7 +4171,7 @@
       <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>43200.723611111112</v>
       </c>
       <c r="E47">
@@ -4221,7 +4219,7 @@
       <c r="C48" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>43200.724305555559</v>
       </c>
       <c r="E48">
@@ -4269,7 +4267,7 @@
       <c r="C49" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>43200.724305555559</v>
       </c>
       <c r="E49">
@@ -4317,7 +4315,7 @@
       <c r="C50" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>43200.724305555559</v>
       </c>
       <c r="E50">
@@ -4365,7 +4363,7 @@
       <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>43200.724305555559</v>
       </c>
       <c r="E51">
@@ -4413,7 +4411,7 @@
       <c r="C52" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>43200.724305555559</v>
       </c>
       <c r="E52">
@@ -4461,7 +4459,7 @@
       <c r="C53" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>43210.595833333333</v>
       </c>
       <c r="E53">
@@ -4495,7 +4493,7 @@
       <c r="N53" t="s">
         <v>397</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="R53" s="7" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4509,7 +4507,7 @@
       <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>43210.595833333333</v>
       </c>
       <c r="E54">
@@ -4557,7 +4555,7 @@
       <c r="C55" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E55">
@@ -4605,7 +4603,7 @@
       <c r="C56" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E56">
@@ -4653,7 +4651,7 @@
       <c r="C57" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E57">
@@ -4701,7 +4699,7 @@
       <c r="C58" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E58">
@@ -4749,7 +4747,7 @@
       <c r="C59" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E59">
@@ -4797,7 +4795,7 @@
       <c r="C60" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E60">
@@ -4845,7 +4843,7 @@
       <c r="C61" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>43210.604166666664</v>
       </c>
       <c r="E61">
@@ -4893,7 +4891,7 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>43213.736111111109</v>
       </c>
       <c r="E62">
@@ -4938,7 +4936,7 @@
       <c r="C63" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>43213.736111111109</v>
       </c>
       <c r="E63">
@@ -4983,7 +4981,7 @@
       <c r="C64" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>43213.736111111109</v>
       </c>
       <c r="E64">
@@ -5028,7 +5026,7 @@
       <c r="C65" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>43213.736805555556</v>
       </c>
       <c r="E65">
@@ -5073,7 +5071,7 @@
       <c r="C66" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>43213.736805555556</v>
       </c>
       <c r="E66">
@@ -5118,7 +5116,7 @@
       <c r="C67" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>43213.736805555556</v>
       </c>
       <c r="E67">
@@ -5163,7 +5161,7 @@
       <c r="C68" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>43213.736805555556</v>
       </c>
       <c r="E68">
@@ -5208,7 +5206,7 @@
       <c r="C69" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>43213.750694444447</v>
       </c>
       <c r="E69">
@@ -5253,7 +5251,7 @@
       <c r="C70" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E70">
@@ -5298,7 +5296,7 @@
       <c r="C71" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E71">
@@ -5343,7 +5341,7 @@
       <c r="C72" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E72">
@@ -5388,7 +5386,7 @@
       <c r="C73" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E73">
@@ -5433,7 +5431,7 @@
       <c r="C74" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E74">
@@ -5478,7 +5476,7 @@
       <c r="C75" t="s">
         <v>185</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>43213.751388888886</v>
       </c>
       <c r="E75">
@@ -5523,7 +5521,7 @@
       <c r="C76" t="s">
         <v>193</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>43214.605555555558</v>
       </c>
       <c r="E76">
@@ -5557,7 +5555,7 @@
       <c r="N76" t="s">
         <v>397</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="7" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5571,7 +5569,7 @@
       <c r="C77" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>43214.605555555558</v>
       </c>
       <c r="E77">
@@ -5619,7 +5617,7 @@
       <c r="C78" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>43214.618055555555</v>
       </c>
       <c r="E78">
@@ -5667,7 +5665,7 @@
       <c r="C79" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E79">
@@ -5715,7 +5713,7 @@
       <c r="C80" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E80">
@@ -5763,7 +5761,7 @@
       <c r="C81" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E81">
@@ -5811,7 +5809,7 @@
       <c r="C82" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E82">
@@ -5859,7 +5857,7 @@
       <c r="C83" t="s">
         <v>198</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E83">
@@ -5907,7 +5905,7 @@
       <c r="C84" t="s">
         <v>195</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>43214.618750000001</v>
       </c>
       <c r="E84">
@@ -5955,7 +5953,7 @@
       <c r="C85" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>43215.597916666666</v>
       </c>
       <c r="E85">
@@ -5989,7 +5987,7 @@
       <c r="N85" t="s">
         <v>397</v>
       </c>
-      <c r="R85" s="8" t="s">
+      <c r="R85" s="7" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5997,7 +5995,7 @@
       <c r="B86" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>43216</v>
       </c>
       <c r="E86" t="s">
@@ -6036,7 +6034,7 @@
       <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>43216</v>
       </c>
       <c r="E87" t="s">
@@ -6075,7 +6073,7 @@
       <c r="B88" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>43216</v>
       </c>
       <c r="E88" t="s">
@@ -6114,7 +6112,7 @@
       <c r="B89" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>43216</v>
       </c>
       <c r="E89" t="s">
@@ -6153,7 +6151,7 @@
       <c r="B90" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>43216</v>
       </c>
       <c r="E90" t="s">
@@ -6192,7 +6190,7 @@
       <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>43216</v>
       </c>
       <c r="E91" t="s">
@@ -6231,7 +6229,7 @@
       <c r="B92" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>43216</v>
       </c>
       <c r="E92" t="s">
@@ -6270,7 +6268,7 @@
       <c r="B93" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>43216</v>
       </c>
       <c r="E93" t="s">
@@ -6309,7 +6307,7 @@
       <c r="B94" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>43216</v>
       </c>
       <c r="E94" t="s">
@@ -6354,7 +6352,7 @@
       <c r="C95" t="s">
         <v>212</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>43218.654166666667</v>
       </c>
       <c r="E95">
@@ -6388,7 +6386,7 @@
       <c r="N95" t="s">
         <v>397</v>
       </c>
-      <c r="R95" s="8" t="s">
+      <c r="R95" s="7" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6402,7 +6400,7 @@
       <c r="C96" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>43218.654166666667</v>
       </c>
       <c r="E96">
@@ -6450,7 +6448,7 @@
       <c r="C97" t="s">
         <v>213</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>43218.654166666667</v>
       </c>
       <c r="E97">
@@ -6498,7 +6496,7 @@
       <c r="C98" t="s">
         <v>209</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>43218.654166666667</v>
       </c>
       <c r="E98">
@@ -6546,7 +6544,7 @@
       <c r="C99" t="s">
         <v>210</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>43218.654166666667</v>
       </c>
       <c r="E99">
@@ -6594,7 +6592,7 @@
       <c r="C100" t="s">
         <v>208</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>43218.654861111114</v>
       </c>
       <c r="E100">
@@ -6642,7 +6640,7 @@
       <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>43218.654861111114</v>
       </c>
       <c r="E101">
@@ -6690,7 +6688,7 @@
       <c r="C102" t="s">
         <v>206</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>43218.654861111114</v>
       </c>
       <c r="E102">
@@ -6738,7 +6736,7 @@
       <c r="C103" t="s">
         <v>205</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>43218.654861111114</v>
       </c>
       <c r="E103">
@@ -6786,7 +6784,7 @@
       <c r="C104" t="s">
         <v>223</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E104">
@@ -6834,7 +6832,7 @@
       <c r="C105" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E105">
@@ -6882,7 +6880,7 @@
       <c r="C106" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E106">
@@ -6930,7 +6928,7 @@
       <c r="C107" t="s">
         <v>220</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E107">
@@ -6978,7 +6976,7 @@
       <c r="C108" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E108">
@@ -7026,7 +7024,7 @@
       <c r="C109" t="s">
         <v>219</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>43219.748611111114</v>
       </c>
       <c r="E109">
@@ -7074,7 +7072,7 @@
       <c r="C110" t="s">
         <v>215</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>43219.749305555553</v>
       </c>
       <c r="E110">
@@ -7122,7 +7120,7 @@
       <c r="C111" t="s">
         <v>217</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>43219.749305555553</v>
       </c>
       <c r="E111">
@@ -7170,7 +7168,7 @@
       <c r="C112" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>43219.749305555553</v>
       </c>
       <c r="E112">
@@ -7218,7 +7216,7 @@
       <c r="C113" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>43221.602083333331</v>
       </c>
       <c r="E113">
@@ -7252,7 +7250,7 @@
       <c r="N113" t="s">
         <v>397</v>
       </c>
-      <c r="R113" s="8" t="s">
+      <c r="R113" s="7" t="s">
         <v>343</v>
       </c>
     </row>
@@ -7266,7 +7264,7 @@
       <c r="C114" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>43221.602083333331</v>
       </c>
       <c r="E114">
@@ -7314,7 +7312,7 @@
       <c r="C115" t="s">
         <v>231</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E115">
@@ -7362,7 +7360,7 @@
       <c r="C116" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E116">
@@ -7410,7 +7408,7 @@
       <c r="C117" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E117">
@@ -7458,7 +7456,7 @@
       <c r="C118" t="s">
         <v>229</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E118">
@@ -7506,7 +7504,7 @@
       <c r="C119" t="s">
         <v>226</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E119">
@@ -7554,7 +7552,7 @@
       <c r="C120" t="s">
         <v>227</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>43221.602777777778</v>
       </c>
       <c r="E120">
@@ -7602,7 +7600,7 @@
       <c r="C121" t="s">
         <v>225</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>43221.603472222225</v>
       </c>
       <c r="E121">
@@ -7650,7 +7648,7 @@
       <c r="C122" t="s">
         <v>250</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>43221.748611111114</v>
       </c>
       <c r="E122">
@@ -7698,7 +7696,7 @@
       <c r="C123" t="s">
         <v>249</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>43221.748611111114</v>
       </c>
       <c r="E123" t="s">
@@ -7746,7 +7744,7 @@
       <c r="C124" t="s">
         <v>248</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E124">
@@ -7794,7 +7792,7 @@
       <c r="C125" t="s">
         <v>247</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E125">
@@ -7842,7 +7840,7 @@
       <c r="C126" t="s">
         <v>245</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E126">
@@ -7890,7 +7888,7 @@
       <c r="C127" t="s">
         <v>246</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E127">
@@ -7938,7 +7936,7 @@
       <c r="C128" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E128">
@@ -7986,7 +7984,7 @@
       <c r="C129" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>43221.749305555553</v>
       </c>
       <c r="E129">
@@ -8034,7 +8032,7 @@
       <c r="C130" t="s">
         <v>242</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>43221.75</v>
       </c>
       <c r="E130">
@@ -8082,7 +8080,7 @@
       <c r="C131" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>43222.546527777777</v>
       </c>
       <c r="E131">
@@ -8130,7 +8128,7 @@
       <c r="C132" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>43222.547222222223</v>
       </c>
       <c r="E132">
@@ -8178,7 +8176,7 @@
       <c r="C133" t="s">
         <v>238</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>43222.547222222223</v>
       </c>
       <c r="E133">
@@ -8226,7 +8224,7 @@
       <c r="C134" t="s">
         <v>237</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>43222.547222222223</v>
       </c>
       <c r="E134">
@@ -8274,7 +8272,7 @@
       <c r="C135" t="s">
         <v>235</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>43222.547222222223</v>
       </c>
       <c r="E135">
@@ -8322,7 +8320,7 @@
       <c r="C136" t="s">
         <v>236</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>43222.547222222223</v>
       </c>
       <c r="E136">
@@ -8370,7 +8368,7 @@
       <c r="C137" t="s">
         <v>262</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>43243.620833333334</v>
       </c>
       <c r="E137">
@@ -8418,7 +8416,7 @@
       <c r="C138" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>43243.620833333334</v>
       </c>
       <c r="E138">
@@ -8466,7 +8464,7 @@
       <c r="C139" t="s">
         <v>260</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E139">
@@ -8514,7 +8512,7 @@
       <c r="C140" t="s">
         <v>258</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E140">
@@ -8562,7 +8560,7 @@
       <c r="C141" t="s">
         <v>256</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E141">
@@ -8610,7 +8608,7 @@
       <c r="C142" t="s">
         <v>259</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E142">
@@ -8658,7 +8656,7 @@
       <c r="C143" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E143">
@@ -8706,7 +8704,7 @@
       <c r="C144" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>43243.621527777781</v>
       </c>
       <c r="E144">
@@ -8754,7 +8752,7 @@
       <c r="C145" t="s">
         <v>271</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>43244.576388888891</v>
       </c>
       <c r="E145">
@@ -8802,7 +8800,7 @@
       <c r="C146" t="s">
         <v>270</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>43244.576388888891</v>
       </c>
       <c r="E146">
@@ -8850,7 +8848,7 @@
       <c r="C147" t="s">
         <v>267</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E147">
@@ -8898,7 +8896,7 @@
       <c r="C148" t="s">
         <v>269</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E148">
@@ -8946,7 +8944,7 @@
       <c r="C149" t="s">
         <v>265</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E149">
@@ -8994,7 +8992,7 @@
       <c r="C150" t="s">
         <v>266</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E150">
@@ -9042,7 +9040,7 @@
       <c r="C151" t="s">
         <v>268</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E151">
@@ -9090,7 +9088,7 @@
       <c r="C152" t="s">
         <v>264</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>43244.57708333333</v>
       </c>
       <c r="E152">
@@ -9138,7 +9136,7 @@
       <c r="C153" t="s">
         <v>280</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E153">
@@ -9186,7 +9184,7 @@
       <c r="C154" t="s">
         <v>280</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E154">
@@ -9234,7 +9232,7 @@
       <c r="C155" t="s">
         <v>278</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E155">
@@ -9282,7 +9280,7 @@
       <c r="C156" t="s">
         <v>276</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E156">
@@ -9330,7 +9328,7 @@
       <c r="C157" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E157">
@@ -9378,7 +9376,7 @@
       <c r="C158" t="s">
         <v>279</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>43244.740277777775</v>
       </c>
       <c r="E158">
@@ -9426,7 +9424,7 @@
       <c r="C159" t="s">
         <v>274</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>43244.740972222222</v>
       </c>
       <c r="E159">
@@ -9474,7 +9472,7 @@
       <c r="C160" t="s">
         <v>275</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>43244.740972222222</v>
       </c>
       <c r="E160">
@@ -9522,7 +9520,7 @@
       <c r="C161" t="s">
         <v>273</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>43244.740972222222</v>
       </c>
       <c r="E161">
@@ -9564,7 +9562,7 @@
       <c r="B162" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>43281</v>
       </c>
       <c r="E162" t="s">
@@ -9603,7 +9601,7 @@
       <c r="B163" t="s">
         <v>2</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>43281</v>
       </c>
       <c r="E163" t="s">
@@ -9642,7 +9640,7 @@
       <c r="B164" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>43281</v>
       </c>
       <c r="E164" t="s">
@@ -9681,7 +9679,7 @@
       <c r="B165" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>43281</v>
       </c>
       <c r="E165" t="s">
@@ -9726,7 +9724,7 @@
       <c r="C166" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="5">
         <v>43312.548703703702</v>
       </c>
       <c r="E166" s="2">
@@ -9760,7 +9758,7 @@
       <c r="N166" t="s">
         <v>397</v>
       </c>
-      <c r="R166" s="8" t="s">
+      <c r="R166" s="7" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9774,7 +9772,7 @@
       <c r="C167" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="5">
         <v>43312.548784722225</v>
       </c>
       <c r="E167" s="2">
@@ -9822,7 +9820,7 @@
       <c r="C168" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="5">
         <v>43312.54886574074</v>
       </c>
       <c r="E168" s="2">
@@ -9870,7 +9868,7 @@
       <c r="C169" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="5">
         <v>43312.548946759256</v>
       </c>
       <c r="E169" s="2">
@@ -9918,7 +9916,7 @@
       <c r="C170" t="s">
         <v>282</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>43321.542361111111</v>
       </c>
       <c r="E170" t="s">
@@ -9966,7 +9964,7 @@
       <c r="C171" t="s">
         <v>283</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E171">
@@ -10023,7 +10021,7 @@
       <c r="C172" t="s">
         <v>284</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E172" t="s">
@@ -10071,7 +10069,7 @@
       <c r="C173" t="s">
         <v>285</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E173" t="s">
@@ -10119,7 +10117,7 @@
       <c r="C174" t="s">
         <v>286</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E174">
@@ -10176,7 +10174,7 @@
       <c r="C175" t="s">
         <v>287</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E175">
@@ -10233,7 +10231,7 @@
       <c r="C176" t="s">
         <v>288</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E176" t="s">
@@ -10281,7 +10279,7 @@
       <c r="C177" t="s">
         <v>289</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E177">
@@ -10338,7 +10336,7 @@
       <c r="C178" t="s">
         <v>290</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <v>43321.543055555558</v>
       </c>
       <c r="E178">
@@ -10395,7 +10393,7 @@
       <c r="C179" t="s">
         <v>291</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E179" t="s">
@@ -10443,7 +10441,7 @@
       <c r="C180" t="s">
         <v>292</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E180">
@@ -10500,7 +10498,7 @@
       <c r="C181" t="s">
         <v>293</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E181">
@@ -10557,7 +10555,7 @@
       <c r="C182" t="s">
         <v>294</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E182">
@@ -10614,7 +10612,7 @@
       <c r="C183" t="s">
         <v>295</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E183" t="s">
@@ -10662,7 +10660,7 @@
       <c r="C184" t="s">
         <v>296</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E184" t="s">
@@ -10710,7 +10708,7 @@
       <c r="C185" t="s">
         <v>297</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E185">
@@ -10767,7 +10765,7 @@
       <c r="C186" t="s">
         <v>298</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E186">
@@ -10824,7 +10822,7 @@
       <c r="C187" t="s">
         <v>299</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <v>43321.543749999997</v>
       </c>
       <c r="E187" t="s">
@@ -10872,7 +10870,7 @@
       <c r="C188" t="s">
         <v>300</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E188" t="s">
@@ -10920,7 +10918,7 @@
       <c r="C189" t="s">
         <v>301</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E189" t="s">
@@ -10968,7 +10966,7 @@
       <c r="C190" t="s">
         <v>302</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E190" t="s">
@@ -11016,7 +11014,7 @@
       <c r="C191" t="s">
         <v>303</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E191" t="s">
@@ -11064,7 +11062,7 @@
       <c r="C192" t="s">
         <v>304</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E192">
@@ -11121,7 +11119,7 @@
       <c r="C193" t="s">
         <v>305</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E193" t="s">
@@ -11169,7 +11167,7 @@
       <c r="C194" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <v>43321.544444444444</v>
       </c>
       <c r="E194" t="s">
@@ -11217,7 +11215,7 @@
       <c r="C195" t="s">
         <v>307</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E195">
@@ -11274,7 +11272,7 @@
       <c r="C196" t="s">
         <v>308</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E196" t="s">
@@ -11322,7 +11320,7 @@
       <c r="C197" t="s">
         <v>309</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E197" t="s">
@@ -11370,7 +11368,7 @@
       <c r="C198" t="s">
         <v>310</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E198">
@@ -11427,7 +11425,7 @@
       <c r="C199" t="s">
         <v>311</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E199">
@@ -11484,7 +11482,7 @@
       <c r="C200" t="s">
         <v>312</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E200">
@@ -11541,7 +11539,7 @@
       <c r="C201" t="s">
         <v>313</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E201" t="s">
@@ -11589,7 +11587,7 @@
       <c r="C202" t="s">
         <v>314</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>43321.545138888891</v>
       </c>
       <c r="E202" t="s">
@@ -11637,7 +11635,7 @@
       <c r="C203" t="s">
         <v>315</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E203" t="s">
@@ -11685,7 +11683,7 @@
       <c r="C204" t="s">
         <v>316</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E204" t="s">
@@ -11733,7 +11731,7 @@
       <c r="C205" t="s">
         <v>317</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E205" t="s">
@@ -11781,7 +11779,7 @@
       <c r="C206" t="s">
         <v>318</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E206" t="s">
@@ -11829,7 +11827,7 @@
       <c r="C207" t="s">
         <v>319</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E207" t="s">
@@ -11877,7 +11875,7 @@
       <c r="C208" t="s">
         <v>320</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E208" t="s">
@@ -11925,7 +11923,7 @@
       <c r="C209" t="s">
         <v>321</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>43321.54583333333</v>
       </c>
       <c r="E209" t="s">
@@ -11973,7 +11971,7 @@
       <c r="C210" t="s">
         <v>378</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>43378.584027777775</v>
       </c>
       <c r="E210" t="s">
@@ -12021,7 +12019,7 @@
       <c r="C211" t="s">
         <v>380</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>43378.584027777775</v>
       </c>
       <c r="E211">
@@ -12055,7 +12053,7 @@
       <c r="N211" t="s">
         <v>397</v>
       </c>
-      <c r="R211" s="8" t="s">
+      <c r="R211" s="7" t="s">
         <v>386</v>
       </c>
     </row>
@@ -12069,7 +12067,7 @@
       <c r="C212" t="s">
         <v>382</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>43378.584027777775</v>
       </c>
       <c r="E212">
@@ -12117,7 +12115,7 @@
       <c r="C213" t="s">
         <v>384</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>43378.584027777775</v>
       </c>
       <c r="E213">
@@ -12165,7 +12163,7 @@
       <c r="C214" t="s">
         <v>37</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>43383.756249999999</v>
       </c>
       <c r="E214" t="s">
@@ -12213,7 +12211,7 @@
       <c r="C215" t="s">
         <v>35</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>43383.756249999999</v>
       </c>
       <c r="E215">
@@ -12261,7 +12259,7 @@
       <c r="C216" t="s">
         <v>33</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>43383.756249999999</v>
       </c>
       <c r="E216">
@@ -12309,7 +12307,7 @@
       <c r="C217" t="s">
         <v>39</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>43383.756249999999</v>
       </c>
       <c r="E217" t="s">
@@ -12357,7 +12355,7 @@
       <c r="C218" t="s">
         <v>27</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>43383.756944444445</v>
       </c>
       <c r="E218">
@@ -12405,7 +12403,7 @@
       <c r="C219" t="s">
         <v>29</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>43383.756944444445</v>
       </c>
       <c r="E219">
@@ -12453,7 +12451,7 @@
       <c r="C220" t="s">
         <v>31</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>43383.756944444445</v>
       </c>
       <c r="E220">
@@ -12501,7 +12499,7 @@
       <c r="C221" t="s">
         <v>25</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>43383.756944444445</v>
       </c>
       <c r="E221">
@@ -12549,7 +12547,7 @@
       <c r="C222" t="s">
         <v>23</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>43383.757638888892</v>
       </c>
       <c r="E222">
@@ -12597,7 +12595,7 @@
       <c r="C223" t="s">
         <v>21</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>43383.757638888892</v>
       </c>
       <c r="E223" t="s">
@@ -12645,7 +12643,7 @@
       <c r="C224" t="s">
         <v>60</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E224" t="s">
@@ -12693,7 +12691,7 @@
       <c r="C225" t="s">
         <v>58</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E225">
@@ -12741,7 +12739,7 @@
       <c r="C226" t="s">
         <v>56</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E226" t="s">
@@ -12789,7 +12787,7 @@
       <c r="C227" t="s">
         <v>54</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E227">
@@ -12837,7 +12835,7 @@
       <c r="C228" t="s">
         <v>52</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E228" t="s">
@@ -12885,7 +12883,7 @@
       <c r="C229" t="s">
         <v>50</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>43392.556250000001</v>
       </c>
       <c r="E229">
@@ -12933,7 +12931,7 @@
       <c r="C230" t="s">
         <v>46</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>43392.556944444441</v>
       </c>
       <c r="E230">
@@ -12981,7 +12979,7 @@
       <c r="C231" t="s">
         <v>44</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>43392.556944444441</v>
       </c>
       <c r="E231">
@@ -13029,7 +13027,7 @@
       <c r="C232" t="s">
         <v>42</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>43392.556944444441</v>
       </c>
       <c r="E232">
@@ -13077,7 +13075,7 @@
       <c r="C233" t="s">
         <v>48</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>43392.556944444441</v>
       </c>
       <c r="E233">
@@ -13125,7 +13123,7 @@
       <c r="C234" t="s">
         <v>64</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>43404.74554398148</v>
       </c>
       <c r="E234">
@@ -13173,7 +13171,7 @@
       <c r="C235" t="s">
         <v>63</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>43404.745706018519</v>
       </c>
       <c r="E235">
@@ -13212,7 +13210,7 @@
       </c>
     </row>
     <row r="236" spans="1:18">
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>43404.745706018519</v>
       </c>
       <c r="I236" t="s">
@@ -13235,7 +13233,7 @@
       </c>
     </row>
     <row r="237" spans="1:18">
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>43404.745706018519</v>
       </c>
       <c r="I237" t="s">
@@ -13267,7 +13265,7 @@
       <c r="C238" t="s">
         <v>18</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>43425.792037037034</v>
       </c>
       <c r="E238">
@@ -13315,7 +13313,7 @@
       <c r="C239" t="s">
         <v>16</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>43425.792592592596</v>
       </c>
       <c r="E239">
@@ -13363,7 +13361,7 @@
       <c r="C240" t="s">
         <v>14</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>43425.79278935185</v>
       </c>
       <c r="E240">
@@ -13411,7 +13409,7 @@
       <c r="C241" t="s">
         <v>12</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>43425.792893518519</v>
       </c>
       <c r="E241">
@@ -13459,7 +13457,7 @@
       <c r="C242" t="s">
         <v>10</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>43425.793067129627</v>
       </c>
       <c r="E242">
@@ -13507,7 +13505,7 @@
       <c r="C243" t="s">
         <v>8</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>43425.793182870373</v>
       </c>
       <c r="E243">
@@ -13555,7 +13553,7 @@
       <c r="C244" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>43425.793298611112</v>
       </c>
       <c r="E244" t="s">
@@ -13603,7 +13601,7 @@
       <c r="C245" t="s">
         <v>3</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>43425.793425925927</v>
       </c>
       <c r="E245" t="s">
@@ -13642,7 +13640,7 @@
       </c>
     </row>
     <row r="246" spans="1:18">
-      <c r="D246" s="5">
+      <c r="D246" s="4">
         <v>43479</v>
       </c>
       <c r="I246" t="s">
@@ -13665,7 +13663,7 @@
       </c>
     </row>
     <row r="247" spans="1:18">
-      <c r="D247" s="5">
+      <c r="D247" s="4">
         <v>43479</v>
       </c>
       <c r="I247" t="s">
@@ -13688,7 +13686,7 @@
       </c>
     </row>
     <row r="248" spans="1:18">
-      <c r="D248" s="5">
+      <c r="D248" s="4">
         <v>43479</v>
       </c>
       <c r="I248" t="s">
@@ -13714,7 +13712,7 @@
       <c r="B249" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="4">
         <v>43482</v>
       </c>
       <c r="E249" t="s">
@@ -13742,7 +13740,7 @@
       <c r="N249" t="s">
         <v>397</v>
       </c>
-      <c r="R249" s="8" t="s">
+      <c r="R249" s="7" t="s">
         <v>356</v>
       </c>
     </row>
@@ -13750,7 +13748,7 @@
       <c r="B250" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="4">
         <v>43482</v>
       </c>
       <c r="E250" t="s">
@@ -13786,7 +13784,7 @@
       <c r="B251" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="4">
         <v>43482</v>
       </c>
       <c r="E251" t="s">
@@ -13822,7 +13820,7 @@
       <c r="B252" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D252" s="4">
         <v>43489</v>
       </c>
       <c r="E252" t="s">
@@ -13858,7 +13856,7 @@
       <c r="B253" t="s">
         <v>2</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D253" s="4">
         <v>43489</v>
       </c>
       <c r="E253" t="s">
@@ -13894,7 +13892,7 @@
       <c r="B254" t="s">
         <v>2</v>
       </c>
-      <c r="D254" s="5">
+      <c r="D254" s="4">
         <v>43489</v>
       </c>
       <c r="E254" t="s">
@@ -13930,7 +13928,7 @@
       <c r="B255" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D255" s="4">
         <v>43510</v>
       </c>
       <c r="E255" t="s">
@@ -13969,7 +13967,7 @@
       <c r="B256" t="s">
         <v>2</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D256" s="4">
         <v>43510</v>
       </c>
       <c r="E256" t="s">
@@ -14008,7 +14006,7 @@
       <c r="B257" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="5">
+      <c r="D257" s="4">
         <v>43510</v>
       </c>
       <c r="E257" t="s">
@@ -14047,7 +14045,7 @@
       <c r="B258" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="5">
+      <c r="D258" s="4">
         <v>43510</v>
       </c>
       <c r="E258" t="s">
@@ -14086,7 +14084,7 @@
       <c r="B259" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="5">
+      <c r="D259" s="4">
         <v>43511</v>
       </c>
       <c r="E259" t="s">
@@ -14125,7 +14123,7 @@
       <c r="B260" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="5">
+      <c r="D260" s="4">
         <v>43511</v>
       </c>
       <c r="E260" t="s">
@@ -14164,7 +14162,7 @@
       <c r="B261" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D261" s="4">
         <v>43511</v>
       </c>
       <c r="E261" t="s">
@@ -14203,7 +14201,7 @@
       <c r="B262" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="5">
+      <c r="D262" s="4">
         <v>43511</v>
       </c>
       <c r="F262">
@@ -14245,7 +14243,7 @@
       <c r="C263" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D263" s="7">
+      <c r="D263" s="6">
         <v>43516.685416666667</v>
       </c>
       <c r="E263" s="1">
@@ -14293,7 +14291,7 @@
       <c r="C264" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D264" s="7">
+      <c r="D264" s="6">
         <v>43516.685416666667</v>
       </c>
       <c r="E264" s="1">
@@ -14335,7 +14333,7 @@
       <c r="B265" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="5">
+      <c r="D265" s="4">
         <v>43543</v>
       </c>
       <c r="E265" t="s">
@@ -14374,7 +14372,7 @@
       <c r="B266" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="5">
+      <c r="D266" s="4">
         <v>43543</v>
       </c>
       <c r="E266" t="s">
@@ -14413,7 +14411,7 @@
       <c r="B267" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D267" s="4">
         <v>43543</v>
       </c>
       <c r="E267" t="s">
@@ -14452,7 +14450,7 @@
       <c r="B268" t="s">
         <v>2</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="4">
         <v>43543</v>
       </c>
       <c r="E268" t="s">
@@ -14491,7 +14489,7 @@
       <c r="B269" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="4">
         <v>43543</v>
       </c>
       <c r="E269" t="s">
@@ -14530,7 +14528,7 @@
       <c r="B270" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="4">
         <v>43543</v>
       </c>
       <c r="E270" t="s">
@@ -14569,7 +14567,7 @@
       <c r="B271" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="4">
         <v>43543</v>
       </c>
       <c r="E271" t="s">
@@ -14608,7 +14606,7 @@
       <c r="B272" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="4">
         <v>43543</v>
       </c>
       <c r="E272" t="s">
@@ -14647,7 +14645,7 @@
       <c r="B273" t="s">
         <v>2</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="4">
         <v>43543</v>
       </c>
       <c r="E273" t="s">
@@ -14686,7 +14684,7 @@
       <c r="B274" t="s">
         <v>2</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="4">
         <v>43543</v>
       </c>
       <c r="E274" t="s">
@@ -14725,7 +14723,7 @@
       <c r="B275" t="s">
         <v>2</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>43543</v>
       </c>
       <c r="E275" t="s">
@@ -14764,7 +14762,7 @@
       <c r="B276" t="s">
         <v>2</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="4">
         <v>43543</v>
       </c>
       <c r="E276" t="s">
@@ -14803,7 +14801,7 @@
       <c r="B277" t="s">
         <v>2</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="4">
         <v>43543</v>
       </c>
       <c r="E277" t="s">
@@ -14842,7 +14840,7 @@
       <c r="B278" t="s">
         <v>2</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="4">
         <v>43543</v>
       </c>
       <c r="E278" t="s">
@@ -14881,7 +14879,7 @@
       <c r="B279" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="4">
         <v>43543</v>
       </c>
       <c r="E279" t="s">
@@ -14920,7 +14918,7 @@
       <c r="B280" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="4">
         <v>43543</v>
       </c>
       <c r="E280" t="s">
@@ -14959,7 +14957,7 @@
       <c r="B281" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="4">
         <v>43543</v>
       </c>
       <c r="E281" t="s">
@@ -14998,7 +14996,7 @@
       <c r="B282" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="4">
         <v>43543</v>
       </c>
       <c r="E282" t="s">
@@ -15037,7 +15035,7 @@
       <c r="B283" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="4">
         <v>43543</v>
       </c>
       <c r="E283" t="s">
@@ -15076,7 +15074,7 @@
       <c r="B284" t="s">
         <v>2</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="4">
         <v>43543</v>
       </c>
       <c r="E284" t="s">
@@ -15115,7 +15113,7 @@
       <c r="B285" t="s">
         <v>2</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="4">
         <v>43543</v>
       </c>
       <c r="E285" t="s">
@@ -15154,7 +15152,7 @@
       <c r="B286" t="s">
         <v>2</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>43543</v>
       </c>
       <c r="E286" t="s">
@@ -15193,7 +15191,7 @@
       <c r="B287" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="4">
         <v>43543</v>
       </c>
       <c r="E287" t="s">
@@ -15232,7 +15230,7 @@
       <c r="B288" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="4">
         <v>43543</v>
       </c>
       <c r="E288" t="s">
@@ -15277,7 +15275,7 @@
       <c r="C289" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D289" s="7">
+      <c r="D289" s="6">
         <v>43558.519444444442</v>
       </c>
       <c r="E289" s="1" t="s">
@@ -15327,7 +15325,7 @@
       <c r="C290" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D290" s="7">
+      <c r="D290" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -15377,7 +15375,7 @@
       <c r="C291" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D291" s="7">
+      <c r="D291" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E291" s="1" t="s">
@@ -15427,7 +15425,7 @@
       <c r="C292" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D292" s="7">
+      <c r="D292" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -15477,7 +15475,7 @@
       <c r="C293" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D293" s="7">
+      <c r="D293" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -15527,7 +15525,7 @@
       <c r="C294" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D294" s="7">
+      <c r="D294" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E294" s="1" t="s">
@@ -15577,7 +15575,7 @@
       <c r="C295" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D295" s="7">
+      <c r="D295" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E295" s="1" t="s">
@@ -15627,7 +15625,7 @@
       <c r="C296" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D296" s="7">
+      <c r="D296" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E296" s="1" t="s">
@@ -15677,7 +15675,7 @@
       <c r="C297" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D297" s="7">
+      <c r="D297" s="6">
         <v>43558.518750000003</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -15727,7 +15725,7 @@
       <c r="C298" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D298" s="7">
+      <c r="D298" s="6">
         <v>43558.518055555556</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -15777,7 +15775,7 @@
       <c r="C299" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D299" s="7">
+      <c r="D299" s="6">
         <v>43558.518055555556</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -15827,7 +15825,7 @@
       <c r="C300" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D300" s="7">
+      <c r="D300" s="6">
         <v>43558.518055555556</v>
       </c>
       <c r="E300" s="1">
@@ -15876,7 +15874,7 @@
       <c r="C301" t="s">
         <v>89</v>
       </c>
-      <c r="D301" s="5">
+      <c r="D301" s="4">
         <v>43556.664398148147</v>
       </c>
       <c r="E301" t="s">
@@ -15927,7 +15925,7 @@
       <c r="C302" t="s">
         <v>88</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D302" s="4">
         <v>43556.664548611108</v>
       </c>
       <c r="E302" t="s">
@@ -15978,7 +15976,7 @@
       <c r="C303" t="s">
         <v>87</v>
       </c>
-      <c r="D303" s="5">
+      <c r="D303" s="4">
         <v>43556.664641203701</v>
       </c>
       <c r="E303" t="s">
@@ -16029,7 +16027,7 @@
       <c r="C304" t="s">
         <v>86</v>
       </c>
-      <c r="D304" s="5">
+      <c r="D304" s="4">
         <v>43556.664722222224</v>
       </c>
       <c r="E304" t="s">
@@ -16080,7 +16078,7 @@
       <c r="C305" t="s">
         <v>85</v>
       </c>
-      <c r="D305" s="5">
+      <c r="D305" s="4">
         <v>43556.664803240739</v>
       </c>
       <c r="E305" t="s">
@@ -16131,7 +16129,7 @@
       <c r="C306" t="s">
         <v>84</v>
       </c>
-      <c r="D306" s="5">
+      <c r="D306" s="4">
         <v>43556.664884259262</v>
       </c>
       <c r="E306" t="s">
@@ -16182,7 +16180,7 @@
       <c r="C307" t="s">
         <v>83</v>
       </c>
-      <c r="D307" s="5">
+      <c r="D307" s="4">
         <v>43556.664953703701</v>
       </c>
       <c r="E307" t="s">
@@ -16233,7 +16231,7 @@
       <c r="C308" t="s">
         <v>82</v>
       </c>
-      <c r="D308" s="5">
+      <c r="D308" s="4">
         <v>43556.665023148147</v>
       </c>
       <c r="E308" t="s">
@@ -16284,7 +16282,7 @@
       <c r="C309" t="s">
         <v>81</v>
       </c>
-      <c r="D309" s="5">
+      <c r="D309" s="4">
         <v>43556.66510416667</v>
       </c>
       <c r="E309">
@@ -16335,7 +16333,7 @@
       <c r="C310" t="s">
         <v>80</v>
       </c>
-      <c r="D310" s="5">
+      <c r="D310" s="4">
         <v>43556.665335648147</v>
       </c>
       <c r="E310" t="s">
@@ -16386,7 +16384,7 @@
       <c r="C311" t="s">
         <v>79</v>
       </c>
-      <c r="D311" s="5">
+      <c r="D311" s="4">
         <v>43556.665416666663</v>
       </c>
       <c r="E311" t="s">
@@ -16437,7 +16435,7 @@
       <c r="C312" t="s">
         <v>78</v>
       </c>
-      <c r="D312" s="5">
+      <c r="D312" s="4">
         <v>43556.665486111109</v>
       </c>
       <c r="E312" t="s">
@@ -16488,7 +16486,7 @@
       <c r="C313" t="s">
         <v>77</v>
       </c>
-      <c r="D313" s="5">
+      <c r="D313" s="4">
         <v>43556.665578703702</v>
       </c>
       <c r="E313" t="s">
@@ -16539,7 +16537,7 @@
       <c r="C314" t="s">
         <v>76</v>
       </c>
-      <c r="D314" s="5">
+      <c r="D314" s="4">
         <v>43556.665648148148</v>
       </c>
       <c r="E314" t="s">
@@ -16590,7 +16588,7 @@
       <c r="C315" t="s">
         <v>75</v>
       </c>
-      <c r="D315" s="5">
+      <c r="D315" s="4">
         <v>43556.665717592594</v>
       </c>
       <c r="E315" t="s">
@@ -16641,7 +16639,7 @@
       <c r="C316" t="s">
         <v>74</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="4">
         <v>43556.665798611109</v>
       </c>
       <c r="E316">
@@ -16692,7 +16690,7 @@
       <c r="C317" t="s">
         <v>73</v>
       </c>
-      <c r="D317" s="5">
+      <c r="D317" s="4">
         <v>43556.665960648148</v>
       </c>
       <c r="E317" t="s">
@@ -16743,7 +16741,7 @@
       <c r="C318" t="s">
         <v>72</v>
       </c>
-      <c r="D318" s="5">
+      <c r="D318" s="4">
         <v>43556.666041666664</v>
       </c>
       <c r="E318">
@@ -16794,7 +16792,7 @@
       <c r="C319" t="s">
         <v>71</v>
       </c>
-      <c r="D319" s="5">
+      <c r="D319" s="4">
         <v>43556.666168981479</v>
       </c>
       <c r="E319" t="s">
@@ -16845,7 +16843,7 @@
       <c r="C320" t="s">
         <v>70</v>
       </c>
-      <c r="D320" s="5">
+      <c r="D320" s="4">
         <v>43556.666250000002</v>
       </c>
       <c r="E320">
@@ -16896,7 +16894,7 @@
       <c r="C321" t="s">
         <v>69</v>
       </c>
-      <c r="D321" s="5">
+      <c r="D321" s="4">
         <v>43556.666377314818</v>
       </c>
       <c r="E321" t="s">
@@ -16947,7 +16945,7 @@
       <c r="C322" t="s">
         <v>68</v>
       </c>
-      <c r="D322" s="5">
+      <c r="D322" s="4">
         <v>43556.666458333333</v>
       </c>
       <c r="E322" t="s">
@@ -16998,7 +16996,7 @@
       <c r="C323" t="s">
         <v>67</v>
       </c>
-      <c r="D323" s="5">
+      <c r="D323" s="4">
         <v>43556.666539351849</v>
       </c>
       <c r="E323" t="s">
@@ -17049,7 +17047,7 @@
       <c r="C324" t="s">
         <v>66</v>
       </c>
-      <c r="D324" s="5">
+      <c r="D324" s="4">
         <v>43556.666620370372</v>
       </c>
       <c r="E324" t="s">
@@ -17100,7 +17098,7 @@
       <c r="C325" t="s">
         <v>102</v>
       </c>
-      <c r="D325" s="5">
+      <c r="D325" s="4">
         <v>43558.518414351849</v>
       </c>
       <c r="E325">
@@ -17151,7 +17149,7 @@
       <c r="C326" t="s">
         <v>101</v>
       </c>
-      <c r="D326" s="5">
+      <c r="D326" s="4">
         <v>43558.518553240741</v>
       </c>
       <c r="E326" t="s">
@@ -17202,7 +17200,7 @@
       <c r="C327" t="s">
         <v>100</v>
       </c>
-      <c r="D327" s="5">
+      <c r="D327" s="4">
         <v>43558.518680555557</v>
       </c>
       <c r="E327" t="s">
@@ -17253,7 +17251,7 @@
       <c r="C328" t="s">
         <v>99</v>
       </c>
-      <c r="D328" s="5">
+      <c r="D328" s="4">
         <v>43558.518773148149</v>
       </c>
       <c r="E328" t="s">
@@ -17304,7 +17302,7 @@
       <c r="C329" t="s">
         <v>98</v>
       </c>
-      <c r="D329" s="5">
+      <c r="D329" s="4">
         <v>43558.518865740742</v>
       </c>
       <c r="E329" t="s">
@@ -17355,7 +17353,7 @@
       <c r="C330" t="s">
         <v>97</v>
       </c>
-      <c r="D330" s="5">
+      <c r="D330" s="4">
         <v>43558.518958333334</v>
       </c>
       <c r="E330" t="s">
@@ -17406,7 +17404,7 @@
       <c r="C331" t="s">
         <v>96</v>
       </c>
-      <c r="D331" s="5">
+      <c r="D331" s="4">
         <v>43558.519050925926</v>
       </c>
       <c r="E331" t="s">
@@ -17457,7 +17455,7 @@
       <c r="C332" t="s">
         <v>95</v>
       </c>
-      <c r="D332" s="5">
+      <c r="D332" s="4">
         <v>43558.519131944442</v>
       </c>
       <c r="E332" t="s">
@@ -17508,7 +17506,7 @@
       <c r="C333" t="s">
         <v>94</v>
       </c>
-      <c r="D333" s="5">
+      <c r="D333" s="4">
         <v>43558.519224537034</v>
       </c>
       <c r="E333" t="s">
@@ -17559,7 +17557,7 @@
       <c r="C334" t="s">
         <v>93</v>
       </c>
-      <c r="D334" s="5">
+      <c r="D334" s="4">
         <v>43558.51934027778</v>
       </c>
       <c r="E334" t="s">
@@ -17610,7 +17608,7 @@
       <c r="C335" t="s">
         <v>92</v>
       </c>
-      <c r="D335" s="5">
+      <c r="D335" s="4">
         <v>43558.519421296296</v>
       </c>
       <c r="E335" t="s">
@@ -17661,7 +17659,7 @@
       <c r="C336" t="s">
         <v>91</v>
       </c>
-      <c r="D336" s="5">
+      <c r="D336" s="4">
         <v>43558.519513888888</v>
       </c>
       <c r="E336" t="s">
@@ -17712,7 +17710,7 @@
       <c r="C337" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D337" s="6">
+      <c r="D337" s="5">
         <v>43585.60701388889</v>
       </c>
       <c r="E337" s="2">
@@ -17766,7 +17764,7 @@
       <c r="C338" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D338" s="6">
+      <c r="D338" s="5">
         <v>43585.607083333336</v>
       </c>
       <c r="E338" s="2">
@@ -17820,7 +17818,7 @@
       <c r="C339" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D339" s="6">
+      <c r="D339" s="5">
         <v>43585.607164351852</v>
       </c>
       <c r="E339" s="2">
@@ -17874,7 +17872,7 @@
       <c r="C340" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D340" s="6">
+      <c r="D340" s="5">
         <v>43585.607245370367</v>
       </c>
       <c r="E340" s="2">
@@ -17928,7 +17926,7 @@
       <c r="C341" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D341" s="6">
+      <c r="D341" s="5">
         <v>43585.60732638889</v>
       </c>
       <c r="E341" s="2">
@@ -17982,7 +17980,7 @@
       <c r="C342" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D342" s="6">
+      <c r="D342" s="5">
         <v>43585.607395833336</v>
       </c>
       <c r="E342" s="2" t="s">
@@ -18030,7 +18028,7 @@
       <c r="C343" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D343" s="6">
+      <c r="D343" s="5">
         <v>43585.607511574075</v>
       </c>
       <c r="E343" s="2">
@@ -18084,7 +18082,7 @@
       <c r="C344" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D344" s="6">
+      <c r="D344" s="5">
         <v>43585.607592592591</v>
       </c>
       <c r="E344" s="2">
@@ -18138,7 +18136,7 @@
       <c r="C345" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D345" s="6">
+      <c r="D345" s="5">
         <v>43585.607673611114</v>
       </c>
       <c r="E345" s="2">
@@ -18192,7 +18190,7 @@
       <c r="C346" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D346" s="6">
+      <c r="D346" s="5">
         <v>43585.607754629629</v>
       </c>
       <c r="E346" s="2">
@@ -18246,7 +18244,7 @@
       <c r="C347" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D347" s="6">
+      <c r="D347" s="5">
         <v>43585.607824074075</v>
       </c>
       <c r="E347" s="2">
@@ -18300,7 +18298,7 @@
       <c r="C348" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D348" s="6">
+      <c r="D348" s="5">
         <v>43585.607905092591</v>
       </c>
       <c r="E348" s="2">
@@ -18354,7 +18352,7 @@
       <c r="C349" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D349" s="6">
+      <c r="D349" s="5">
         <v>43585.607974537037</v>
       </c>
       <c r="E349" s="2">
@@ -18408,7 +18406,7 @@
       <c r="C350" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D350" s="6">
+      <c r="D350" s="5">
         <v>43585.608043981483</v>
       </c>
       <c r="E350" s="2">
@@ -18462,7 +18460,7 @@
       <c r="C351" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D351" s="6">
+      <c r="D351" s="5">
         <v>43585.608124999999</v>
       </c>
       <c r="E351" s="2">
@@ -18516,7 +18514,7 @@
       <c r="C352" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D352" s="6">
+      <c r="D352" s="5">
         <v>43585.608206018522</v>
       </c>
       <c r="E352" s="2">
@@ -18570,7 +18568,7 @@
       <c r="C353" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D353" s="6">
+      <c r="D353" s="5">
         <v>43585.608275462961</v>
       </c>
       <c r="E353" s="2">
@@ -18624,7 +18622,7 @@
       <c r="C354" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D354" s="6">
+      <c r="D354" s="5">
         <v>43585.608344907407</v>
       </c>
       <c r="E354" s="2">
@@ -18678,7 +18676,7 @@
       <c r="C355" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D355" s="6">
+      <c r="D355" s="5">
         <v>43585.608449074076</v>
       </c>
       <c r="E355" s="2">
@@ -18732,7 +18730,7 @@
       <c r="C356" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D356" s="6">
+      <c r="D356" s="5">
         <v>43585.608518518522</v>
       </c>
       <c r="E356" s="2">
@@ -18786,7 +18784,7 @@
       <c r="C357" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D357" s="6">
+      <c r="D357" s="5">
         <v>43585.608599537038</v>
       </c>
       <c r="E357" s="2">
@@ -18840,7 +18838,7 @@
       <c r="C358" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D358" s="6">
+      <c r="D358" s="5">
         <v>43585.608668981484</v>
       </c>
       <c r="E358" s="2">
@@ -18894,7 +18892,7 @@
       <c r="C359" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D359" s="6">
+      <c r="D359" s="5">
         <v>43585.608749999999</v>
       </c>
       <c r="E359" s="2">
@@ -18948,7 +18946,7 @@
       <c r="C360" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D360" s="6">
+      <c r="D360" s="5">
         <v>43585.608831018515</v>
       </c>
       <c r="E360" s="2">
@@ -19002,7 +19000,7 @@
       <c r="C361" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D361" s="6">
+      <c r="D361" s="5">
         <v>43585.608935185184</v>
       </c>
       <c r="E361" s="2">
@@ -19056,7 +19054,7 @@
       <c r="C362" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D362" s="6">
+      <c r="D362" s="5">
         <v>43585.60900462963</v>
       </c>
       <c r="E362" s="2">
@@ -19110,7 +19108,7 @@
       <c r="C363" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D363" s="6">
+      <c r="D363" s="5">
         <v>43585.609085648146</v>
       </c>
       <c r="E363" s="2">
@@ -19164,7 +19162,7 @@
       <c r="C364" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D364" s="6">
+      <c r="D364" s="5">
         <v>43585.609155092592</v>
       </c>
       <c r="E364" s="2">
@@ -19218,7 +19216,7 @@
       <c r="C365" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D365" s="6">
+      <c r="D365" s="5">
         <v>43585.609224537038</v>
       </c>
       <c r="E365" s="2">
@@ -19272,7 +19270,7 @@
       <c r="C366" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D366" s="6">
+      <c r="D366" s="5">
         <v>43585.609305555554</v>
       </c>
       <c r="E366" s="2">
@@ -19326,7 +19324,7 @@
       <c r="C367" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D367" s="6">
+      <c r="D367" s="5">
         <v>43585.609386574077</v>
       </c>
       <c r="E367" s="2">
@@ -19380,7 +19378,7 @@
       <c r="C368" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D368" s="6">
+      <c r="D368" s="5">
         <v>43585.609467592592</v>
       </c>
       <c r="E368" s="2">
@@ -19434,7 +19432,7 @@
       <c r="C369" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D369" s="6">
+      <c r="D369" s="5">
         <v>43585.609537037039</v>
       </c>
       <c r="E369" s="2">
@@ -19488,7 +19486,7 @@
       <c r="C370" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D370" s="6">
+      <c r="D370" s="5">
         <v>43585.609618055554</v>
       </c>
       <c r="E370" s="2">
@@ -19542,7 +19540,7 @@
       <c r="C371" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D371" s="6">
+      <c r="D371" s="5">
         <v>43585.6096875</v>
       </c>
       <c r="E371" s="2">
@@ -19596,7 +19594,7 @@
       <c r="C372" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D372" s="6">
+      <c r="D372" s="5">
         <v>43585.609768518516</v>
       </c>
       <c r="E372" s="2">
@@ -19650,7 +19648,7 @@
       <c r="C373" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D373" s="6">
+      <c r="D373" s="5">
         <v>43585.609849537039</v>
       </c>
       <c r="E373" s="2">
@@ -19704,7 +19702,7 @@
       <c r="C374" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D374" s="6">
+      <c r="D374" s="5">
         <v>43585.609918981485</v>
       </c>
       <c r="E374" s="2">
@@ -19758,7 +19756,7 @@
       <c r="C375" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D375" s="6">
+      <c r="D375" s="5">
         <v>43585.609988425924</v>
       </c>
       <c r="E375" s="2">
@@ -19812,7 +19810,7 @@
       <c r="C376" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D376" s="6">
+      <c r="D376" s="5">
         <v>43585.610069444447</v>
       </c>
       <c r="E376" s="2">
@@ -19866,7 +19864,7 @@
       <c r="C377" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D377" s="6">
+      <c r="D377" s="5">
         <v>43585.610138888886</v>
       </c>
       <c r="E377" s="2">
@@ -19920,7 +19918,7 @@
       <c r="C378" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D378" s="6">
+      <c r="D378" s="5">
         <v>43585.610219907408</v>
       </c>
       <c r="E378" s="2">
@@ -19974,7 +19972,7 @@
       <c r="C379" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D379" s="6">
+      <c r="D379" s="5">
         <v>43585.610289351855</v>
       </c>
       <c r="E379" s="2">
@@ -20028,7 +20026,7 @@
       <c r="C380" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D380" s="6">
+      <c r="D380" s="5">
         <v>43585.610358796293</v>
       </c>
       <c r="E380" s="2">
@@ -20082,7 +20080,7 @@
       <c r="C381" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D381" s="6">
+      <c r="D381" s="5">
         <v>43585.61042824074</v>
       </c>
       <c r="E381" s="2">
@@ -20136,7 +20134,7 @@
       <c r="C382" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D382" s="6">
+      <c r="D382" s="5">
         <v>43585.610509259262</v>
       </c>
       <c r="E382" s="2" t="s">
@@ -20184,7 +20182,7 @@
       <c r="C383" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D383" s="6">
+      <c r="D383" s="5">
         <v>43585.610601851855</v>
       </c>
       <c r="E383" s="2">
@@ -20238,7 +20236,7 @@
       <c r="C384" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D384" s="6">
+      <c r="D384" s="5">
         <v>43585.610671296294</v>
       </c>
       <c r="E384" s="2">
@@ -20292,7 +20290,7 @@
       <c r="C385" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D385" s="6">
+      <c r="D385" s="5">
         <v>43585.610763888886</v>
       </c>
       <c r="E385" s="2">
@@ -20346,7 +20344,7 @@
       <c r="C386" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D386" s="6">
+      <c r="D386" s="5">
         <v>43585.610833333332</v>
       </c>
       <c r="E386" s="2">
@@ -20400,7 +20398,7 @@
       <c r="C387" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D387" s="6">
+      <c r="D387" s="5">
         <v>43585.610914351855</v>
       </c>
       <c r="E387" s="2">
@@ -20454,7 +20452,7 @@
       <c r="C388" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D388" s="6">
+      <c r="D388" s="5">
         <v>43585.610983796294</v>
       </c>
       <c r="E388" s="2">
@@ -20508,7 +20506,7 @@
       <c r="C389" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D389" s="6">
+      <c r="D389" s="5">
         <v>43585.611064814817</v>
       </c>
       <c r="E389" s="2">
@@ -20562,7 +20560,7 @@
       <c r="C390" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D390" s="6">
+      <c r="D390" s="5">
         <v>43585.611134259256</v>
       </c>
       <c r="E390" s="2">
@@ -20616,7 +20614,7 @@
       <c r="C391" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D391" s="6">
+      <c r="D391" s="5">
         <v>43585.611203703702</v>
       </c>
       <c r="E391" s="2">
@@ -20670,7 +20668,7 @@
       <c r="C392" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D392" s="6">
+      <c r="D392" s="5">
         <v>43585.611273148148</v>
       </c>
       <c r="E392" s="2">
@@ -20724,7 +20722,7 @@
       <c r="C393" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D393" s="6">
+      <c r="D393" s="5">
         <v>43585.611354166664</v>
       </c>
       <c r="E393" s="2">
@@ -20778,7 +20776,7 @@
       <c r="C394" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D394" s="6">
+      <c r="D394" s="5">
         <v>43585.61142361111</v>
       </c>
       <c r="E394" s="2">
@@ -20832,7 +20830,7 @@
       <c r="C395" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D395" s="6">
+      <c r="D395" s="5">
         <v>43585.611504629633</v>
       </c>
       <c r="E395" s="2">
@@ -20886,7 +20884,7 @@
       <c r="C396" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D396" s="6">
+      <c r="D396" s="5">
         <v>43585.611585648148</v>
       </c>
       <c r="E396" s="2">
@@ -20940,7 +20938,7 @@
       <c r="C397" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D397" s="6">
+      <c r="D397" s="5">
         <v>43585.611655092594</v>
       </c>
       <c r="E397" s="2">
@@ -20994,7 +20992,7 @@
       <c r="C398" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D398" s="6">
+      <c r="D398" s="5">
         <v>43585.61173611111</v>
       </c>
       <c r="E398" s="2">
@@ -21048,7 +21046,7 @@
       <c r="C399" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D399" s="6">
+      <c r="D399" s="5">
         <v>43585.611817129633</v>
       </c>
       <c r="E399" s="2">
@@ -21102,7 +21100,7 @@
       <c r="C400" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D400" s="6">
+      <c r="D400" s="5">
         <v>43585.611921296295</v>
       </c>
       <c r="E400" s="2">
@@ -21156,7 +21154,7 @@
       <c r="C401" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D401" s="6">
+      <c r="D401" s="5">
         <v>43585.611990740741</v>
       </c>
       <c r="E401" s="2">
@@ -21210,7 +21208,7 @@
       <c r="C402" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D402" s="6">
+      <c r="D402" s="5">
         <v>43585.612071759257</v>
       </c>
       <c r="E402" s="2">
@@ -21271,3554 +21269,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603D0354-3EA4-0C4A-AE9B-693F8B52487F}">
-  <dimension ref="B1:J999"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="10:10">
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="10:10">
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="10:10">
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="10:10">
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="10:10">
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="10:10">
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="10:10">
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="10:10">
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="10:10">
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="10:10">
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="10:10">
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="10:10">
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="10:10">
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="10:10">
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="10:10">
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="10:10">
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="10:10">
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="10:10">
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="10:10">
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="10:10">
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="10:10">
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="10:10">
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="10:10">
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="10:10">
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="10:10">
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="10:10">
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="10:10">
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="10:10">
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="10:10">
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="10:10">
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="10:10">
-      <c r="J112" s="2"/>
-    </row>
-    <row r="113" spans="10:10">
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" spans="10:10">
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="10:10">
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" spans="10:10">
-      <c r="J116" s="2"/>
-    </row>
-    <row r="117" spans="10:10">
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="10:10">
-      <c r="J118" s="2"/>
-    </row>
-    <row r="119" spans="10:10">
-      <c r="J119" s="2"/>
-    </row>
-    <row r="120" spans="10:10">
-      <c r="J120" s="2"/>
-    </row>
-    <row r="121" spans="10:10">
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" spans="10:10">
-      <c r="J122" s="2"/>
-    </row>
-    <row r="123" spans="10:10">
-      <c r="J123" s="2"/>
-    </row>
-    <row r="124" spans="10:10">
-      <c r="J124" s="2"/>
-    </row>
-    <row r="125" spans="10:10">
-      <c r="J125" s="2"/>
-    </row>
-    <row r="126" spans="10:10">
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" spans="10:10">
-      <c r="J127" s="2"/>
-    </row>
-    <row r="128" spans="10:10">
-      <c r="J128" s="2"/>
-    </row>
-    <row r="129" spans="10:10">
-      <c r="J129" s="2"/>
-    </row>
-    <row r="130" spans="10:10">
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" spans="10:10">
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="10:10">
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="10:10">
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="10:10">
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="10:10">
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="10:10">
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="10:10">
-      <c r="J137" s="2"/>
-    </row>
-    <row r="138" spans="10:10">
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="10:10">
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="10:10">
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="10:10">
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="10:10">
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="10:10">
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="10:10">
-      <c r="J144" s="2"/>
-    </row>
-    <row r="145" spans="10:10">
-      <c r="J145" s="2"/>
-    </row>
-    <row r="146" spans="10:10">
-      <c r="J146" s="2"/>
-    </row>
-    <row r="147" spans="10:10">
-      <c r="J147" s="2"/>
-    </row>
-    <row r="148" spans="10:10">
-      <c r="J148" s="2"/>
-    </row>
-    <row r="149" spans="10:10">
-      <c r="J149" s="2"/>
-    </row>
-    <row r="150" spans="10:10">
-      <c r="J150" s="2"/>
-    </row>
-    <row r="151" spans="10:10">
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" spans="10:10">
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="10:10">
-      <c r="J153" s="2"/>
-    </row>
-    <row r="154" spans="10:10">
-      <c r="J154" s="2"/>
-    </row>
-    <row r="155" spans="10:10">
-      <c r="J155" s="2"/>
-    </row>
-    <row r="156" spans="10:10">
-      <c r="J156" s="2"/>
-    </row>
-    <row r="157" spans="10:10">
-      <c r="J157" s="2"/>
-    </row>
-    <row r="158" spans="10:10">
-      <c r="J158" s="2"/>
-    </row>
-    <row r="159" spans="10:10">
-      <c r="J159" s="2"/>
-    </row>
-    <row r="160" spans="10:10">
-      <c r="J160" s="2"/>
-    </row>
-    <row r="161" spans="10:10">
-      <c r="J161" s="2"/>
-    </row>
-    <row r="162" spans="10:10">
-      <c r="J162" s="2"/>
-    </row>
-    <row r="163" spans="10:10">
-      <c r="J163" s="2"/>
-    </row>
-    <row r="164" spans="10:10">
-      <c r="J164" s="2"/>
-    </row>
-    <row r="165" spans="10:10">
-      <c r="J165" s="2"/>
-    </row>
-    <row r="166" spans="10:10">
-      <c r="J166" s="2"/>
-    </row>
-    <row r="167" spans="10:10">
-      <c r="J167" s="2"/>
-    </row>
-    <row r="168" spans="10:10">
-      <c r="J168" s="2"/>
-    </row>
-    <row r="169" spans="10:10">
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" spans="10:10">
-      <c r="J170" s="2"/>
-    </row>
-    <row r="171" spans="10:10">
-      <c r="J171" s="2"/>
-    </row>
-    <row r="172" spans="10:10">
-      <c r="J172" s="2"/>
-    </row>
-    <row r="173" spans="10:10">
-      <c r="J173" s="2"/>
-    </row>
-    <row r="174" spans="10:10">
-      <c r="J174" s="2"/>
-    </row>
-    <row r="175" spans="10:10">
-      <c r="J175" s="2"/>
-    </row>
-    <row r="176" spans="10:10">
-      <c r="J176" s="2"/>
-    </row>
-    <row r="177" spans="10:10">
-      <c r="J177" s="2"/>
-    </row>
-    <row r="178" spans="10:10">
-      <c r="J178" s="2"/>
-    </row>
-    <row r="179" spans="10:10">
-      <c r="J179" s="2"/>
-    </row>
-    <row r="180" spans="10:10">
-      <c r="J180" s="2"/>
-    </row>
-    <row r="181" spans="10:10">
-      <c r="J181" s="2"/>
-    </row>
-    <row r="182" spans="10:10">
-      <c r="J182" s="2"/>
-    </row>
-    <row r="183" spans="10:10">
-      <c r="J183" s="2"/>
-    </row>
-    <row r="184" spans="10:10">
-      <c r="J184" s="2"/>
-    </row>
-    <row r="185" spans="10:10">
-      <c r="J185" s="2"/>
-    </row>
-    <row r="186" spans="10:10">
-      <c r="J186" s="2"/>
-    </row>
-    <row r="187" spans="10:10">
-      <c r="J187" s="2"/>
-    </row>
-    <row r="188" spans="10:10">
-      <c r="J188" s="2"/>
-    </row>
-    <row r="189" spans="10:10">
-      <c r="J189" s="2"/>
-    </row>
-    <row r="190" spans="10:10">
-      <c r="J190" s="2"/>
-    </row>
-    <row r="191" spans="10:10">
-      <c r="J191" s="2"/>
-    </row>
-    <row r="192" spans="10:10">
-      <c r="J192" s="2"/>
-    </row>
-    <row r="193" spans="10:10">
-      <c r="J193" s="2"/>
-    </row>
-    <row r="194" spans="10:10">
-      <c r="J194" s="2"/>
-    </row>
-    <row r="195" spans="10:10">
-      <c r="J195" s="2"/>
-    </row>
-    <row r="196" spans="10:10">
-      <c r="J196" s="2"/>
-    </row>
-    <row r="197" spans="10:10">
-      <c r="J197" s="2"/>
-    </row>
-    <row r="198" spans="10:10">
-      <c r="J198" s="2"/>
-    </row>
-    <row r="199" spans="10:10">
-      <c r="J199" s="2"/>
-    </row>
-    <row r="200" spans="10:10">
-      <c r="J200" s="2"/>
-    </row>
-    <row r="201" spans="10:10">
-      <c r="J201" s="2"/>
-    </row>
-    <row r="202" spans="10:10">
-      <c r="J202" s="2"/>
-    </row>
-    <row r="203" spans="10:10">
-      <c r="J203" s="2"/>
-    </row>
-    <row r="204" spans="10:10">
-      <c r="J204" s="2"/>
-    </row>
-    <row r="205" spans="10:10">
-      <c r="J205" s="2"/>
-    </row>
-    <row r="206" spans="10:10">
-      <c r="J206" s="2"/>
-    </row>
-    <row r="207" spans="10:10">
-      <c r="J207" s="2"/>
-    </row>
-    <row r="208" spans="10:10">
-      <c r="J208" s="2"/>
-    </row>
-    <row r="209" spans="10:10">
-      <c r="J209" s="2"/>
-    </row>
-    <row r="210" spans="10:10">
-      <c r="J210" s="2"/>
-    </row>
-    <row r="211" spans="10:10">
-      <c r="J211" s="2"/>
-    </row>
-    <row r="212" spans="10:10">
-      <c r="J212" s="2"/>
-    </row>
-    <row r="213" spans="10:10">
-      <c r="J213" s="2"/>
-    </row>
-    <row r="214" spans="10:10">
-      <c r="J214" s="2"/>
-    </row>
-    <row r="215" spans="10:10">
-      <c r="J215" s="2"/>
-    </row>
-    <row r="216" spans="10:10">
-      <c r="J216" s="2"/>
-    </row>
-    <row r="217" spans="10:10">
-      <c r="J217" s="2"/>
-    </row>
-    <row r="218" spans="10:10">
-      <c r="J218" s="2"/>
-    </row>
-    <row r="219" spans="10:10">
-      <c r="J219" s="2"/>
-    </row>
-    <row r="220" spans="10:10">
-      <c r="J220" s="2"/>
-    </row>
-    <row r="221" spans="10:10">
-      <c r="J221" s="2"/>
-    </row>
-    <row r="222" spans="10:10">
-      <c r="J222" s="2"/>
-    </row>
-    <row r="223" spans="10:10">
-      <c r="J223" s="2"/>
-    </row>
-    <row r="224" spans="10:10">
-      <c r="J224" s="2"/>
-    </row>
-    <row r="225" spans="10:10">
-      <c r="J225" s="2"/>
-    </row>
-    <row r="226" spans="10:10">
-      <c r="J226" s="2"/>
-    </row>
-    <row r="227" spans="10:10">
-      <c r="J227" s="2"/>
-    </row>
-    <row r="228" spans="10:10">
-      <c r="J228" s="2"/>
-    </row>
-    <row r="229" spans="10:10">
-      <c r="J229" s="2"/>
-    </row>
-    <row r="230" spans="10:10">
-      <c r="J230" s="2"/>
-    </row>
-    <row r="231" spans="10:10">
-      <c r="J231" s="2"/>
-    </row>
-    <row r="232" spans="10:10">
-      <c r="J232" s="2"/>
-    </row>
-    <row r="233" spans="10:10">
-      <c r="J233" s="2"/>
-    </row>
-    <row r="234" spans="10:10">
-      <c r="J234" s="2"/>
-    </row>
-    <row r="235" spans="10:10">
-      <c r="J235" s="2"/>
-    </row>
-    <row r="236" spans="10:10">
-      <c r="J236" s="2"/>
-    </row>
-    <row r="237" spans="10:10">
-      <c r="J237" s="2"/>
-    </row>
-    <row r="238" spans="10:10">
-      <c r="J238" s="2"/>
-    </row>
-    <row r="239" spans="10:10">
-      <c r="J239" s="2"/>
-    </row>
-    <row r="240" spans="10:10">
-      <c r="J240" s="2"/>
-    </row>
-    <row r="241" spans="10:10">
-      <c r="J241" s="2"/>
-    </row>
-    <row r="242" spans="10:10">
-      <c r="J242" s="2"/>
-    </row>
-    <row r="243" spans="10:10">
-      <c r="J243" s="2"/>
-    </row>
-    <row r="244" spans="10:10">
-      <c r="J244" s="2"/>
-    </row>
-    <row r="245" spans="10:10">
-      <c r="J245" s="2"/>
-    </row>
-    <row r="246" spans="10:10">
-      <c r="J246" s="2"/>
-    </row>
-    <row r="247" spans="10:10">
-      <c r="J247" s="2"/>
-    </row>
-    <row r="248" spans="10:10">
-      <c r="J248" s="2"/>
-    </row>
-    <row r="249" spans="10:10">
-      <c r="J249" s="2"/>
-    </row>
-    <row r="250" spans="10:10">
-      <c r="J250" s="2"/>
-    </row>
-    <row r="251" spans="10:10">
-      <c r="J251" s="2"/>
-    </row>
-    <row r="252" spans="10:10">
-      <c r="J252" s="2"/>
-    </row>
-    <row r="253" spans="10:10">
-      <c r="J253" s="2"/>
-    </row>
-    <row r="254" spans="10:10">
-      <c r="J254" s="2"/>
-    </row>
-    <row r="255" spans="10:10">
-      <c r="J255" s="2"/>
-    </row>
-    <row r="256" spans="10:10">
-      <c r="J256" s="2"/>
-    </row>
-    <row r="257" spans="10:10">
-      <c r="J257" s="2"/>
-    </row>
-    <row r="258" spans="10:10">
-      <c r="J258" s="2"/>
-    </row>
-    <row r="259" spans="10:10">
-      <c r="J259" s="2"/>
-    </row>
-    <row r="260" spans="10:10">
-      <c r="J260" s="2"/>
-    </row>
-    <row r="261" spans="10:10">
-      <c r="J261" s="2"/>
-    </row>
-    <row r="262" spans="10:10">
-      <c r="J262" s="2"/>
-    </row>
-    <row r="263" spans="10:10">
-      <c r="J263" s="2"/>
-    </row>
-    <row r="264" spans="10:10">
-      <c r="J264" s="2"/>
-    </row>
-    <row r="265" spans="10:10">
-      <c r="J265" s="2"/>
-    </row>
-    <row r="266" spans="10:10">
-      <c r="J266" s="2"/>
-    </row>
-    <row r="267" spans="10:10">
-      <c r="J267" s="2"/>
-    </row>
-    <row r="268" spans="10:10">
-      <c r="J268" s="2"/>
-    </row>
-    <row r="269" spans="10:10">
-      <c r="J269" s="2"/>
-    </row>
-    <row r="270" spans="10:10">
-      <c r="J270" s="2"/>
-    </row>
-    <row r="271" spans="10:10">
-      <c r="J271" s="2"/>
-    </row>
-    <row r="272" spans="10:10">
-      <c r="J272" s="2"/>
-    </row>
-    <row r="273" spans="10:10">
-      <c r="J273" s="2"/>
-    </row>
-    <row r="274" spans="10:10">
-      <c r="J274" s="2"/>
-    </row>
-    <row r="275" spans="10:10">
-      <c r="J275" s="2"/>
-    </row>
-    <row r="276" spans="10:10">
-      <c r="J276" s="2"/>
-    </row>
-    <row r="277" spans="10:10">
-      <c r="J277" s="2"/>
-    </row>
-    <row r="278" spans="10:10">
-      <c r="J278" s="2"/>
-    </row>
-    <row r="279" spans="10:10">
-      <c r="J279" s="2"/>
-    </row>
-    <row r="280" spans="10:10">
-      <c r="J280" s="2"/>
-    </row>
-    <row r="281" spans="10:10">
-      <c r="J281" s="2"/>
-    </row>
-    <row r="282" spans="10:10">
-      <c r="J282" s="2"/>
-    </row>
-    <row r="283" spans="10:10">
-      <c r="J283" s="2"/>
-    </row>
-    <row r="284" spans="10:10">
-      <c r="J284" s="2"/>
-    </row>
-    <row r="285" spans="10:10">
-      <c r="J285" s="2"/>
-    </row>
-    <row r="286" spans="10:10">
-      <c r="J286" s="2"/>
-    </row>
-    <row r="287" spans="10:10">
-      <c r="J287" s="2"/>
-    </row>
-    <row r="288" spans="10:10">
-      <c r="J288" s="2"/>
-    </row>
-    <row r="289" spans="10:10">
-      <c r="J289" s="2"/>
-    </row>
-    <row r="290" spans="10:10">
-      <c r="J290" s="2"/>
-    </row>
-    <row r="291" spans="10:10">
-      <c r="J291" s="2"/>
-    </row>
-    <row r="292" spans="10:10">
-      <c r="J292" s="2"/>
-    </row>
-    <row r="293" spans="10:10">
-      <c r="J293" s="2"/>
-    </row>
-    <row r="294" spans="10:10">
-      <c r="J294" s="2"/>
-    </row>
-    <row r="295" spans="10:10">
-      <c r="J295" s="2"/>
-    </row>
-    <row r="296" spans="10:10">
-      <c r="J296" s="2"/>
-    </row>
-    <row r="297" spans="10:10">
-      <c r="J297" s="2"/>
-    </row>
-    <row r="298" spans="10:10">
-      <c r="J298" s="2"/>
-    </row>
-    <row r="299" spans="10:10">
-      <c r="J299" s="2"/>
-    </row>
-    <row r="300" spans="10:10">
-      <c r="J300" s="2"/>
-    </row>
-    <row r="301" spans="10:10">
-      <c r="J301" s="2"/>
-    </row>
-    <row r="302" spans="10:10">
-      <c r="J302" s="2"/>
-    </row>
-    <row r="303" spans="10:10">
-      <c r="J303" s="2"/>
-    </row>
-    <row r="304" spans="10:10">
-      <c r="J304" s="2"/>
-    </row>
-    <row r="305" spans="10:10">
-      <c r="J305" s="2"/>
-    </row>
-    <row r="306" spans="10:10">
-      <c r="J306" s="2"/>
-    </row>
-    <row r="307" spans="10:10">
-      <c r="J307" s="2"/>
-    </row>
-    <row r="308" spans="10:10">
-      <c r="J308" s="2"/>
-    </row>
-    <row r="309" spans="10:10">
-      <c r="J309" s="2"/>
-    </row>
-    <row r="310" spans="10:10">
-      <c r="J310" s="2"/>
-    </row>
-    <row r="311" spans="10:10">
-      <c r="J311" s="2"/>
-    </row>
-    <row r="312" spans="10:10">
-      <c r="J312" s="2"/>
-    </row>
-    <row r="313" spans="10:10">
-      <c r="J313" s="2"/>
-    </row>
-    <row r="314" spans="10:10">
-      <c r="J314" s="2"/>
-    </row>
-    <row r="315" spans="10:10">
-      <c r="J315" s="2"/>
-    </row>
-    <row r="316" spans="10:10">
-      <c r="J316" s="2"/>
-    </row>
-    <row r="317" spans="10:10">
-      <c r="J317" s="2"/>
-    </row>
-    <row r="318" spans="10:10">
-      <c r="J318" s="2"/>
-    </row>
-    <row r="319" spans="10:10">
-      <c r="J319" s="2"/>
-    </row>
-    <row r="320" spans="10:10">
-      <c r="J320" s="2"/>
-    </row>
-    <row r="321" spans="10:10">
-      <c r="J321" s="2"/>
-    </row>
-    <row r="322" spans="10:10">
-      <c r="J322" s="2"/>
-    </row>
-    <row r="323" spans="10:10">
-      <c r="J323" s="2"/>
-    </row>
-    <row r="324" spans="10:10">
-      <c r="J324" s="2"/>
-    </row>
-    <row r="325" spans="10:10">
-      <c r="J325" s="2"/>
-    </row>
-    <row r="326" spans="10:10">
-      <c r="J326" s="2"/>
-    </row>
-    <row r="327" spans="10:10">
-      <c r="J327" s="2"/>
-    </row>
-    <row r="328" spans="10:10">
-      <c r="J328" s="2"/>
-    </row>
-    <row r="329" spans="10:10">
-      <c r="J329" s="2"/>
-    </row>
-    <row r="330" spans="10:10">
-      <c r="J330" s="2"/>
-    </row>
-    <row r="331" spans="10:10">
-      <c r="J331" s="2"/>
-    </row>
-    <row r="332" spans="10:10">
-      <c r="J332" s="2"/>
-    </row>
-    <row r="333" spans="10:10">
-      <c r="J333" s="2"/>
-    </row>
-    <row r="334" spans="10:10">
-      <c r="J334" s="2"/>
-    </row>
-    <row r="335" spans="10:10">
-      <c r="J335" s="2"/>
-    </row>
-    <row r="336" spans="10:10">
-      <c r="J336" s="2"/>
-    </row>
-    <row r="337" spans="10:10">
-      <c r="J337" s="2"/>
-    </row>
-    <row r="338" spans="10:10">
-      <c r="J338" s="2"/>
-    </row>
-    <row r="339" spans="10:10">
-      <c r="J339" s="2"/>
-    </row>
-    <row r="340" spans="10:10">
-      <c r="J340" s="2"/>
-    </row>
-    <row r="341" spans="10:10">
-      <c r="J341" s="2"/>
-    </row>
-    <row r="342" spans="10:10">
-      <c r="J342" s="2"/>
-    </row>
-    <row r="343" spans="10:10">
-      <c r="J343" s="2"/>
-    </row>
-    <row r="344" spans="10:10">
-      <c r="J344" s="2"/>
-    </row>
-    <row r="345" spans="10:10">
-      <c r="J345" s="2"/>
-    </row>
-    <row r="346" spans="10:10">
-      <c r="J346" s="2"/>
-    </row>
-    <row r="347" spans="10:10">
-      <c r="J347" s="2"/>
-    </row>
-    <row r="348" spans="10:10">
-      <c r="J348" s="2"/>
-    </row>
-    <row r="349" spans="10:10">
-      <c r="J349" s="2"/>
-    </row>
-    <row r="350" spans="10:10">
-      <c r="J350" s="2"/>
-    </row>
-    <row r="351" spans="10:10">
-      <c r="J351" s="2"/>
-    </row>
-    <row r="352" spans="10:10">
-      <c r="J352" s="2"/>
-    </row>
-    <row r="353" spans="10:10">
-      <c r="J353" s="2"/>
-    </row>
-    <row r="354" spans="10:10">
-      <c r="J354" s="2"/>
-    </row>
-    <row r="355" spans="10:10">
-      <c r="J355" s="2"/>
-    </row>
-    <row r="356" spans="10:10">
-      <c r="J356" s="2"/>
-    </row>
-    <row r="357" spans="10:10">
-      <c r="J357" s="2"/>
-    </row>
-    <row r="358" spans="10:10">
-      <c r="J358" s="2"/>
-    </row>
-    <row r="359" spans="10:10">
-      <c r="J359" s="2"/>
-    </row>
-    <row r="360" spans="10:10">
-      <c r="J360" s="2"/>
-    </row>
-    <row r="361" spans="10:10">
-      <c r="J361" s="2"/>
-    </row>
-    <row r="362" spans="10:10">
-      <c r="J362" s="2"/>
-    </row>
-    <row r="363" spans="10:10">
-      <c r="J363" s="2"/>
-    </row>
-    <row r="364" spans="10:10">
-      <c r="J364" s="2"/>
-    </row>
-    <row r="365" spans="10:10">
-      <c r="J365" s="2"/>
-    </row>
-    <row r="366" spans="10:10">
-      <c r="J366" s="2"/>
-    </row>
-    <row r="367" spans="10:10">
-      <c r="J367" s="2"/>
-    </row>
-    <row r="368" spans="10:10">
-      <c r="J368" s="2"/>
-    </row>
-    <row r="369" spans="10:10">
-      <c r="J369" s="2"/>
-    </row>
-    <row r="370" spans="10:10">
-      <c r="J370" s="2"/>
-    </row>
-    <row r="371" spans="10:10">
-      <c r="J371" s="2"/>
-    </row>
-    <row r="372" spans="10:10">
-      <c r="J372" s="2"/>
-    </row>
-    <row r="373" spans="10:10">
-      <c r="J373" s="2"/>
-    </row>
-    <row r="374" spans="10:10">
-      <c r="J374" s="2"/>
-    </row>
-    <row r="375" spans="10:10">
-      <c r="J375" s="2"/>
-    </row>
-    <row r="376" spans="10:10">
-      <c r="J376" s="2"/>
-    </row>
-    <row r="377" spans="10:10">
-      <c r="J377" s="2"/>
-    </row>
-    <row r="378" spans="10:10">
-      <c r="J378" s="2"/>
-    </row>
-    <row r="379" spans="10:10">
-      <c r="J379" s="2"/>
-    </row>
-    <row r="380" spans="10:10">
-      <c r="J380" s="2"/>
-    </row>
-    <row r="381" spans="10:10">
-      <c r="J381" s="2"/>
-    </row>
-    <row r="382" spans="10:10">
-      <c r="J382" s="2"/>
-    </row>
-    <row r="383" spans="10:10">
-      <c r="J383" s="2"/>
-    </row>
-    <row r="384" spans="10:10">
-      <c r="J384" s="2"/>
-    </row>
-    <row r="385" spans="10:10">
-      <c r="J385" s="2"/>
-    </row>
-    <row r="386" spans="10:10">
-      <c r="J386" s="2"/>
-    </row>
-    <row r="387" spans="10:10">
-      <c r="J387" s="2"/>
-    </row>
-    <row r="388" spans="10:10">
-      <c r="J388" s="2"/>
-    </row>
-    <row r="389" spans="10:10">
-      <c r="J389" s="2"/>
-    </row>
-    <row r="390" spans="10:10">
-      <c r="J390" s="2"/>
-    </row>
-    <row r="391" spans="10:10">
-      <c r="J391" s="2"/>
-    </row>
-    <row r="392" spans="10:10">
-      <c r="J392" s="2"/>
-    </row>
-    <row r="393" spans="10:10">
-      <c r="J393" s="2"/>
-    </row>
-    <row r="394" spans="10:10">
-      <c r="J394" s="2"/>
-    </row>
-    <row r="395" spans="10:10">
-      <c r="J395" s="2"/>
-    </row>
-    <row r="396" spans="10:10">
-      <c r="J396" s="2"/>
-    </row>
-    <row r="397" spans="10:10">
-      <c r="J397" s="2"/>
-    </row>
-    <row r="398" spans="10:10">
-      <c r="J398" s="2"/>
-    </row>
-    <row r="399" spans="10:10">
-      <c r="J399" s="2"/>
-    </row>
-    <row r="400" spans="10:10">
-      <c r="J400" s="2"/>
-    </row>
-    <row r="401" spans="10:10">
-      <c r="J401" s="2"/>
-    </row>
-    <row r="402" spans="10:10">
-      <c r="J402" s="2"/>
-    </row>
-    <row r="403" spans="10:10">
-      <c r="J403" s="2"/>
-    </row>
-    <row r="404" spans="10:10">
-      <c r="J404" s="2"/>
-    </row>
-    <row r="405" spans="10:10">
-      <c r="J405" s="2"/>
-    </row>
-    <row r="406" spans="10:10">
-      <c r="J406" s="2"/>
-    </row>
-    <row r="407" spans="10:10">
-      <c r="J407" s="2"/>
-    </row>
-    <row r="408" spans="10:10">
-      <c r="J408" s="2"/>
-    </row>
-    <row r="409" spans="10:10">
-      <c r="J409" s="2"/>
-    </row>
-    <row r="410" spans="10:10">
-      <c r="J410" s="2"/>
-    </row>
-    <row r="411" spans="10:10">
-      <c r="J411" s="2"/>
-    </row>
-    <row r="412" spans="10:10">
-      <c r="J412" s="2"/>
-    </row>
-    <row r="413" spans="10:10">
-      <c r="J413" s="2"/>
-    </row>
-    <row r="414" spans="10:10">
-      <c r="J414" s="2"/>
-    </row>
-    <row r="415" spans="10:10">
-      <c r="J415" s="2"/>
-    </row>
-    <row r="416" spans="10:10">
-      <c r="J416" s="2"/>
-    </row>
-    <row r="417" spans="10:10">
-      <c r="J417" s="2"/>
-    </row>
-    <row r="418" spans="10:10">
-      <c r="J418" s="2"/>
-    </row>
-    <row r="419" spans="10:10">
-      <c r="J419" s="2"/>
-    </row>
-    <row r="420" spans="10:10">
-      <c r="J420" s="2"/>
-    </row>
-    <row r="421" spans="10:10">
-      <c r="J421" s="2"/>
-    </row>
-    <row r="422" spans="10:10">
-      <c r="J422" s="2"/>
-    </row>
-    <row r="423" spans="10:10">
-      <c r="J423" s="2"/>
-    </row>
-    <row r="424" spans="10:10">
-      <c r="J424" s="2"/>
-    </row>
-    <row r="425" spans="10:10">
-      <c r="J425" s="2"/>
-    </row>
-    <row r="426" spans="10:10">
-      <c r="J426" s="2"/>
-    </row>
-    <row r="427" spans="10:10">
-      <c r="J427" s="2"/>
-    </row>
-    <row r="428" spans="10:10">
-      <c r="J428" s="2"/>
-    </row>
-    <row r="429" spans="10:10">
-      <c r="J429" s="2"/>
-    </row>
-    <row r="430" spans="10:10">
-      <c r="J430" s="2"/>
-    </row>
-    <row r="431" spans="10:10">
-      <c r="J431" s="2"/>
-    </row>
-    <row r="432" spans="10:10">
-      <c r="J432" s="2"/>
-    </row>
-    <row r="433" spans="10:10">
-      <c r="J433" s="2"/>
-    </row>
-    <row r="434" spans="10:10">
-      <c r="J434" s="2"/>
-    </row>
-    <row r="435" spans="10:10">
-      <c r="J435" s="2"/>
-    </row>
-    <row r="436" spans="10:10">
-      <c r="J436" s="2"/>
-    </row>
-    <row r="437" spans="10:10">
-      <c r="J437" s="2"/>
-    </row>
-    <row r="438" spans="10:10">
-      <c r="J438" s="2"/>
-    </row>
-    <row r="439" spans="10:10">
-      <c r="J439" s="2"/>
-    </row>
-    <row r="440" spans="10:10">
-      <c r="J440" s="2"/>
-    </row>
-    <row r="441" spans="10:10">
-      <c r="J441" s="2"/>
-    </row>
-    <row r="442" spans="10:10">
-      <c r="J442" s="2"/>
-    </row>
-    <row r="443" spans="10:10">
-      <c r="J443" s="2"/>
-    </row>
-    <row r="444" spans="10:10">
-      <c r="J444" s="2"/>
-    </row>
-    <row r="445" spans="10:10">
-      <c r="J445" s="2"/>
-    </row>
-    <row r="446" spans="10:10">
-      <c r="J446" s="2"/>
-    </row>
-    <row r="447" spans="10:10">
-      <c r="J447" s="2"/>
-    </row>
-    <row r="448" spans="10:10">
-      <c r="J448" s="2"/>
-    </row>
-    <row r="449" spans="10:10">
-      <c r="J449" s="2"/>
-    </row>
-    <row r="450" spans="10:10">
-      <c r="J450" s="2"/>
-    </row>
-    <row r="451" spans="10:10">
-      <c r="J451" s="2"/>
-    </row>
-    <row r="452" spans="10:10">
-      <c r="J452" s="2"/>
-    </row>
-    <row r="453" spans="10:10">
-      <c r="J453" s="2"/>
-    </row>
-    <row r="454" spans="10:10">
-      <c r="J454" s="2"/>
-    </row>
-    <row r="455" spans="10:10">
-      <c r="J455" s="2"/>
-    </row>
-    <row r="456" spans="10:10">
-      <c r="J456" s="2"/>
-    </row>
-    <row r="457" spans="10:10">
-      <c r="J457" s="2"/>
-    </row>
-    <row r="458" spans="10:10">
-      <c r="J458" s="2"/>
-    </row>
-    <row r="459" spans="10:10">
-      <c r="J459" s="2"/>
-    </row>
-    <row r="460" spans="10:10">
-      <c r="J460" s="2"/>
-    </row>
-    <row r="461" spans="10:10">
-      <c r="J461" s="2"/>
-    </row>
-    <row r="462" spans="10:10">
-      <c r="J462" s="2"/>
-    </row>
-    <row r="463" spans="10:10">
-      <c r="J463" s="2"/>
-    </row>
-    <row r="464" spans="10:10">
-      <c r="J464" s="2"/>
-    </row>
-    <row r="465" spans="10:10">
-      <c r="J465" s="2"/>
-    </row>
-    <row r="466" spans="10:10">
-      <c r="J466" s="2"/>
-    </row>
-    <row r="467" spans="10:10">
-      <c r="J467" s="2"/>
-    </row>
-    <row r="468" spans="10:10">
-      <c r="J468" s="2"/>
-    </row>
-    <row r="469" spans="10:10">
-      <c r="J469" s="2"/>
-    </row>
-    <row r="470" spans="10:10">
-      <c r="J470" s="2"/>
-    </row>
-    <row r="471" spans="10:10">
-      <c r="J471" s="2"/>
-    </row>
-    <row r="472" spans="10:10">
-      <c r="J472" s="2"/>
-    </row>
-    <row r="473" spans="10:10">
-      <c r="J473" s="2"/>
-    </row>
-    <row r="474" spans="10:10">
-      <c r="J474" s="2"/>
-    </row>
-    <row r="475" spans="10:10">
-      <c r="J475" s="2"/>
-    </row>
-    <row r="476" spans="10:10">
-      <c r="J476" s="2"/>
-    </row>
-    <row r="477" spans="10:10">
-      <c r="J477" s="2"/>
-    </row>
-    <row r="478" spans="10:10">
-      <c r="J478" s="2"/>
-    </row>
-    <row r="479" spans="10:10">
-      <c r="J479" s="2"/>
-    </row>
-    <row r="480" spans="10:10">
-      <c r="J480" s="2"/>
-    </row>
-    <row r="481" spans="10:10">
-      <c r="J481" s="2"/>
-    </row>
-    <row r="482" spans="10:10">
-      <c r="J482" s="2"/>
-    </row>
-    <row r="483" spans="10:10">
-      <c r="J483" s="2"/>
-    </row>
-    <row r="484" spans="10:10">
-      <c r="J484" s="2"/>
-    </row>
-    <row r="485" spans="10:10">
-      <c r="J485" s="2"/>
-    </row>
-    <row r="486" spans="10:10">
-      <c r="J486" s="2"/>
-    </row>
-    <row r="487" spans="10:10">
-      <c r="J487" s="2"/>
-    </row>
-    <row r="488" spans="10:10">
-      <c r="J488" s="2"/>
-    </row>
-    <row r="489" spans="10:10">
-      <c r="J489" s="2"/>
-    </row>
-    <row r="490" spans="10:10">
-      <c r="J490" s="2"/>
-    </row>
-    <row r="491" spans="10:10">
-      <c r="J491" s="2"/>
-    </row>
-    <row r="492" spans="10:10">
-      <c r="J492" s="2"/>
-    </row>
-    <row r="493" spans="10:10">
-      <c r="J493" s="2"/>
-    </row>
-    <row r="494" spans="10:10">
-      <c r="J494" s="2"/>
-    </row>
-    <row r="495" spans="10:10">
-      <c r="J495" s="2"/>
-    </row>
-    <row r="496" spans="10:10">
-      <c r="J496" s="2"/>
-    </row>
-    <row r="497" spans="10:10">
-      <c r="J497" s="2"/>
-    </row>
-    <row r="498" spans="10:10">
-      <c r="J498" s="2"/>
-    </row>
-    <row r="499" spans="10:10">
-      <c r="J499" s="2"/>
-    </row>
-    <row r="500" spans="10:10">
-      <c r="J500" s="2"/>
-    </row>
-    <row r="501" spans="10:10">
-      <c r="J501" s="2"/>
-    </row>
-    <row r="502" spans="10:10">
-      <c r="J502" s="2"/>
-    </row>
-    <row r="503" spans="10:10">
-      <c r="J503" s="2"/>
-    </row>
-    <row r="504" spans="10:10">
-      <c r="J504" s="2"/>
-    </row>
-    <row r="505" spans="10:10">
-      <c r="J505" s="2"/>
-    </row>
-    <row r="506" spans="10:10">
-      <c r="J506" s="2"/>
-    </row>
-    <row r="507" spans="10:10">
-      <c r="J507" s="2"/>
-    </row>
-    <row r="508" spans="10:10">
-      <c r="J508" s="2"/>
-    </row>
-    <row r="509" spans="10:10">
-      <c r="J509" s="2"/>
-    </row>
-    <row r="510" spans="10:10">
-      <c r="J510" s="2"/>
-    </row>
-    <row r="511" spans="10:10">
-      <c r="J511" s="2"/>
-    </row>
-    <row r="512" spans="10:10">
-      <c r="J512" s="2"/>
-    </row>
-    <row r="513" spans="10:10">
-      <c r="J513" s="2"/>
-    </row>
-    <row r="514" spans="10:10">
-      <c r="J514" s="2"/>
-    </row>
-    <row r="515" spans="10:10">
-      <c r="J515" s="2"/>
-    </row>
-    <row r="516" spans="10:10">
-      <c r="J516" s="2"/>
-    </row>
-    <row r="517" spans="10:10">
-      <c r="J517" s="2"/>
-    </row>
-    <row r="518" spans="10:10">
-      <c r="J518" s="2"/>
-    </row>
-    <row r="519" spans="10:10">
-      <c r="J519" s="2"/>
-    </row>
-    <row r="520" spans="10:10">
-      <c r="J520" s="2"/>
-    </row>
-    <row r="521" spans="10:10">
-      <c r="J521" s="2"/>
-    </row>
-    <row r="522" spans="10:10">
-      <c r="J522" s="2"/>
-    </row>
-    <row r="523" spans="10:10">
-      <c r="J523" s="2"/>
-    </row>
-    <row r="524" spans="10:10">
-      <c r="J524" s="2"/>
-    </row>
-    <row r="525" spans="10:10">
-      <c r="J525" s="2"/>
-    </row>
-    <row r="526" spans="10:10">
-      <c r="J526" s="2"/>
-    </row>
-    <row r="527" spans="10:10">
-      <c r="J527" s="2"/>
-    </row>
-    <row r="528" spans="10:10">
-      <c r="J528" s="2"/>
-    </row>
-    <row r="529" spans="10:10">
-      <c r="J529" s="2"/>
-    </row>
-    <row r="530" spans="10:10">
-      <c r="J530" s="2"/>
-    </row>
-    <row r="531" spans="10:10">
-      <c r="J531" s="2"/>
-    </row>
-    <row r="532" spans="10:10">
-      <c r="J532" s="2"/>
-    </row>
-    <row r="533" spans="10:10">
-      <c r="J533" s="2"/>
-    </row>
-    <row r="534" spans="10:10">
-      <c r="J534" s="2"/>
-    </row>
-    <row r="535" spans="10:10">
-      <c r="J535" s="2"/>
-    </row>
-    <row r="536" spans="10:10">
-      <c r="J536" s="2"/>
-    </row>
-    <row r="537" spans="10:10">
-      <c r="J537" s="2"/>
-    </row>
-    <row r="538" spans="10:10">
-      <c r="J538" s="2"/>
-    </row>
-    <row r="539" spans="10:10">
-      <c r="J539" s="2"/>
-    </row>
-    <row r="540" spans="10:10">
-      <c r="J540" s="2"/>
-    </row>
-    <row r="541" spans="10:10">
-      <c r="J541" s="2"/>
-    </row>
-    <row r="542" spans="10:10">
-      <c r="J542" s="2"/>
-    </row>
-    <row r="543" spans="10:10">
-      <c r="J543" s="2"/>
-    </row>
-    <row r="544" spans="10:10">
-      <c r="J544" s="2"/>
-    </row>
-    <row r="545" spans="10:10">
-      <c r="J545" s="2"/>
-    </row>
-    <row r="546" spans="10:10">
-      <c r="J546" s="2"/>
-    </row>
-    <row r="547" spans="10:10">
-      <c r="J547" s="2"/>
-    </row>
-    <row r="548" spans="10:10">
-      <c r="J548" s="2"/>
-    </row>
-    <row r="549" spans="10:10">
-      <c r="J549" s="2"/>
-    </row>
-    <row r="550" spans="10:10">
-      <c r="J550" s="2"/>
-    </row>
-    <row r="551" spans="10:10">
-      <c r="J551" s="2"/>
-    </row>
-    <row r="552" spans="10:10">
-      <c r="J552" s="2"/>
-    </row>
-    <row r="553" spans="10:10">
-      <c r="J553" s="2"/>
-    </row>
-    <row r="554" spans="10:10">
-      <c r="J554" s="2"/>
-    </row>
-    <row r="555" spans="10:10">
-      <c r="J555" s="2"/>
-    </row>
-    <row r="556" spans="10:10">
-      <c r="J556" s="2"/>
-    </row>
-    <row r="557" spans="10:10">
-      <c r="J557" s="2"/>
-    </row>
-    <row r="558" spans="10:10">
-      <c r="J558" s="2"/>
-    </row>
-    <row r="559" spans="10:10">
-      <c r="J559" s="2"/>
-    </row>
-    <row r="560" spans="10:10">
-      <c r="J560" s="2"/>
-    </row>
-    <row r="561" spans="10:10">
-      <c r="J561" s="2"/>
-    </row>
-    <row r="562" spans="10:10">
-      <c r="J562" s="2"/>
-    </row>
-    <row r="563" spans="10:10">
-      <c r="J563" s="2"/>
-    </row>
-    <row r="564" spans="10:10">
-      <c r="J564" s="2"/>
-    </row>
-    <row r="565" spans="10:10">
-      <c r="J565" s="2"/>
-    </row>
-    <row r="566" spans="10:10">
-      <c r="J566" s="2"/>
-    </row>
-    <row r="567" spans="10:10">
-      <c r="J567" s="2"/>
-    </row>
-    <row r="568" spans="10:10">
-      <c r="J568" s="2"/>
-    </row>
-    <row r="569" spans="10:10">
-      <c r="J569" s="2"/>
-    </row>
-    <row r="570" spans="10:10">
-      <c r="J570" s="2"/>
-    </row>
-    <row r="571" spans="10:10">
-      <c r="J571" s="2"/>
-    </row>
-    <row r="572" spans="10:10">
-      <c r="J572" s="2"/>
-    </row>
-    <row r="573" spans="10:10">
-      <c r="J573" s="2"/>
-    </row>
-    <row r="574" spans="10:10">
-      <c r="J574" s="2"/>
-    </row>
-    <row r="575" spans="10:10">
-      <c r="J575" s="2"/>
-    </row>
-    <row r="576" spans="10:10">
-      <c r="J576" s="2"/>
-    </row>
-    <row r="577" spans="10:10">
-      <c r="J577" s="2"/>
-    </row>
-    <row r="578" spans="10:10">
-      <c r="J578" s="2"/>
-    </row>
-    <row r="579" spans="10:10">
-      <c r="J579" s="2"/>
-    </row>
-    <row r="580" spans="10:10">
-      <c r="J580" s="2"/>
-    </row>
-    <row r="581" spans="10:10">
-      <c r="J581" s="2"/>
-    </row>
-    <row r="582" spans="10:10">
-      <c r="J582" s="2"/>
-    </row>
-    <row r="583" spans="10:10">
-      <c r="J583" s="2"/>
-    </row>
-    <row r="584" spans="10:10">
-      <c r="J584" s="2"/>
-    </row>
-    <row r="585" spans="10:10">
-      <c r="J585" s="2"/>
-    </row>
-    <row r="586" spans="10:10">
-      <c r="J586" s="2"/>
-    </row>
-    <row r="587" spans="10:10">
-      <c r="J587" s="2"/>
-    </row>
-    <row r="588" spans="10:10">
-      <c r="J588" s="2"/>
-    </row>
-    <row r="589" spans="10:10">
-      <c r="J589" s="2"/>
-    </row>
-    <row r="590" spans="10:10">
-      <c r="J590" s="2"/>
-    </row>
-    <row r="591" spans="10:10">
-      <c r="J591" s="2"/>
-    </row>
-    <row r="592" spans="10:10">
-      <c r="J592" s="2"/>
-    </row>
-    <row r="593" spans="10:10">
-      <c r="J593" s="2"/>
-    </row>
-    <row r="594" spans="10:10">
-      <c r="J594" s="2"/>
-    </row>
-    <row r="595" spans="10:10">
-      <c r="J595" s="2"/>
-    </row>
-    <row r="596" spans="10:10">
-      <c r="J596" s="2"/>
-    </row>
-    <row r="597" spans="10:10">
-      <c r="J597" s="2"/>
-    </row>
-    <row r="598" spans="10:10">
-      <c r="J598" s="2"/>
-    </row>
-    <row r="599" spans="10:10">
-      <c r="J599" s="2"/>
-    </row>
-    <row r="600" spans="10:10">
-      <c r="J600" s="2"/>
-    </row>
-    <row r="601" spans="10:10">
-      <c r="J601" s="2"/>
-    </row>
-    <row r="602" spans="10:10">
-      <c r="J602" s="2"/>
-    </row>
-    <row r="603" spans="10:10">
-      <c r="J603" s="2"/>
-    </row>
-    <row r="604" spans="10:10">
-      <c r="J604" s="2"/>
-    </row>
-    <row r="605" spans="10:10">
-      <c r="J605" s="2"/>
-    </row>
-    <row r="606" spans="10:10">
-      <c r="J606" s="2"/>
-    </row>
-    <row r="607" spans="10:10">
-      <c r="J607" s="2"/>
-    </row>
-    <row r="608" spans="10:10">
-      <c r="J608" s="2"/>
-    </row>
-    <row r="609" spans="10:10">
-      <c r="J609" s="2"/>
-    </row>
-    <row r="610" spans="10:10">
-      <c r="J610" s="2"/>
-    </row>
-    <row r="611" spans="10:10">
-      <c r="J611" s="2"/>
-    </row>
-    <row r="612" spans="10:10">
-      <c r="J612" s="2"/>
-    </row>
-    <row r="613" spans="10:10">
-      <c r="J613" s="2"/>
-    </row>
-    <row r="614" spans="10:10">
-      <c r="J614" s="2"/>
-    </row>
-    <row r="615" spans="10:10">
-      <c r="J615" s="2"/>
-    </row>
-    <row r="616" spans="10:10">
-      <c r="J616" s="2"/>
-    </row>
-    <row r="617" spans="10:10">
-      <c r="J617" s="2"/>
-    </row>
-    <row r="618" spans="10:10">
-      <c r="J618" s="2"/>
-    </row>
-    <row r="619" spans="10:10">
-      <c r="J619" s="2"/>
-    </row>
-    <row r="620" spans="10:10">
-      <c r="J620" s="2"/>
-    </row>
-    <row r="621" spans="10:10">
-      <c r="J621" s="2"/>
-    </row>
-    <row r="622" spans="10:10">
-      <c r="J622" s="2"/>
-    </row>
-    <row r="623" spans="10:10">
-      <c r="J623" s="2"/>
-    </row>
-    <row r="624" spans="10:10">
-      <c r="J624" s="2"/>
-    </row>
-    <row r="625" spans="10:10">
-      <c r="J625" s="2"/>
-    </row>
-    <row r="626" spans="10:10">
-      <c r="J626" s="2"/>
-    </row>
-    <row r="627" spans="10:10">
-      <c r="J627" s="2"/>
-    </row>
-    <row r="628" spans="10:10">
-      <c r="J628" s="2"/>
-    </row>
-    <row r="629" spans="10:10">
-      <c r="J629" s="2"/>
-    </row>
-    <row r="630" spans="10:10">
-      <c r="J630" s="2"/>
-    </row>
-    <row r="631" spans="10:10">
-      <c r="J631" s="2"/>
-    </row>
-    <row r="632" spans="10:10">
-      <c r="J632" s="2"/>
-    </row>
-    <row r="633" spans="10:10">
-      <c r="J633" s="2"/>
-    </row>
-    <row r="634" spans="10:10">
-      <c r="J634" s="2"/>
-    </row>
-    <row r="635" spans="10:10">
-      <c r="J635" s="2"/>
-    </row>
-    <row r="636" spans="10:10">
-      <c r="J636" s="2"/>
-    </row>
-    <row r="637" spans="10:10">
-      <c r="J637" s="2"/>
-    </row>
-    <row r="638" spans="10:10">
-      <c r="J638" s="2"/>
-    </row>
-    <row r="639" spans="10:10">
-      <c r="J639" s="2"/>
-    </row>
-    <row r="640" spans="10:10">
-      <c r="J640" s="2"/>
-    </row>
-    <row r="641" spans="10:10">
-      <c r="J641" s="2"/>
-    </row>
-    <row r="642" spans="10:10">
-      <c r="J642" s="2"/>
-    </row>
-    <row r="643" spans="10:10">
-      <c r="J643" s="2"/>
-    </row>
-    <row r="644" spans="10:10">
-      <c r="J644" s="2"/>
-    </row>
-    <row r="645" spans="10:10">
-      <c r="J645" s="2"/>
-    </row>
-    <row r="646" spans="10:10">
-      <c r="J646" s="2"/>
-    </row>
-    <row r="647" spans="10:10">
-      <c r="J647" s="2"/>
-    </row>
-    <row r="648" spans="10:10">
-      <c r="J648" s="2"/>
-    </row>
-    <row r="649" spans="10:10">
-      <c r="J649" s="2"/>
-    </row>
-    <row r="650" spans="10:10">
-      <c r="J650" s="2"/>
-    </row>
-    <row r="651" spans="10:10">
-      <c r="J651" s="2"/>
-    </row>
-    <row r="652" spans="10:10">
-      <c r="J652" s="2"/>
-    </row>
-    <row r="653" spans="10:10">
-      <c r="J653" s="2"/>
-    </row>
-    <row r="654" spans="10:10">
-      <c r="J654" s="2"/>
-    </row>
-    <row r="655" spans="10:10">
-      <c r="J655" s="2"/>
-    </row>
-    <row r="656" spans="10:10">
-      <c r="J656" s="2"/>
-    </row>
-    <row r="657" spans="10:10">
-      <c r="J657" s="2"/>
-    </row>
-    <row r="658" spans="10:10">
-      <c r="J658" s="2"/>
-    </row>
-    <row r="659" spans="10:10">
-      <c r="J659" s="2"/>
-    </row>
-    <row r="660" spans="10:10">
-      <c r="J660" s="2"/>
-    </row>
-    <row r="661" spans="10:10">
-      <c r="J661" s="2"/>
-    </row>
-    <row r="662" spans="10:10">
-      <c r="J662" s="2"/>
-    </row>
-    <row r="663" spans="10:10">
-      <c r="J663" s="2"/>
-    </row>
-    <row r="664" spans="10:10">
-      <c r="J664" s="2"/>
-    </row>
-    <row r="665" spans="10:10">
-      <c r="J665" s="2"/>
-    </row>
-    <row r="666" spans="10:10">
-      <c r="J666" s="2"/>
-    </row>
-    <row r="667" spans="10:10">
-      <c r="J667" s="2"/>
-    </row>
-    <row r="668" spans="10:10">
-      <c r="J668" s="2"/>
-    </row>
-    <row r="669" spans="10:10">
-      <c r="J669" s="2"/>
-    </row>
-    <row r="670" spans="10:10">
-      <c r="J670" s="2"/>
-    </row>
-    <row r="671" spans="10:10">
-      <c r="J671" s="2"/>
-    </row>
-    <row r="672" spans="10:10">
-      <c r="J672" s="2"/>
-    </row>
-    <row r="673" spans="10:10">
-      <c r="J673" s="2"/>
-    </row>
-    <row r="674" spans="10:10">
-      <c r="J674" s="2"/>
-    </row>
-    <row r="675" spans="10:10">
-      <c r="J675" s="2"/>
-    </row>
-    <row r="676" spans="10:10">
-      <c r="J676" s="2"/>
-    </row>
-    <row r="677" spans="10:10">
-      <c r="J677" s="2"/>
-    </row>
-    <row r="678" spans="10:10">
-      <c r="J678" s="2"/>
-    </row>
-    <row r="679" spans="10:10">
-      <c r="J679" s="2"/>
-    </row>
-    <row r="680" spans="10:10">
-      <c r="J680" s="2"/>
-    </row>
-    <row r="681" spans="10:10">
-      <c r="J681" s="2"/>
-    </row>
-    <row r="682" spans="10:10">
-      <c r="J682" s="2"/>
-    </row>
-    <row r="683" spans="10:10">
-      <c r="J683" s="2"/>
-    </row>
-    <row r="684" spans="10:10">
-      <c r="J684" s="2"/>
-    </row>
-    <row r="685" spans="10:10">
-      <c r="J685" s="2"/>
-    </row>
-    <row r="686" spans="10:10">
-      <c r="J686" s="2"/>
-    </row>
-    <row r="687" spans="10:10">
-      <c r="J687" s="2"/>
-    </row>
-    <row r="688" spans="10:10">
-      <c r="J688" s="2"/>
-    </row>
-    <row r="689" spans="10:10">
-      <c r="J689" s="2"/>
-    </row>
-    <row r="690" spans="10:10">
-      <c r="J690" s="2"/>
-    </row>
-    <row r="691" spans="10:10">
-      <c r="J691" s="2"/>
-    </row>
-    <row r="692" spans="10:10">
-      <c r="J692" s="2"/>
-    </row>
-    <row r="693" spans="10:10">
-      <c r="J693" s="2"/>
-    </row>
-    <row r="694" spans="10:10">
-      <c r="J694" s="2"/>
-    </row>
-    <row r="695" spans="10:10">
-      <c r="J695" s="2"/>
-    </row>
-    <row r="696" spans="10:10">
-      <c r="J696" s="2"/>
-    </row>
-    <row r="697" spans="10:10">
-      <c r="J697" s="2"/>
-    </row>
-    <row r="698" spans="10:10">
-      <c r="J698" s="2"/>
-    </row>
-    <row r="699" spans="10:10">
-      <c r="J699" s="2"/>
-    </row>
-    <row r="700" spans="10:10">
-      <c r="J700" s="2"/>
-    </row>
-    <row r="701" spans="10:10">
-      <c r="J701" s="2"/>
-    </row>
-    <row r="702" spans="10:10">
-      <c r="J702" s="2"/>
-    </row>
-    <row r="703" spans="10:10">
-      <c r="J703" s="2"/>
-    </row>
-    <row r="704" spans="10:10">
-      <c r="J704" s="2"/>
-    </row>
-    <row r="705" spans="10:10">
-      <c r="J705" s="2"/>
-    </row>
-    <row r="706" spans="10:10">
-      <c r="J706" s="2"/>
-    </row>
-    <row r="707" spans="10:10">
-      <c r="J707" s="2"/>
-    </row>
-    <row r="708" spans="10:10">
-      <c r="J708" s="2"/>
-    </row>
-    <row r="709" spans="10:10">
-      <c r="J709" s="2"/>
-    </row>
-    <row r="710" spans="10:10">
-      <c r="J710" s="2"/>
-    </row>
-    <row r="711" spans="10:10">
-      <c r="J711" s="2"/>
-    </row>
-    <row r="712" spans="10:10">
-      <c r="J712" s="2"/>
-    </row>
-    <row r="713" spans="10:10">
-      <c r="J713" s="2"/>
-    </row>
-    <row r="714" spans="10:10">
-      <c r="J714" s="2"/>
-    </row>
-    <row r="715" spans="10:10">
-      <c r="J715" s="2"/>
-    </row>
-    <row r="716" spans="10:10">
-      <c r="J716" s="2"/>
-    </row>
-    <row r="717" spans="10:10">
-      <c r="J717" s="2"/>
-    </row>
-    <row r="718" spans="10:10">
-      <c r="J718" s="2"/>
-    </row>
-    <row r="719" spans="10:10">
-      <c r="J719" s="2"/>
-    </row>
-    <row r="720" spans="10:10">
-      <c r="J720" s="2"/>
-    </row>
-    <row r="721" spans="10:10">
-      <c r="J721" s="2"/>
-    </row>
-    <row r="722" spans="10:10">
-      <c r="J722" s="2"/>
-    </row>
-    <row r="723" spans="10:10">
-      <c r="J723" s="2"/>
-    </row>
-    <row r="724" spans="10:10">
-      <c r="J724" s="2"/>
-    </row>
-    <row r="725" spans="10:10">
-      <c r="J725" s="2"/>
-    </row>
-    <row r="726" spans="10:10">
-      <c r="J726" s="2"/>
-    </row>
-    <row r="727" spans="10:10">
-      <c r="J727" s="2"/>
-    </row>
-    <row r="728" spans="10:10">
-      <c r="J728" s="2"/>
-    </row>
-    <row r="729" spans="10:10">
-      <c r="J729" s="2"/>
-    </row>
-    <row r="730" spans="10:10">
-      <c r="J730" s="2"/>
-    </row>
-    <row r="731" spans="10:10">
-      <c r="J731" s="2"/>
-    </row>
-    <row r="732" spans="10:10">
-      <c r="J732" s="2"/>
-    </row>
-    <row r="733" spans="10:10">
-      <c r="J733" s="2"/>
-    </row>
-    <row r="734" spans="10:10">
-      <c r="J734" s="2"/>
-    </row>
-    <row r="735" spans="10:10">
-      <c r="J735" s="2"/>
-    </row>
-    <row r="736" spans="10:10">
-      <c r="J736" s="2"/>
-    </row>
-    <row r="737" spans="10:10">
-      <c r="J737" s="2"/>
-    </row>
-    <row r="738" spans="10:10">
-      <c r="J738" s="2"/>
-    </row>
-    <row r="739" spans="10:10">
-      <c r="J739" s="2"/>
-    </row>
-    <row r="740" spans="10:10">
-      <c r="J740" s="2"/>
-    </row>
-    <row r="741" spans="10:10">
-      <c r="J741" s="2"/>
-    </row>
-    <row r="742" spans="10:10">
-      <c r="J742" s="2"/>
-    </row>
-    <row r="743" spans="10:10">
-      <c r="J743" s="2"/>
-    </row>
-    <row r="744" spans="10:10">
-      <c r="J744" s="2"/>
-    </row>
-    <row r="745" spans="10:10">
-      <c r="J745" s="2"/>
-    </row>
-    <row r="746" spans="10:10">
-      <c r="J746" s="2"/>
-    </row>
-    <row r="747" spans="10:10">
-      <c r="J747" s="2"/>
-    </row>
-    <row r="748" spans="10:10">
-      <c r="J748" s="2"/>
-    </row>
-    <row r="749" spans="10:10">
-      <c r="J749" s="2"/>
-    </row>
-    <row r="750" spans="10:10">
-      <c r="J750" s="2"/>
-    </row>
-    <row r="751" spans="10:10">
-      <c r="J751" s="2"/>
-    </row>
-    <row r="752" spans="10:10">
-      <c r="J752" s="2"/>
-    </row>
-    <row r="753" spans="10:10">
-      <c r="J753" s="2"/>
-    </row>
-    <row r="754" spans="10:10">
-      <c r="J754" s="2"/>
-    </row>
-    <row r="755" spans="10:10">
-      <c r="J755" s="2"/>
-    </row>
-    <row r="756" spans="10:10">
-      <c r="J756" s="2"/>
-    </row>
-    <row r="757" spans="10:10">
-      <c r="J757" s="2"/>
-    </row>
-    <row r="758" spans="10:10">
-      <c r="J758" s="2"/>
-    </row>
-    <row r="759" spans="10:10">
-      <c r="J759" s="2"/>
-    </row>
-    <row r="760" spans="10:10">
-      <c r="J760" s="2"/>
-    </row>
-    <row r="761" spans="10:10">
-      <c r="J761" s="2"/>
-    </row>
-    <row r="762" spans="10:10">
-      <c r="J762" s="2"/>
-    </row>
-    <row r="763" spans="10:10">
-      <c r="J763" s="2"/>
-    </row>
-    <row r="764" spans="10:10">
-      <c r="J764" s="2"/>
-    </row>
-    <row r="765" spans="10:10">
-      <c r="J765" s="2"/>
-    </row>
-    <row r="766" spans="10:10">
-      <c r="J766" s="2"/>
-    </row>
-    <row r="767" spans="10:10">
-      <c r="J767" s="2"/>
-    </row>
-    <row r="768" spans="10:10">
-      <c r="J768" s="2"/>
-    </row>
-    <row r="769" spans="10:10">
-      <c r="J769" s="2"/>
-    </row>
-    <row r="770" spans="10:10">
-      <c r="J770" s="2"/>
-    </row>
-    <row r="771" spans="10:10">
-      <c r="J771" s="2"/>
-    </row>
-    <row r="772" spans="10:10">
-      <c r="J772" s="2"/>
-    </row>
-    <row r="773" spans="10:10">
-      <c r="J773" s="2"/>
-    </row>
-    <row r="774" spans="10:10">
-      <c r="J774" s="2"/>
-    </row>
-    <row r="775" spans="10:10">
-      <c r="J775" s="2"/>
-    </row>
-    <row r="776" spans="10:10">
-      <c r="J776" s="2"/>
-    </row>
-    <row r="777" spans="10:10">
-      <c r="J777" s="2"/>
-    </row>
-    <row r="778" spans="10:10">
-      <c r="J778" s="2"/>
-    </row>
-    <row r="779" spans="10:10">
-      <c r="J779" s="2"/>
-    </row>
-    <row r="780" spans="10:10">
-      <c r="J780" s="2"/>
-    </row>
-    <row r="781" spans="10:10">
-      <c r="J781" s="2"/>
-    </row>
-    <row r="782" spans="10:10">
-      <c r="J782" s="2"/>
-    </row>
-    <row r="783" spans="10:10">
-      <c r="J783" s="2"/>
-    </row>
-    <row r="784" spans="10:10">
-      <c r="J784" s="2"/>
-    </row>
-    <row r="785" spans="10:10">
-      <c r="J785" s="2"/>
-    </row>
-    <row r="786" spans="10:10">
-      <c r="J786" s="2"/>
-    </row>
-    <row r="787" spans="10:10">
-      <c r="J787" s="2"/>
-    </row>
-    <row r="788" spans="10:10">
-      <c r="J788" s="2"/>
-    </row>
-    <row r="789" spans="10:10">
-      <c r="J789" s="2"/>
-    </row>
-    <row r="790" spans="10:10">
-      <c r="J790" s="2"/>
-    </row>
-    <row r="791" spans="10:10">
-      <c r="J791" s="2"/>
-    </row>
-    <row r="792" spans="10:10">
-      <c r="J792" s="2"/>
-    </row>
-    <row r="793" spans="10:10">
-      <c r="J793" s="2"/>
-    </row>
-    <row r="794" spans="10:10">
-      <c r="J794" s="2"/>
-    </row>
-    <row r="795" spans="10:10">
-      <c r="J795" s="2"/>
-    </row>
-    <row r="796" spans="10:10">
-      <c r="J796" s="2"/>
-    </row>
-    <row r="797" spans="10:10">
-      <c r="J797" s="2"/>
-    </row>
-    <row r="798" spans="10:10">
-      <c r="J798" s="2"/>
-    </row>
-    <row r="799" spans="10:10">
-      <c r="J799" s="2"/>
-    </row>
-    <row r="800" spans="10:10">
-      <c r="J800" s="2"/>
-    </row>
-    <row r="801" spans="10:10">
-      <c r="J801" s="2"/>
-    </row>
-    <row r="802" spans="10:10">
-      <c r="J802" s="2"/>
-    </row>
-    <row r="803" spans="10:10">
-      <c r="J803" s="2"/>
-    </row>
-    <row r="804" spans="10:10">
-      <c r="J804" s="2"/>
-    </row>
-    <row r="805" spans="10:10">
-      <c r="J805" s="2"/>
-    </row>
-    <row r="806" spans="10:10">
-      <c r="J806" s="2"/>
-    </row>
-    <row r="807" spans="10:10">
-      <c r="J807" s="2"/>
-    </row>
-    <row r="808" spans="10:10">
-      <c r="J808" s="2"/>
-    </row>
-    <row r="809" spans="10:10">
-      <c r="J809" s="2"/>
-    </row>
-    <row r="810" spans="10:10">
-      <c r="J810" s="2"/>
-    </row>
-    <row r="811" spans="10:10">
-      <c r="J811" s="2"/>
-    </row>
-    <row r="812" spans="10:10">
-      <c r="J812" s="2"/>
-    </row>
-    <row r="813" spans="10:10">
-      <c r="J813" s="2"/>
-    </row>
-    <row r="814" spans="10:10">
-      <c r="J814" s="2"/>
-    </row>
-    <row r="815" spans="10:10">
-      <c r="J815" s="2"/>
-    </row>
-    <row r="816" spans="10:10">
-      <c r="J816" s="2"/>
-    </row>
-    <row r="817" spans="10:10">
-      <c r="J817" s="2"/>
-    </row>
-    <row r="818" spans="10:10">
-      <c r="J818" s="2"/>
-    </row>
-    <row r="819" spans="10:10">
-      <c r="J819" s="2"/>
-    </row>
-    <row r="820" spans="10:10">
-      <c r="J820" s="2"/>
-    </row>
-    <row r="821" spans="10:10">
-      <c r="J821" s="2"/>
-    </row>
-    <row r="822" spans="10:10">
-      <c r="J822" s="2"/>
-    </row>
-    <row r="823" spans="10:10">
-      <c r="J823" s="2"/>
-    </row>
-    <row r="824" spans="10:10">
-      <c r="J824" s="2"/>
-    </row>
-    <row r="825" spans="10:10">
-      <c r="J825" s="2"/>
-    </row>
-    <row r="826" spans="10:10">
-      <c r="J826" s="2"/>
-    </row>
-    <row r="827" spans="10:10">
-      <c r="J827" s="2"/>
-    </row>
-    <row r="828" spans="10:10">
-      <c r="J828" s="2"/>
-    </row>
-    <row r="829" spans="10:10">
-      <c r="J829" s="2"/>
-    </row>
-    <row r="830" spans="10:10">
-      <c r="J830" s="2"/>
-    </row>
-    <row r="831" spans="10:10">
-      <c r="J831" s="2"/>
-    </row>
-    <row r="832" spans="10:10">
-      <c r="J832" s="2"/>
-    </row>
-    <row r="833" spans="10:10">
-      <c r="J833" s="2"/>
-    </row>
-    <row r="834" spans="10:10">
-      <c r="J834" s="2"/>
-    </row>
-    <row r="835" spans="10:10">
-      <c r="J835" s="2"/>
-    </row>
-    <row r="836" spans="10:10">
-      <c r="J836" s="2"/>
-    </row>
-    <row r="837" spans="10:10">
-      <c r="J837" s="2"/>
-    </row>
-    <row r="838" spans="10:10">
-      <c r="J838" s="2"/>
-    </row>
-    <row r="839" spans="10:10">
-      <c r="J839" s="2"/>
-    </row>
-    <row r="840" spans="10:10">
-      <c r="J840" s="2"/>
-    </row>
-    <row r="841" spans="10:10">
-      <c r="J841" s="2"/>
-    </row>
-    <row r="842" spans="10:10">
-      <c r="J842" s="2"/>
-    </row>
-    <row r="843" spans="10:10">
-      <c r="J843" s="2"/>
-    </row>
-    <row r="844" spans="10:10">
-      <c r="J844" s="2"/>
-    </row>
-    <row r="845" spans="10:10">
-      <c r="J845" s="2"/>
-    </row>
-    <row r="846" spans="10:10">
-      <c r="J846" s="2"/>
-    </row>
-    <row r="847" spans="10:10">
-      <c r="J847" s="2"/>
-    </row>
-    <row r="848" spans="10:10">
-      <c r="J848" s="2"/>
-    </row>
-    <row r="849" spans="10:10">
-      <c r="J849" s="2"/>
-    </row>
-    <row r="850" spans="10:10">
-      <c r="J850" s="2"/>
-    </row>
-    <row r="851" spans="10:10">
-      <c r="J851" s="2"/>
-    </row>
-    <row r="852" spans="10:10">
-      <c r="J852" s="2"/>
-    </row>
-    <row r="853" spans="10:10">
-      <c r="J853" s="2"/>
-    </row>
-    <row r="854" spans="10:10">
-      <c r="J854" s="2"/>
-    </row>
-    <row r="855" spans="10:10">
-      <c r="J855" s="2"/>
-    </row>
-    <row r="856" spans="10:10">
-      <c r="J856" s="2"/>
-    </row>
-    <row r="857" spans="10:10">
-      <c r="J857" s="2"/>
-    </row>
-    <row r="858" spans="10:10">
-      <c r="J858" s="2"/>
-    </row>
-    <row r="859" spans="10:10">
-      <c r="J859" s="2"/>
-    </row>
-    <row r="860" spans="10:10">
-      <c r="J860" s="2"/>
-    </row>
-    <row r="861" spans="10:10">
-      <c r="J861" s="2"/>
-    </row>
-    <row r="862" spans="10:10">
-      <c r="J862" s="2"/>
-    </row>
-    <row r="863" spans="10:10">
-      <c r="J863" s="2"/>
-    </row>
-    <row r="864" spans="10:10">
-      <c r="J864" s="2"/>
-    </row>
-    <row r="865" spans="10:10">
-      <c r="J865" s="2"/>
-    </row>
-    <row r="866" spans="10:10">
-      <c r="J866" s="2"/>
-    </row>
-    <row r="867" spans="10:10">
-      <c r="J867" s="2"/>
-    </row>
-    <row r="868" spans="10:10">
-      <c r="J868" s="2"/>
-    </row>
-    <row r="869" spans="10:10">
-      <c r="J869" s="2"/>
-    </row>
-    <row r="870" spans="10:10">
-      <c r="J870" s="2"/>
-    </row>
-    <row r="871" spans="10:10">
-      <c r="J871" s="2"/>
-    </row>
-    <row r="872" spans="10:10">
-      <c r="J872" s="2"/>
-    </row>
-    <row r="873" spans="10:10">
-      <c r="J873" s="2"/>
-    </row>
-    <row r="874" spans="10:10">
-      <c r="J874" s="2"/>
-    </row>
-    <row r="875" spans="10:10">
-      <c r="J875" s="2"/>
-    </row>
-    <row r="876" spans="10:10">
-      <c r="J876" s="2"/>
-    </row>
-    <row r="877" spans="10:10">
-      <c r="J877" s="2"/>
-    </row>
-    <row r="878" spans="10:10">
-      <c r="J878" s="2"/>
-    </row>
-    <row r="879" spans="10:10">
-      <c r="J879" s="2"/>
-    </row>
-    <row r="880" spans="10:10">
-      <c r="J880" s="2"/>
-    </row>
-    <row r="881" spans="10:10">
-      <c r="J881" s="2"/>
-    </row>
-    <row r="882" spans="10:10">
-      <c r="J882" s="2"/>
-    </row>
-    <row r="883" spans="10:10">
-      <c r="J883" s="2"/>
-    </row>
-    <row r="884" spans="10:10">
-      <c r="J884" s="2"/>
-    </row>
-    <row r="885" spans="10:10">
-      <c r="J885" s="2"/>
-    </row>
-    <row r="886" spans="10:10">
-      <c r="J886" s="2"/>
-    </row>
-    <row r="887" spans="10:10">
-      <c r="J887" s="2"/>
-    </row>
-    <row r="888" spans="10:10">
-      <c r="J888" s="2"/>
-    </row>
-    <row r="889" spans="10:10">
-      <c r="J889" s="2"/>
-    </row>
-    <row r="890" spans="10:10">
-      <c r="J890" s="2"/>
-    </row>
-    <row r="891" spans="10:10">
-      <c r="J891" s="2"/>
-    </row>
-    <row r="892" spans="10:10">
-      <c r="J892" s="2"/>
-    </row>
-    <row r="893" spans="10:10">
-      <c r="J893" s="2"/>
-    </row>
-    <row r="894" spans="10:10">
-      <c r="J894" s="2"/>
-    </row>
-    <row r="895" spans="10:10">
-      <c r="J895" s="2"/>
-    </row>
-    <row r="896" spans="10:10">
-      <c r="J896" s="2"/>
-    </row>
-    <row r="897" spans="10:10">
-      <c r="J897" s="2"/>
-    </row>
-    <row r="898" spans="10:10">
-      <c r="J898" s="2"/>
-    </row>
-    <row r="899" spans="10:10">
-      <c r="J899" s="2"/>
-    </row>
-    <row r="900" spans="10:10">
-      <c r="J900" s="2"/>
-    </row>
-    <row r="901" spans="10:10">
-      <c r="J901" s="2"/>
-    </row>
-    <row r="902" spans="10:10">
-      <c r="J902" s="2"/>
-    </row>
-    <row r="903" spans="10:10">
-      <c r="J903" s="2"/>
-    </row>
-    <row r="904" spans="10:10">
-      <c r="J904" s="2"/>
-    </row>
-    <row r="905" spans="10:10">
-      <c r="J905" s="2"/>
-    </row>
-    <row r="906" spans="10:10">
-      <c r="J906" s="2"/>
-    </row>
-    <row r="907" spans="10:10">
-      <c r="J907" s="2"/>
-    </row>
-    <row r="908" spans="10:10">
-      <c r="J908" s="2"/>
-    </row>
-    <row r="909" spans="10:10">
-      <c r="J909" s="2"/>
-    </row>
-    <row r="910" spans="10:10">
-      <c r="J910" s="2"/>
-    </row>
-    <row r="911" spans="10:10">
-      <c r="J911" s="2"/>
-    </row>
-    <row r="912" spans="10:10">
-      <c r="J912" s="2"/>
-    </row>
-    <row r="913" spans="10:10">
-      <c r="J913" s="2"/>
-    </row>
-    <row r="914" spans="10:10">
-      <c r="J914" s="2"/>
-    </row>
-    <row r="915" spans="10:10">
-      <c r="J915" s="2"/>
-    </row>
-    <row r="916" spans="10:10">
-      <c r="J916" s="2"/>
-    </row>
-    <row r="917" spans="10:10">
-      <c r="J917" s="2"/>
-    </row>
-    <row r="918" spans="10:10">
-      <c r="J918" s="2"/>
-    </row>
-    <row r="919" spans="10:10">
-      <c r="J919" s="2"/>
-    </row>
-    <row r="920" spans="10:10">
-      <c r="J920" s="2"/>
-    </row>
-    <row r="921" spans="10:10">
-      <c r="J921" s="2"/>
-    </row>
-    <row r="922" spans="10:10">
-      <c r="J922" s="2"/>
-    </row>
-    <row r="923" spans="10:10">
-      <c r="J923" s="2"/>
-    </row>
-    <row r="924" spans="10:10">
-      <c r="J924" s="2"/>
-    </row>
-    <row r="925" spans="10:10">
-      <c r="J925" s="2"/>
-    </row>
-    <row r="926" spans="10:10">
-      <c r="J926" s="2"/>
-    </row>
-    <row r="927" spans="10:10">
-      <c r="J927" s="2"/>
-    </row>
-    <row r="928" spans="10:10">
-      <c r="J928" s="2"/>
-    </row>
-    <row r="929" spans="10:10">
-      <c r="J929" s="2"/>
-    </row>
-    <row r="930" spans="10:10">
-      <c r="J930" s="2"/>
-    </row>
-    <row r="931" spans="10:10">
-      <c r="J931" s="2"/>
-    </row>
-    <row r="932" spans="10:10">
-      <c r="J932" s="2"/>
-    </row>
-    <row r="933" spans="10:10">
-      <c r="J933" s="2"/>
-    </row>
-    <row r="934" spans="10:10">
-      <c r="J934" s="2"/>
-    </row>
-    <row r="935" spans="10:10">
-      <c r="J935" s="2"/>
-    </row>
-    <row r="936" spans="10:10">
-      <c r="J936" s="2"/>
-    </row>
-    <row r="937" spans="10:10">
-      <c r="J937" s="2"/>
-    </row>
-    <row r="938" spans="10:10">
-      <c r="J938" s="2"/>
-    </row>
-    <row r="939" spans="10:10">
-      <c r="J939" s="2"/>
-    </row>
-    <row r="940" spans="10:10">
-      <c r="J940" s="2"/>
-    </row>
-    <row r="941" spans="10:10">
-      <c r="J941" s="2"/>
-    </row>
-    <row r="942" spans="10:10">
-      <c r="J942" s="2"/>
-    </row>
-    <row r="943" spans="10:10">
-      <c r="J943" s="2"/>
-    </row>
-    <row r="944" spans="10:10">
-      <c r="J944" s="2"/>
-    </row>
-    <row r="945" spans="10:10">
-      <c r="J945" s="2"/>
-    </row>
-    <row r="946" spans="10:10">
-      <c r="J946" s="2"/>
-    </row>
-    <row r="947" spans="10:10">
-      <c r="J947" s="2"/>
-    </row>
-    <row r="948" spans="10:10">
-      <c r="J948" s="2"/>
-    </row>
-    <row r="949" spans="10:10">
-      <c r="J949" s="2"/>
-    </row>
-    <row r="950" spans="10:10">
-      <c r="J950" s="2"/>
-    </row>
-    <row r="951" spans="10:10">
-      <c r="J951" s="2"/>
-    </row>
-    <row r="952" spans="10:10">
-      <c r="J952" s="2"/>
-    </row>
-    <row r="953" spans="10:10">
-      <c r="J953" s="2"/>
-    </row>
-    <row r="954" spans="10:10">
-      <c r="J954" s="2"/>
-    </row>
-    <row r="955" spans="10:10">
-      <c r="J955" s="2"/>
-    </row>
-    <row r="956" spans="10:10">
-      <c r="J956" s="2"/>
-    </row>
-    <row r="957" spans="10:10">
-      <c r="J957" s="2"/>
-    </row>
-    <row r="958" spans="10:10">
-      <c r="J958" s="2"/>
-    </row>
-    <row r="959" spans="10:10">
-      <c r="J959" s="2"/>
-    </row>
-    <row r="960" spans="10:10">
-      <c r="J960" s="2"/>
-    </row>
-    <row r="961" spans="10:10">
-      <c r="J961" s="2"/>
-    </row>
-    <row r="962" spans="10:10">
-      <c r="J962" s="2"/>
-    </row>
-    <row r="963" spans="10:10">
-      <c r="J963" s="2"/>
-    </row>
-    <row r="964" spans="10:10">
-      <c r="J964" s="2"/>
-    </row>
-    <row r="965" spans="10:10">
-      <c r="J965" s="2"/>
-    </row>
-    <row r="966" spans="10:10">
-      <c r="J966" s="2"/>
-    </row>
-    <row r="967" spans="10:10">
-      <c r="J967" s="2"/>
-    </row>
-    <row r="968" spans="10:10">
-      <c r="J968" s="2"/>
-    </row>
-    <row r="969" spans="10:10">
-      <c r="J969" s="2"/>
-    </row>
-    <row r="970" spans="10:10">
-      <c r="J970" s="2"/>
-    </row>
-    <row r="971" spans="10:10">
-      <c r="J971" s="2"/>
-    </row>
-    <row r="972" spans="10:10">
-      <c r="J972" s="2"/>
-    </row>
-    <row r="973" spans="10:10">
-      <c r="J973" s="2"/>
-    </row>
-    <row r="974" spans="10:10">
-      <c r="J974" s="2"/>
-    </row>
-    <row r="975" spans="10:10">
-      <c r="J975" s="2"/>
-    </row>
-    <row r="976" spans="10:10">
-      <c r="J976" s="2"/>
-    </row>
-    <row r="977" spans="10:10">
-      <c r="J977" s="2"/>
-    </row>
-    <row r="978" spans="10:10">
-      <c r="J978" s="2"/>
-    </row>
-    <row r="979" spans="10:10">
-      <c r="J979" s="2"/>
-    </row>
-    <row r="980" spans="10:10">
-      <c r="J980" s="2"/>
-    </row>
-    <row r="981" spans="10:10">
-      <c r="J981" s="2"/>
-    </row>
-    <row r="982" spans="10:10">
-      <c r="J982" s="2"/>
-    </row>
-    <row r="983" spans="10:10">
-      <c r="J983" s="2"/>
-    </row>
-    <row r="984" spans="10:10">
-      <c r="J984" s="2"/>
-    </row>
-    <row r="985" spans="10:10">
-      <c r="J985" s="2"/>
-    </row>
-    <row r="986" spans="10:10">
-      <c r="J986" s="2"/>
-    </row>
-    <row r="987" spans="10:10">
-      <c r="J987" s="2"/>
-    </row>
-    <row r="988" spans="10:10">
-      <c r="J988" s="2"/>
-    </row>
-    <row r="989" spans="10:10">
-      <c r="J989" s="2"/>
-    </row>
-    <row r="990" spans="10:10">
-      <c r="J990" s="2"/>
-    </row>
-    <row r="991" spans="10:10">
-      <c r="J991" s="2"/>
-    </row>
-    <row r="992" spans="10:10">
-      <c r="J992" s="2"/>
-    </row>
-    <row r="993" spans="10:10">
-      <c r="J993" s="2"/>
-    </row>
-    <row r="994" spans="10:10">
-      <c r="J994" s="2"/>
-    </row>
-    <row r="995" spans="10:10">
-      <c r="J995" s="2"/>
-    </row>
-    <row r="996" spans="10:10">
-      <c r="J996" s="2"/>
-    </row>
-    <row r="997" spans="10:10">
-      <c r="J997" s="2"/>
-    </row>
-    <row r="998" spans="10:10">
-      <c r="J998" s="2"/>
-    </row>
-    <row r="999" spans="10:10">
-      <c r="J999" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/master-qubit.xlsx
+++ b/data/master-qubit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D0DDB-CAFF-084C-8F61-0BEC7AA2FAAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827CF1F6-0AB5-5B4F-BA14-FDD1B6232833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
+    <workbookView xWindow="7100" yWindow="560" windowWidth="25560" windowHeight="14900" xr2:uid="{C961D9B2-DEF5-3E45-BFAA-11F0CD1F34D4}"/>
   </bookViews>
   <sheets>
     <sheet name="qubit-iso" sheetId="1" r:id="rId1"/>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EE0E31-7CFF-2843-B4D6-D974DF19D232}">
   <dimension ref="A1:U402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P165" sqref="P165"/>
+    <sheetView tabSelected="1" topLeftCell="F228" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13148,11 +13148,11 @@
         <v>332</v>
       </c>
       <c r="L234">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M234">
         <f>(F234)*(L234-G234)</f>
-        <v>371.8</v>
+        <v>314.60000000000002</v>
       </c>
       <c r="N234" t="s">
         <v>397</v>
@@ -13196,11 +13196,11 @@
         <v>332</v>
       </c>
       <c r="L235">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M235">
         <f t="shared" ref="M235:M254" si="9">(F235)*(L235-G235)</f>
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="N235" t="s">
         <v>397</v>
